--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1196.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1196.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8435655349597692</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04217827674798846</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04217827674798846</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06748524279678154</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06328615717561636</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01328615717561636</v>
+        <v>0.01395561592609819</v>
       </c>
       <c r="B65" t="n">
-        <v>0.009982099667469662</v>
+        <v>0.01048507459710798</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0006628833764674297</v>
+        <v>0.001790656364142482</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007698170088131732</v>
+        <v>0.0007808629342399052</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001560954803896231</v>
+        <v>0.005979681051456409</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007129282796090496</v>
+        <v>0.000771952485370467</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005401726253050965</v>
+        <v>0.009209833805743028</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.000709604717282312</v>
+        <v>0.0007745871603306046</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.005000000000000004</v>
+        <v>0.001790656364142482</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0005156088751289995</v>
+        <v>0.0007808629342399052</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.00224834473560287</v>
+        <v>0.003479710030338472</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001539634017626346</v>
+        <v>0.00156172586847981</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003148353572774661</v>
+        <v>0.01125530211415915</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001425856559218099</v>
+        <v>0.001543904970740934</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01032202690783621</v>
+        <v>0.01765073961277236</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001419209434564624</v>
+        <v>0.001549174320661209</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01212600817455606</v>
+        <v>0.003479710030338472</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001448573465640201</v>
+        <v>0.00156172586847981</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003701538868236105</v>
+        <v>0.005341851949159156</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00230945102643952</v>
+        <v>0.002342588802719715</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004739726365804268</v>
+        <v>0.01637885170649866</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002138784838827149</v>
+        <v>0.002315857456111401</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.0144464680038314</v>
+        <v>0.02536434970599111</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002128814151846936</v>
+        <v>0.002323761480991813</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01735380201528774</v>
+        <v>0.005341851949159156</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002172860198460301</v>
+        <v>0.002342588802719715</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006326741512198267</v>
+        <v>0.006851773071175717</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00332736655582322</v>
+        <v>0.003123451736959621</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.006012603242153969</v>
+        <v>0.02040231834686537</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002851713118436198</v>
+        <v>0.003087809941481868</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01876061558051223</v>
+        <v>0.03279229637030256</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002838418869129248</v>
+        <v>0.003098348641322418</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02286512514924027</v>
+        <v>0.006851773071175717</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002897146931280401</v>
+        <v>0.003123451736959621</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.00332736655582322</v>
+        <v>0.005259210526315786</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006326741512198267</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006032105399018016</v>
+        <v>0.008084164346959341</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003849085044065865</v>
+        <v>0.003904314671199526</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.007144514260992739</v>
+        <v>0.02399999999999997</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003564641398045248</v>
+        <v>0.003895711500974652</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02299999999999996</v>
+        <v>0.03847621189060979</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003803831512744119</v>
+        <v>0.003872935801653022</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02811598513480412</v>
+        <v>0.008084164346959341</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003621433664100501</v>
+        <v>0.003904314671199526</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006998177508014958</v>
+        <v>0.009113716727081222</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004618902052879039</v>
+        <v>0.004685177605439431</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008312989481489515</v>
+        <v>0.02590407956665247</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004277569677654298</v>
+        <v>0.004631714912222802</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02390010787454766</v>
+        <v>0.04195772855181623</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004257628303693872</v>
+        <v>0.004647522961983627</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03376238953036997</v>
+        <v>0.009113716727081222</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004345720396920602</v>
+        <v>0.004685177605439431</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007886665697833646</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005388719061692212</v>
+        <v>0.005259210526315786</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008999999999999994</v>
+        <v>0.0277675699053033</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.004733289473684207</v>
+        <v>0.005403667397593269</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02654494608773689</v>
+        <v>0.04499999999999998</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.004967233020976183</v>
+        <v>0.005201417004048582</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03826034589432853</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005070007129740702</v>
+        <v>0.005259210526315786</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009710443904274287</v>
+        <v>0.01088529449815583</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006158536070505385</v>
+        <v>0.006246903473919241</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009965165215401056</v>
+        <v>0.03010696372679486</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005703426236872397</v>
+        <v>0.006175619882963736</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02770264641210554</v>
+        <v>0.04660517408836357</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005676837738258496</v>
+        <v>0.006196697282644836</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04286586178507029</v>
+        <v>0.01088529449815583</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005794293862560802</v>
+        <v>0.006246903473919241</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009482386063137047</v>
+        <v>0.01155933440031973</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006928353079318559</v>
+        <v>0.007027766408159147</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01074088612642683</v>
+        <v>0.03116030230573302</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006416354516481447</v>
+        <v>0.006947572368334203</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02936403351064962</v>
+        <v>0.04867340402755477</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006386442455540808</v>
+        <v>0.00697128444297544</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04613494476098573</v>
+        <v>0.01155933440031973</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006518580595380902</v>
+        <v>0.007027766408159147</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01021536611022213</v>
+        <v>0.01225798366940663</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007698170088131731</v>
+        <v>0.007808629342399052</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01134973360069087</v>
+        <v>0.03250005124939426</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007129282796090496</v>
+        <v>0.007536358537769704</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03091993204636526</v>
+        <v>0.04976016140239692</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.00709604717282312</v>
+        <v>0.007745871603306045</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05104448657269034</v>
+        <v>0.01225798366940663</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007519711515223476</v>
+        <v>0.007808629342399052</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01192225798132971</v>
+        <v>0.0127971067749473</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008467987096944905</v>
+        <v>0.008589492276638957</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01181296134484693</v>
+        <v>0.03381005337242185</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.007842211075699546</v>
+        <v>0.008491477339075139</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03250005124939426</v>
+        <v>0.05104448657269034</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007678553981878567</v>
+        <v>0.008428687632448291</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05208994521740151</v>
+        <v>0.0127971067749473</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007967154061021104</v>
+        <v>0.008589492276638957</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01261593561225998</v>
+        <v>0.01319256818647246</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009237804105758078</v>
+        <v>0.009370355210878862</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01235182306554873</v>
+        <v>0.03463950272834937</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008555139355308597</v>
+        <v>0.009263429824445604</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03374068782112891</v>
+        <v>0.05173657344210464</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008515256607387743</v>
+        <v>0.009295045923967253</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05519962222950126</v>
+        <v>0.01319256818647246</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008691440793841205</v>
+        <v>0.009370355210878862</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01328615717561636</v>
+        <v>0.01395561592609819</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009982099667469662</v>
+        <v>0.01048507459710798</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01278757246945002</v>
+        <v>0.03555911641474674</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009268067634917646</v>
+        <v>0.01003538230981607</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03535540925037617</v>
+        <v>0.05380302386019276</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009224861324670056</v>
+        <v>0.01006963308429786</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05788297027572042</v>
+        <v>0.01395561592609819</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009415727526661304</v>
+        <v>0.01048507459710798</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01302473545672646</v>
+        <v>0.01401692719295394</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01077743812338442</v>
+        <v>0.01093208107935867</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0134414632632045</v>
+        <v>0.03726818977852511</v>
       </c>
       <c r="K79" t="n">
-        <v>0.009980995914526695</v>
+        <v>0.01080733479518654</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03729703104855445</v>
+        <v>0.05449719024566912</v>
       </c>
       <c r="M79" t="n">
-        <v>0.009934466041952366</v>
+        <v>0.01084422024462846</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06013211855156547</v>
+        <v>0.01401692719295394</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0101400142594814</v>
+        <v>0.01093208107935867</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01377002793984864</v>
+        <v>0.01467607114184989</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0115472551321976</v>
+        <v>0.01171294401359858</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01395561592609819</v>
+        <v>0.03816601816659562</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01048507459710798</v>
+        <v>0.01157928728055701</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03835759907954342</v>
+        <v>0.05651629467436126</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01064407075923468</v>
+        <v>0.01161880740495907</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0632391962525426</v>
+        <v>0.01467607114184989</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0108643009923015</v>
+        <v>0.01171294401359858</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01453838551666969</v>
+        <v>0.01513800949717868</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01231707214101077</v>
+        <v>0.01249380694783848</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01477585290709189</v>
+        <v>0.03915189692586954</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01140685247374479</v>
+        <v>0.01235123976592747</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04042915920722265</v>
+        <v>0.05815755922209664</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01135367547651699</v>
+        <v>0.01239339456528967</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06649633257415832</v>
+        <v>0.01513800949717868</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0115885877251216</v>
+        <v>0.01249380694783848</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01432302983938592</v>
+        <v>0.01540204558635419</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01308688914982394</v>
+        <v>0.01327466988207839</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01525919393284672</v>
+        <v>0.04042512140325802</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01211978075335384</v>
+        <v>0.01312319225129794</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04200375729547184</v>
+        <v>0.05891820596470271</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0120632801937993</v>
+        <v>0.01316798172562028</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06849565671191898</v>
+        <v>0.01540204558635419</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01231287445794171</v>
+        <v>0.01327466988207839</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01711718256019363</v>
+        <v>0.01606748273679032</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01385670615863712</v>
+        <v>0.01405553281631829</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01597727531170424</v>
+        <v>0.04158498694567225</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01283270903296289</v>
+        <v>0.01389514473666841</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04337343920817058</v>
+        <v>0.06089545697800697</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01277288491108162</v>
+        <v>0.01394256888595088</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07072929786133092</v>
+        <v>0.01606748273679032</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0130371611907618</v>
+        <v>0.01405553281631829</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01591406533128908</v>
+        <v>0.01653362427590092</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01462652316745029</v>
+        <v>0.0148363957505582</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01692285117589158</v>
+        <v>0.04213078890002339</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01354563731257195</v>
+        <v>0.01466709722203887</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04463025080919852</v>
+        <v>0.06258653433783695</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01348248962836393</v>
+        <v>0.01471715604628148</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07308938521790065</v>
+        <v>0.01653362427590092</v>
       </c>
       <c r="O84" t="n">
-        <v>0.0137614479235819</v>
+        <v>0.0148363957505582</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01670689980486858</v>
+        <v>0.01679977353109985</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01539634017626346</v>
+        <v>0.0156172586847981</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01768867565763574</v>
+        <v>0.04366182261322271</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01425856559218099</v>
+        <v>0.01543904970740934</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04646623796243532</v>
+        <v>0.06348866012002002</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01419209434564624</v>
+        <v>0.01549174320661209</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07616804797713433</v>
+        <v>0.01679977353109985</v>
       </c>
       <c r="O85" t="n">
-        <v>0.014485734656402</v>
+        <v>0.0156172586847981</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01748890763312842</v>
+        <v>0.01746523382980102</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01616615718507664</v>
+        <v>0.01639812161903801</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01826750288916379</v>
+        <v>0.04427738343218129</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01497149387179004</v>
+        <v>0.01621100219277981</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04767344653176062</v>
+        <v>0.06479905640038353</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01490169906292855</v>
+        <v>0.01626633036694269</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07805741533453864</v>
+        <v>0.01746523382980102</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0152100213892221</v>
+        <v>0.01639812161903801</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0202533104682649</v>
+        <v>0.01782930849941824</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01693597419388981</v>
+        <v>0.01717898455327791</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01925208700270281</v>
+        <v>0.04567676670381046</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01568442215139909</v>
+        <v>0.01698295467815028</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04914392238105403</v>
+        <v>0.06641494525475528</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01561130378021086</v>
+        <v>0.0170409175272733</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08054961648561965</v>
+        <v>0.01782930849941824</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01593430812204221</v>
+        <v>0.01717898455327791</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01999332996247427</v>
+        <v>0.01839130086736543</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01770579120270298</v>
+        <v>0.01795984748751782</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01993518213047987</v>
+        <v>0.04655926777502131</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01639735043100814</v>
+        <v>0.01775490716352074</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05066971137419518</v>
+        <v>0.06773354875896248</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01632090849749317</v>
+        <v>0.0178155046876039</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08293678062588394</v>
+        <v>0.01839130086736543</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01665859485486231</v>
+        <v>0.01795984748751782</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02170218776795287</v>
+        <v>0.01865051426105642</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01847560821151616</v>
+        <v>0.01874071042175772</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02080954240472203</v>
+        <v>0.04702418199272504</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01711027871061719</v>
+        <v>0.01852685964889121</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05194285937506374</v>
+        <v>0.06945208898883271</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01703051321477549</v>
+        <v>0.01859009184793451</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08441103695083785</v>
+        <v>0.01865051426105642</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01738288158768241</v>
+        <v>0.01874071042175772</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02137310553689696</v>
+        <v>0.01920625200790511</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01924542522032933</v>
+        <v>0.01952157335599763</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02146792195765636</v>
+        <v>0.04847080470383283</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01782320699022624</v>
+        <v>0.01929881213426168</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05375541224753932</v>
+        <v>0.07116778802019336</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0177401179320578</v>
+        <v>0.01936467900826511</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08616451465598779</v>
+        <v>0.01920625200790511</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01810716832050251</v>
+        <v>0.01952157335599763</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02099930492150284</v>
+        <v>0.01955781743532535</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0200152422291425</v>
+        <v>0.02030243629023753</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0221030749215099</v>
+        <v>0.04949843125525591</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01853613526983529</v>
+        <v>0.02007076461963214</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05479941585550155</v>
+        <v>0.07227786792887197</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01844972264934011</v>
+        <v>0.02013926616859572</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08838934293684003</v>
+        <v>0.01955781743532535</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01883145505332261</v>
+        <v>0.02030243629023753</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.0225740075739668</v>
+        <v>0.02010451387073102</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02078505923795568</v>
+        <v>0.02108329922447744</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02280775542850973</v>
+        <v>0.05020635699390544</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01924906354944434</v>
+        <v>0.02084271710500261</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05606691606283015</v>
+        <v>0.0744795507906959</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01915932736662242</v>
+        <v>0.02091385332892632</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08967765098890107</v>
+        <v>0.02010451387073102</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01955574178614271</v>
+        <v>0.02108329922447744</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02309043514648511</v>
+        <v>0.02064564464153601</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02155487624676885</v>
+        <v>0.02186416215871734</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02357471761088292</v>
+        <v>0.05069387726669267</v>
       </c>
       <c r="K93" t="n">
-        <v>0.01996199182905339</v>
+        <v>0.02161466959037308</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05714995873340462</v>
+        <v>0.07537005868149277</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01986893208390473</v>
+        <v>0.02168844048925693</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09112156800767712</v>
+        <v>0.02064564464153601</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02028002851896281</v>
+        <v>0.02186416215871734</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0235418092912541</v>
+        <v>0.02108051307515416</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02232469325558202</v>
+        <v>0.02264502509295725</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02429671560085653</v>
+        <v>0.05216028742052867</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02067492010866244</v>
+        <v>0.02238662207574355</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05794058973110469</v>
+        <v>0.07724661367709001</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02057853680118705</v>
+        <v>0.02246302764958753</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09221322318867486</v>
+        <v>0.02108051307515416</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02100431525178291</v>
+        <v>0.02264502509295725</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02392135166047003</v>
+        <v>0.02130842249899932</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0230945102643952</v>
+        <v>0.02342588802719715</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02476650353065762</v>
+        <v>0.05250488280232471</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02138784838827149</v>
+        <v>0.02315857456111401</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05873085491980998</v>
+        <v>0.07870643785331499</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02128814151846936</v>
+        <v>0.02323761480991814</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09364474572740039</v>
+        <v>0.02130842249899932</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02172860198460301</v>
+        <v>0.02342588802719715</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02522228390632922</v>
+        <v>0.02172867624048541</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02386432727320837</v>
+        <v>0.02420675096143706</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02517683553251326</v>
+        <v>0.05332695875899202</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02210077666788054</v>
+        <v>0.02393052704648448</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0595128001634001</v>
+        <v>0.08004675328599531</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02199774623575167</v>
+        <v>0.02401220197024874</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0945082648193602</v>
+        <v>0.02172867624048541</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02245288871742311</v>
+        <v>0.02420675096143706</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02343782768102792</v>
+        <v>0.02234057762702628</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02463414428202154</v>
+        <v>0.02498761389567697</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02562046573865054</v>
+        <v>0.05452581063744172</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02281370494748959</v>
+        <v>0.02470247953185494</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06047847132575476</v>
+        <v>0.08096478205095825</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02270735095303398</v>
+        <v>0.02478678913057935</v>
       </c>
       <c r="N97" t="n">
-        <v>0.0951959096600607</v>
+        <v>0.02234057762702628</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02317717545024321</v>
+        <v>0.02498761389567697</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02556120463676245</v>
+        <v>0.02264342998603577</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02540396129083471</v>
+        <v>0.02576847682991687</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02609014828129648</v>
+        <v>0.05510073378458499</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02352663322709864</v>
+        <v>0.02547443201722541</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06051991427075351</v>
+        <v>0.0830577462240315</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02341695567031629</v>
+        <v>0.02556137629090995</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09549980944500819</v>
+        <v>0.02264342998603577</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02390146218306331</v>
+        <v>0.02576847682991687</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02358795441707036</v>
+        <v>0.02313653664492782</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02617377829964789</v>
+        <v>0.02654933976415677</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02647863729267816</v>
+        <v>0.05595102354733303</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02423956150670769</v>
+        <v>0.02624638450259588</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06102917486227599</v>
+        <v>0.08382286788104243</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02412656038759861</v>
+        <v>0.02633596345124055</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09661209336970922</v>
+        <v>0.02313653664492782</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02462574891588341</v>
+        <v>0.02654933976415677</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02356121094375313</v>
+        <v>0.02341920093111621</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02694359530846106</v>
+        <v>0.02733020269839668</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02667868690502266</v>
+        <v>0.05687597527259711</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02495248978631674</v>
+        <v>0.02701833698796635</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06179829896420191</v>
+        <v>0.08595736909781854</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02483616510488092</v>
+        <v>0.02711055061157116</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09632489062966998</v>
+        <v>0.02341920093111621</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02535003564870351</v>
+        <v>0.02733020269839668</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02450168069471866</v>
+        <v>0.02369072617201488</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02771341231727423</v>
+        <v>0.02811106563263659</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02678305125055702</v>
+        <v>0.05717488430728834</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02566541806592579</v>
+        <v>0.02779028947333681</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06191933244041087</v>
+        <v>0.0868584719501872</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02554576982216323</v>
+        <v>0.02788513777190176</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09682265700719345</v>
+        <v>0.02369072617201488</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02607432238152361</v>
+        <v>0.02811106563263659</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02441225153199107</v>
+        <v>0.02405041569503767</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02848322932608741</v>
+        <v>0.02889192856687649</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02679177296131252</v>
+        <v>0.05804704599831789</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02637834634553484</v>
+        <v>0.02856224195870728</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06130103960975974</v>
+        <v>0.08862339851397599</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02625537453944554</v>
+        <v>0.02865972493223237</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09665904970854172</v>
+        <v>0.02405041569503767</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02679860911434371</v>
+        <v>0.02889192856687649</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02329581131759455</v>
+        <v>0.02459757282759846</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02925304633490058</v>
+        <v>0.02967279150111639</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0266483915520058</v>
+        <v>0.05859175569259703</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02709127462514389</v>
+        <v>0.02933419444407774</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06168844790224132</v>
+        <v>0.08984937086501227</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02696497925672785</v>
+        <v>0.02943431209256297</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09595090859353422</v>
+        <v>0.02459757282759846</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02752289584716381</v>
+        <v>0.02967279150111639</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02415524791355322</v>
+        <v>0.0247315008971111</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03002286334371375</v>
+        <v>0.0304536544353563</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02646458621380064</v>
+        <v>0.05930830873703688</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02780420290475293</v>
+        <v>0.03010614692944822</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06129103673210587</v>
+        <v>0.09103361107912361</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02767458397401017</v>
+        <v>0.03020889925289358</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09532628528249054</v>
+        <v>0.0247315008971111</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02824718257998391</v>
+        <v>0.0304536544353563</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02299344918189124</v>
+        <v>0.02515150323098948</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03079268035252692</v>
+        <v>0.03123451736959621</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02654422757999632</v>
+        <v>0.05949600047854872</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02851713118436199</v>
+        <v>0.03087809941481868</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06081590362711542</v>
+        <v>0.09117334123213744</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02838418869129248</v>
+        <v>0.03098348641322418</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09431323139573</v>
+        <v>0.02515150323098948</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02897146931280401</v>
+        <v>0.03123451736959621</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02481330298463273</v>
+        <v>0.02545688315664746</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0315624973613401</v>
+        <v>0.03201538030383611</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02619118628389212</v>
+        <v>0.06025412626404358</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02923005946397103</v>
+        <v>0.03165005190018915</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06077014611503193</v>
+        <v>0.09236578339988127</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02909379340857479</v>
+        <v>0.03175807357355478</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09273979855357223</v>
+        <v>0.02545688315664746</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02969575604562411</v>
+        <v>0.03201538030383611</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02261769718380187</v>
+        <v>0.02584694400149892</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03233231437015328</v>
+        <v>0.03279624323807601</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02620933295878738</v>
+        <v>0.0611819814404328</v>
       </c>
       <c r="K107" t="n">
-        <v>0.02994298774358009</v>
+        <v>0.03242200438555962</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05996086172361742</v>
+        <v>0.09420815965818252</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0298033981258571</v>
+        <v>0.03253266073388539</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09213403837633671</v>
+        <v>0.02584694400149892</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03042004277844421</v>
+        <v>0.03279624323807601</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02340951964142278</v>
+        <v>0.02592098909295772</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03310213137896645</v>
+        <v>0.03357710617231592</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02580253823798137</v>
+        <v>0.06107886135462753</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03065591602318914</v>
+        <v>0.03319395687093008</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05949514798063382</v>
+        <v>0.09529769208286865</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03051300284313941</v>
+        <v>0.033307247894216</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09042400248434296</v>
+        <v>0.02592098909295772</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03114432951126431</v>
+        <v>0.03357710617231592</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02319165821951963</v>
+        <v>0.02617832175843773</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03387194838777962</v>
+        <v>0.03435796910655583</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02557467275477339</v>
+        <v>0.06174406135353891</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03136884430279818</v>
+        <v>0.03396590935630055</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05938010241384314</v>
+        <v>0.09563160274976712</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03122260756042173</v>
+        <v>0.03408183505454659</v>
       </c>
       <c r="N109" t="n">
-        <v>0.08943774249791037</v>
+        <v>0.02617832175843773</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03186861624408441</v>
+        <v>0.03435796910655583</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02296700078011654</v>
+        <v>0.02661824532535284</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03464176539659279</v>
+        <v>0.03513883204079573</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02552960714246272</v>
+        <v>0.06197687678407821</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03208177258240724</v>
+        <v>0.03473786184167102</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05842282255100742</v>
+        <v>0.09680711373470541</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03193221227770403</v>
+        <v>0.0348564222148772</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08750331003735856</v>
+        <v>0.02661824532535284</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03259290297690452</v>
+        <v>0.03513883204079573</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02173843518523767</v>
+        <v>0.02674006312111689</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03541158240540596</v>
+        <v>0.03591969497503564</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02507121203434866</v>
+        <v>0.06297660299315652</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03279470086201628</v>
+        <v>0.03550981432704148</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05813040591988855</v>
+        <v>0.09712144711351106</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03264181699498635</v>
+        <v>0.03563100937520781</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08584875672300696</v>
+        <v>0.02674006312111689</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03331718970972462</v>
+        <v>0.03591969497503564</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02150884929690718</v>
+        <v>0.02694307847314376</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03618139941421914</v>
+        <v>0.03670055790927554</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0250033580637305</v>
+        <v>0.06334253532768511</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03350762914162533</v>
+        <v>0.03628176681241195</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05750995004824858</v>
+        <v>0.09817182496201149</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03335142171226866</v>
+        <v>0.03640559653553841</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08450213417517516</v>
+        <v>0.02694307847314376</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03404147644254472</v>
+        <v>0.03670055790927554</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02128113097714918</v>
+        <v>0.02702659470884729</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03695121642303231</v>
+        <v>0.03748142084351545</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02452991586390756</v>
+        <v>0.06337396913457516</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03422055742123439</v>
+        <v>0.03705371929778242</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05656855246384948</v>
+        <v>0.09935546935603418</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03406102642955097</v>
+        <v>0.03718018369586901</v>
       </c>
       <c r="N113" t="n">
-        <v>0.08359149401418259</v>
+        <v>0.02702659470884729</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03476576317536482</v>
+        <v>0.03748142084351545</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02105816808798786</v>
+        <v>0.02728991515564143</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03772103343184548</v>
+        <v>0.03826228377775535</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0244547560681791</v>
+        <v>0.06337019976073785</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03493348570084343</v>
+        <v>0.03782567178315289</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05641331069445327</v>
+        <v>0.09916960237140654</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03477063114683328</v>
+        <v>0.03795477085619962</v>
       </c>
       <c r="N114" t="n">
-        <v>0.08234488786034883</v>
+        <v>0.02728991515564143</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03549004990818491</v>
+        <v>0.03826228377775535</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02084284849144732</v>
+        <v>0.02743234314093997</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03849085044065866</v>
+        <v>0.03904314671199526</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02418174930984444</v>
+        <v>0.0638305225530843</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03564641398045248</v>
+        <v>0.03859762426852335</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05585132226782186</v>
+        <v>0.100011446083956</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0354802358641156</v>
+        <v>0.03872935801653023</v>
       </c>
       <c r="N115" t="n">
-        <v>0.08129036733399325</v>
+        <v>0.02743234314093997</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03621433664100501</v>
+        <v>0.03904314671199526</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02263806004955175</v>
+        <v>0.0275531819921568</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03926066744947183</v>
+        <v>0.03982400964623516</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02381476622220287</v>
+        <v>0.06435423285852584</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03635934226006153</v>
+        <v>0.03936957675389382</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05508968471171732</v>
+        <v>0.1000782225695102</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03618984058139791</v>
+        <v>0.03950394517686083</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07945598405543541</v>
+        <v>0.0275531819921568</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03693862337382511</v>
+        <v>0.03982400964623516</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02244669062432528</v>
+        <v>0.02765173503670582</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04003048445828501</v>
+        <v>0.04060487258047506</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02365767743855367</v>
+        <v>0.06454062602397354</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03707227053967058</v>
+        <v>0.04014152923926428</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05423549555390159</v>
+        <v>0.1005671539038965</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03689944529868022</v>
+        <v>0.04027853233719143</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07916978964499488</v>
+        <v>0.02765173503670582</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03766291010664521</v>
+        <v>0.04060487258047506</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02027162807779202</v>
+        <v>0.02772730560200087</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04080030146709818</v>
+        <v>0.04138573551471497</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02331435359219615</v>
+        <v>0.06448899739633865</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03778519881927963</v>
+        <v>0.04091348172463476</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05329585232213666</v>
+        <v>0.1016754621629424</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03760905001596253</v>
+        <v>0.04105311949752204</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0783598357229911</v>
+        <v>0.02772730560200087</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03838719683946532</v>
+        <v>0.04138573551471497</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02111576027197617</v>
+        <v>0.02777919701545584</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04157011847591136</v>
+        <v>0.04216659844895488</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02308866531642959</v>
+        <v>0.06459864232253235</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03849812709888868</v>
+        <v>0.04168543421000522</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05317785254418453</v>
+        <v>0.1013003694224754</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03831865473324485</v>
+        <v>0.04182770665785265</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07715417390974366</v>
+        <v>0.02777919701545584</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03911148357228542</v>
+        <v>0.04216659844895488</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02198197506890186</v>
+        <v>0.02791123185219636</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04233993548472453</v>
+        <v>0.04294746138319478</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02288448324455331</v>
+        <v>0.06500010249878851</v>
       </c>
       <c r="K120" t="n">
-        <v>0.03921105537849773</v>
+        <v>0.04245738669537569</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05268859374780718</v>
+        <v>0.1020889731453806</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03902825945052716</v>
+        <v>0.04260229381818325</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07738085582557186</v>
+        <v>0.02791123185219636</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03983577030510552</v>
+        <v>0.04294746138319478</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02187316033059322</v>
+        <v>0.02781101277805319</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0431097524935377</v>
+        <v>0.04372832431743469</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02270567800986657</v>
+        <v>0.06449893422405023</v>
       </c>
       <c r="K121" t="n">
-        <v>0.03992398365810678</v>
+        <v>0.04322933918074615</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05173517346076659</v>
+        <v>0.1019888692463123</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03973786416780947</v>
+        <v>0.04337688097851385</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07696725790486275</v>
+        <v>0.02781101277805319</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04056005703792562</v>
+        <v>0.04372832431743469</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01979220391907441</v>
+        <v>0.0277085897589406</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04387956950235087</v>
+        <v>0.04450918725167459</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0226561202456687</v>
+        <v>0.06459417070307288</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04063691193771583</v>
+        <v>0.04400129166611662</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05122468921082479</v>
+        <v>0.1017820047743258</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04044746888509178</v>
+        <v>0.04415146813884446</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07684265581060906</v>
+        <v>0.0277085897589406</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04128434377074572</v>
+        <v>0.04450918725167459</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02174199369636956</v>
+        <v>0.02780352232171558</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04464938651116404</v>
+        <v>0.0452900501859145</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02253968058525894</v>
+        <v>0.06466863086645236</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04134984021732488</v>
+        <v>0.04477324415148709</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05056423852574374</v>
+        <v>0.101159832146738</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0411570736023741</v>
+        <v>0.04492605529917506</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07713996698770836</v>
+        <v>0.02780352232171558</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04200863050356582</v>
+        <v>0.0452900501859145</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01972542665955311</v>
+        <v>0.02779585380414845</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04541920351997721</v>
+        <v>0.04607091312015441</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02236022966193665</v>
+        <v>0.06432344650665861</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04206276849693393</v>
+        <v>0.04554519663685756</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05066091893328539</v>
+        <v>0.1016226614229201</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0418666783196564</v>
+        <v>0.04570064245950567</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0778519022828712</v>
+        <v>0.02779585380414845</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04273291723638591</v>
+        <v>0.04607091312015441</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01975301299094016</v>
+        <v>0.02788562754400954</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04618902052879039</v>
+        <v>0.04685177605439431</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02232163810900109</v>
+        <v>0.0647591705874255</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04277569677654298</v>
+        <v>0.04631714912222802</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04992182796121175</v>
+        <v>0.1018707162318185</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04257628303693872</v>
+        <v>0.04647522961983627</v>
       </c>
       <c r="N125" t="n">
-        <v>0.07787117254280779</v>
+        <v>0.02788562754400954</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04345720396920601</v>
+        <v>0.04685177605439431</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02182929712660593</v>
+        <v>0.02787288687906921</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04695883753760357</v>
+        <v>0.04763263898863421</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02232639548824521</v>
+        <v>0.06467635607248687</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04348862505615203</v>
+        <v>0.04708910160759849</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04985406313728483</v>
+        <v>0.1013042202023798</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04328588775422103</v>
+        <v>0.04724981678016688</v>
       </c>
       <c r="N126" t="n">
-        <v>0.07779048861422883</v>
+        <v>0.02787288687906921</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04418149070202611</v>
+        <v>0.04763263898863421</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02094983437215954</v>
+        <v>0.02765767514709773</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04772865454641674</v>
+        <v>0.04841350192287412</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0222703019956202</v>
+        <v>0.06437555592557651</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04420155333576108</v>
+        <v>0.04786105409296896</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04986472198926661</v>
+        <v>0.1016233969635504</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04399549247150334</v>
+        <v>0.04802440394049748</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07900256134384448</v>
+        <v>0.02765767514709773</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04490577743484622</v>
+        <v>0.04841350192287412</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02111018003321009</v>
+        <v>0.02764003568586548</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04849847155522991</v>
+        <v>0.04919436485711402</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02255023603144361</v>
+        <v>0.06435732311042822</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04491448161537013</v>
+        <v>0.04863300657833942</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04946090204491907</v>
+        <v>0.1016284701442769</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04470509718878565</v>
+        <v>0.04879899110082809</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07940010157836547</v>
+        <v>0.02764003568586548</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04563006416766632</v>
+        <v>0.04919436485711402</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02230588941536671</v>
+        <v>0.02772001183314279</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04926828856404308</v>
+        <v>0.04997522779135393</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02256340433730462</v>
+        <v>0.06402221059077587</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04562740989497917</v>
+        <v>0.04940495906370989</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04985330234900376</v>
+        <v>0.1008196633735057</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04541470190606797</v>
+        <v>0.04957357826115869</v>
       </c>
       <c r="N129" t="n">
-        <v>0.079975820164502</v>
+        <v>0.02772001183314279</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04635435090048642</v>
+        <v>0.04997522779135393</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02053251782423848</v>
+        <v>0.02769764692669999</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05003810557285625</v>
+        <v>0.05075609072559383</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02260701365479247</v>
+        <v>0.06417077133035326</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04634033817458823</v>
+        <v>0.05017691154908036</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04947948709272962</v>
+        <v>0.1004972002801834</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04612430662335028</v>
+        <v>0.05034816542148929</v>
       </c>
       <c r="N130" t="n">
-        <v>0.08072242794896467</v>
+        <v>0.02769764692669999</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04707863763330652</v>
+        <v>0.05075609072559383</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02178562056543457</v>
+        <v>0.02767298430430738</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05080792258166943</v>
+        <v>0.05153695365983374</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02287827072549629</v>
+        <v>0.06390355829289421</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04705326645419728</v>
+        <v>0.05094886403445082</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05023823938178701</v>
+        <v>0.1011613044932565</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04683391134063258</v>
+        <v>0.0511227525818199</v>
       </c>
       <c r="N131" t="n">
-        <v>0.08223263577846379</v>
+        <v>0.02767298430430738</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04780292436612662</v>
+        <v>0.05153695365983374</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02206075294456407</v>
+        <v>0.02764606730373531</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0515777395904826</v>
+        <v>0.05231781659407365</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02297438229100533</v>
+        <v>0.06372112444213254</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04776619473380633</v>
+        <v>0.05172081651982129</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05061761766375983</v>
+        <v>0.1006121996416714</v>
       </c>
       <c r="M132" t="n">
-        <v>0.0475435160579149</v>
+        <v>0.0518973397421505</v>
       </c>
       <c r="N132" t="n">
-        <v>0.08269915449970988</v>
+        <v>0.02764606730373531</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04852721109894672</v>
+        <v>0.05231781659407365</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02235347026723609</v>
+        <v>0.02771693926275412</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05234755659929578</v>
+        <v>0.05309867952831354</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02329255509290878</v>
+        <v>0.06352402274180208</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04847912301341537</v>
+        <v>0.05249276900519176</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05080568038623209</v>
+        <v>0.1003501093543746</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04825312077519722</v>
+        <v>0.0526719269024811</v>
       </c>
       <c r="N133" t="n">
-        <v>0.08441469495941351</v>
+        <v>0.02771693926275412</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04925149783176682</v>
+        <v>0.05309867952831354</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02265932783905976</v>
+        <v>0.02758564351913413</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05311737360810895</v>
+        <v>0.05387954246255346</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0234299958727958</v>
+        <v>0.06291280615563669</v>
       </c>
       <c r="K134" t="n">
-        <v>0.04919205129302442</v>
+        <v>0.05326472149056223</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0510904859967877</v>
+        <v>0.1001752572603127</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04896272549247953</v>
+        <v>0.05344651406281171</v>
       </c>
       <c r="N134" t="n">
-        <v>0.08507196800428485</v>
+        <v>0.02758564351913413</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04997578456458692</v>
+        <v>0.05387954246255346</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02397388096564419</v>
+        <v>0.02745222341064568</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05388719061692213</v>
+        <v>0.05466040539679336</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02368391137225564</v>
+        <v>0.06288802764737009</v>
       </c>
       <c r="K135" t="n">
-        <v>0.04990497957263348</v>
+        <v>0.0540366739759327</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05236009294301058</v>
+        <v>0.1001878669884321</v>
       </c>
       <c r="M135" t="n">
-        <v>0.04967233020976183</v>
+        <v>0.05422110122314232</v>
       </c>
       <c r="N135" t="n">
-        <v>0.08666368448103445</v>
+        <v>0.02745222341064568</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05070007129740702</v>
+        <v>0.05466040539679336</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02229268495259848</v>
+        <v>0.02751672227505909</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0546570076257353</v>
+        <v>0.05544126833103327</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02415150833287746</v>
+        <v>0.0626502401807362</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05061790785224252</v>
+        <v>0.05480862646130316</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05250255967248479</v>
+        <v>0.09998816216767942</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05038193492704415</v>
+        <v>0.05499568838347293</v>
       </c>
       <c r="N136" t="n">
-        <v>0.08748255523637277</v>
+        <v>0.02751672227505909</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05142435803022712</v>
+        <v>0.05544126833103327</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02261129510553177</v>
+        <v>0.02737918345014471</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05542682463454847</v>
+        <v>0.05622213126527317</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02442999349625047</v>
+        <v>0.06279999671946881</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05133083613185158</v>
+        <v>0.05558057894667363</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05330594463279417</v>
+        <v>0.09997636642700103</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05109153964432647</v>
+        <v>0.05577027554380352</v>
       </c>
       <c r="N137" t="n">
-        <v>0.08852129111701024</v>
+        <v>0.02737918345014471</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05214864476304722</v>
+        <v>0.05622213126527317</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02392526673005316</v>
+        <v>0.02753965027367286</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05619664164336164</v>
+        <v>0.05700299419951307</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02471657360396384</v>
+        <v>0.06253785022730174</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05204376441146062</v>
+        <v>0.05635253143204409</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05445830627152271</v>
+        <v>0.09985270339534358</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05180114436160877</v>
+        <v>0.05654486270413413</v>
       </c>
       <c r="N138" t="n">
-        <v>0.08947260296965742</v>
+        <v>0.02753965027367286</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05287293149586732</v>
+        <v>0.05700299419951307</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02423015513177178</v>
+        <v>0.02739816608341385</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05696645865217481</v>
+        <v>0.05778385713375298</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0249084553976068</v>
+        <v>0.0621643536679688</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05275669269106967</v>
+        <v>0.05712448391741456</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0556477030362543</v>
+        <v>0.09921739670165336</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05251074907889108</v>
+        <v>0.05731944986446474</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09122920164102449</v>
+        <v>0.02739816608341385</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05359721822868743</v>
+        <v>0.05778385713375298</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02352151561629673</v>
+        <v>0.02725477421713804</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05773627566098799</v>
+        <v>0.05856472006799288</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02520284561876854</v>
+        <v>0.06178006000520381</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05346962097067873</v>
+        <v>0.05789643640278502</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05656219337457297</v>
+        <v>0.09867066997487706</v>
       </c>
       <c r="M140" t="n">
-        <v>0.0532203537961734</v>
+        <v>0.05809403702479534</v>
       </c>
       <c r="N140" t="n">
-        <v>0.09198379797782208</v>
+        <v>0.02725477421713804</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05432150496150751</v>
+        <v>0.05856472006799288</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02479490348923714</v>
+        <v>0.02720951801261576</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05850609266980116</v>
+        <v>0.05934558300223278</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02539695100903822</v>
+        <v>0.06118552220274062</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05418254925028778</v>
+        <v>0.05866838888815549</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05708983573406259</v>
+        <v>0.09891274684396112</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0539299585134557</v>
+        <v>0.05886862418512594</v>
       </c>
       <c r="N141" t="n">
-        <v>0.09302910282676058</v>
+        <v>0.02720951801261576</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05504579169432761</v>
+        <v>0.05934558300223278</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02604587405620212</v>
+        <v>0.02726244080761732</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05927590967861433</v>
+        <v>0.06012644593647269</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02578797831000509</v>
+        <v>0.060981293224313</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05489547752989683</v>
+        <v>0.05944034137352596</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05781868856230724</v>
+        <v>0.09814385093785205</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05463956323073802</v>
+        <v>0.05964321134545655</v>
       </c>
       <c r="N142" t="n">
-        <v>0.09395782703455041</v>
+        <v>0.02726244080761732</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05577007842714771</v>
+        <v>0.06012644593647269</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02426998262280078</v>
+        <v>0.02721358593991306</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0600457266874275</v>
+        <v>0.06090730887071261</v>
       </c>
       <c r="J143" t="n">
-        <v>0.0261731342632583</v>
+        <v>0.06086792603365485</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05560840580950586</v>
+        <v>0.06021229385889643</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0588368103068907</v>
+        <v>0.09776420588549628</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05534916794802033</v>
+        <v>0.06041779850578716</v>
       </c>
       <c r="N143" t="n">
-        <v>0.09516268144790208</v>
+        <v>0.02721358593991306</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05649436515996781</v>
+        <v>0.06090730887071261</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02446278449464225</v>
+        <v>0.02706299674727332</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06081554369624068</v>
+        <v>0.06168817180495251</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02634962561038708</v>
+        <v>0.06064597359449991</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05632133408911492</v>
+        <v>0.0609842463442669</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06003225941539697</v>
+        <v>0.09757403531584036</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05605877266530264</v>
+        <v>0.06119238566611776</v>
       </c>
       <c r="N144" t="n">
-        <v>0.09653637691352596</v>
+        <v>0.02706299674727332</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05721865189278792</v>
+        <v>0.06168817180495251</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02657231435123272</v>
+        <v>0.02711071656746844</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06158536070505385</v>
+        <v>0.06246903473919242</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02671465909298061</v>
+        <v>0.06031598887058209</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05703426236872397</v>
+        <v>0.06175619882963736</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06079309433541005</v>
+        <v>0.09747356285783082</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05676837738258496</v>
+        <v>0.06196697282644836</v>
       </c>
       <c r="N145" t="n">
-        <v>0.09757162427813243</v>
+        <v>0.02711071656746844</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05794293862560802</v>
+        <v>0.06246903473919242</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02477379794912567</v>
+        <v>0.02715678873826873</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06235517771386703</v>
+        <v>0.06324989767343232</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02696544145262809</v>
+        <v>0.05977852482563512</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05774719064833302</v>
+        <v>0.06252815131500783</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06170737351451386</v>
+        <v>0.0973630121404141</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05747798209986726</v>
+        <v>0.06274155998677897</v>
       </c>
       <c r="N146" t="n">
-        <v>0.09886113438843214</v>
+        <v>0.02715678873826873</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05866722535842812</v>
+        <v>0.06324989767343232</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02592643836604572</v>
+        <v>0.02690125659744451</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0631249947226802</v>
+        <v>0.06403076060767222</v>
       </c>
       <c r="J147" t="n">
-        <v>0.0269991794309187</v>
+        <v>0.05943413442339288</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05846011892794207</v>
+        <v>0.0633001038003783</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06246315540029232</v>
+        <v>0.09724260679253671</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05818758681714958</v>
+        <v>0.06351614714710957</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0992976180911353</v>
+        <v>0.02690125659744451</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05939151209124822</v>
+        <v>0.06403076060767222</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02507950661061692</v>
+        <v>0.02694416348276614</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06389481173149338</v>
+        <v>0.06481162354191213</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02721307976944166</v>
+        <v>0.05938337062758917</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05917304720755112</v>
+        <v>0.06407205628574876</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06284849844032944</v>
+        <v>0.09701257044314526</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0588971915344319</v>
+        <v>0.06429073430744019</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0998737862329524</v>
+        <v>0.02694416348276614</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06011579882406832</v>
+        <v>0.06481162354191213</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02623254621635938</v>
+        <v>0.02698555273200394</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06466462874030655</v>
+        <v>0.06559248647615203</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02740434920978617</v>
+        <v>0.05892678640195784</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05988597548716017</v>
+        <v>0.06484400877111923</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06355146108220908</v>
+        <v>0.09587312672118609</v>
       </c>
       <c r="M149" t="n">
-        <v>0.0596067962517142</v>
+        <v>0.06506532146777078</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1008823496605941</v>
+        <v>0.02698555273200394</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06084008555688842</v>
+        <v>0.06559248647615203</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02538510071679322</v>
+        <v>0.02692546768292825</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06543444574911972</v>
+        <v>0.06637334941039193</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02757019449354138</v>
+        <v>0.05866493471023265</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06059890376676922</v>
+        <v>0.06561596125648969</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06436010177351523</v>
+        <v>0.0955244992556058</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06031640096899652</v>
+        <v>0.06583990862810138</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1020889731453806</v>
+        <v>0.02692546768292825</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06156437228970852</v>
+        <v>0.06637334941039193</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02753671364543854</v>
+        <v>0.02686395167330938</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0662042627579329</v>
+        <v>0.06715421234463184</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02791123185219636</v>
+        <v>0.0580983685161475</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06131183204637827</v>
+        <v>0.06638791374186016</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06500010249878851</v>
+        <v>0.09556691167535081</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06102600568627883</v>
+        <v>0.066614495788432</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1025609650623723</v>
+        <v>0.02686395167330938</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06228865902252862</v>
+        <v>0.06715421234463184</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02668692853581542</v>
+        <v>0.02660104804091766</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06697407976674608</v>
+        <v>0.06793507527887176</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02782958227574121</v>
+        <v>0.05762764078343613</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06202476032598731</v>
+        <v>0.06715986622723064</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06516651162764234</v>
+        <v>0.09480058760936766</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06173561040356114</v>
+        <v>0.0673890829487626</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1036218388397692</v>
+        <v>0.02660104804091766</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06301294575534873</v>
+        <v>0.06793507527887176</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02583528892144397</v>
+        <v>0.02653680012352345</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06774389677555924</v>
+        <v>0.06871593821311166</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02815126672688884</v>
+        <v>0.05735330447583242</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06273768860559636</v>
+        <v>0.06793181871260111</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06545641653594961</v>
+        <v>0.09442575068660297</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06244521512084346</v>
+        <v>0.06816367010909319</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1040010804153354</v>
+        <v>0.02653680012352345</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06373723248816883</v>
+        <v>0.06871593821311166</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02598133833584433</v>
+        <v>0.02647125125889706</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06851371378437242</v>
+        <v>0.06949680114735156</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02827270403031298</v>
+        <v>0.05677591255707018</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06345061688520541</v>
+        <v>0.06870377119797157</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06514292508117289</v>
+        <v>0.09404262453600304</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06315481983812576</v>
+        <v>0.06893825726942381</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1051956794198588</v>
+        <v>0.02647125125889706</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06446151922098893</v>
+        <v>0.06949680114735156</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02712462031253657</v>
+        <v>0.02650444478480884</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06928353079318558</v>
+        <v>0.07027766408159146</v>
       </c>
       <c r="J155" t="n">
-        <v>0.0281937103555385</v>
+        <v>0.05649601799088325</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06416354516481447</v>
+        <v>0.06947572368334204</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06582574900113453</v>
+        <v>0.09455143278651446</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06386442455540807</v>
+        <v>0.06971284442975441</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1060026254841273</v>
+        <v>0.02650444478480884</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06518580595380903</v>
+        <v>0.07027766408159146</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02626467838504079</v>
+        <v>0.0265364240390291</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07005334780199876</v>
+        <v>0.07105852701583137</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02831410187209028</v>
+        <v>0.05581417374100542</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06487647344442352</v>
+        <v>0.0702476761687125</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06590460003365695</v>
+        <v>0.09405239906708379</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06457402927269039</v>
+        <v>0.07048743159008501</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1063189082389289</v>
+        <v>0.0265364240390291</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06591009268662913</v>
+        <v>0.07105852701583137</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02640105608687709</v>
+        <v>0.02636723235932817</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07082316481081193</v>
+        <v>0.07183938995007128</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02853369474949315</v>
+        <v>0.05603093277117049</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06558940172403256</v>
+        <v>0.07101962865408297</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06657918991656256</v>
+        <v>0.09384574700665738</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06528363398997269</v>
+        <v>0.07126201875041561</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1076415173150514</v>
+        <v>0.02636723235932817</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06663437941944923</v>
+        <v>0.07183938995007128</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0265332969515656</v>
+        <v>0.0262969130834764</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0715929818196251</v>
+        <v>0.07262025288431118</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02855230515727199</v>
+        <v>0.05504684804511237</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06630233000364162</v>
+        <v>0.07179158113945343</v>
       </c>
       <c r="L158" t="n">
-        <v>0.06624923038767383</v>
+        <v>0.09333170023418186</v>
       </c>
       <c r="M158" t="n">
-        <v>0.065993238707255</v>
+        <v>0.07203660591074622</v>
       </c>
       <c r="N158" t="n">
-        <v>0.108167442343283</v>
+        <v>0.0262969130834764</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06735866615226933</v>
+        <v>0.07262025288431118</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02766094451262641</v>
+        <v>0.02632550954924412</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07236279882843828</v>
+        <v>0.07340111581855108</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02866974926495162</v>
+        <v>0.0547624725265648</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06701525828325067</v>
+        <v>0.0725635336248239</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06701443318481304</v>
+        <v>0.09301048237860371</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06670284342453732</v>
+        <v>0.07281119307107682</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1085936729544112</v>
+        <v>0.02632550954924412</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06808295288508943</v>
+        <v>0.07340111581855108</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02778354230357963</v>
+        <v>0.02625306509440162</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07313261583725145</v>
+        <v>0.07418197875279098</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02878584324205698</v>
+        <v>0.05487835917926162</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06772818656285973</v>
+        <v>0.07333548611019436</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06697451004580268</v>
+        <v>0.09158231706886938</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06741244814181964</v>
+        <v>0.07358578023140744</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1100171987792244</v>
+        <v>0.02625306509440162</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06880723961790954</v>
+        <v>0.07418197875279098</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02690063385794533</v>
+        <v>0.02597962305671929</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07390243284606463</v>
+        <v>0.07496284168703089</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02900040325811286</v>
+        <v>0.05429506096693665</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06844111484246877</v>
+        <v>0.07410743859556483</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06702917270846515</v>
+        <v>0.09194742793392546</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06812205285910194</v>
+        <v>0.07436036739173803</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1110350094485104</v>
+        <v>0.02597962305671929</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06953152635072964</v>
+        <v>0.07496284168703089</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02701176270924366</v>
+        <v>0.02600522677396742</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07467224985487779</v>
+        <v>0.07574370462127081</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02911324548264413</v>
+        <v>0.05401313085332377</v>
       </c>
       <c r="K162" t="n">
-        <v>0.0691540431220778</v>
+        <v>0.0748793910809353</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06757813291062278</v>
+        <v>0.09160603860271826</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06883165757638426</v>
+        <v>0.07513495455206864</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1114440945930569</v>
+        <v>0.02600522677396742</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07025581308354972</v>
+        <v>0.07574370462127081</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02711647239099467</v>
+        <v>0.02592991958391636</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07544206686369097</v>
+        <v>0.07652456755551071</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02922418608517567</v>
+        <v>0.05333312180215669</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06986697140168686</v>
+        <v>0.07565134356630578</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06802110239009806</v>
+        <v>0.09125837270419451</v>
       </c>
       <c r="M163" t="n">
-        <v>0.06954126229366657</v>
+        <v>0.07590954171239925</v>
       </c>
       <c r="N163" t="n">
-        <v>0.112641443843652</v>
+        <v>0.02592991958391636</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07098009981636982</v>
+        <v>0.07652456755551071</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02721430643671852</v>
+        <v>0.02595374482433643</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07621188387250415</v>
+        <v>0.07730543048975061</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02943304123523234</v>
+        <v>0.05295558677716933</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07057989968129591</v>
+        <v>0.07642329605167623</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06785779288471333</v>
+        <v>0.09080465386730058</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07025086701094889</v>
+        <v>0.07668412887272984</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1130240468310836</v>
+        <v>0.02595374482433643</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07170438654918992</v>
+        <v>0.07730543048975061</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02830480837993526</v>
+        <v>0.02587674583299797</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07698170088131731</v>
+        <v>0.07808629342399051</v>
       </c>
       <c r="J165" t="n">
-        <v>0.029539627102339</v>
+        <v>0.05238107874209549</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07129282796090497</v>
+        <v>0.07719524853704671</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06828791613229104</v>
+        <v>0.089645105720983</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07096047172823119</v>
+        <v>0.07745871603306045</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1137888931861397</v>
+        <v>0.02587674583299797</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07242867328201003</v>
+        <v>0.07808629342399051</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02838752175416506</v>
+        <v>0.02569896594767131</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0777515178901305</v>
+        <v>0.07886715635823043</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02964375985602051</v>
+        <v>0.05220746907070997</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07200575624051402</v>
+        <v>0.07796720102241717</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06821118387065356</v>
+        <v>0.08887995189418824</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0716700764455135</v>
+        <v>0.07823330319339106</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1145329725396081</v>
+        <v>0.02569896594767131</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07315296001483013</v>
+        <v>0.07886715635823043</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02746199009292796</v>
+        <v>0.02572044850612677</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07852133489894367</v>
+        <v>0.07964801929247033</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0295452556658017</v>
+        <v>0.05220657916507551</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07271868452012306</v>
+        <v>0.07873915350778764</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06852730783762331</v>
+        <v>0.08890941601586289</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07237968116279582</v>
+        <v>0.07900789035372166</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1154532745222768</v>
+        <v>0.02572044850612677</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07387724674765023</v>
+        <v>0.07964801929247033</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0275277569297441</v>
+        <v>0.0256412368461347</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07929115190775685</v>
+        <v>0.08042888222671023</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02984393070120747</v>
+        <v>0.05167302276089117</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07343161279973212</v>
+        <v>0.0795111059931581</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06873599977102265</v>
+        <v>0.08843372171495334</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07308928588007813</v>
+        <v>0.07978247751405226</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1161467887649338</v>
+        <v>0.0256412368461347</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07460153348047033</v>
+        <v>0.08042888222671023</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02858436579813355</v>
+        <v>0.02536137430546542</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08006096891657001</v>
+        <v>0.08120974516095013</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02983960113176265</v>
+        <v>0.05070968522564065</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07414454107934117</v>
+        <v>0.08028305847852857</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06943697140867408</v>
+        <v>0.08815309262040616</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07379889059736044</v>
+        <v>0.08055706467438287</v>
       </c>
       <c r="N169" t="n">
-        <v>0.116810504898367</v>
+        <v>0.02536137430546542</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07532582021329043</v>
+        <v>0.08120974516095013</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02963136023161643</v>
+        <v>0.02528090422188925</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08083078592538319</v>
+        <v>0.08199060809519003</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02993208312699214</v>
+        <v>0.05021945192680771</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07485746935895021</v>
+        <v>0.08105501096389904</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06952993448839992</v>
+        <v>0.08696775236116783</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07450849531464276</v>
+        <v>0.08133165183471347</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1170414125533643</v>
+        <v>0.02528090422188925</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07605010694611053</v>
+        <v>0.08199060809519003</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02966828376371286</v>
+        <v>0.02539986634337972</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08160060293419635</v>
+        <v>0.08277147102942994</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03012119285642074</v>
+        <v>0.05030520823187595</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07557039763855926</v>
+        <v>0.08182696344926951</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06961460074802256</v>
+        <v>0.08677792456618483</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07521810003192507</v>
+        <v>0.08210623899504409</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1174365013607135</v>
+        <v>0.02539986634337972</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07677439367893063</v>
+        <v>0.08277147102942994</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02969467992794292</v>
+        <v>0.02531464708250206</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08237041994300953</v>
+        <v>0.08355233396366986</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03000674648957337</v>
+        <v>0.04926983950832917</v>
       </c>
       <c r="K172" t="n">
-        <v>0.0762833259181683</v>
+        <v>0.08259891593463997</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06999068192536445</v>
+        <v>0.08638383286440365</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07592770474920738</v>
+        <v>0.08288082615537468</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1178927609512027</v>
+        <v>0.02531464708250206</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07749868041175073</v>
+        <v>0.08355233396366986</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02971009225782673</v>
+        <v>0.02522212017960485</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08314023695182271</v>
+        <v>0.08433319689790976</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03018856019597486</v>
+        <v>0.04921623112365103</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07699625419777736</v>
+        <v>0.08337086842001044</v>
       </c>
       <c r="L173" t="n">
-        <v>0.069857889758248</v>
+        <v>0.08558570088477085</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07663730946648969</v>
+        <v>0.08365541331570529</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1193071809556198</v>
+        <v>0.02522212017960485</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07822296714457083</v>
+        <v>0.08433319689790976</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02971397103219715</v>
+        <v>0.02492240791704847</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08391005396063587</v>
+        <v>0.08511405983214966</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03036645014515009</v>
+        <v>0.04854726844532523</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07770918247738641</v>
+        <v>0.0841428209053809</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06991593598449555</v>
+        <v>0.08558375225623288</v>
       </c>
       <c r="M174" t="n">
-        <v>0.077346914183772</v>
+        <v>0.0844300004760359</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1189767510047527</v>
+        <v>0.02492240791704847</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07894725387739093</v>
+        <v>0.08511405983214966</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02770152397173425</v>
+        <v>0.02481563257719331</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08467987096944905</v>
+        <v>0.08589492276638956</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03034023250662388</v>
+        <v>0.04786583684083542</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07842211075699546</v>
+        <v>0.08491477339075137</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07006453234192961</v>
+        <v>0.0848536961770342</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07805651890105432</v>
+        <v>0.0852045876363665</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1193984607293894</v>
+        <v>0.02481563257719331</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07967154061021103</v>
+        <v>0.08589492276638956</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02967081197275831</v>
+        <v>0.0247019164423997</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08544968797826222</v>
+        <v>0.08667578570062946</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03030972344992112</v>
+        <v>0.04697482167766537</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07913503903660452</v>
+        <v>0.08568672587612185</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07040339056837247</v>
+        <v>0.08416800664322943</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07876612361833663</v>
+        <v>0.0859791747966971</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1199692997603178</v>
+        <v>0.0247019164423997</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08039582734303113</v>
+        <v>0.08667578570062946</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02962260149220163</v>
+        <v>0.02458138179502807</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0862195049870754</v>
+        <v>0.08745664863486938</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03037473914456669</v>
+        <v>0.04647710832329871</v>
       </c>
       <c r="K177" t="n">
-        <v>0.07984796731621356</v>
+        <v>0.08645867836149231</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07053222240164661</v>
+        <v>0.08352835981394569</v>
       </c>
       <c r="M177" t="n">
-        <v>0.07947572833561893</v>
+        <v>0.08675376195702771</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1207862577283257</v>
+        <v>0.02458138179502807</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08112011407585124</v>
+        <v>0.08745664863486938</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0275576589869965</v>
+        <v>0.02465415091743875</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08698932199588856</v>
+        <v>0.08823751156910928</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03043509576008541</v>
+        <v>0.04587558214521922</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08056089559582262</v>
+        <v>0.08723063084686278</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07085073957957436</v>
+        <v>0.08253647614950504</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08018533305290125</v>
+        <v>0.08752834911735831</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1204463242642012</v>
+        <v>0.02465415091743875</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08184440080867134</v>
+        <v>0.08823751156910928</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02947675091407523</v>
+        <v>0.02452034609199209</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08775913900470174</v>
+        <v>0.08901837450334918</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03059060946600216</v>
+        <v>0.04567312851091057</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08127382387543167</v>
+        <v>0.08800258333223324</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07095865383997821</v>
+        <v>0.0825940761102294</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08089493777018357</v>
+        <v>0.08830293627768893</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1206464889987321</v>
+        <v>0.02452034609199209</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08256868754149144</v>
+        <v>0.08901837450334918</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02838064373037015</v>
+        <v>0.02428008960104849</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08852895601351492</v>
+        <v>0.08979923743758909</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03054109643184177</v>
+        <v>0.0449726327878564</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0819867521550407</v>
+        <v>0.08877453581760371</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07105567692068049</v>
+        <v>0.08100288015644075</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08160454248746588</v>
+        <v>0.08907752343801952</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1213837415627066</v>
+        <v>0.02428008960104849</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08329297427431154</v>
+        <v>0.08979923743758909</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02827010389281352</v>
+        <v>0.02423350372696832</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08929877302232808</v>
+        <v>0.09058010037182899</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03058637282712917</v>
+        <v>0.04437698034354046</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08269968043464976</v>
+        <v>0.08954648830297418</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07074152055950361</v>
+        <v>0.08046460874846112</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08231414720474819</v>
+        <v>0.08985211059835012</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1216550715869122</v>
+        <v>0.02423350372696832</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08401726100713164</v>
+        <v>0.09058010037182899</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02914589785833771</v>
+        <v>0.02398071075211194</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09006859003114126</v>
+        <v>0.09136096330606891</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03072625482138916</v>
+        <v>0.04358905654544643</v>
       </c>
       <c r="K182" t="n">
-        <v>0.0834126087142588</v>
+        <v>0.09031844078834465</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07101589649427006</v>
+        <v>0.07988098234661239</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0830237519220305</v>
+        <v>0.09062669775868074</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1207467195256565</v>
+        <v>0.02398071075211194</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08474154773995174</v>
+        <v>0.09136096330606891</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02700879208387497</v>
+        <v>0.02382183295883973</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09083840703995442</v>
+        <v>0.09214182624030881</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03076055858414661</v>
+        <v>0.04301174676105804</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08412553699386786</v>
+        <v>0.09109039327371511</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07067851646280213</v>
+        <v>0.07925372141121673</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08373335663931281</v>
+        <v>0.09140128491901134</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1208856148218173</v>
+        <v>0.02382183295883973</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08546583447277183</v>
+        <v>0.09214182624030881</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02785955302635762</v>
+        <v>0.02355699262951204</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09160822404876762</v>
+        <v>0.09292268917454871</v>
       </c>
       <c r="J184" t="n">
-        <v>0.0307891002849264</v>
+        <v>0.04224793635785895</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08483846527347691</v>
+        <v>0.09186234575908558</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07092909220292229</v>
+        <v>0.07778454640259591</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08444296135659513</v>
+        <v>0.09217587207934193</v>
       </c>
       <c r="N184" t="n">
-        <v>0.120766775718046</v>
+        <v>0.02355699262951204</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08619012120559193</v>
+        <v>0.09292268917454871</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02769894714271796</v>
+        <v>0.02348631204648927</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09237804105758078</v>
+        <v>0.09370355210878861</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03091169609325338</v>
+        <v>0.04160051070333287</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08555139355308596</v>
+        <v>0.09263429824445604</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07086733545245288</v>
+        <v>0.07717517778107202</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08515256607387743</v>
+        <v>0.09295045923967254</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1204001600736434</v>
+        <v>0.02348631204648927</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08691440793841203</v>
+        <v>0.09370355210878861</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02752774088988832</v>
+        <v>0.02320991349213175</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09314785806639396</v>
+        <v>0.09448441504302851</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03082816217865239</v>
+        <v>0.04127235516496347</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08626432183269502</v>
+        <v>0.09340625072982651</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07099295794921637</v>
+        <v>0.07572733600696696</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08586217079115974</v>
+        <v>0.09372504640000315</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1192957257479099</v>
+        <v>0.02320991349213175</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08763869467123213</v>
+        <v>0.09448441504302851</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02834670072480099</v>
+        <v>0.02312791924879988</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09391767507520714</v>
+        <v>0.09526527797726843</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03073831471064832</v>
+        <v>0.04086635511023454</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08697725011230406</v>
+        <v>0.09417820321519697</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07100567143103514</v>
+        <v>0.07434274154060277</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08657177550844206</v>
+        <v>0.09449963356033375</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1183634306001464</v>
+        <v>0.02312791924879988</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08836298140405223</v>
+        <v>0.09526527797726843</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02815659310438824</v>
+        <v>0.02284045159885403</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0946874920840203</v>
+        <v>0.09604614091150833</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03094196985876602</v>
+        <v>0.04008539590662968</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08769017839191311</v>
+        <v>0.09495015570056745</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07089895601234286</v>
+        <v>0.07372311484230143</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08728138022572436</v>
+        <v>0.09527422072066435</v>
       </c>
       <c r="N188" t="n">
-        <v>0.118513232489653</v>
+        <v>0.02284045159885403</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08908726813687233</v>
+        <v>0.09604614091150833</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02795818448558245</v>
+        <v>0.02284763282465455</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09545730909283348</v>
+        <v>0.09682700384574824</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03083241515874598</v>
+        <v>0.04013236292163266</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08840310667152215</v>
+        <v>0.09572210818593792</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07114103656012688</v>
+        <v>0.07217017637238482</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08799098494300668</v>
+        <v>0.09604880788099496</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1167550892757307</v>
+        <v>0.02284763282465455</v>
       </c>
       <c r="O189" t="n">
-        <v>0.08981155486969243</v>
+        <v>0.09682700384574824</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02675224132531585</v>
+        <v>0.02264958520856182</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09622712610164665</v>
+        <v>0.09760786677998814</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03080214141412917</v>
+        <v>0.03921014152272712</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0891160349511312</v>
+        <v>0.09649406067130839</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07082955805623795</v>
+        <v>0.07098564659117507</v>
       </c>
       <c r="M190" t="n">
-        <v>0.088700589660289</v>
+        <v>0.09682339504132557</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1155989588176798</v>
+        <v>0.02264958520856182</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09053584160251253</v>
+        <v>0.09760786677998814</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02553953008052079</v>
+        <v>0.02244643103293621</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09699694311045982</v>
+        <v>0.09838872971422805</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03085196324300069</v>
+        <v>0.03942161707739678</v>
       </c>
       <c r="K191" t="n">
-        <v>0.08982896323074026</v>
+        <v>0.09726601315667885</v>
       </c>
       <c r="L191" t="n">
-        <v>0.0704669569070186</v>
+        <v>0.06997124595899418</v>
       </c>
       <c r="M191" t="n">
-        <v>0.08941019437757131</v>
+        <v>0.09759798220165618</v>
       </c>
       <c r="N191" t="n">
-        <v>0.114554798974801</v>
+        <v>0.02244643103293621</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09126012833533263</v>
+        <v>0.09838872971422805</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02532081720812958</v>
+        <v>0.02213829258013809</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09776676011927299</v>
+        <v>0.09916959264846796</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03078271506335899</v>
+        <v>0.03886918589071134</v>
       </c>
       <c r="K192" t="n">
-        <v>0.0905418915103493</v>
+        <v>0.09803796564204932</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07085566951881134</v>
+        <v>0.06902869493616376</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09011979909485363</v>
+        <v>0.09837256936198677</v>
       </c>
       <c r="N192" t="n">
-        <v>0.114132567606395</v>
+        <v>0.02213829258013809</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09198441506815273</v>
+        <v>0.09916959264846796</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02609686916507449</v>
+        <v>0.02192529213252783</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09853657712808617</v>
+        <v>0.09995045558270786</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03069523129320254</v>
+        <v>0.03873811147390005</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09125481978995835</v>
+        <v>0.09880991812741978</v>
       </c>
       <c r="L193" t="n">
-        <v>0.0701981322979586</v>
+        <v>0.06745971398300632</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09082940381213593</v>
+        <v>0.09914715652231738</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1120422225717621</v>
+        <v>0.02192529213252783</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09270870180097283</v>
+        <v>0.09995045558270786</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02486845240828786</v>
+        <v>0.02180755197246582</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09930639413689935</v>
+        <v>0.1007313185169478</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03049034635052979</v>
+        <v>0.03811982501608058</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09196774806956741</v>
+        <v>0.09958187061279025</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06969678165080292</v>
+        <v>0.06616602355984336</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09153900852941824</v>
+        <v>0.09992174368264799</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1108937217302032</v>
+        <v>0.02180755197246582</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09343298853379294</v>
+        <v>0.1007313185169478</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02463633339470196</v>
+        <v>0.02158519438231239</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1000762111457125</v>
+        <v>0.1015121814511877</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03036889465333924</v>
+        <v>0.03771361345520907</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09268067634917646</v>
+        <v>0.1003538230981607</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06975405398368678</v>
+        <v>0.0649493441269971</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09224861324670056</v>
+        <v>0.1006963308429786</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1098970229410186</v>
+        <v>0.02158519438231239</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09415727526661304</v>
+        <v>0.1015121814511877</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02540127858124913</v>
+        <v>0.02135834164442792</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1008460281545257</v>
+        <v>0.1022930443854276</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03013171061962933</v>
+        <v>0.03721876372924166</v>
       </c>
       <c r="K196" t="n">
-        <v>0.0933936046287855</v>
+        <v>0.1011257755835312</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06907238570295271</v>
+        <v>0.06351139614478962</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09295821796398286</v>
+        <v>0.1014709180033092</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1082620840635088</v>
+        <v>0.02135834164442792</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09488156199943314</v>
+        <v>0.1022930443854276</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02416405442486165</v>
+        <v>0.02102711604117281</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1016158451633389</v>
+        <v>0.1030739073196675</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03017962866739851</v>
+        <v>0.03713456277613442</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09410653290839456</v>
+        <v>0.1018977280689016</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06905421321494312</v>
+        <v>0.0626539000735426</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09366782268126517</v>
+        <v>0.1022455051636398</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1065988629569748</v>
+        <v>0.02102711604117281</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09560584873225324</v>
+        <v>0.1030739073196675</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02392542738247184</v>
+        <v>0.02069163985490738</v>
       </c>
       <c r="G198" t="n">
-        <v>0.102385662172152</v>
+        <v>0.1038547702539074</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0298134832146453</v>
+        <v>0.03716029753384353</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09481946118800359</v>
+        <v>0.1026696805542721</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06870197292600055</v>
+        <v>0.06127857637357825</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09437742739854749</v>
+        <v>0.1030200923239704</v>
       </c>
       <c r="N198" t="n">
-        <v>0.105117317480717</v>
+        <v>0.02069163985490738</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09633013546507334</v>
+        <v>0.1038547702539074</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.023686163911012</v>
+        <v>0.02045203536799205</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1031554791809652</v>
+        <v>0.1046356331881473</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02963410867936812</v>
+        <v>0.03699525494032502</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09553238946761265</v>
+        <v>0.1034416330396426</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06821810124246755</v>
+        <v>0.05897075074525898</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09508703211582981</v>
+        <v>0.103794679484301</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1038274054940357</v>
+        <v>0.02045203536799205</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09705442219789344</v>
+        <v>0.1046356331881473</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02444703046741444</v>
+        <v>0.02020842486278715</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1039252961897784</v>
+        <v>0.1054164961223872</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02944233947956548</v>
+        <v>0.03673872193353511</v>
       </c>
       <c r="K200" t="n">
-        <v>0.0962453177472217</v>
+        <v>0.1042135855250131</v>
       </c>
       <c r="L200" t="n">
-        <v>0.0674050345706865</v>
+        <v>0.05761972534205584</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09579663683311213</v>
+        <v>0.1045692666446316</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1020390848562319</v>
+        <v>0.02020842486278715</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09777870893071354</v>
+        <v>0.1054164961223872</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02520879350861145</v>
+        <v>0.02015499913693578</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1046951131985916</v>
+        <v>0.1061973590566271</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0294390100332358</v>
+        <v>0.03648998545142984</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09695824602683074</v>
+        <v>0.1049855380103835</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06686520931699996</v>
+        <v>0.05630125776880707</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09650624155039443</v>
+        <v>0.1053438538049622</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1009623134266059</v>
+        <v>0.02015499913693578</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09850299566353364</v>
+        <v>0.1061973590566271</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02297221949153533</v>
+        <v>0.01985399602915422</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1054649302074047</v>
+        <v>0.106978221990867</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02922495475837757</v>
+        <v>0.03564833243196538</v>
       </c>
       <c r="K202" t="n">
-        <v>0.0976711743064398</v>
+        <v>0.105757490495754</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06620106188775038</v>
+        <v>0.05326766432283281</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09721584626767674</v>
+        <v>0.1061184409652928</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09960704906445839</v>
+        <v>0.01985399602915422</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09922728239635374</v>
+        <v>0.106978221990867</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02473807487311842</v>
+        <v>0.01930712378268096</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1062347472162179</v>
+        <v>0.1077590849251069</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02900100807298925</v>
+        <v>0.0360130498130978</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09838410258604885</v>
+        <v>0.1065294429811245</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06541502868928031</v>
+        <v>0.05137126130145359</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09792545098495906</v>
+        <v>0.1068930281256234</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09748324962908989</v>
+        <v>0.01930712378268096</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09995156912917384</v>
+        <v>0.1077590849251069</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.023507126110293</v>
+        <v>0.01892457061634788</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1070045642250311</v>
+        <v>0.1085399478593468</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02876800439506931</v>
+        <v>0.03518342453278331</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09909703086565791</v>
+        <v>0.1073013954664949</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06490954612793223</v>
+        <v>0.04916436500198951</v>
       </c>
       <c r="M204" t="n">
-        <v>0.09863505570224136</v>
+        <v>0.107667615285954</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09660087297980102</v>
+        <v>0.01892457061634788</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1006758558619939</v>
+        <v>0.1085399478593468</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02428013965999139</v>
+        <v>0.01851652474898681</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1077743812338443</v>
+        <v>0.1093208107935867</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02832677814261619</v>
+        <v>0.03515874352897788</v>
       </c>
       <c r="K205" t="n">
-        <v>0.09980995914526695</v>
+        <v>0.1080733479518654</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06468705061004859</v>
+        <v>0.04669929172176107</v>
       </c>
       <c r="M205" t="n">
-        <v>0.09934466041952367</v>
+        <v>0.1084422024462846</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09516987697589241</v>
+        <v>0.01851652474898681</v>
       </c>
       <c r="O205" t="n">
-        <v>0.101400142594814</v>
+        <v>0.1093208107935867</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02405788197914588</v>
+        <v>0.01809317439942963</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1085441982426574</v>
+        <v>0.1101016737278266</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02827816373362842</v>
+        <v>0.0352382937396378</v>
       </c>
       <c r="K206" t="n">
-        <v>0.100522887424876</v>
+        <v>0.1088453004372359</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06364997854197191</v>
+        <v>0.04392835775808834</v>
       </c>
       <c r="M206" t="n">
-        <v>0.100054265136806</v>
+        <v>0.1092167896066152</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09420021947666457</v>
+        <v>0.01809317439942963</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1021244293276341</v>
+        <v>0.1101016737278266</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02284111952468877</v>
+        <v>0.01786470778650817</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1093140152514706</v>
+        <v>0.1108825366620665</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02802299558610441</v>
+        <v>0.03462136210271907</v>
       </c>
       <c r="K207" t="n">
-        <v>0.101235815704485</v>
+        <v>0.1096172529226063</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06350076633004464</v>
+        <v>0.04200387940829176</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1007638698540883</v>
+        <v>0.1099913767669459</v>
       </c>
       <c r="N207" t="n">
-        <v>0.0926018583414181</v>
+        <v>0.01786470778650817</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1028487160604542</v>
+        <v>0.1108825366620665</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02363023737556436</v>
+        <v>0.01744131312905436</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1100838322602838</v>
+        <v>0.1116633995963064</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02756210811804265</v>
+        <v>0.03440723555617783</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1019487439840941</v>
+        <v>0.1103892054079768</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06274185038060937</v>
+        <v>0.03967817296969156</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1014734745713706</v>
+        <v>0.1107659639272764</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09178475142945347</v>
+        <v>0.01744131312905436</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1035730027932743</v>
+        <v>0.1116633995963064</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02341951771641167</v>
+        <v>0.01703317864590001</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1108536492690969</v>
+        <v>0.1124442625305463</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02749633574744159</v>
+        <v>0.03439520103797025</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1026616722637032</v>
+        <v>0.1111611578933473</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06177566710000848</v>
+        <v>0.03670355473960807</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1021830792886529</v>
+        <v>0.111540551087607</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09045885660007141</v>
+        <v>0.01703317864590001</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1042972895260944</v>
+        <v>0.1124442625305463</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02120681209150199</v>
+        <v>0.01665049255587697</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1116234662779101</v>
+        <v>0.1132251254647862</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02702651289229971</v>
+        <v>0.03428454548605236</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1033746005433122</v>
+        <v>0.1119331103787177</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06110465289458455</v>
+        <v>0.03533234101536153</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1028926840059352</v>
+        <v>0.1123151382479377</v>
       </c>
       <c r="N210" t="n">
-        <v>0.08953413171257246</v>
+        <v>0.01665049255587697</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1050215762589145</v>
+        <v>0.1132251254647862</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02199212252960846</v>
+        <v>0.01620344307781714</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1123932832867233</v>
+        <v>0.1140059883990261</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02685347397061548</v>
+        <v>0.03397455583838038</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1040875288229212</v>
+        <v>0.1127050628640882</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06063124417068003</v>
+        <v>0.03371684809427228</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1036022887232175</v>
+        <v>0.1130897254082683</v>
       </c>
       <c r="N211" t="n">
-        <v>0.08922053462625723</v>
+        <v>0.01620344307781714</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1057458629917346</v>
+        <v>0.1140059883990261</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02177545105950419</v>
+        <v>0.01600221843055237</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1131631002955365</v>
+        <v>0.1147868513332661</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02657805340038734</v>
+        <v>0.03376451903291033</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1048004571025303</v>
+        <v>0.1134770153494587</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06005787733463741</v>
+        <v>0.03210939227366066</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1043118934404999</v>
+        <v>0.1138643125685989</v>
       </c>
       <c r="N212" t="n">
-        <v>0.08852802320042619</v>
+        <v>0.01600221843055237</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1064701497245547</v>
+        <v>0.1147868513332661</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02155679970996237</v>
+        <v>0.01575388979043821</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1139329173043496</v>
+        <v>0.115567714267506</v>
       </c>
       <c r="J213" t="n">
-        <v>0.0262010855996138</v>
+        <v>0.03335372200759842</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1055133853821393</v>
+        <v>0.1142489678348291</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05938698879279919</v>
+        <v>0.03086228985084688</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1050214981577822</v>
+        <v>0.1146388997289295</v>
       </c>
       <c r="N213" t="n">
-        <v>0.08806655529438007</v>
+        <v>0.01575388979043821</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1071944364573749</v>
+        <v>0.115567714267506</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02133617050975607</v>
+        <v>0.01542035263652808</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1147027343131628</v>
+        <v>0.1163485772017459</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02612340498629329</v>
+        <v>0.03304145170040071</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1062263136617484</v>
+        <v>0.1150209203201996</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05822101495150786</v>
+        <v>0.03047739713895031</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1057311028750645</v>
+        <v>0.1154134868892601</v>
       </c>
       <c r="N214" t="n">
-        <v>0.08764608876741931</v>
+        <v>0.01542035263652808</v>
       </c>
       <c r="O214" t="n">
-        <v>0.107918723190195</v>
+        <v>0.1163485772017459</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02111356548765847</v>
+        <v>0.01528758238921107</v>
       </c>
       <c r="G215" t="n">
-        <v>0.115472551321976</v>
+        <v>0.1171294401359858</v>
       </c>
       <c r="J215" t="n">
-        <v>0.0257458459784243</v>
+        <v>0.03312699504927336</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1069392419413575</v>
+        <v>0.11579287280557</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05816239221710592</v>
+        <v>0.03016102195121761</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1064407075923468</v>
+        <v>0.1161880740495907</v>
       </c>
       <c r="N215" t="n">
-        <v>0.08657658147884462</v>
+        <v>0.01528758238921107</v>
       </c>
       <c r="O215" t="n">
-        <v>0.108643009923015</v>
+        <v>0.1171294401359858</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01988898667244265</v>
+        <v>0.0150557349159663</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1162423683307892</v>
+        <v>0.1179103030702257</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02546924299400527</v>
+        <v>0.03270963899217244</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1076521702209665</v>
+        <v>0.1165648252909405</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05711355699593582</v>
+        <v>0.02905681334093962</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1071503123096291</v>
+        <v>0.1169626612099213</v>
       </c>
       <c r="N216" t="n">
-        <v>0.08622016602477872</v>
+        <v>0.0150557349159663</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1093672966558351</v>
+        <v>0.1179103030702257</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01966243609288182</v>
+        <v>0.01482496608427286</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1170121853396023</v>
+        <v>0.1186911660044656</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02519443045103467</v>
+        <v>0.03278867046705411</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1083650985005756</v>
+        <v>0.117336777776311</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05637694569434012</v>
+        <v>0.02836478307951634</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1078599170269114</v>
+        <v>0.1177372483702519</v>
       </c>
       <c r="N217" t="n">
-        <v>0.08617105222712002</v>
+        <v>0.01482496608427286</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1100915833886552</v>
+        <v>0.1186911660044656</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02143391577774904</v>
+        <v>0.01449543176160982</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1177820023484155</v>
+        <v>0.1194720289387055</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02502224276751101</v>
+        <v>0.0326633764118745</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1090780267801846</v>
+        <v>0.1181087302616815</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05615499471866131</v>
+        <v>0.02788494293834753</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1085695217441937</v>
+        <v>0.1185118355305825</v>
       </c>
       <c r="N218" t="n">
-        <v>0.08682489571620905</v>
+        <v>0.01449543176160982</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1108158701214753</v>
+        <v>0.1194720289387055</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02120342775581747</v>
+        <v>0.0141672878154563</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1185518193572287</v>
+        <v>0.1202528918729454</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02455351436143269</v>
+        <v>0.03213304376458961</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1097909550597937</v>
+        <v>0.1188806827470519</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05554561212996725</v>
+        <v>0.02711730468883328</v>
       </c>
       <c r="M219" t="n">
-        <v>0.109279126461476</v>
+        <v>0.1192864226909131</v>
       </c>
       <c r="N219" t="n">
-        <v>0.08678170431819482</v>
+        <v>0.0141672878154563</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1115401568542954</v>
+        <v>0.1202528918729454</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01897097405586028</v>
+        <v>0.01394069011329142</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1193216363660418</v>
+        <v>0.1210337548071853</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02448684470831498</v>
+        <v>0.03209695946315572</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1105038833394027</v>
+        <v>0.1196526352324224</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05492934850543896</v>
+        <v>0.02686188010237345</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1099887311787584</v>
+        <v>0.1200610098512437</v>
       </c>
       <c r="N220" t="n">
-        <v>0.08574148585922631</v>
+        <v>0.01394069011329142</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1122644435871155</v>
+        <v>0.1210337548071853</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01873655670665056</v>
+        <v>0.01391579452259423</v>
       </c>
       <c r="G221" t="n">
-        <v>0.120091453374855</v>
+        <v>0.1218146177414252</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02401350146387737</v>
+        <v>0.03205441044552887</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1112168116190117</v>
+        <v>0.1204245877177929</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0542037100086141</v>
+        <v>0.02681868095036799</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1106983358960407</v>
+        <v>0.1208355970115743</v>
       </c>
       <c r="N221" t="n">
-        <v>0.08570424816545225</v>
+        <v>0.01391579452259423</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1129887303199356</v>
+        <v>0.1218146177414252</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02050017773696147</v>
+        <v>0.01369275691084386</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1208612703836682</v>
+        <v>0.1225954806756651</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02393256939073934</v>
+        <v>0.03130468364966518</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1119297398986208</v>
+        <v>0.1211965402031633</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05356874304225911</v>
+        <v>0.02558771900421697</v>
       </c>
       <c r="M222" t="n">
-        <v>0.111407940613323</v>
+        <v>0.1216101841719049</v>
       </c>
       <c r="N222" t="n">
-        <v>0.08566999906302186</v>
+        <v>0.01369275691084386</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1137130170527557</v>
+        <v>0.1225954806756651</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02026183917556611</v>
+        <v>0.01337173314551937</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1216310873924814</v>
+        <v>0.123376343609905</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02344411946707231</v>
+        <v>0.03124706601352079</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1126426681782298</v>
+        <v>0.1219684926885338</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05252449400914036</v>
+        <v>0.02546900603532015</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1121175453306053</v>
+        <v>0.1223847713322355</v>
       </c>
       <c r="N223" t="n">
-        <v>0.08523874637808393</v>
+        <v>0.01337173314551937</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1144373037855758</v>
+        <v>0.123376343609905</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01802154305123765</v>
+        <v>0.0132528790940999</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1224009044012945</v>
+        <v>0.1241572065441449</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02314822267104767</v>
+        <v>0.03098084447505178</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1133555964578389</v>
+        <v>0.1227404451739043</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05217100931202417</v>
+        <v>0.02476255381507753</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1128271500478876</v>
+        <v>0.1231593584925661</v>
       </c>
       <c r="N224" t="n">
-        <v>0.08531049793678736</v>
+        <v>0.0132528790940999</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1151615905183959</v>
+        <v>0.1241572065441449</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01977929139274921</v>
+        <v>0.0130363506240645</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1231707214101077</v>
+        <v>0.1249380694783848</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02304494998083685</v>
+        <v>0.03080530597221434</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1140685247374479</v>
+        <v>0.1235123976592747</v>
       </c>
       <c r="L225" t="n">
-        <v>0.051708335353677</v>
+        <v>0.02466837411488904</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1135367547651699</v>
+        <v>0.1239339456528967</v>
       </c>
       <c r="N225" t="n">
-        <v>0.0852852615652811</v>
+        <v>0.0130363506240645</v>
       </c>
       <c r="O225" t="n">
-        <v>0.115885877251216</v>
+        <v>0.1249380694783848</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01953508622887392</v>
+        <v>0.01272230360289231</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1239405384189209</v>
+        <v>0.1257189324126247</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02253437237461121</v>
+        <v>0.0307197374429645</v>
       </c>
       <c r="K226" t="n">
-        <v>0.114781453017057</v>
+        <v>0.1242843501446452</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05103651853686517</v>
+        <v>0.02328647870615463</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1142463594824522</v>
+        <v>0.1247085328132273</v>
       </c>
       <c r="N226" t="n">
-        <v>0.08556304508971407</v>
+        <v>0.01272230360289231</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1166101639840361</v>
+        <v>0.1257189324126247</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01928892958838492</v>
+        <v>0.01251089389806241</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1247103554277341</v>
+        <v>0.1264997953468646</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02221656083054219</v>
+        <v>0.03042430843730803</v>
       </c>
       <c r="K227" t="n">
-        <v>0.115494381296666</v>
+        <v>0.1250563026300157</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05045560526435502</v>
+        <v>0.02291687936027426</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1149559641997345</v>
+        <v>0.1254831199735579</v>
       </c>
       <c r="N227" t="n">
-        <v>0.08484385633623526</v>
+        <v>0.01251089389806241</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1173344507168562</v>
+        <v>0.1264997953468646</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01704082350005533</v>
+        <v>0.01220227737705388</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1254801724365472</v>
+        <v>0.1272806582811045</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02189158632680119</v>
+        <v>0.03002351158606428</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1162073095762751</v>
+        <v>0.1258282551153861</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04946564193891309</v>
+        <v>0.0231595878486478</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1156655689170168</v>
+        <v>0.1262577071338885</v>
       </c>
       <c r="N228" t="n">
-        <v>0.08542770313099363</v>
+        <v>0.01220227737705388</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1180587374496763</v>
+        <v>0.1272806582811045</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01879076999265831</v>
+        <v>0.01199660990734584</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1262499894453604</v>
+        <v>0.1280615212153444</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0216595198415596</v>
+        <v>0.02931812308546558</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1169202378558841</v>
+        <v>0.1266002076007566</v>
       </c>
       <c r="L229" t="n">
-        <v>0.04846667496330564</v>
+        <v>0.02281461594267525</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1163751736342992</v>
+        <v>0.1270322942942191</v>
       </c>
       <c r="N229" t="n">
-        <v>0.08451459330013805</v>
+        <v>0.01199660990734584</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1187830241824964</v>
+        <v>0.1280615212153444</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01753877109496697</v>
+        <v>0.01179404735641736</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1270198064541736</v>
+        <v>0.1288423841495843</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02142043235298884</v>
+        <v>0.02910819014181251</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1176331661354932</v>
+        <v>0.1273721600861271</v>
       </c>
       <c r="L230" t="n">
-        <v>0.04815875074029896</v>
+        <v>0.02188197541375658</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1170847783515815</v>
+        <v>0.1278068814545497</v>
       </c>
       <c r="N230" t="n">
-        <v>0.08480453466981736</v>
+        <v>0.01179404735641736</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1195073109153165</v>
+        <v>0.1288423841495843</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01728482883575445</v>
+        <v>0.01159474559174756</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1277896234629868</v>
+        <v>0.1296232470838243</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02107439483926028</v>
+        <v>0.0288937599614057</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1183460944151022</v>
+        <v>0.1281441125714975</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04764191567265963</v>
+        <v>0.02196167803329163</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1177943830688638</v>
+        <v>0.1285814686148804</v>
       </c>
       <c r="N231" t="n">
-        <v>0.08459753506618067</v>
+        <v>0.01159474559174756</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1202315976481366</v>
+        <v>0.1296232470838243</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01802894524379391</v>
+        <v>0.01139886048081552</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1285594404717999</v>
+        <v>0.1304041100180642</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02062147827854537</v>
+        <v>0.02857487975054568</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1190590226947113</v>
+        <v>0.128916065056868</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04651621616315396</v>
+        <v>0.02145373557268038</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1185039877861461</v>
+        <v>0.1293560557752109</v>
       </c>
       <c r="N232" t="n">
-        <v>0.0842936023153768</v>
+        <v>0.01139886048081552</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1209558843809567</v>
+        <v>0.1304041100180642</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01777112234785844</v>
+        <v>0.01140654789110034</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1293292574806131</v>
+        <v>0.1311849729523041</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02016175364901546</v>
+        <v>0.02825159671553298</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1197719509743203</v>
+        <v>0.1296880175422385</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04618169861454827</v>
+        <v>0.0212581598033228</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1192135925034284</v>
+        <v>0.1301306429355416</v>
       </c>
       <c r="N233" t="n">
-        <v>0.08459274424355478</v>
+        <v>0.01140654789110034</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1216801711137768</v>
+        <v>0.1311849729523041</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01751136217672122</v>
+        <v>0.01121796369008113</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1300990744894263</v>
+        <v>0.131965835886544</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01979529192884201</v>
+        <v>0.02772395806266822</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1204848792539294</v>
+        <v>0.1304599700276089</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04503840942960896</v>
+        <v>0.02047496249661873</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1199231972207107</v>
+        <v>0.1309052300958722</v>
       </c>
       <c r="N234" t="n">
-        <v>0.0839949686768634</v>
+        <v>0.01121796369008113</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1224044578465969</v>
+        <v>0.131965835886544</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01524966675915534</v>
+        <v>0.01103326374523698</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1308688914982394</v>
+        <v>0.1327466988207839</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01952216409619641</v>
+        <v>0.02729201099825196</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1211978075335384</v>
+        <v>0.1312319225129794</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04468639501110244</v>
+        <v>0.02000415542396827</v>
       </c>
       <c r="M235" t="n">
-        <v>0.120632801937993</v>
+        <v>0.1316798172562028</v>
       </c>
       <c r="N235" t="n">
-        <v>0.08410028344145171</v>
+        <v>0.01103326374523698</v>
       </c>
       <c r="O235" t="n">
-        <v>0.123128744579417</v>
+        <v>0.1327466988207839</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01598603812393395</v>
+        <v>0.01085260392404696</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1316387085070526</v>
+        <v>0.1335275617550238</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01914244112925004</v>
+        <v>0.02755580272858468</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1219107358131475</v>
+        <v>0.1320038749983499</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04332570176179509</v>
+        <v>0.01924575035677117</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1213424066552753</v>
+        <v>0.1324544044165334</v>
       </c>
       <c r="N236" t="n">
-        <v>0.08450869636346869</v>
+        <v>0.01085260392404696</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1238530313122371</v>
+        <v>0.1335275617550238</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0147204782998302</v>
+        <v>0.0105761400939902</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1324085255158658</v>
+        <v>0.1343084246892637</v>
       </c>
       <c r="J237" t="n">
-        <v>0.0187561940061743</v>
+        <v>0.02661538045996709</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1226236640927565</v>
+        <v>0.1327758274837203</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04275637608445321</v>
+        <v>0.01979975906642756</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1220520113725577</v>
+        <v>0.133228991576864</v>
       </c>
       <c r="N237" t="n">
-        <v>0.08422021526906315</v>
+        <v>0.0105761400939902</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1245773180450572</v>
+        <v>0.1343084246892637</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01645298931561721</v>
+        <v>0.01050402812254578</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1331783425246789</v>
+        <v>0.1350892876235036</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01846349370514065</v>
+        <v>0.02647079139869962</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1233365923723656</v>
+        <v>0.1335477799690908</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04177846438184332</v>
+        <v>0.01856619332433712</v>
       </c>
       <c r="M238" t="n">
-        <v>0.12276161608984</v>
+        <v>0.1340035787371946</v>
       </c>
       <c r="N238" t="n">
-        <v>0.08373484798438408</v>
+        <v>0.01050402812254578</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1253016047778774</v>
+        <v>0.1350892876235036</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01418357320006811</v>
+        <v>0.0102364238771928</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1339481595334922</v>
+        <v>0.1358701505577435</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01796441120432045</v>
+        <v>0.02652208275108292</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1240495206519746</v>
+        <v>0.1343197324544613</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04109201305673171</v>
+        <v>0.01844506490190012</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1234712208071223</v>
+        <v>0.1347781658975252</v>
       </c>
       <c r="N239" t="n">
-        <v>0.08365260233558036</v>
+        <v>0.0102364238771928</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1260258915106975</v>
+        <v>0.1358701505577435</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01391223198195604</v>
+        <v>0.01017348322541036</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1347179765423053</v>
+        <v>0.1366510134919834</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01755901748188507</v>
+        <v>0.02566930172341755</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1247624489315837</v>
+        <v>0.1350916849398317</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04059706851188474</v>
+        <v>0.01823638557051616</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1241808255244046</v>
+        <v>0.1355527530578558</v>
       </c>
       <c r="N240" t="n">
-        <v>0.08347348614880101</v>
+        <v>0.01017348322541036</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1267501782435176</v>
+        <v>0.1366510134919834</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01363896769005414</v>
+        <v>0.009915362034677536</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1354877935511185</v>
+        <v>0.1374318764262233</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01724738351600599</v>
+        <v>0.02581249552200401</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1254753772111927</v>
+        <v>0.1358636374252022</v>
       </c>
       <c r="L241" t="n">
-        <v>0.03999367715006882</v>
+        <v>0.01834016710158548</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1248904302416869</v>
+        <v>0.1363273402181864</v>
       </c>
       <c r="N241" t="n">
-        <v>0.08439750725019485</v>
+        <v>0.009915362034677536</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1274744649763377</v>
+        <v>0.1374318764262233</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01336378235313553</v>
+        <v>0.009762216172473449</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1362576105599317</v>
+        <v>0.1382127393604632</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01682958028485457</v>
+        <v>0.02545171135314298</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1261883054908018</v>
+        <v>0.1366355899105727</v>
       </c>
       <c r="L242" t="n">
-        <v>0.03858188537405038</v>
+        <v>0.01735642126650777</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1256000349589692</v>
+        <v>0.137101927378517</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08352467346591086</v>
+        <v>0.009762216172473449</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1281987517091578</v>
+        <v>0.1382127393604632</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01308667799997336</v>
+        <v>0.00961420150627719</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1370274275687448</v>
+        <v>0.1389936022947031</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01620567876660221</v>
+        <v>0.0249869964231349</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1269012337704108</v>
+        <v>0.1374075423959431</v>
       </c>
       <c r="L243" t="n">
-        <v>0.03816173958659569</v>
+        <v>0.01768515983668312</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1263096396762515</v>
+        <v>0.1378765145388476</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08405499262209815</v>
+        <v>0.00961420150627719</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1289230384419779</v>
+        <v>0.1389936022947031</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01280765665934076</v>
+        <v>0.009371473903567851</v>
       </c>
       <c r="G244" t="n">
-        <v>0.137797244577558</v>
+        <v>0.139774465228943</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01577574993942032</v>
+        <v>0.02431839793828036</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1276141620500199</v>
+        <v>0.1381794948813136</v>
       </c>
       <c r="L244" t="n">
-        <v>0.03723328619047123</v>
+        <v>0.01712639458351145</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1270192443935338</v>
+        <v>0.1386511016991782</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08328847254490535</v>
+        <v>0.009371473903567851</v>
       </c>
       <c r="O244" t="n">
-        <v>0.129647325174798</v>
+        <v>0.139774465228943</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01452672036001085</v>
+        <v>0.009334189231824511</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1385670615863712</v>
+        <v>0.1405553281631829</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01533986478148033</v>
+        <v>0.02374596310488003</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1283270903296289</v>
+        <v>0.1389514473666841</v>
       </c>
       <c r="L245" t="n">
-        <v>0.03669657158844331</v>
+        <v>0.01648013727839259</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1277288491108161</v>
+        <v>0.1394256888595088</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08372512106048158</v>
+        <v>0.009334189231824511</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1303716119076181</v>
+        <v>0.1405553281631829</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01224387113075678</v>
+        <v>0.009202503358526293</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1393368785951843</v>
+        <v>0.1413361910974228</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01489809427095362</v>
+        <v>0.02386973912923437</v>
       </c>
       <c r="K246" t="n">
-        <v>0.129040018609238</v>
+        <v>0.1397233998520545</v>
       </c>
       <c r="L246" t="n">
-        <v>0.03545164218327834</v>
+        <v>0.01684639969272655</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1284384538280985</v>
+        <v>0.1402002760198394</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08356494599497571</v>
+        <v>0.009202503358526293</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1310958986404382</v>
+        <v>0.1413361910974228</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01295911100035167</v>
+        <v>0.009076572151152283</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1401066956039975</v>
+        <v>0.1421170540316627</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01445050938601161</v>
+        <v>0.023289773217644</v>
       </c>
       <c r="K247" t="n">
-        <v>0.129752946888847</v>
+        <v>0.140495352337425</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03459854437774271</v>
+        <v>0.01642519359791339</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1291480585453808</v>
+        <v>0.14097486318017</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08400795517453674</v>
+        <v>0.009076572151152283</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1318201853732583</v>
+        <v>0.1421170540316627</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01367244199756865</v>
+        <v>0.008956551477181579</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1408765126128107</v>
+        <v>0.1428979169659026</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01409718110482569</v>
+        <v>0.02320611257640939</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1304658751684561</v>
+        <v>0.1412673048227955</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03353732457460282</v>
+        <v>0.01651653076535281</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1298576632626631</v>
+        <v>0.1417494503405006</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08315415642531349</v>
+        <v>0.008956551477181579</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1325444721060784</v>
+        <v>0.1428979169659026</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.0133838661511809</v>
+        <v>0.008942597204093281</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1416463296216239</v>
+        <v>0.1436787799001426</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01353818040556724</v>
+        <v>0.02221880441183127</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1311788034480651</v>
+        <v>0.1420392573081659</v>
       </c>
       <c r="L249" t="n">
-        <v>0.032768029176625</v>
+        <v>0.016120422966445</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1305672679799454</v>
+        <v>0.1425240375008312</v>
       </c>
       <c r="N249" t="n">
-        <v>0.0837035575734551</v>
+        <v>0.008942597204093281</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1332687588388985</v>
+        <v>0.1436787799001426</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01109338548996148</v>
+        <v>0.008834865199366465</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1424161466304371</v>
+        <v>0.1444596428343825</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01327357826640771</v>
+        <v>0.02242789593021005</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1318917317276742</v>
+        <v>0.1428112097935364</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03199070458657563</v>
+        <v>0.01623688197258966</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1312768726972277</v>
+        <v>0.1432986246611618</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08335616644511029</v>
+        <v>0.008834865199366465</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1339930455717186</v>
+        <v>0.1444596428343825</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01080100204268359</v>
+        <v>0.008733511330480247</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1431859636392502</v>
+        <v>0.1452405057686224</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01280344566551847</v>
+        <v>0.02153343433784641</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1326046600072832</v>
+        <v>0.1435831622789069</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03130539720722111</v>
+        <v>0.01556591955518688</v>
       </c>
       <c r="M251" t="n">
-        <v>0.13198647741451</v>
+        <v>0.1440732118214924</v>
       </c>
       <c r="N251" t="n">
-        <v>0.08331199086642804</v>
+        <v>0.008733511330480247</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1347173323045387</v>
+        <v>0.1452405057686224</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01250671783812033</v>
+        <v>0.008538691464913706</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1439557806480634</v>
+        <v>0.1460213687028623</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01232785358107095</v>
+        <v>0.02153546684104082</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1333175882868923</v>
+        <v>0.1443551147642773</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03021215344132783</v>
+        <v>0.01530754748563656</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1326960821317923</v>
+        <v>0.144847798981823</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08377103866355734</v>
+        <v>0.008538691464913706</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1354416190373588</v>
+        <v>0.1460213687028623</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01221053490504485</v>
+        <v>0.008350561470145963</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1447255976568766</v>
+        <v>0.1468022316371022</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01184687299123654</v>
+        <v>0.02113404064609392</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1340305165665013</v>
+        <v>0.1451270672496478</v>
       </c>
       <c r="L253" t="n">
-        <v>0.02971101969166215</v>
+        <v>0.01536177753533857</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1334056868490746</v>
+        <v>0.1456223861421536</v>
       </c>
       <c r="N253" t="n">
-        <v>0.08323331766264708</v>
+        <v>0.008350561470145963</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1361659057701789</v>
+        <v>0.1468022316371022</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01191245527223026</v>
+        <v>0.008369277213656087</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1454954146656897</v>
+        <v>0.1475830945713421</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01136057487418664</v>
+        <v>0.0206292029593062</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1347434448461104</v>
+        <v>0.1458990197350183</v>
       </c>
       <c r="L254" t="n">
-        <v>0.02880204236099043</v>
+        <v>0.01522862147569293</v>
       </c>
       <c r="M254" t="n">
-        <v>0.134115291566357</v>
+        <v>0.1463969733024842</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08309883568984616</v>
+        <v>0.008369277213656087</v>
       </c>
       <c r="O254" t="n">
-        <v>0.136890192502999</v>
+        <v>0.1475830945713421</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.00961248096844973</v>
+        <v>0.008194994562923205</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1462652316745029</v>
+        <v>0.148363957505582</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01076903020809265</v>
+        <v>0.02012100098697833</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1354563731257195</v>
+        <v>0.1466709722203887</v>
       </c>
       <c r="L255" t="n">
-        <v>0.0277852678520791</v>
+        <v>0.01480809107809955</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1348248962836393</v>
+        <v>0.1471715604628149</v>
       </c>
       <c r="N255" t="n">
-        <v>0.08266760057130362</v>
+        <v>0.008194994562923205</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1376144792358191</v>
+        <v>0.148363957505582</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.009310614022476356</v>
+        <v>0.008227869385426384</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1470350486833161</v>
+        <v>0.1491448204398219</v>
       </c>
       <c r="J256" t="n">
-        <v>0.010272309971126</v>
+        <v>0.01980948193541082</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1361693014053285</v>
+        <v>0.1474429247057592</v>
       </c>
       <c r="L256" t="n">
-        <v>0.02676074256769451</v>
+        <v>0.01560019811395841</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1355345010009216</v>
+        <v>0.1479461476231455</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08343962013316841</v>
+        <v>0.008227869385426384</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1383387659686392</v>
+        <v>0.1491448204398219</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.009006856463083295</v>
+        <v>0.008268057548644729</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1478048656921293</v>
+        <v>0.1499256833740618</v>
       </c>
       <c r="J257" t="n">
-        <v>0.00977048514145807</v>
+        <v>0.01939469301090418</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1368822296849375</v>
+        <v>0.1482148771911297</v>
       </c>
       <c r="L257" t="n">
-        <v>0.02552851291060307</v>
+        <v>0.01550495435466936</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1362441057182039</v>
+        <v>0.1487207347834761</v>
       </c>
       <c r="N257" t="n">
-        <v>0.08261490220158924</v>
+        <v>0.008268057548644729</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1390630527014593</v>
+        <v>0.1499256833740618</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.008701210319043674</v>
+        <v>0.008115714920057346</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1485746827009424</v>
+        <v>0.1507065463083017</v>
       </c>
       <c r="J258" t="n">
-        <v>0.009363626697260284</v>
+        <v>0.01887668141975909</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1375951579645466</v>
+        <v>0.1489868296765001</v>
       </c>
       <c r="L258" t="n">
-        <v>0.02458862528357106</v>
+        <v>0.01472237157163248</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1369537104354862</v>
+        <v>0.1494953219438067</v>
       </c>
       <c r="N258" t="n">
-        <v>0.08259345460271522</v>
+        <v>0.008115714920057346</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1397873394342793</v>
+        <v>0.1507065463083017</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.009393677619130639</v>
+        <v>0.008070997367143312</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1493444997097556</v>
+        <v>0.1514874092425416</v>
       </c>
       <c r="J259" t="n">
-        <v>0.008851805616704032</v>
+        <v>0.018755494368276</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1383080862441556</v>
+        <v>0.1497587821618706</v>
       </c>
       <c r="L259" t="n">
-        <v>0.02384112608936498</v>
+        <v>0.01535246153624747</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1376633151527685</v>
+        <v>0.1502699091041373</v>
       </c>
       <c r="N259" t="n">
-        <v>0.08337528516269532</v>
+        <v>0.008070997367143312</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1405116261670994</v>
+        <v>0.1514874092425416</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01008426039211729</v>
+        <v>0.00793406075738174</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1501143167185688</v>
+        <v>0.1522682721767815</v>
       </c>
       <c r="J260" t="n">
-        <v>0.00823509287796071</v>
+        <v>0.01793117906275554</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1390210145237647</v>
+        <v>0.1505307346472411</v>
       </c>
       <c r="L260" t="n">
-        <v>0.02308606173075117</v>
+        <v>0.01439523601991444</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1383729198700508</v>
+        <v>0.1510444962644679</v>
       </c>
       <c r="N260" t="n">
-        <v>0.08286040170767833</v>
+        <v>0.00793406075738174</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1412359128999195</v>
+        <v>0.1522682721767815</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.00777296066677681</v>
+        <v>0.008105060958251725</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1508841337273819</v>
+        <v>0.1530491351110214</v>
       </c>
       <c r="J261" t="n">
-        <v>0.007713559459201741</v>
+        <v>0.01770378270949827</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1397339428033737</v>
+        <v>0.1513026871326116</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02182347861049597</v>
+        <v>0.01475070679403334</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1390825245873331</v>
+        <v>0.1518190834247985</v>
       </c>
       <c r="N261" t="n">
-        <v>0.08334881206381334</v>
+        <v>0.008105060958251725</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1419601996327396</v>
+        <v>0.1530491351110214</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.009459780471882298</v>
+        <v>0.007884153837232365</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1516539507361951</v>
+        <v>0.1538299980452613</v>
       </c>
       <c r="J262" t="n">
-        <v>0.007287276338598492</v>
+        <v>0.01707335251480474</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1404468710829828</v>
+        <v>0.152074639617982</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02095342313136583</v>
+        <v>0.01501888563000409</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1397921293046155</v>
+        <v>0.1525936705851291</v>
       </c>
       <c r="N262" t="n">
-        <v>0.0831405240572492</v>
+        <v>0.007884153837232365</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1426844863655597</v>
+        <v>0.1538299980452613</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.007144721836206895</v>
+        <v>0.007971495261802727</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1524237677450083</v>
+        <v>0.1546108609795012</v>
       </c>
       <c r="J263" t="n">
-        <v>0.006756314494322423</v>
+        <v>0.01653993568497555</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1411597993625918</v>
+        <v>0.1528465921033525</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02027594169612706</v>
+        <v>0.01519978429922647</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1405017340218978</v>
+        <v>0.1533682577454597</v>
       </c>
       <c r="N263" t="n">
-        <v>0.08353554551413478</v>
+        <v>0.007971495261802727</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1434087730983798</v>
+        <v>0.1546108609795012</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.007827786788523736</v>
+        <v>0.007967241099441941</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1531935847538215</v>
+        <v>0.1553917239137411</v>
       </c>
       <c r="J264" t="n">
-        <v>0.006120744904544895</v>
+        <v>0.01640357942631121</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1418727276422009</v>
+        <v>0.1536185445887229</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0191910807075461</v>
+        <v>0.01429341457310068</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1412113387391801</v>
+        <v>0.1541428449057903</v>
       </c>
       <c r="N264" t="n">
-        <v>0.08283388426061911</v>
+        <v>0.007967241099441941</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1441330598312</v>
+        <v>0.1553917239137411</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1196.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1196.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8435655349597692</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04217827674798846</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04217827674798846</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06748524279678154</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08930696604879308</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01395561592609819</v>
+        <v>0.03930696604879308</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01048507459710798</v>
+        <v>0.02002518264069793</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001790656364142482</v>
+        <v>0.001263547208877072</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007808629342399052</v>
+        <v>0.0007069462892999791</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.005979681051456409</v>
+        <v>0.001461332811473856</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.000771952485370467</v>
+        <v>0.0007808629342399052</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.009209833805743028</v>
+        <v>0.005148034163340587</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007745871603306046</v>
+        <v>0.0007725727685463929</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001790656364142482</v>
+        <v>0.007652256215042952</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007808629342399052</v>
+        <v>0.0007730127105625626</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003479710030338472</v>
+        <v>0.002537774277239578</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.00156172586847981</v>
+        <v>0.001413892578599958</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01125530211415915</v>
+        <v>0.003249850938376979</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001543904970740934</v>
+        <v>0.00156172586847981</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01765073961277236</v>
+        <v>0.009802908550314654</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001549174320661209</v>
+        <v>0.001545145537092786</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.003479710030338472</v>
+        <v>0.0139245842210981</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00156172586847981</v>
+        <v>0.001546025421125125</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005341851949159156</v>
+        <v>0.003822390482059977</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002342588802719715</v>
+        <v>0.002120838867899938</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01637885170649866</v>
+        <v>0.004501889344191094</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002315857456111401</v>
+        <v>0.002342588802719715</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02536434970599111</v>
+        <v>0.01399999999999998</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002323761480991813</v>
+        <v>0.002337426900584793</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.005341851949159156</v>
+        <v>0.01800000000000002</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002342588802719715</v>
+        <v>0.001951871947911017</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006851773071175717</v>
+        <v>0.00511710510031075</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003123451736959621</v>
+        <v>0.002827785157199916</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02040231834686537</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003087809941481868</v>
+        <v>0.003155526315789473</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03279229637030256</v>
+        <v>0.01704193275835925</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003098348641322418</v>
+        <v>0.003090291074185572</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.006851773071175717</v>
+        <v>0.02539199702566852</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003123451736959621</v>
+        <v>0.00309205084225025</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.005259210526315786</v>
+        <v>0.01330946622329289</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.008084164346959341</v>
+        <v>0.006421627408964382</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003904314671199526</v>
+        <v>0.003534731446499895</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02399999999999997</v>
+        <v>0.00685151000935872</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003895711500974652</v>
+        <v>0.003904314671199526</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03847621189060979</v>
+        <v>0.02031329817961644</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003872935801653022</v>
+        <v>0.003862863842731965</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.008084164346959341</v>
+        <v>0.03100660112154746</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003904314671199526</v>
+        <v>0.003865063552812813</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.009113716727081222</v>
+        <v>0.007735666684993356</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004685177605439431</v>
+        <v>0.004241677735799875</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02590407956665247</v>
+        <v>0.008098548427373446</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004631714912222802</v>
+        <v>0.004685177605439431</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04195772855181623</v>
+        <v>0.0231645064362424</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004647522961983627</v>
+        <v>0.004635436611278357</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.009113716727081222</v>
+        <v>0.03549219071142751</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004685177605439431</v>
+        <v>0.004638076263375375</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.009058932205370143</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005259210526315786</v>
+        <v>0.004948624025099854</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0277675699053033</v>
+        <v>0.008991633998195886</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005403667397593269</v>
+        <v>0.005466040539679336</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04499999999999998</v>
+        <v>0.02603498025762666</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005201417004048582</v>
+        <v>0.00540800937982475</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.04025417706052398</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005259210526315786</v>
+        <v>0.005411088973937938</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01088529449815583</v>
+        <v>0.01039113324706722</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006246903473919241</v>
+        <v>0.005655570314399833</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.03010696372679486</v>
+        <v>0.009927318226457836</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006175619882963736</v>
+        <v>0.006246903473919241</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04660517408836357</v>
+        <v>0.02886414237315879</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006196697282644836</v>
+        <v>0.006180582148371143</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01088529449815583</v>
+        <v>0.04449797143405282</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006246903473919241</v>
+        <v>0.006184101684500501</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01155933440031973</v>
+        <v>0.01173197908705709</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007027766408159147</v>
+        <v>0.006362516603699813</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03116030230573302</v>
+        <v>0.01080215261679107</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006947572368334203</v>
+        <v>0.007027766408159147</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04867340402755477</v>
+        <v>0.03029141551222825</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.00697128444297544</v>
+        <v>0.006953154916917535</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01155933440031973</v>
+        <v>0.04692898509722943</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007027766408159147</v>
+        <v>0.006957114395063062</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01225798366940663</v>
+        <v>0.0130811790023122</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007808629342399052</v>
+        <v>0.007069462892999791</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
+        <v>0.01171268867382738</v>
+      </c>
+      <c r="K75" s="171" t="n">
+        <v>0.007808629342399052</v>
+      </c>
+      <c r="L75" s="172" t="n">
         <v>0.03250005124939426</v>
       </c>
-      <c r="K75" s="171" t="n">
-        <v>0.007536358537769704</v>
-      </c>
-      <c r="L75" s="172" t="n">
-        <v>0.04976016140239692</v>
-      </c>
       <c r="M75" s="170" t="n">
-        <v>0.007745871603306045</v>
+        <v>0.007751683067420267</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01225798366940663</v>
+        <v>0.05104448657269034</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007808629342399052</v>
+        <v>0.007907325510853552</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0127971067749473</v>
+        <v>0.01443844226980504</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008589492276638957</v>
+        <v>0.007776409182299771</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03381005337242185</v>
+        <v>0.01235547790219853</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008491477339075139</v>
+        <v>0.008589492276638957</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05104448657269034</v>
+        <v>0.03324254758437509</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008428687632448291</v>
+        <v>0.008498300454010321</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0127971067749473</v>
+        <v>0.05201618991993379</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008589492276638957</v>
+        <v>0.008503139816188188</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01319256818647246</v>
+        <v>0.01580347816650809</v>
       </c>
       <c r="G77" t="n">
+        <v>0.00848335547159975</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01302707180653631</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009370355210878862</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.03463950272834937</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009263429824445604</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.05173657344210464</v>
+        <v>0.03460751445476776</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009295045923967253</v>
+        <v>0.009270873222556713</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01319256818647246</v>
+        <v>0.05432526484858285</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009370355210878862</v>
+        <v>0.00927615252675075</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
+        <v>0.01717599596939384</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.00919030176089973</v>
+      </c>
+      <c r="J78" t="n">
         <v>0.01395561592609819</v>
       </c>
-      <c r="G78" t="n">
+      <c r="K78" t="n">
         <v>0.01048507459710798</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.03555911641474674</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01003538230981607</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.05380302386019276</v>
+        <v>0.03605109081930802</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01006963308429786</v>
+        <v>0.01004344599110311</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01395561592609819</v>
+        <v>0.05629993894666047</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01048507459710798</v>
+        <v>0.01004916523731331</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01401692719295394</v>
+        <v>0.01855570495543474</v>
       </c>
       <c r="G79" t="n">
+        <v>0.009897248050199708</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01425556922564954</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01093208107935867</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.03726818977852511</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01080733479518654</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.05449719024566912</v>
+        <v>0.03697296025680108</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01084422024462846</v>
+        <v>0.0108160187596495</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01401692719295394</v>
+        <v>0.05773972740121069</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01093208107935867</v>
+        <v>0.01082217794787588</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01467607114184989</v>
+        <v>0.0199423144016033</v>
       </c>
       <c r="G80" t="n">
+        <v>0.01060419433949969</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01467717372425731</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01171294401359858</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.03816601816659562</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01157928728055701</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.05651629467436126</v>
+        <v>0.0384728063460523</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01161880740495907</v>
+        <v>0.01158859152819589</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01467607114184989</v>
+        <v>0.05994414539927756</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01171294401359858</v>
+        <v>0.01159519065843844</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01513800949717868</v>
+        <v>0.02133553358487199</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01131114062879967</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0151953602729225</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01249380694783848</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.03915189692586954</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01235123976592747</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.05815755922209664</v>
+        <v>0.039550312665867</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01239339456528967</v>
+        <v>0.01236116429674229</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01513800949717868</v>
+        <v>0.06161270812790492</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01249380694783848</v>
+        <v>0.012368203369001</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01540204558635419</v>
+        <v>0.02273507178221329</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01201808691809965</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01580966626903209</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01327466988207839</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.04042512140325802</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01312319225129794</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.05891820596470271</v>
+        <v>0.04080516279505042</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01316798172562028</v>
+        <v>0.01313373706528868</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01540204558635419</v>
+        <v>0.06374493077413679</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01327466988207839</v>
+        <v>0.01314121607956356</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01606748273679032</v>
+        <v>0.02414063827059967</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01272503320739963</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01611962910997324</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01405553281631829</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.04158498694567225</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01389514473666841</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.06089545697800697</v>
+        <v>0.04173704031240791</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01394256888595088</v>
+        <v>0.01390630983383507</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01606748273679032</v>
+        <v>0.0649403285250173</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01405553281631829</v>
+        <v>0.01391422879012612</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01653362427590092</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01330946622329289</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01662478619313301</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.0148363957505582</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.04213078890002339</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01466709722203887</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.06258653433783695</v>
+        <v>0.04314562879674472</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01471715604628148</v>
+        <v>0.01467888260238146</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01653362427590092</v>
+        <v>0.06699841656759037</v>
       </c>
       <c r="O84" t="n">
-        <v>0.0148363957505582</v>
+        <v>0.01468724150068869</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01679977353109985</v>
+        <v>0.02705485541529247</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01413892578599958</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01712467491589847</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.0156172586847981</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.04366182261322271</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01543904970740934</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.06348866012002002</v>
+        <v>0.04413061182686617</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01549174320661209</v>
+        <v>0.01545145537092786</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01679977353109985</v>
+        <v>0.0693187100889</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0156172586847981</v>
+        <v>0.01546025421125125</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01746523382980102</v>
+        <v>0.02865304016983469</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01484587207529956</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01761883267565673</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01639812161903801</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.04427738343218129</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01621100219277981</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.06479905640038353</v>
+        <v>0.04499167298157758</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01626633036694269</v>
+        <v>0.01622402813947425</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01746523382980102</v>
+        <v>0.07060072427599012</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01639812161903801</v>
+        <v>0.01623326692181381</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01782930849941824</v>
+        <v>0.03030614357207274</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01555281836459954</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01830679686979483</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01717898455327791</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.04567676670381046</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01698295467815028</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.06641494525475528</v>
+        <v>0.04622849583968422</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0170409175272733</v>
+        <v>0.01699660090802064</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01782930849941824</v>
+        <v>0.07204397431590481</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01717898455327791</v>
+        <v>0.01700627963237638</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01839130086736543</v>
+        <v>0.031971721891719</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01625976465389952</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.0187881048956999</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01795984748751782</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.04655926777502131</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01775490716352074</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.06773354875896248</v>
+        <v>0.04694076397999142</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0178155046876039</v>
+        <v>0.01776917367656704</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01839130086736543</v>
+        <v>0.07354797539568803</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01795984748751782</v>
+        <v>0.01777929234293894</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01865051426105642</v>
+        <v>0.03360733139848576</v>
       </c>
       <c r="G89" t="n">
+        <v>0.0169667109431995</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.019062294150759</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01874071042175772</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.04702418199272504</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01852685964889121</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.06945208898883271</v>
+        <v>0.04832816098130444</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01859009184793451</v>
+        <v>0.01854174644511343</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01865051426105642</v>
+        <v>0.07501224270238377</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01874071042175772</v>
+        <v>0.0185523050535015</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01920625200790511</v>
+        <v>0.03517052836208533</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01767365723249948</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01972890203235921</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01952157335599763</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.04847080470383283</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01929881213426168</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.07116778802019336</v>
+        <v>0.04889037042242858</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01936467900826511</v>
+        <v>0.01931431921365982</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01920625200790511</v>
+        <v>0.07733629142303611</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01952157335599763</v>
+        <v>0.01932531776406406</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01955781743532535</v>
+        <v>0.03661886905223008</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01838060352179946</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02018746593788762</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02030243629023753</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.04949843125525591</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02007076461963214</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.07227786792887197</v>
+        <v>0.04982707588216917</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02013926616859572</v>
+        <v>0.02008689198220621</v>
       </c>
       <c r="N91" t="n">
-        <v>0.01955781743532535</v>
+        <v>0.07861963674468891</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02030243629023753</v>
+        <v>0.02009833047462662</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02010451387073102</v>
+        <v>0.03790990973863231</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01908754981109944</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.0206375232647313</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02108329922447744</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.05020635699390544</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02084271710500261</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.0744795507906959</v>
+        <v>0.05073796093933147</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02091385332892632</v>
+        <v>0.02085946475075261</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02010451387073102</v>
+        <v>0.08026179385438625</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02108329922447744</v>
+        <v>0.02087134318518919</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02064564464153601</v>
+        <v>0.03930696604879308</v>
       </c>
       <c r="G93" t="n">
+        <v>0.02002518264069793</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02097861141027736</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02186416215871734</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.05069387726669267</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02161466959037308</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.07537005868149277</v>
+        <v>0.05172270917272082</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02168844048925693</v>
+        <v>0.021632037519299</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02064564464153601</v>
+        <v>0.08096227793917204</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02186416215871734</v>
+        <v>0.02164435589575175</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02108051307515416</v>
+        <v>0.03990439400326941</v>
       </c>
       <c r="G94" t="n">
+        <v>0.02050144238969939</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02151026777191289</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02264502509295725</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.05216028742052867</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02238662207574355</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.07724661367709001</v>
+        <v>0.05298100416114251</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02246302764958753</v>
+        <v>0.0224046102878454</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02108051307515416</v>
+        <v>0.08242060418609048</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02264502509295725</v>
+        <v>0.02241736860631431</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02130842249899932</v>
+        <v>0.04076814369568788</v>
       </c>
       <c r="G95" t="n">
+        <v>0.02120838867899937</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02183202974702493</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02342588802719715</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.05250488280232471</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02315857456111401</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.07870643785331499</v>
+        <v>0.05351252948340182</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02323761480991814</v>
+        <v>0.02317718305639179</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02130842249899932</v>
+        <v>0.0835362877821853</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02342588802719715</v>
+        <v>0.02319038131687688</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02172867624048541</v>
+        <v>0.04160388448671165</v>
       </c>
       <c r="G96" t="n">
+        <v>0.02191533496829935</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.0222434347330006</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02420675096143706</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.05332695875899202</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02393052704648448</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.08004675328599531</v>
+        <v>0.05421696871830403</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02401220197024874</v>
+        <v>0.02394975582493818</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02172867624048541</v>
+        <v>0.08540884391450065</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02420675096143706</v>
+        <v>0.02396339402743944</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02234057762702628</v>
+        <v>0.04241110170471299</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02262228125759933</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02264402012722694</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02498761389567697</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.05452581063744172</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02470247953185494</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.08096478205095825</v>
+        <v>0.0551940054446545</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02478678913057935</v>
+        <v>0.02472232859348457</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02234057762702628</v>
+        <v>0.08663778777008052</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02498761389567697</v>
+        <v>0.024736406738002</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02264342998603577</v>
+        <v>0.04318928067806417</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02332922754689931</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.0230333233270911</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02576847682991687</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.05510073378458499</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02547443201722541</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.0830577462240315</v>
+        <v>0.05614332324125845</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02556137629090995</v>
+        <v>0.02549490136203096</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02264342998603577</v>
+        <v>0.08712263453596886</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02576847682991687</v>
+        <v>0.02550941944856456</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02313653664492782</v>
+        <v>0.04393790673513748</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02403617383619929</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02341088172998011</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02654933976415677</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.05595102354733303</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02624638450259588</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.08382286788104243</v>
+        <v>0.05676460568692129</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02633596345124055</v>
+        <v>0.02626747413057736</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02313653664492782</v>
+        <v>0.08826289939920967</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02654933976415677</v>
+        <v>0.02628243215912713</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02341920093111621</v>
+        <v>0.04465646520430518</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02474312012549927</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02367623273328105</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02733020269839668</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.05687597527259711</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02701833698796635</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.08595736909781854</v>
+        <v>0.0572575363604482</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02711055061157116</v>
+        <v>0.02704004689912375</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02341920093111621</v>
+        <v>0.0900580975468469</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02733020269839668</v>
+        <v>0.02705544486968969</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02369072617201488</v>
+        <v>0.04534444141393953</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02545006641479925</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02402891373438105</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02811106563263659</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.05717488430728834</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02779028947333681</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.0868584719501872</v>
+        <v>0.05792179884064452</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02788513777190176</v>
+        <v>0.02781261966767014</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02369072617201488</v>
+        <v>0.09040774416592479</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02811106563263659</v>
+        <v>0.02782845758025225</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02405041569503767</v>
+        <v>0.04600132069241285</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02615701270409923</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02446846213066715</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02889192856687649</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.05804704599831789</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02856224195870728</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.08862339851397599</v>
+        <v>0.05875707670631555</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02865972493223237</v>
+        <v>0.02858519243621653</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02405041569503767</v>
+        <v>0.09171135444348705</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02889192856687649</v>
+        <v>0.02860147029081482</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02459757282759846</v>
+        <v>0.04662658836809737</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02686395899339921</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02469441531952646</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02967279150111639</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.05859175569259703</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02933419444407774</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.08984937086501227</v>
+        <v>0.05886305353626664</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02943431209256297</v>
+        <v>0.02935776520476293</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02459757282759846</v>
+        <v>0.09266844356657777</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02967279150111639</v>
+        <v>0.02937448300137738</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.0247315008971111</v>
+        <v>0.04721972976936539</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02757090528269919</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02510631069834605</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.0304536544353563</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.05930830873703688</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03010614692944822</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.09103361107912361</v>
+        <v>0.059839412909303</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03020889925289358</v>
+        <v>0.03013033797330932</v>
       </c>
       <c r="N104" t="n">
-        <v>0.0247315008971111</v>
+        <v>0.09407852672224093</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0304536544353563</v>
+        <v>0.03014749571193994</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02515150323098948</v>
+        <v>0.04778023022458915</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02827785157199916</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.02530368566451301</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03123451736959621</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.05949600047854872</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03087809941481868</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.09117334123213744</v>
+        <v>0.06008583840423001</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03098348641322418</v>
+        <v>0.03090291074185572</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02515150323098948</v>
+        <v>0.09484111909752052</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03123451736959621</v>
+        <v>0.0309205084225025</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02545688315664746</v>
+        <v>0.04830757506214096</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02898479786129914</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02558607761541441</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03201538030383611</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.06025412626404358</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03165005190018915</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.09236578339988127</v>
+        <v>0.06050201359985288</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03175807357355478</v>
+        <v>0.03167548351040211</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02545688315664746</v>
+        <v>0.0959557358794606</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03201538030383611</v>
+        <v>0.03169352113306506</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02584694400149892</v>
+        <v>0.0488012496103931</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02969174415059912</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.02595302394843735</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03279624323807601</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.0611819814404328</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03242200438555962</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.09420815965818252</v>
+        <v>0.06128762207497698</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03253266073388539</v>
+        <v>0.0324480562789485</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02584694400149892</v>
+        <v>0.09652189225510516</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03279624323807601</v>
+        <v>0.03246653384362762</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02592098909295772</v>
+        <v>0.04926073919771781</v>
       </c>
       <c r="G108" t="n">
+        <v>0.0303986904398991</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.02610406206096892</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03357710617231592</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.06107886135462753</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03319395687093008</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.09529769208286865</v>
+        <v>0.06204234740840761</v>
       </c>
       <c r="M108" t="n">
-        <v>0.033307247894216</v>
+        <v>0.03322062904749489</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02592098909295772</v>
+        <v>0.09733910341149804</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03357710617231592</v>
+        <v>0.03323954655419019</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02617832175843773</v>
+        <v>0.04968552915248739</v>
       </c>
       <c r="G109" t="n">
+        <v>0.03110563672919908</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.02653872935039618</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03435796910655583</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.06174406135353891</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03396590935630055</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.09563160274976712</v>
+        <v>0.06196587317895003</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03408183505454659</v>
+        <v>0.03399320181604128</v>
       </c>
       <c r="N109" t="n">
-        <v>0.02617832175843773</v>
+        <v>0.09710688453568345</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03435796910655583</v>
+        <v>0.03401255926475275</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02661824532535284</v>
+        <v>0.05007510480307413</v>
       </c>
       <c r="G110" t="n">
+        <v>0.03181258301849906</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.02655656321410621</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03513883204079573</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.06197687678407821</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03473786184167102</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.09680711373470541</v>
+        <v>0.06245788296540955</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0348564222148772</v>
+        <v>0.03476577458458768</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02661824532535284</v>
+        <v>0.0985247508147053</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03513883204079573</v>
+        <v>0.03478557197531532</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02674006312111689</v>
+        <v>0.05042895147785026</v>
       </c>
       <c r="G111" t="n">
+        <v>0.03251952930779904</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.02685710104948612</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03591969497503564</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.06297660299315652</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03550981432704148</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.09712144711351106</v>
+        <v>0.06281806034659146</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03563100937520781</v>
+        <v>0.03553834735313408</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02674006312111689</v>
+        <v>0.09839221743560755</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03591969497503564</v>
+        <v>0.03555858468587788</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02694307847314376</v>
+        <v>0.05074655450518809</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03322647559709902</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.02713988025392297</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03670055790927554</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.06334253532768511</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03628176681241195</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.09817182496201149</v>
+        <v>0.0634460889013011</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03640559653553841</v>
+        <v>0.03631092012168047</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02694307847314376</v>
+        <v>0.09950879958543418</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03670055790927554</v>
+        <v>0.03633159739644044</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02702659470884729</v>
+        <v>0.05102849212974349</v>
       </c>
       <c r="G113" t="n">
+        <v>0.033933421886399</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.02710443822480385</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03748142084351545</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.06337396913457516</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03705371929778242</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.09935546935603418</v>
+        <v>0.06354165220834374</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03718018369586901</v>
+        <v>0.03708349289022685</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02702659470884729</v>
+        <v>0.0997740124512293</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03748142084351545</v>
+        <v>0.037104610107003</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02728991515564143</v>
+        <v>0.05129795064542232</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03464036817569898</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.02745031235951587</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03826228377775535</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.06337019976073785</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03782567178315289</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.09916960237140654</v>
+        <v>0.06350443384652465</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03795477085619962</v>
+        <v>0.03785606565877325</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02728991515564143</v>
+        <v>0.09968737122003674</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03826228377775535</v>
+        <v>0.03787762281756556</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02743234314093997</v>
+        <v>0.0515643630855272</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03534731446499896</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.02747704005544606</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03904314671199526</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.0638305225530843</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03859762426852335</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.100011446083956</v>
+        <v>0.06423411739464918</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03872935801653023</v>
+        <v>0.03862863842731964</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02743234314093997</v>
+        <v>0.1009483910789007</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03904314671199526</v>
+        <v>0.03865063552812813</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0275531819921568</v>
+        <v>0.05182763693236306</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03605426075429894</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.02758415870998154</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.03982400964623516</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.06435423285852584</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03936957675389382</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1000782225695102</v>
+        <v>0.06433038643152256</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03950394517686083</v>
+        <v>0.03940121119586604</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0275531819921568</v>
+        <v>0.1004565872148649</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03982400964623516</v>
+        <v>0.03942364823869069</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02765173503670582</v>
+        <v>0.05208767966823483</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03676120704359892</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.02757120572050939</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04060487258047506</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.06454062602397354</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04014152923926428</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1005671539038965</v>
+        <v>0.06459292453595017</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04027853233719143</v>
+        <v>0.04017378396441243</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02765173503670582</v>
+        <v>0.1015114748149736</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04060487258047506</v>
+        <v>0.04019666094925325</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02772730560200087</v>
+        <v>0.0523443987754475</v>
       </c>
       <c r="G118" t="n">
+        <v>0.0374681533328989</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.02763771848441669</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04138573551471497</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.06448899739633865</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04091348172463476</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1016754621629424</v>
+        <v>0.06482141528673727</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04105311949752204</v>
+        <v>0.04094635673295882</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02772730560200087</v>
+        <v>0.1017125690662709</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04138573551471497</v>
+        <v>0.04096967365981582</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02777919701545584</v>
+        <v>0.05259770173630599</v>
       </c>
       <c r="G119" t="n">
+        <v>0.03817509962219887</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.02768323439909054</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04216659844895488</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.06459864232253235</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04168543421000522</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.1013003694224754</v>
+        <v>0.0645155422626891</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04182770665785265</v>
+        <v>0.04171892950150522</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02777919701545584</v>
+        <v>0.1012593851558003</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04216659844895488</v>
+        <v>0.04174268637037838</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
+        <v>0.05284749603311528</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.03888204591149885</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.02791123185219636</v>
       </c>
-      <c r="G120" t="n">
+      <c r="K120" t="n">
         <v>0.04294746138319478</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.06500010249878851</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.04245738669537569</v>
-      </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
+        <v>0.04249150227005161</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.1020889731453806</v>
       </c>
-      <c r="M120" t="n">
-        <v>0.04260229381818325</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.02791123185219636</v>
-      </c>
       <c r="O120" t="n">
-        <v>0.04294746138319478</v>
+        <v>0.04251569908094094</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02781101277805319</v>
+        <v>0.05309368914818031</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03958899220079883</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.02791049429123017</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04372832431743469</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.06449893422405023</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04322933918074615</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1019888692463123</v>
+        <v>0.06439943920530847</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04337688097851385</v>
+        <v>0.043264075038598</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02781101277805319</v>
+        <v>0.1015882435977323</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04372832431743469</v>
+        <v>0.0432887117915035</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.0277085897589406</v>
+        <v>0.05333618856380605</v>
       </c>
       <c r="G122" t="n">
+        <v>0.04029593849009881</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.02780238661102666</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04450918725167459</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.06459417070307288</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04400129166611662</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1017820047743258</v>
+        <v>0.06489136727755718</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04415146813884446</v>
+        <v>0.04403664780714439</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0277085897589406</v>
+        <v>0.101677686446219</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04450918725167459</v>
+        <v>0.04406172450206607</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02780352232171558</v>
+        <v>0.05357490176229741</v>
       </c>
       <c r="G123" t="n">
+        <v>0.04100288477939878</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.02788556907388011</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.0452900501859145</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.06466863086645236</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04477324415148709</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.101159832146738</v>
+        <v>0.06495681988139412</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04492605529917506</v>
+        <v>0.04480922057569079</v>
       </c>
       <c r="N123" t="n">
-        <v>0.02780352232171558</v>
+        <v>0.101035273150335</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0452900501859145</v>
+        <v>0.04483473721262863</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02779585380414845</v>
+        <v>0.05380973622595937</v>
       </c>
       <c r="G124" t="n">
+        <v>0.04170983106869876</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.02776033984525621</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04607091312015441</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.06432344650665861</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04554519663685756</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1016226614229201</v>
+        <v>0.06449697380928937</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04570064245950567</v>
+        <v>0.04558179334423718</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02779585380414845</v>
+        <v>0.1018623332672242</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04607091312015441</v>
+        <v>0.04560774992319119</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02788562754400954</v>
+        <v>0.05404059943709692</v>
       </c>
       <c r="G125" t="n">
+        <v>0.04241677735799874</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.02772699709062058</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04685177605439431</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.0647591705874255</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04631714912222802</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1018707162318185</v>
+        <v>0.06461285314792159</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04647522961983627</v>
+        <v>0.04635436611278358</v>
       </c>
       <c r="N125" t="n">
-        <v>0.02788562754400954</v>
+        <v>0.1016598913834375</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04685177605439431</v>
+        <v>0.04638076263375376</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02787288687906921</v>
+        <v>0.05426739887801495</v>
       </c>
       <c r="G126" t="n">
+        <v>0.04312372364729872</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.02768583897543891</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04763263898863421</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.06467635607248687</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04708910160759849</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1013042202023798</v>
+        <v>0.06420548198396936</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04724981678016688</v>
+        <v>0.04712693888132996</v>
       </c>
       <c r="N126" t="n">
-        <v>0.02787288687906921</v>
+        <v>0.1015289720855258</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04763263898863421</v>
+        <v>0.04715377534431632</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02765767514709773</v>
+        <v>0.05449004203101845</v>
       </c>
       <c r="G127" t="n">
+        <v>0.0438306699365987</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.02773716366517685</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04841350192287412</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.06437555592557651</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04786105409296896</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1016233969635504</v>
+        <v>0.06427588440411131</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04802440394049748</v>
+        <v>0.04789951164987636</v>
       </c>
       <c r="N127" t="n">
-        <v>0.02765767514709773</v>
+        <v>0.1008705999600402</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04841350192287412</v>
+        <v>0.04792678805487888</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02764003568586548</v>
+        <v>0.05470843637841237</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04453761622589868</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.02768126932530005</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04919436485711402</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.06435732311042822</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04863300657833942</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1016284701442769</v>
+        <v>0.06422508449502601</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04879899110082809</v>
+        <v>0.04867208441842275</v>
       </c>
       <c r="N128" t="n">
-        <v>0.02764003568586548</v>
+        <v>0.1012857995935316</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04919436485711402</v>
+        <v>0.04869980076544144</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02772001183314279</v>
+        <v>0.05492248940250165</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04524456251519866</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.02751845412127416</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.04997522779135393</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.06402221059077587</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04940495906370989</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1008196633735057</v>
+        <v>0.06365410634339216</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04957357826115869</v>
+        <v>0.04944465718696914</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02772001183314279</v>
+        <v>0.1001755955725509</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04997522779135393</v>
+        <v>0.049472813476004</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02769764692669999</v>
+        <v>0.05513210858559123</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04595150880449864</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.02734901621856484</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05075609072559383</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.06417077133035326</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05017691154908036</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1004972002801834</v>
+        <v>0.06386397403588831</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05034816542148929</v>
+        <v>0.05021722995551554</v>
       </c>
       <c r="N130" t="n">
-        <v>0.02769764692669999</v>
+        <v>0.1009410124836492</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05075609072559383</v>
+        <v>0.05024582618656657</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02767298430430738</v>
+        <v>0.05533720140998609</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04665845509379862</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.02727325378263776</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05153695365983374</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.06390355829289421</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05094886403445082</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1011613044932565</v>
+        <v>0.06385571165919315</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0511227525818199</v>
+        <v>0.05098980272406193</v>
       </c>
       <c r="N131" t="n">
-        <v>0.02767298430430738</v>
+        <v>0.09968307491337736</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05153695365983374</v>
+        <v>0.05101883889712912</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02764606730373531</v>
+        <v>0.05553767535799119</v>
       </c>
       <c r="G132" t="n">
+        <v>0.0473654013830986</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.02739146497895859</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05231781659407365</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.06372112444213254</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05172081651982129</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1006121996416714</v>
+        <v>0.06363034329998526</v>
       </c>
       <c r="M132" t="n">
-        <v>0.0518973397421505</v>
+        <v>0.05176237549260833</v>
       </c>
       <c r="N132" t="n">
-        <v>0.02764606730373531</v>
+        <v>0.0998028074482864</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05231781659407365</v>
+        <v>0.05179185160769169</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02771693926275412</v>
+        <v>0.05573343791191145</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04807234767239858</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.02720394797299293</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05309867952831354</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.06352402274180208</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05249276900519176</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1003501093543746</v>
+        <v>0.06298889304494326</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0526719269024811</v>
+        <v>0.05253494826115471</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02771693926275412</v>
+        <v>0.09960123467492721</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05309867952831354</v>
+        <v>0.05256486431825425</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02758564351913413</v>
+        <v>0.05592439655405183</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04877929396169856</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.02701100093020649</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05387954246255346</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.06291280615563669</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05326472149056223</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1001752572603127</v>
+        <v>0.06273238498074579</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05344651406281171</v>
+        <v>0.05330752102970111</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02758564351913413</v>
+        <v>0.09947938117985078</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05387954246255346</v>
+        <v>0.05333787702881682</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02745222341064568</v>
+        <v>0.05611045876671732</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04948624025099854</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.02691292201606492</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05466040539679336</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.06288802764737009</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.0540366739759327</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1001878669884321</v>
+        <v>0.06246184319407147</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05422110122314232</v>
+        <v>0.05408009379824751</v>
       </c>
       <c r="N135" t="n">
-        <v>0.02745222341064568</v>
+        <v>0.09843827154960821</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05466040539679336</v>
+        <v>0.05411088973937937</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02751672227505909</v>
+        <v>0.05629153203221282</v>
       </c>
       <c r="G136" t="n">
+        <v>0.05019318654029852</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.02681000939603384</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05544126833103327</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.0626502401807362</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05480862646130316</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.09998816216767942</v>
+        <v>0.0625782917715989</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05499568838347293</v>
+        <v>0.0548526665667939</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02751672227505909</v>
+        <v>0.09827893037075019</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05544126833103327</v>
+        <v>0.05488390244994194</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02737918345014471</v>
+        <v>0.05646752383284333</v>
       </c>
       <c r="G137" t="n">
+        <v>0.0509001328295985</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.02680256123557896</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05622213126527317</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.06279999671946881</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05558057894667363</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.09997636642700103</v>
+        <v>0.06168275480000671</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05577027554380352</v>
+        <v>0.05562523933534028</v>
       </c>
       <c r="N137" t="n">
-        <v>0.02737918345014471</v>
+        <v>0.09820238222982797</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05622213126527317</v>
+        <v>0.0556569151605045</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02753965027367286</v>
+        <v>0.05663834165091375</v>
       </c>
       <c r="G138" t="n">
+        <v>0.05160707911889848</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.0267908757001659</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05700299419951307</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.06253785022730174</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05635253143204409</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.09985270339534358</v>
+        <v>0.06137625636597355</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05654486270413413</v>
+        <v>0.05639781210388668</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02753965027367286</v>
+        <v>0.09790965171339228</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05700299419951307</v>
+        <v>0.05642992787106707</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02739816608341385</v>
+        <v>0.05680389296872908</v>
       </c>
       <c r="G139" t="n">
+        <v>0.05231402540819846</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.02667525095526033</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05778385713375298</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.0621643536679688</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05712448391741456</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.09921739670165336</v>
+        <v>0.06115982055617797</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05731944986446474</v>
+        <v>0.05717038487243307</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02739816608341385</v>
+        <v>0.09760176340799426</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05778385713375298</v>
+        <v>0.05720294058162963</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02725477421713804</v>
+        <v>0.05696408526859426</v>
       </c>
       <c r="G140" t="n">
+        <v>0.05302097169749844</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.02655598516632789</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05856472006799288</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.06178006000520381</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05789643640278502</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.09867066997487706</v>
+        <v>0.06093447145729861</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05809403702479534</v>
+        <v>0.05794295764097947</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02725477421713804</v>
+        <v>0.09677974190018479</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05856472006799288</v>
+        <v>0.0579759532921922</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02720951801261576</v>
+        <v>0.05711882603281423</v>
       </c>
       <c r="G141" t="n">
+        <v>0.05372791798679841</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02643337649883426</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05934558300223278</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.06118552220274062</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05866838888815549</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.09891274684396112</v>
+        <v>0.06080123315601416</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05886862418512594</v>
+        <v>0.05871553040952586</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02720951801261576</v>
+        <v>0.09614461177651479</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05934558300223278</v>
+        <v>0.05874896600275475</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02726244080761732</v>
+        <v>0.05726802274369396</v>
       </c>
       <c r="G142" t="n">
+        <v>0.05443486427609839</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.02610772311824507</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06012644593647269</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.060981293224313</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05944034137352596</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.09814385093785205</v>
+        <v>0.06036112973900323</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05964321134545655</v>
+        <v>0.05948810317807224</v>
       </c>
       <c r="N142" t="n">
-        <v>0.02726244080761732</v>
+        <v>0.09659739762353531</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06012644593647269</v>
+        <v>0.05952197871331732</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02721358593991306</v>
+        <v>0.05741158288353838</v>
       </c>
       <c r="G143" t="n">
+        <v>0.05514181056539837</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.02617932319002601</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06090730887071261</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.06086792603365485</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06021229385889643</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.09776420588549628</v>
+        <v>0.06011518529294435</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06041779850578716</v>
+        <v>0.06026067594661864</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02721358593991306</v>
+        <v>0.09513912402779734</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06090730887071261</v>
+        <v>0.06029499142387988</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02706299674727332</v>
+        <v>0.05754941393465247</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05584875685469835</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.02594847487964271</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06168817180495251</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.06064597359449991</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.0609842463442669</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.09757403531584036</v>
+        <v>0.05936442390451621</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06119238566611776</v>
+        <v>0.06103324871516504</v>
       </c>
       <c r="N144" t="n">
-        <v>0.02706299674727332</v>
+        <v>0.09547081557585169</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06168817180495251</v>
+        <v>0.06106800413444245</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02711071656746844</v>
+        <v>0.05768142337934118</v>
       </c>
       <c r="G145" t="n">
+        <v>0.05655570314399833</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.02571547635256084</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06246903473919242</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.06031598887058209</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06175619882963736</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.09747356285783082</v>
+        <v>0.05950986966039742</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06196697282644836</v>
+        <v>0.06180582148371144</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02711071656746844</v>
+        <v>0.09429349685424943</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06246903473919242</v>
+        <v>0.061841016845005</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02715678873826873</v>
+        <v>0.05780751869990944</v>
       </c>
       <c r="G146" t="n">
+        <v>0.05726264943329831</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.02568062577424607</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06324989767343232</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.05977852482563512</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06252815131500783</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.0973630121404141</v>
+        <v>0.05905254664726658</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06274155998677897</v>
+        <v>0.06257839425225782</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02715678873826873</v>
+        <v>0.09410819244954149</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06324989767343232</v>
+        <v>0.06261402955556757</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02690125659744451</v>
+        <v>0.05792760737866222</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05796959572259829</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.02564422131016403</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06403076060767222</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.05943413442339288</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.0633001038003783</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.09724260679253671</v>
+        <v>0.05879347895180237</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06351614714710957</v>
+        <v>0.06335096702080423</v>
       </c>
       <c r="N147" t="n">
-        <v>0.02690125659744451</v>
+        <v>0.09411592694827892</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06403076060767222</v>
+        <v>0.06338704226613012</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02694416348276614</v>
+        <v>0.05804159689790446</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05867654201189827</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.02530656112578036</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06481162354191213</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.05938337062758917</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06407205628574876</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.09701257044314526</v>
+        <v>0.05803369066068334</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06429073430744019</v>
+        <v>0.06412353978935061</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02694416348276614</v>
+        <v>0.09281772493701257</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06481162354191213</v>
+        <v>0.06416005497669269</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02698555273200394</v>
+        <v>0.05814939473994113</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05938348830119825</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.02526794338656078</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06559248647615203</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.05892678640195784</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06484400877111923</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.09587312672118609</v>
+        <v>0.05767420586058816</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06506532146777078</v>
+        <v>0.064896112557897</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02698555273200394</v>
+        <v>0.0922146110022935</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06559248647615203</v>
+        <v>0.06493306768725525</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02692546768292825</v>
+        <v>0.05825090838707718</v>
       </c>
       <c r="G150" t="n">
+        <v>0.06009043459049823</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.0250286662579709</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06637334941039193</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.05866493471023265</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06561596125648969</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.0955244992556058</v>
+        <v>0.05731604863819539</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06583990862810138</v>
+        <v>0.06566868532644339</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02692546768292825</v>
+        <v>0.09240760973067252</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06637334941039193</v>
+        <v>0.06570608039781782</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02686395167330938</v>
+        <v>0.05834604532161754</v>
       </c>
       <c r="G151" t="n">
+        <v>0.0607973808797982</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.02508902790547639</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06715421234463184</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.0580983685161475</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06638791374186016</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.09556691167535081</v>
+        <v>0.05726024308018371</v>
       </c>
       <c r="M151" t="n">
-        <v>0.066614495788432</v>
+        <v>0.06644125809498978</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02686395167330938</v>
+        <v>0.09149774570870084</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06715421234463184</v>
+        <v>0.06647909310838038</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02660104804091766</v>
+        <v>0.05843471302586718</v>
       </c>
       <c r="G152" t="n">
+        <v>0.06150432716909818</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.02474932649454288</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06793507527887176</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.05762764078343613</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06715986622723064</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.09480058760936766</v>
+        <v>0.05710781327323175</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0673890829487626</v>
+        <v>0.06721383086353619</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02660104804091766</v>
+        <v>0.09128604352292913</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06793507527887176</v>
+        <v>0.06725210581894293</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02653680012352345</v>
+        <v>0.05851681898213108</v>
       </c>
       <c r="G153" t="n">
+        <v>0.06221127345839816</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.02460986019063607</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06871593821311166</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.05735330447583242</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06793181871260111</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.09442575068660297</v>
+        <v>0.05635978330401806</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06816367010909319</v>
+        <v>0.06798640363208257</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02653680012352345</v>
+        <v>0.09097352775990858</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06871593821311166</v>
+        <v>0.0680251185295055</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02647125125889706</v>
+        <v>0.05859227067271414</v>
       </c>
       <c r="G154" t="n">
+        <v>0.06291821974769814</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.0246709271592216</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06949680114735156</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.05677591255707018</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06870377119797157</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.09404262453600304</v>
+        <v>0.05631717725922136</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06893825726942381</v>
+        <v>0.06875897640062897</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02647125125889706</v>
+        <v>0.08986122300618998</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06949680114735156</v>
+        <v>0.06879813124006808</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02650444478480884</v>
+        <v>0.05866097557992134</v>
       </c>
       <c r="G155" t="n">
+        <v>0.06362516603699812</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.02433282556576512</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07027766408159146</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.05649601799088325</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06947572368334204</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.09455143278651446</v>
+        <v>0.05558101922552017</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06971284442975441</v>
+        <v>0.06953154916917537</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02650444478480884</v>
+        <v>0.08965015384832453</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07027766408159146</v>
+        <v>0.06957114395063063</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0265364240390291</v>
+        <v>0.05872284118605763</v>
       </c>
       <c r="G156" t="n">
+        <v>0.0643321123262981</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.02439585357573229</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07105852701583137</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.05581417374100542</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.0702476761687125</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.09405239906708379</v>
+        <v>0.05555233328959316</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07048743159008501</v>
+        <v>0.07030412193772174</v>
       </c>
       <c r="N156" t="n">
-        <v>0.0265364240390291</v>
+        <v>0.08954134487286292</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07105852701583137</v>
+        <v>0.0703441566611932</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02636723235932817</v>
+        <v>0.05877777497342798</v>
       </c>
       <c r="G157" t="n">
+        <v>0.06503905861559808</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.02406030935458878</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07183938995007128</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.05603093277117049</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07101962865408297</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.09384574700665738</v>
+        <v>0.05483214353811899</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07126201875041561</v>
+        <v>0.07107669470626815</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02636723235932817</v>
+        <v>0.08873582066635632</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07183938995007128</v>
+        <v>0.07111716937175576</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0262969130834764</v>
+        <v>0.05882568442433732</v>
       </c>
       <c r="G158" t="n">
+        <v>0.06574600490489806</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.02412136508657753</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07262025288431118</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.05504684804511237</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07179158113945343</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.09333170023418186</v>
+        <v>0.05491680528791987</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07203660591074622</v>
+        <v>0.07184926747481453</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0262969130834764</v>
+        <v>0.08832123602380876</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07262025288431118</v>
+        <v>0.07189018208231832</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02632550954924412</v>
+        <v>0.0588664770210906</v>
       </c>
       <c r="G159" t="n">
+        <v>0.06645295119419804</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.02397099259652968</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07340111581855108</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.0547624725265648</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.0725635336248239</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.09301048237860371</v>
+        <v>0.05419898545156956</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07281119307107682</v>
+        <v>0.07262184024336094</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02632550954924412</v>
+        <v>0.08777572404524381</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07340111581855108</v>
+        <v>0.07266319479288089</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02625306509440162</v>
+        <v>0.05890006024599279</v>
       </c>
       <c r="G160" t="n">
+        <v>0.06715989748349802</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.02360977147797869</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07418197875279098</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.05487835917926162</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07333548611019436</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.09158231706886938</v>
+        <v>0.0538784628855154</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07358578023140744</v>
+        <v>0.07339441301190733</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02625306509440162</v>
+        <v>0.08720011566217345</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07418197875279098</v>
+        <v>0.07343620750344344</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02597962305671929</v>
+        <v>0.05892634158134884</v>
       </c>
       <c r="G161" t="n">
+        <v>0.067866843772798</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.02363841602372302</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07496284168703089</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.05429506096693665</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07410743859556483</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.09194742793392546</v>
+        <v>0.05365512688102839</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07436036739173803</v>
+        <v>0.07416698578045371</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02597962305671929</v>
+        <v>0.08649564171364599</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07496284168703089</v>
+        <v>0.074209220214006</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02600522677396742</v>
+        <v>0.05894522850946368</v>
       </c>
       <c r="G162" t="n">
+        <v>0.06857379006209798</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.0234576405265612</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07574370462127081</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.05401313085332377</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.0748793910809353</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.09160603860271826</v>
+        <v>0.05372886672937979</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07513495455206864</v>
+        <v>0.07493955854900011</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02600522677396742</v>
+        <v>0.0855635330387095</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07574370462127081</v>
+        <v>0.07498223292456857</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02592991958391636</v>
+        <v>0.0589566285126423</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06928073635139796</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.02326815927929174</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07652456755551071</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.05333312180215669</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07565134356630578</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.09125837270419451</v>
+        <v>0.05349957172184061</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07590954171239925</v>
+        <v>0.0757121313175465</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02592991958391636</v>
+        <v>0.08530502047641236</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07652456755551071</v>
+        <v>0.07575524563513113</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02595374482433643</v>
+        <v>0.05896044907318962</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06998768264069793</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.02297068657471314</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07730543048975061</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.05295558677716933</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07642329605167623</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.09080465386730058</v>
+        <v>0.05316713114968191</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07668412887272984</v>
+        <v>0.0764847040860929</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02595374482433643</v>
+        <v>0.08432133486580279</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07730543048975061</v>
+        <v>0.0765282583456937</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02587674583299797</v>
+        <v>0.05896044907318962</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06998768264069793</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.0226659367056239</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07808629342399051</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.05238107874209549</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07719524853704671</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.089645105720983</v>
+        <v>0.05263143430417486</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07745871603306045</v>
+        <v>0.07725727685463929</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02587674583299797</v>
+        <v>0.08351370704592903</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07808629342399051</v>
+        <v>0.07730127105625625</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02569896594767131</v>
+        <v>0.05798385593755925</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06998741411223391</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.02255462396482258</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07886715635823043</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.05220746907070997</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07796720102241717</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.08887995189418824</v>
+        <v>0.0519923704765905</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07823330319339106</v>
+        <v>0.07802984962318568</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02569896594767131</v>
+        <v>0.08338336785583927</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07886715635823043</v>
+        <v>0.07807428376681881</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02572044850612677</v>
+        <v>0.05701806987057545</v>
       </c>
       <c r="G167" t="n">
+        <v>0.06998714558376991</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.02233746264510761</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.07964801929247033</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.05220657916507551</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07873915350778764</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.08890941601586289</v>
+        <v>0.05154982895820001</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07900789035372166</v>
+        <v>0.07880242239173207</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02572044850612677</v>
+        <v>0.08183154813458182</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07964801929247033</v>
+        <v>0.07884729647738138</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0256412368461347</v>
+        <v>0.05606357390776931</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06998687705530587</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.02211516703927754</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08042888222671023</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.05167302276089117</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.0795111059931581</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.08843372171495334</v>
+        <v>0.05120369904027441</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07978247751405226</v>
+        <v>0.07957499516027847</v>
       </c>
       <c r="N168" t="n">
-        <v>0.0256412368461347</v>
+        <v>0.08155947872120495</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08042888222671023</v>
+        <v>0.07962030918794394</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02536137430546542</v>
+        <v>0.05512085108479632</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06998660852684187</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.02188845144013089</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08120974516095013</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.05070968522564065</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08028305847852857</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.08815309262040616</v>
+        <v>0.05125387001408477</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08055706467438287</v>
+        <v>0.08034756792882486</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02536137430546542</v>
+        <v>0.08046839045475679</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08120974516095013</v>
+        <v>0.0803933218985065</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02528090422188925</v>
+        <v>0.05419038443718709</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06998633999837785</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.02175803014046616</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08199060809519003</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.05021945192680771</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08105501096389904</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.08696775236116783</v>
+        <v>0.05060023117090229</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08133165183471347</v>
+        <v>0.08112014069737125</v>
       </c>
       <c r="N170" t="n">
-        <v>0.02528090422188925</v>
+        <v>0.08005951417428564</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08199060809519003</v>
+        <v>0.08116633460906908</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02539986634337972</v>
+        <v>0.05327265700051401</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06998607146991383</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.02152461743308183</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08277147102942994</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.05030520823187595</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08182696344926951</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.08677792456618483</v>
+        <v>0.05074267180199796</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08210623899504409</v>
+        <v>0.08189271346591764</v>
       </c>
       <c r="N171" t="n">
-        <v>0.02539986634337972</v>
+        <v>0.07893408071883978</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08277147102942994</v>
+        <v>0.08193934731963164</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02531464708250206</v>
+        <v>0.05236815181031039</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06998580294144981</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.02118892761077644</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08355233396366986</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.04926983950832917</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08259891593463997</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.08638383286440365</v>
+        <v>0.04998108119864297</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08288082615537468</v>
+        <v>0.08266528623446404</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02531464708250206</v>
+        <v>0.07779332092746744</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08355233396366986</v>
+        <v>0.08271236003019419</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02522212017960485</v>
+        <v>0.05147735190222738</v>
       </c>
       <c r="G173" t="n">
+        <v>0.06998553441298579</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.02085167496634847</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08433319689790976</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.04921623112365103</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08337086842001044</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.08558570088477085</v>
+        <v>0.04941534865210839</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08365541331570529</v>
+        <v>0.08343785900301044</v>
       </c>
       <c r="N173" t="n">
-        <v>0.02522212017960485</v>
+        <v>0.07763846563921689</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08433319689790976</v>
+        <v>0.08348537274075676</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02492240791704847</v>
+        <v>0.05060074031179769</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06998526588452178</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.02081357379259648</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08511405983214966</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.04854726844532523</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.0841428209053809</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.08558375225623288</v>
+        <v>0.04904536345366525</v>
       </c>
       <c r="M174" t="n">
-        <v>0.0844300004760359</v>
+        <v>0.08421043177155682</v>
       </c>
       <c r="N174" t="n">
-        <v>0.02492240791704847</v>
+        <v>0.07677074569313624</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08511405983214966</v>
+        <v>0.08425838545131932</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02481563257719331</v>
+        <v>0.04973880007459372</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06998499735605776</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.02047533838231892</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08589492276638956</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.04786583684083542</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08491477339075137</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.0848536961770342</v>
+        <v>0.0488710148945847</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0852045876363665</v>
+        <v>0.08498300454010321</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02481563257719331</v>
+        <v>0.07559139192827385</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08589492276638956</v>
+        <v>0.08503139816188188</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0247019164423997</v>
+        <v>0.04889201422615137</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06998472882759374</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.02033768302831433</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08667578570062946</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.04697482167766537</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08568672587612185</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.08416800664322943</v>
+        <v>0.04869219226613791</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0859791747966971</v>
+        <v>0.08575557730864962</v>
       </c>
       <c r="N176" t="n">
-        <v>0.0247019164423997</v>
+        <v>0.07430163518367783</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08667578570062946</v>
+        <v>0.08580441087244445</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02458138179502807</v>
+        <v>0.04806086580211671</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06998446029912972</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.01990132202338121</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08745664863486938</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.04647710832329871</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08645867836149231</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.08352835981394569</v>
+        <v>0.04800878485959584</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08675376195702771</v>
+        <v>0.086528150077196</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02458138179502807</v>
+        <v>0.07380270629839669</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08745664863486938</v>
+        <v>0.086577423583007</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02465415091743875</v>
+        <v>0.04724583783802497</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06998419177066571</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.01986696966031808</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08823751156910928</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.04587558214521922</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08723063084686278</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.08253647614950504</v>
+        <v>0.04802068196622966</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08752834911735831</v>
+        <v>0.0873007228457424</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02465415091743875</v>
+        <v>0.07279583611147838</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08823751156910928</v>
+        <v>0.08735043629356957</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02452034609199209</v>
+        <v>0.04644741336944853</v>
       </c>
       <c r="G179" t="n">
+        <v>0.06998392324220169</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.01963534023192341</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08901837450334918</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.04567312851091057</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08800258333223324</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.0825940761102294</v>
+        <v>0.04762777287731043</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08830293627768893</v>
+        <v>0.08807329561428878</v>
       </c>
       <c r="N179" t="n">
-        <v>0.02452034609199209</v>
+        <v>0.0724822554619714</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08901837450334918</v>
+        <v>0.08812344900413213</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02428008960104849</v>
+        <v>0.04566607543192616</v>
       </c>
       <c r="G180" t="n">
+        <v>0.06998365471373767</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.01930714803099577</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.08979923743758909</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.0449726327878564</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08877453581760371</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.08100288015644075</v>
+        <v>0.04712994688410932</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08907752343801952</v>
+        <v>0.08884586838283519</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02428008960104849</v>
+        <v>0.0709631951889238</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08979923743758909</v>
+        <v>0.08889646171469469</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02423350372696832</v>
+        <v>0.04490230706109828</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06998338618527365</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.01908310735033361</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09058010037182899</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.04437698034354046</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.08954648830297418</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.08046460874846112</v>
+        <v>0.04642709327789735</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08985211059835012</v>
+        <v>0.08961844115138158</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02423350372696832</v>
+        <v>0.06973988613138382</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09058010037182899</v>
+        <v>0.08966947442525726</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02398071075211194</v>
+        <v>0.04415659129250289</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06998311765680965</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.01896393248273548</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09136096330606891</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.04358905654544643</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09031844078834465</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.07988098234661239</v>
+        <v>0.04641910134994565</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09062669775868074</v>
+        <v>0.09039101391992796</v>
       </c>
       <c r="N182" t="n">
-        <v>0.02398071075211194</v>
+        <v>0.06881355912839987</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09136096330606891</v>
+        <v>0.09044248713581982</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02382183295883973</v>
+        <v>0.04342941116171238</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06998284912834563</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.01875033772099985</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09214182624030881</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.04301174676105804</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09109039327371511</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.07925372141121673</v>
+        <v>0.04590586039152528</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09140128491901134</v>
+        <v>0.09116358668847437</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02382183295883973</v>
+        <v>0.06778544501902001</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09214182624030881</v>
+        <v>0.09121549984638237</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02355699262951204</v>
+        <v>0.04272124970426874</v>
       </c>
       <c r="G184" t="n">
+        <v>0.06998258059988161</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.01834303735792527</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09292268917454871</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.04224793635785895</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09186234575908558</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.07778454640259591</v>
+        <v>0.04538725969390742</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09217587207934193</v>
+        <v>0.09193615945702076</v>
       </c>
       <c r="N184" t="n">
-        <v>0.02355699262951204</v>
+        <v>0.06695677464229266</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09292268917454871</v>
+        <v>0.09198851255694494</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02348631204648927</v>
+        <v>0.04203258995580604</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06998231207141759</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.01814274568631019</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09370355210878861</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.04160051070333287</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09263429824445604</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.07717517778107202</v>
+        <v>0.04516318854836307</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09295045923967254</v>
+        <v>0.09270873222556715</v>
       </c>
       <c r="N185" t="n">
-        <v>0.02348631204648927</v>
+        <v>0.06652877883726588</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09370355210878861</v>
+        <v>0.09276152526750751</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02320991349213175</v>
+        <v>0.04136391495186541</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06998204354295356</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.0181501769989532</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09448441504302851</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.04127235516496347</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09340625072982651</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.07572733600696696</v>
+        <v>0.04443353624616336</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09372504640000315</v>
+        <v>0.09348130499411354</v>
       </c>
       <c r="N186" t="n">
-        <v>0.02320991349213175</v>
+        <v>0.06510268844298811</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09448441504302851</v>
+        <v>0.09353453797807007</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02312791924879988</v>
+        <v>0.04071570772801922</v>
       </c>
       <c r="G187" t="n">
+        <v>0.06998177501448956</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.01776604558865273</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09526527797726843</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.04086635511023454</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09417820321519697</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.07434274154060277</v>
+        <v>0.04389819207857945</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09449963356033375</v>
+        <v>0.09425387776265992</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02312791924879988</v>
+        <v>0.06427973429850742</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09526527797726843</v>
+        <v>0.09430755068863264</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02284045159885403</v>
+        <v>0.04008845131981306</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06998150648602552</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.01779106574820735</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09604614091150833</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.04008539590662968</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09495015570056745</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.07372311484230143</v>
+        <v>0.04365704533688236</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09527422072066435</v>
+        <v>0.09502645053120633</v>
       </c>
       <c r="N188" t="n">
-        <v>0.02284045159885403</v>
+        <v>0.06356114724287215</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09604614091150833</v>
+        <v>0.0950805633991952</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02284763282465455</v>
+        <v>0.03948262876287394</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06998123795756152</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.01762595177041552</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09682700384574824</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.04013236292163266</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09572210818593792</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.07217017637238482</v>
+        <v>0.04350998531234324</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09604880788099496</v>
+        <v>0.09579902329975272</v>
       </c>
       <c r="N189" t="n">
-        <v>0.02284763282465455</v>
+        <v>0.06304815811513054</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09682700384574824</v>
+        <v>0.09585357610975775</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02264958520856182</v>
+        <v>0.03889675069749234</v>
       </c>
       <c r="G190" t="n">
+        <v>0.0699809694290975</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.01727141794807578</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09760786677998814</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.03921014152272712</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09649406067130839</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.07098564659117507</v>
+        <v>0.04245690129623314</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09682339504132557</v>
+        <v>0.09657159606829911</v>
       </c>
       <c r="N190" t="n">
-        <v>0.02264958520856182</v>
+        <v>0.06154199775433067</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09760786677998814</v>
+        <v>0.09662658882032032</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02244643103293621</v>
+        <v>0.03831946578771701</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06998070090063349</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.01722817857398662</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09838872971422805</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.03942161707739678</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09726601315667885</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.06997124595899418</v>
+        <v>0.04259768257982316</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09759798220165618</v>
+        <v>0.0973441688368455</v>
       </c>
       <c r="N191" t="n">
-        <v>0.02244643103293621</v>
+        <v>0.06054389699952101</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09838872971422805</v>
+        <v>0.09739960153088288</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02213829258013809</v>
+        <v>0.03774928467384192</v>
       </c>
       <c r="G192" t="n">
+        <v>0.06998043237216946</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.01709694794094654</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09916959264846796</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.03886918589071134</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09803796564204932</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.06902869493616376</v>
+        <v>0.0415322184543844</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09837256936198677</v>
+        <v>0.0981167416053919</v>
       </c>
       <c r="N192" t="n">
-        <v>0.02213829258013809</v>
+        <v>0.05965508668974967</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09916959264846796</v>
+        <v>0.09817261424144545</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02192529213252783</v>
+        <v>0.03718669039148913</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06998016384370545</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.01697326303341332</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.09995045558270786</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.03873811147390005</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09880991812741978</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.06745971398300632</v>
+        <v>0.04104250237818677</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09914715652231738</v>
+        <v>0.09888931437393829</v>
       </c>
       <c r="N193" t="n">
-        <v>0.02192529213252783</v>
+        <v>0.05865736308608638</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09995045558270786</v>
+        <v>0.09894562695200801</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02180755197246582</v>
+        <v>0.03663216597620601</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06997989531524143</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.01695110981387546</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1007313185169478</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.03811982501608058</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.09958187061279025</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.06616602355984336</v>
+        <v>0.04100768868648386</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09992174368264799</v>
+        <v>0.09966188714248468</v>
       </c>
       <c r="N194" t="n">
-        <v>0.02180755197246582</v>
+        <v>0.05792868573572502</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1007313185169478</v>
+        <v>0.09971863966257057</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02158519438231239</v>
+        <v>0.03608619446356498</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06997962678677742</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.01663050328946677</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1015121814511877</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.03771361345520907</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1003538230981607</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.0649493441269971</v>
+        <v>0.040530895704144</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1006963308429786</v>
+        <v>0.1004344599110311</v>
       </c>
       <c r="N195" t="n">
-        <v>0.02158519438231239</v>
+        <v>0.05717129191834658</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1015121814511877</v>
+        <v>0.1004916523731331</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02135834164442792</v>
+        <v>0.03554925888911524</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06997935825831339</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.01671147285004926</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1022930443854276</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.03721876372924166</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1011257755835312</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.06351139614478962</v>
+        <v>0.0398153253944101</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1014709180033092</v>
+        <v>0.1012070326795775</v>
       </c>
       <c r="N196" t="n">
-        <v>0.02135834164442792</v>
+        <v>0.05608748308233591</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1022930443854276</v>
+        <v>0.1012646650836957</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02102711604117281</v>
+        <v>0.03502184228847596</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06997908972984938</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.01659404788548484</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1030739073196675</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.03713456277613442</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1018977280689016</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.0626539000735426</v>
+        <v>0.03896417972052491</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1022455051636398</v>
+        <v>0.1019796054481239</v>
       </c>
       <c r="N197" t="n">
-        <v>0.02102711604117281</v>
+        <v>0.05517956067607815</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1030739073196675</v>
+        <v>0.1020376777942582</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02069163985490738</v>
+        <v>0.03450442769719593</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06997882120138536</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.01627825778563551</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1038547702539074</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.03716029753384353</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1026696805542721</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.06127857637357825</v>
+        <v>0.03838066064573117</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1030200923239704</v>
+        <v>0.1027521782166703</v>
       </c>
       <c r="N198" t="n">
-        <v>0.02069163985490738</v>
+        <v>0.05414982614795838</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1038547702539074</v>
+        <v>0.1028106905048208</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02045203536799205</v>
+        <v>0.03399749815084756</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06997855267292134</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.01636413194036322</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1046356331881473</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.03699525494032502</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1034416330396426</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.05897075074525898</v>
+        <v>0.03766797013327178</v>
       </c>
       <c r="M199" t="n">
-        <v>0.103794679484301</v>
+        <v>0.1035247509852167</v>
       </c>
       <c r="N199" t="n">
-        <v>0.02045203536799205</v>
+        <v>0.05290058094636152</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1046356331881473</v>
+        <v>0.1035837032153834</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02020842486278715</v>
+        <v>0.03350153668498189</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06997828414445732</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.01625169973952996</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1054164961223872</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.03673872193353511</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1042135855250131</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.05761972534205584</v>
+        <v>0.03682931014638946</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1045692666446316</v>
+        <v>0.104297323753763</v>
       </c>
       <c r="N200" t="n">
-        <v>0.02020842486278715</v>
+        <v>0.05253412651967276</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1054164961223872</v>
+        <v>0.1043567159259459</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02015499913693578</v>
+        <v>0.0330170263352145</v>
       </c>
       <c r="G201" t="n">
+        <v>0.0699780156159933</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.01614099057299768</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1061973590566271</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.03648998545142984</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1049855380103835</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.05630125776880707</v>
+        <v>0.03636788264832708</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1053438538049622</v>
+        <v>0.1050698965223094</v>
       </c>
       <c r="N201" t="n">
-        <v>0.02015499913693578</v>
+        <v>0.05065276431627702</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1061973590566271</v>
+        <v>0.1051297286365085</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01985399602915422</v>
+        <v>0.03254445013709595</v>
       </c>
       <c r="G202" t="n">
+        <v>0.0699777470875293</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.01603203383062837</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.106978221990867</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.03564833243196538</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.105757490495754</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.05326766432283281</v>
+        <v>0.03538688960232733</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1061184409652928</v>
+        <v>0.1058424692908558</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01985399602915422</v>
+        <v>0.0501587957845594</v>
       </c>
       <c r="O202" t="n">
-        <v>0.106978221990867</v>
+        <v>0.1059027413470711</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01930712378268096</v>
+        <v>0.03208429112619861</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06997747855906528</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.01592485890228397</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1077590849251069</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.0360130498130978</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1065294429811245</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.05137126130145359</v>
+        <v>0.03478953297163317</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1068930281256234</v>
+        <v>0.1066150420594022</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01930712378268096</v>
+        <v>0.04925452237290495</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1077590849251069</v>
+        <v>0.1066757540576336</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01892457061634788</v>
+        <v>0.0316370323380757</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06997721003060126</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.01571949517782648</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1085399478593468</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.03518342453278331</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1073013954664949</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.04916436500198951</v>
+        <v>0.03367901471948725</v>
       </c>
       <c r="M204" t="n">
-        <v>0.107667615285954</v>
+        <v>0.1073876148279486</v>
       </c>
       <c r="N204" t="n">
-        <v>0.01892457061634788</v>
+        <v>0.04804224552969866</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1085399478593468</v>
+        <v>0.1074487667681962</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01851652474898681</v>
+        <v>0.03120315680833859</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06997694150213724</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.01561597204711784</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1093208107935867</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.03515874352897788</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1080733479518654</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.04669929172176107</v>
+        <v>0.03305853680913245</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1084422024462846</v>
+        <v>0.108160187596495</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01851652474898681</v>
+        <v>0.04712426670332553</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1093208107935867</v>
+        <v>0.1082217794787587</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01809317439942963</v>
+        <v>0.03078314757253986</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06997667297367323</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.01541431890002004</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1101016737278266</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.0352382937396378</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1088453004372359</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.04392835775808834</v>
+        <v>0.03233130120381156</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1092167896066152</v>
+        <v>0.1089327603650414</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01809317439942963</v>
+        <v>0.04510288734217083</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1101016737278266</v>
+        <v>0.1089947921893213</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01786470778650817</v>
+        <v>0.03037748766625194</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06997640444520921</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.01541456512639505</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1108825366620665</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.03462136210271907</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1096172529226063</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.04200387940829176</v>
+        <v>0.03090050986676737</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1099913767669459</v>
+        <v>0.1097053331335878</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01786470778650817</v>
+        <v>0.04468040889461938</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1108825366620665</v>
+        <v>0.1097678048998839</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01744131312905436</v>
+        <v>0.02998666012503053</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06997613591674519</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.01531674011610482</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1116633995963064</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.03440723555617783</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1103892054079768</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.03967817296969156</v>
+        <v>0.03016936476124268</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1107659639272764</v>
+        <v>0.1104779059021342</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01744131312905436</v>
+        <v>0.04365913280905626</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1116633995963064</v>
+        <v>0.1105408176104464</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01703317864590001</v>
+        <v>0.02961114798448204</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06997586738828117</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01532087325901133</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1124442625305463</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.03439520103797025</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1111611578933473</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.03670355473960807</v>
+        <v>0.02974106785048033</v>
       </c>
       <c r="M209" t="n">
-        <v>0.111540551087607</v>
+        <v>0.1112504786706806</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01703317864590001</v>
+        <v>0.04164136053386658</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1124442625305463</v>
+        <v>0.111313830321009</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01665049255587697</v>
+        <v>0.02925143428016154</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06997559885981715</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.01522699394497654</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1132251254647862</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.03428454548605236</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1119331103787177</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.03533234101536153</v>
+        <v>0.028518821097723</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1123151382479377</v>
+        <v>0.112023051439227</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01665049255587697</v>
+        <v>0.04112939351743528</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1132251254647862</v>
+        <v>0.1120868430315716</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01620344307781714</v>
+        <v>0.02890800204764141</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06997533033135314</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01513513156386243</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1140059883990261</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.03397455583838038</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1127050628640882</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.03371684809427228</v>
+        <v>0.02800582646621361</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1130897254082683</v>
+        <v>0.1127956242077734</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01620344307781714</v>
+        <v>0.03962553320814755</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1140059883990261</v>
+        <v>0.1128598557421341</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01600221843055237</v>
+        <v>0.0285813343224802</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06997506180288911</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01504531550553098</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1147868513332661</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.03376451903291033</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1134770153494587</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.03210939227366066</v>
+        <v>0.02730528591919493</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1138643125685989</v>
+        <v>0.1135681969763198</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01600221843055237</v>
+        <v>0.03833208105438829</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1147868513332661</v>
+        <v>0.1136328684526967</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01575388979043821</v>
+        <v>0.02827191414027871</v>
       </c>
       <c r="G213" t="n">
+        <v>0.0699747932744251</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.01485757515984412</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.115567714267506</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.03335372200759842</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1142489678348291</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.03086228985084688</v>
+        <v>0.02622040141990969</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1146388997289295</v>
+        <v>0.1143407697448661</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01575388979043821</v>
+        <v>0.03805133850454262</v>
       </c>
       <c r="O213" t="n">
-        <v>0.115567714267506</v>
+        <v>0.1144058811632593</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01542035263652808</v>
+        <v>0.02798022453659481</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06997452474596108</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.01487193991666386</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1163485772017459</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.03304145170040071</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1150209203201996</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.03047739713895031</v>
+        <v>0.02585437493160084</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1154134868892601</v>
+        <v>0.1151133425134125</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01542035263652808</v>
+        <v>0.03658560700699554</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1163485772017459</v>
+        <v>0.1151788938738218</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01528758238921107</v>
+        <v>0.02798022453659481</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06997452474596108</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01458843916585213</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1171294401359858</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.03312699504927336</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.11579287280557</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.03016102195121761</v>
+        <v>0.02471040841751102</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1161880740495907</v>
+        <v>0.1158859152819589</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01528758238921107</v>
+        <v>0.0361371880101321</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1171294401359858</v>
+        <v>0.1159519065843844</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0150557349159663</v>
+        <v>0.02727546782314344</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06987695190646312</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.01450710229727095</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1179103030702257</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.03270963899217244</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1165648252909405</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.02905681334093962</v>
+        <v>0.02399170384088309</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1169626612099213</v>
+        <v>0.1166584880505053</v>
       </c>
       <c r="N216" t="n">
-        <v>0.0150557349159663</v>
+        <v>0.0343083829623374</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1179103030702257</v>
+        <v>0.116724919294947</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01482496608427286</v>
+        <v>0.02657829535339244</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06977937906696514</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01462795870078225</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1186911660044656</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.03278867046705411</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.117336777776311</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.02836478307951634</v>
+        <v>0.02360146316495995</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1177372483702519</v>
+        <v>0.1174310608190517</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01482496608427286</v>
+        <v>0.03310149331199647</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1186911660044656</v>
+        <v>0.1174979320055095</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01449543176160982</v>
+        <v>0.02588901267366353</v>
       </c>
       <c r="G218" t="n">
+        <v>0.0696818062274672</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01435103776624798</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1194720289387055</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.0326633764118745</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1181087302616815</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.02788494293834753</v>
+        <v>0.02254288835298424</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1185118355305825</v>
+        <v>0.1182036335875981</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01449543176160982</v>
+        <v>0.03251882050749422</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1194720289387055</v>
+        <v>0.1182709447160721</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0141672878154563</v>
+        <v>0.0252079253302783</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06958423338796922</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01427636888353016</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1202528918729454</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.03213304376458961</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1188806827470519</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.02711730468883328</v>
+        <v>0.02211918136819885</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1192864226909131</v>
+        <v>0.1189762063561445</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0141672878154563</v>
+        <v>0.03176266599721578</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1202528918729454</v>
+        <v>0.1190439574266346</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01394069011329142</v>
+        <v>0.02453533886955851</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06948666054847126</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.01430398144249073</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1210337548071853</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.03209695946315572</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1196526352324224</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.02686188010237345</v>
+        <v>0.02133354417384653</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1200610098512437</v>
+        <v>0.1197487791246909</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01394069011329142</v>
+        <v>0.03103533122954633</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1210337548071853</v>
+        <v>0.1198169701371972</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01391579452259423</v>
+        <v>0.02387155883782588</v>
       </c>
       <c r="G221" t="n">
+        <v>0.0693890877089733</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01433390483299167</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1218146177414252</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.03205441044552887</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1204245877177929</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.02681868095036799</v>
+        <v>0.0212891787331701</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1208355970115743</v>
+        <v>0.1205213518932373</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01391579452259423</v>
+        <v>0.03033911765287073</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1218146177414252</v>
+        <v>0.1205899828477598</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01369275691084386</v>
+        <v>0.02321689078140222</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06929151486947534</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01416616844489493</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1225954806756651</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.03130468364966518</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1211965402031633</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.02558771900421697</v>
+        <v>0.02068928700941242</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1216101841719049</v>
+        <v>0.1212939246617837</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01369275691084386</v>
+        <v>0.029376326715574</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1225954806756651</v>
+        <v>0.1213629955583223</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01337173314551937</v>
+        <v>0.02257164024660904</v>
       </c>
       <c r="G223" t="n">
+        <v>0.06919394202997738</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.0141008016680625</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.123376343609905</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.03124706601352079</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1219684926885338</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.02546900603532015</v>
+        <v>0.01993707096581618</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1223847713322355</v>
+        <v>0.1220664974303301</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01337173314551937</v>
+        <v>0.0278492598660412</v>
       </c>
       <c r="O223" t="n">
-        <v>0.123376343609905</v>
+        <v>0.1221360082688849</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0132528790940999</v>
+        <v>0.02193611277976816</v>
       </c>
       <c r="G224" t="n">
+        <v>0.0690963691904794</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.01393783389235634</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1241572065441449</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.03098084447505178</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1227404451739043</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.02476255381507753</v>
+        <v>0.01943573256562431</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1231593584925661</v>
+        <v>0.1228390701988765</v>
       </c>
       <c r="N224" t="n">
-        <v>0.0132528790940999</v>
+        <v>0.02766021855265766</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1241572065441449</v>
+        <v>0.1229090209794474</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0130363506240645</v>
+        <v>0.02131061392720128</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06899879635098144</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.01407729450763844</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1249380694783848</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.03080530597221434</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1235123976592747</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.02466837411488904</v>
+        <v>0.01958847377207948</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1239339456528967</v>
+        <v>0.1236116429674229</v>
       </c>
       <c r="N225" t="n">
-        <v>0.0130363506240645</v>
+        <v>0.02661150422380798</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1249380694783848</v>
+        <v>0.12368203369001</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01272230360289231</v>
+        <v>0.02069544923523017</v>
       </c>
       <c r="G226" t="n">
+        <v>0.06890122351148348</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.01401921290377071</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1257189324126247</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.0307197374429645</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1242843501446452</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.02328647870615463</v>
+        <v>0.01929849654842455</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1247085328132273</v>
+        <v>0.1243842157359693</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01272230360289231</v>
+        <v>0.02620541832787754</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1257189324126247</v>
+        <v>0.1244550464005726</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01251089389806241</v>
+        <v>0.02009092425017641</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06880365067198552</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.01376361847061518</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1264997953468646</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.03042430843730803</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1250563026300157</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.02291687936027426</v>
+        <v>0.01886900285790236</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1254831199735579</v>
+        <v>0.1251567885045156</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01251089389806241</v>
+        <v>0.02514426231325123</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1264997953468646</v>
+        <v>0.1252280591111351</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01220227737705388</v>
+        <v>0.01949734451836176</v>
       </c>
       <c r="G228" t="n">
+        <v>0.06870607783248754</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.0138105405980338</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1272806582811045</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.03002351158606428</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1258282551153861</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.0231595878486478</v>
+        <v>0.01830319466375568</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1262577071338885</v>
+        <v>0.125929361273062</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01220227737705388</v>
+        <v>0.02503033762831403</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1272806582811045</v>
+        <v>0.1260010718216977</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01199660990734584</v>
+        <v>0.01891501558610795</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06860850499298958</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.01386000867588853</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1280615212153444</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.02931812308546558</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1266002076007566</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.02281461594267525</v>
+        <v>0.01860427392922723</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1270322942942191</v>
+        <v>0.1267019340416085</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01199660990734584</v>
+        <v>0.0235659457214511</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1280615212153444</v>
+        <v>0.1267740845322602</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01179404735641736</v>
+        <v>0.01834424299973675</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06851093215349162</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01381203786607606</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1288423841495843</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.02910819014181251</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1273721600861271</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.02188197541375658</v>
+        <v>0.01877508051344873</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1278068814545497</v>
+        <v>0.1274745068101548</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01179404735641736</v>
+        <v>0.02405313381417379</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1288423841495843</v>
+        <v>0.1275470972428228</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01159474559174756</v>
+        <v>0.01778533230556973</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06841335931399366</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.01376520082230805</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1296232470838243</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.0288937599614057</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1281441125714975</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.02196167803329163</v>
+        <v>0.01837515038392126</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1285814686148804</v>
+        <v>0.1282470795787012</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01159474559174756</v>
+        <v>0.02266273832078647</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1296232470838243</v>
+        <v>0.1283201099533854</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01139886048081552</v>
+        <v>0.01723858904992866</v>
       </c>
       <c r="G232" t="n">
+        <v>0.0683157864744957</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.01361857862837304</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1304041100180642</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.02857487975054568</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.128916065056868</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.02145373557268038</v>
+        <v>0.01837556725704309</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1293560557752109</v>
+        <v>0.1290196523472476</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01139886048081552</v>
+        <v>0.02257416205923191</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1304041100180642</v>
+        <v>0.1290931226639479</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01140654789110034</v>
+        <v>0.01670431877913527</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06821821363499772</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.01347223452499741</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1311849729523041</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.02825159671553298</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1296880175422385</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.0212581598033228</v>
+        <v>0.01827664671718249</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1301306429355416</v>
+        <v>0.129792225115794</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01140654789110034</v>
+        <v>0.02198812837771597</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1311849729523041</v>
+        <v>0.1298661353745105</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01121796369008113</v>
+        <v>0.0161828270395113</v>
       </c>
       <c r="G234" t="n">
+        <v>0.06812064079549977</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.01342623175290755</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.131965835886544</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.02772395806266822</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1304599700276089</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.02047496249661873</v>
+        <v>0.01837870434870775</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1309052300958722</v>
+        <v>0.1305647978843404</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01121796369008113</v>
+        <v>0.02170536062444456</v>
       </c>
       <c r="O234" t="n">
-        <v>0.131965835886544</v>
+        <v>0.1306391480850731</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01103326374523698</v>
+        <v>0.01567441937737835</v>
       </c>
       <c r="G235" t="n">
+        <v>0.0680230679560018</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.01348063355282988</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1327466988207839</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.02729201099825196</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1312319225129794</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.02000415542396827</v>
+        <v>0.01878205573598729</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1316798172562028</v>
+        <v>0.1313373706528868</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01103326374523698</v>
+        <v>0.02132658214762362</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1327466988207839</v>
+        <v>0.1314121607956356</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01085260392404696</v>
+        <v>0.01517940133905819</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06792549511650384</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.01353550316549079</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1335275617550238</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.02755580272858468</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1320038749983499</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.01924575035677117</v>
+        <v>0.01818701646338935</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1324544044165334</v>
+        <v>0.1321099434214332</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01085260392404696</v>
+        <v>0.02015251629545889</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1335275617550238</v>
+        <v>0.1321851735061982</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0105761400939902</v>
+        <v>0.01469807847087254</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06782792227700586</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.01349090383161665</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1343084246892637</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.02661538045996709</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1327758274837203</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.01979975906642756</v>
+        <v>0.01839390211528225</v>
       </c>
       <c r="M237" t="n">
-        <v>0.133228991576864</v>
+        <v>0.1328825161899796</v>
       </c>
       <c r="N237" t="n">
-        <v>0.0105761400939902</v>
+        <v>0.02008388641615622</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1343084246892637</v>
+        <v>0.1329581862167608</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01050402812254578</v>
+        <v>0.01423075631914315</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06773034943750791</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.01324689879193389</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1350892876235036</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.02647079139869962</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1335477799690908</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.01856619332433712</v>
+        <v>0.01830302827603436</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1340035787371946</v>
+        <v>0.133655088958526</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01050402812254578</v>
+        <v>0.01982141585792152</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1350892876235036</v>
+        <v>0.1337311989273233</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.0102364238771928</v>
+        <v>0.01377774043019162</v>
       </c>
       <c r="G239" t="n">
+        <v>0.06763277659800994</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.01330355128716885</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1358701505577435</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.02652208275108292</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1343197324544613</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.01844506490190012</v>
+        <v>0.01831471053001399</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1347781658975252</v>
+        <v>0.1344276617270724</v>
       </c>
       <c r="N239" t="n">
-        <v>0.0102364238771928</v>
+        <v>0.01956582796896078</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1358701505577435</v>
+        <v>0.1345042116378859</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01017348322541036</v>
+        <v>0.0133380887028594</v>
       </c>
       <c r="G240" t="n">
+        <v>0.06753520375851198</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.01336092455804799</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1366510134919834</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.02566930172341755</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1350916849398317</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.01823638557051616</v>
+        <v>0.01822926446158943</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1355527530578558</v>
+        <v>0.1352002344956188</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01017348322541036</v>
+        <v>0.01861784609747968</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1366510134919834</v>
+        <v>0.1352772243484484</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.009915362034677536</v>
+        <v>0.01290462079858635</v>
       </c>
       <c r="G241" t="n">
+        <v>0.067437630919014</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01311908184529766</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1374318764262233</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.02581249552200401</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1358636374252022</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.01834016710158548</v>
+        <v>0.01824700565512904</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1363273402181864</v>
+        <v>0.1359728072641651</v>
       </c>
       <c r="N241" t="n">
-        <v>0.009915362034677536</v>
+        <v>0.01807819359168406</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1374318764262233</v>
+        <v>0.136050237059011</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.009762216172473449</v>
+        <v>0.01247639461621391</v>
       </c>
       <c r="G242" t="n">
+        <v>0.06734005807951605</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.01327808638964427</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1382127393604632</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.02545171135314298</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1366355899105727</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.01735642126650777</v>
+        <v>0.01856824969500112</v>
       </c>
       <c r="M242" t="n">
-        <v>0.137101927378517</v>
+        <v>0.1367453800327115</v>
       </c>
       <c r="N242" t="n">
-        <v>0.009762216172473449</v>
+        <v>0.0183475937997799</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1382127393604632</v>
+        <v>0.1368232497695736</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.00961420150627719</v>
+        <v>0.0120537157020637</v>
       </c>
       <c r="G243" t="n">
+        <v>0.06724248524001808</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.01313800143181422</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1389936022947031</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.0249869964231349</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1374075423959431</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.01768515983668312</v>
+        <v>0.01889331216557397</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1378765145388476</v>
+        <v>0.1375179528012579</v>
       </c>
       <c r="N243" t="n">
-        <v>0.00961420150627719</v>
+        <v>0.01762677006997299</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1389936022947031</v>
+        <v>0.1375962624801362</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.009371473903567851</v>
+        <v>0.01163688960245746</v>
       </c>
       <c r="G244" t="n">
+        <v>0.06714491240052012</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.0131988902125339</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.139774465228943</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.02431839793828036</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1381794948813136</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.01712639458351145</v>
+        <v>0.01872250865121597</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1386511016991782</v>
+        <v>0.1382905255698043</v>
       </c>
       <c r="N244" t="n">
-        <v>0.009371473903567851</v>
+        <v>0.01661644575046933</v>
       </c>
       <c r="O244" t="n">
-        <v>0.139774465228943</v>
+        <v>0.1383692751906987</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.009334189231824511</v>
+        <v>0.01122622186371692</v>
       </c>
       <c r="G245" t="n">
+        <v>0.06704733956102216</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.01306081597252969</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1405553281631829</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.02374596310488003</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1389514473666841</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.01648013727839259</v>
+        <v>0.01835615473629543</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1394256888595088</v>
+        <v>0.1390630983383507</v>
       </c>
       <c r="N245" t="n">
-        <v>0.009334189231824511</v>
+        <v>0.01661734418947469</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1405553281631829</v>
+        <v>0.1391422879012613</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.009202503358526293</v>
+        <v>0.01082201803216382</v>
       </c>
       <c r="G246" t="n">
+        <v>0.0669497667215242</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.013123841952528</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1413361910974228</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.02386973912923437</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1397233998520545</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.01684639969272655</v>
+        <v>0.01889456600518064</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1402002760198394</v>
+        <v>0.1398356711068971</v>
       </c>
       <c r="N246" t="n">
-        <v>0.009202503358526293</v>
+        <v>0.01683018873519482</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1413361910974228</v>
+        <v>0.1399153006118238</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.009076572151152283</v>
+        <v>0.01042458365411978</v>
       </c>
       <c r="G247" t="n">
+        <v>0.06685219388202623</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.01288803139325521</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1421170540316627</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.023289773217644</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.140495352337425</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.01642519359791339</v>
+        <v>0.0188380580422399</v>
       </c>
       <c r="M247" t="n">
-        <v>0.14097486318017</v>
+        <v>0.1406082438754435</v>
       </c>
       <c r="N247" t="n">
-        <v>0.009076572151152283</v>
+        <v>0.01575570273583565</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1421170540316627</v>
+        <v>0.1406883133223864</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.008956551477181579</v>
+        <v>0.01003422427590655</v>
       </c>
       <c r="G248" t="n">
+        <v>0.06675462104252826</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.01295344753543777</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1428979169659026</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.02320611257640939</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1412673048227955</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.01651653076535281</v>
+        <v>0.01858694643184161</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1417494503405006</v>
+        <v>0.1413808166439899</v>
       </c>
       <c r="N248" t="n">
-        <v>0.008956551477181579</v>
+        <v>0.01559460953960318</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1428979169659026</v>
+        <v>0.1414613260329489</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008942597204093281</v>
+        <v>0.009651245443845845</v>
       </c>
       <c r="G249" t="n">
+        <v>0.0666570482030303</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.01292015361980199</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1436787799001426</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.02221880441183127</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1420392573081659</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.016120422966445</v>
+        <v>0.01884154675835403</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1425240375008312</v>
+        <v>0.1421533894125363</v>
       </c>
       <c r="N249" t="n">
-        <v>0.008942597204093281</v>
+        <v>0.01524763249470312</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1436787799001426</v>
+        <v>0.1422343387435115</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008834865199366465</v>
+        <v>0.009275952704259412</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06655947536353234</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.01288821288707433</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1444596428343825</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.02242789593021005</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1428112097935364</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.01623688197258966</v>
+        <v>0.0188021746061455</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1432986246611618</v>
+        <v>0.1429259621810827</v>
       </c>
       <c r="N250" t="n">
-        <v>0.008834865199366465</v>
+        <v>0.01531549494934142</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1444596428343825</v>
+        <v>0.1430073514540741</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008733511330480247</v>
+        <v>0.008908651603468883</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06646190252403437</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.01295768857798116</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1452405057686224</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.02153343433784641</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1435831622789069</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.01556591955518688</v>
+        <v>0.01886914555958435</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1440732118214924</v>
+        <v>0.1436985349496291</v>
       </c>
       <c r="N251" t="n">
-        <v>0.008733511330480247</v>
+        <v>0.01489892025172385</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1452405057686224</v>
+        <v>0.1437803641646366</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.008538691464913706</v>
+        <v>0.008549647687795994</v>
       </c>
       <c r="G252" t="n">
+        <v>0.0663643296845364</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.01292864393324886</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1460213687028623</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.02153546684104082</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1443551147642773</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.01530754748563656</v>
+        <v>0.01904277520303893</v>
       </c>
       <c r="M252" t="n">
-        <v>0.144847798981823</v>
+        <v>0.1444711077181755</v>
       </c>
       <c r="N252" t="n">
-        <v>0.008538691464913706</v>
+        <v>0.01419863175005631</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1460213687028623</v>
+        <v>0.1445533768751992</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.008350561470145963</v>
+        <v>0.008199246503562463</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06626675684503844</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.01280114219360384</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1468022316371022</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.02113404064609392</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1451270672496478</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.01536177753533857</v>
+        <v>0.01942337912087749</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1456223861421536</v>
+        <v>0.1452436804867219</v>
       </c>
       <c r="N253" t="n">
-        <v>0.008350561470145963</v>
+        <v>0.01371535279254471</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1468022316371022</v>
+        <v>0.1453263895857618</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.008369277213656087</v>
+        <v>0.007857753597090046</v>
       </c>
       <c r="G254" t="n">
+        <v>0.06616918400554048</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.01277524659977251</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1475830945713421</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.0206292029593062</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1458990197350183</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.01522862147569293</v>
+        <v>0.01941127289746841</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1463969733024842</v>
+        <v>0.1460162532552683</v>
       </c>
       <c r="N254" t="n">
-        <v>0.008369277213656087</v>
+        <v>0.01344980672739482</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1475830945713421</v>
+        <v>0.1460994022963243</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.008194994562923205</v>
+        <v>0.007525474514700363</v>
       </c>
       <c r="G255" t="n">
+        <v>0.06607161116604252</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.01275102039248123</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.148363957505582</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.02012100098697833</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1466709722203887</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.01480809107809955</v>
+        <v>0.01920677211717997</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1471715604628149</v>
+        <v>0.1467888260238147</v>
       </c>
       <c r="N255" t="n">
-        <v>0.008194994562923205</v>
+        <v>0.01370271690281255</v>
       </c>
       <c r="O255" t="n">
-        <v>0.148363957505582</v>
+        <v>0.1468724150068869</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.008227869385426384</v>
+        <v>0.00720271480271515</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06597403832654454</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.01262852681245642</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1491448204398219</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.01980948193541082</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1474429247057592</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.01560019811395841</v>
+        <v>0.01941019236438055</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1479461476231455</v>
+        <v>0.147561398792361</v>
       </c>
       <c r="N256" t="n">
-        <v>0.008227869385426384</v>
+        <v>0.01347480666700379</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1491448204398219</v>
+        <v>0.1476454277174495</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.008268057548644729</v>
+        <v>0.006889780007456145</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06587646548704658</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.01280782910042448</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1499256833740618</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.01939469301090418</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1482148771911297</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.01550495435466936</v>
+        <v>0.01982184922343841</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1487207347834761</v>
+        <v>0.1483339715609074</v>
       </c>
       <c r="N257" t="n">
-        <v>0.008268057548644729</v>
+        <v>0.01286679936817453</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1499256833740618</v>
+        <v>0.148418440428012</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.008115714920057346</v>
+        <v>0.00658697567524507</v>
       </c>
       <c r="G258" t="n">
+        <v>0.06577889264754862</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.0127889904971118</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1507065463083017</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.01887668141975909</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1489868296765001</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.01472237157163248</v>
+        <v>0.01964205827872192</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1494953219438067</v>
+        <v>0.1491065443294538</v>
       </c>
       <c r="N258" t="n">
-        <v>0.008115714920057346</v>
+        <v>0.01337941835453033</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1507065463083017</v>
+        <v>0.1491914531385746</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.008070997367143312</v>
+        <v>0.006294607352403565</v>
       </c>
       <c r="G259" t="n">
+        <v>0.06568131980805066</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.01267207424324475</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1514874092425416</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.018755494368276</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1497587821618706</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.01535246153624747</v>
+        <v>0.02007113511459938</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1502699091041373</v>
+        <v>0.1498791170980002</v>
       </c>
       <c r="N259" t="n">
-        <v>0.008070997367143312</v>
+        <v>0.01321338697427721</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1514874092425416</v>
+        <v>0.1499644658491371</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.00793406075738174</v>
+        <v>0.006012980585253375</v>
       </c>
       <c r="G260" t="n">
+        <v>0.06558374696855269</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.01265714357954974</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1522682721767815</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.01793117906275554</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1505307346472411</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.01439523601991444</v>
+        <v>0.0198093953154391</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1510444962644679</v>
+        <v>0.1506516898665466</v>
       </c>
       <c r="N260" t="n">
-        <v>0.00793406075738174</v>
+        <v>0.01256942857562099</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1522682721767815</v>
+        <v>0.1507374785596997</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.008105060958251725</v>
+        <v>0.005742400920116214</v>
       </c>
       <c r="G261" t="n">
+        <v>0.06548617412905472</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.01274426174675318</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1530491351110214</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.01770378270949827</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1513026871326116</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.01475070679403334</v>
+        <v>0.01985715446560943</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1518190834247985</v>
+        <v>0.151424262635093</v>
       </c>
       <c r="N261" t="n">
-        <v>0.008105060958251725</v>
+        <v>0.01214826650676765</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1530491351110214</v>
+        <v>0.1515104912702623</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.007884153837232365</v>
+        <v>0.00548317390331382</v>
       </c>
       <c r="G262" t="n">
+        <v>0.06538860128955677</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.01253349198558144</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1538299980452613</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.01707335251480474</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.152074639617982</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.01501888563000409</v>
+        <v>0.0204147281494787</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1525936705851291</v>
+        <v>0.1521968354036394</v>
       </c>
       <c r="N262" t="n">
-        <v>0.007884153837232365</v>
+        <v>0.01225062411592298</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1538299980452613</v>
+        <v>0.1522835039808248</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.007971495261802727</v>
+        <v>0.005235605081167834</v>
       </c>
       <c r="G263" t="n">
+        <v>0.0652910284500588</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.01262489753676095</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1546108609795012</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.01653993568497555</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1528465921033525</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.01519978429922647</v>
+        <v>0.02058243195141518</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1533682577454597</v>
+        <v>0.1529694081721858</v>
       </c>
       <c r="N263" t="n">
-        <v>0.007971495261802727</v>
+        <v>0.0125772247512928</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1546108609795012</v>
+        <v>0.1530565166913874</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.007967241099441941</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.06519345561056084</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.01261854164101807</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1553917239137411</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.01640357942631121</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1536185445887229</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.01429341457310068</v>
+        <v>0.02086058145578723</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1541428449057903</v>
+        <v>0.1537419809407322</v>
       </c>
       <c r="N264" t="n">
-        <v>0.007967241099441941</v>
+        <v>0.01252879176108301</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1553917239137411</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1538295294019499</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06518029771582398</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005732639199837748</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.065180566244288</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006461398779904766</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06518083477275201</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007186237363567376</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06518110330121604</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007907113574097367</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06518137182968005</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008623986034861246</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06518164035814407</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009336813369193869</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06518190888660809</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01004555420046088</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06518217741507211</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01075016715193544</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06518244594353613</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01145061084698339</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06518271447200014</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01214684390893957</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06518298300046416</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01283882496116889</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06518325152892818</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01352651262694598</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.0651835200573922</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01420986552963592</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.0651837885858562</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01488884229257361</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06518405711432022</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01556340153912315</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06518432564278424</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01623350189256071</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06518459417124826</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01689910197625061</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06518486269971228</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01756016041352774</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06518513122817629</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01821663582775542</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06518539975664032</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01886848684221139</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06518566828510433</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01951567208025921</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06518593681356835</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.02015815016523373</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06518620534203236</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02079587972049746</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06518647387049639</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.0214288193693298</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.0651867423989604</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.0220570966898094</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06518701092742442</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.0226816840335668</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06518727945588842</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02330270897867973</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06518754798435246</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02392013014842896</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06518781651281647</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02453390616617655</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06518808504128049</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02514399565525732</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06518835356974451</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02575035723903249</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06518862209820853</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.0263529495407841</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06518889062667255</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02695173118387353</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06518915915513655</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02754666079163563</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06518942768360057</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02813769698743093</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06518969621206459</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02872479839454287</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06518996474052861</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02930792363633207</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06519023326899262</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02988703133613346</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06519050179745664</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03046208011730683</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06519077032592066</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03103302860313702</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06519103885438468</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03159983541698397</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06519130738284869</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03216245918218258</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06519157591131271</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03272085852209194</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06519184443977673</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03327499205999832</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06519211296824075</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03382481841926097</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06519238149670477</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03437029622321475</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06519265002516877</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03491138409521802</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06519291855363281</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03544804065855854</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06519318708209682</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03598022453659482</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06519345561056084</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03598022453659482</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06518029771582398</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03655064993474261</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06527840761224998</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03711604406800187</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06537651750867597</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03767628467852435</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06547462740510199</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03823124950846174</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06557273730152798</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03878081629996581</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06567084719795398</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03932486279518838</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06576895709437998</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03986326673628121</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06586706699080598</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04039590586539596</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06596517688723198</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04092265792468446</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06606328678365797</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04144340065629844</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06616139668008397</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04195801180238974</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06625950657650997</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04246636910510998</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06635761647293598</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.04296835030661102</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06645572636936196</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04346383314904455</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06655383626578797</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04395269537456244</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06665194616221397</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04443481472531631</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06675005605863997</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04491006894345799</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06684816595506597</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04537833577113921</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06694627585149196</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.0458394929505118</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06704438574791798</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04629341822372744</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06714249564434396</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04673998933293788</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06724060554076997</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04717908402029493</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06733871543719595</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04761058002795036</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06743682533362197</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04803435509805587</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06753493523004796</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04845078619231021</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06763304512647396</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04886274637014709</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06773115502289995</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04927061259326533</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06782926491932596</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04967426260381655</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06792737481575195</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.0500735741439526</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06802548471217795</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.05046842495582518</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06812359460860395</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.05085869278158615</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06822170450502996</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.05124425536338714</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06831981440145596</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.05162499044337997</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06841792429788195</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.05200077576371639</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06851603419430795</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.05237148906654823</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06861414409073395</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.05273700809402711</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06871225398715995</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.05309721058830487</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06881036388358594</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.05345197429153326</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06890847378001194</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.05380117694586406</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06900658367643794</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.05414469629344898</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06910469357286395</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.05448241007643978</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06920280346928993</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.05481419603698824</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06930091336571594</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05513993191724617</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06939902326214194</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.05545949545936521</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06949713315856794</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.05577276440549718</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06959524305499394</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05607961649779386</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06969335295141993</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.05637992947840699</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06979146284784593</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05667358108948832</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06988957274427193</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05696044907318962</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06998768264069793</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.05330696604879308</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06998768264069793</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05717575582166588</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.07196575575272192</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05737502769684531</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.07394382886474593</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05755888519743797</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.07592190197676991</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05772794882215392</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07789997508879391</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05788283906970319</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.0798780482008179</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05802417643879589</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.08185612131284188</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05815258142814204</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.08383419442486589</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05826867453645168</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.08581226753688988</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05837307626243489</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08779034064891388</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05846640710480172</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08976841376093787</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05854928756226221</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.09174648687296187</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05862233813352645</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.09372455998498586</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05868617931730445</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.09570263309700984</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05874143161230633</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09768070620903384</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05878871551724207</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09965877932105784</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05882865153082178</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1016368524330818</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.0588618601517555</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1036149255451058</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.0588889618787533</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1055929986571298</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.0589105772105252</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1075710717691538</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05892732664578126</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1095491448811778</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05893983068323158</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1115272179932018</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05894870982158618</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1135052911052258</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.0589545845595551</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1154833642172498</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05895807539584844</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1174614373292738</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05895980282917622</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1194395104412978</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05896038735824852</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1214175835533218</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05895902500450186</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1233956566653458</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05888595774162135</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1253737297773697</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05870847438346652</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1273518028893937</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.05843521191769156</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1293298760014178</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.05807480733195072</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1313079491134417</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.0576358976138982</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1332860222254657</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05712711975118819</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1352640953374897</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.05655711073147489</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1372421684495137</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.0559345075424125</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1392202415615377</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.05526794717165526</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1411983146735617</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.05456606660685735</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1431763877855857</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.053837502835673</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1451544608976097</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.05309089284575637</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1471325340096337</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.05233487362476172</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.05157808216034322</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1510886802336817</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.05082915544015511</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1530667533457057</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.05009673045185155</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1550448264577297</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04938944418308677</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1570228995697537</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04871593362151498</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1590009726817777</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.0480848357547904</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1609790457938017</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04750478757056721</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1629571189058256</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04698442605649961</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1649351920178496</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.04653238820024183</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1669132651298736</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.04615731098944809</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1688913382418976</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.04585532751231763</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1708694113539216</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04557574705663436</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1728474844659456</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04531120439208063</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1748255575779696</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.04506060488396654</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1768036306899936</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.04482285389760231</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1787817038020176</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.04459685679829804</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1807597769140416</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.0443815189513639</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1827378500260656</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.04417574572211004</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1847159231380895</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.04397844247584659</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1866939962501136</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.04378851457788371</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1886720693621376</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.04360486739353156</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1906501424741615</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.04342640628810027</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1926282155861856</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.04325203662689998</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1946062886982095</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.04308066377524086</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1965843618102335</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.04291119309843308</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1985624349222575</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.04274252996178673</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2005405080342815</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.04257357973061199</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2025185811463055</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.042403247770219</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2044966542583295</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.04223043944591794</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2064747273703535</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.04205406012301892</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2084528004823775</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.0418730151668321</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2104308735944015</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.04168620994266761</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2124089467064255</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.04149254981583565</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2143870198184495</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.04129094015164633</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2163650929304735</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.0410802863154098</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2183431660424975</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.04085949793684573</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2203212391545215</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.0406321006715071</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2222993122665455</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.04040185991254878</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2242773853785694</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.04016882117894609</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2262554584905934</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03993302998967437</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2282335316026174</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.0396945318637089</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2302116047146414</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03945337232002502</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2321896778266654</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03920959687759809</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2341677509386894</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03896325105540337</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2361458240507134</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03871438037241623</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2381238971627374</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03846303034761195</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2401019702747614</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.0382092464999659</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2420800433867854</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03795307434845338</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2440581164988094</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03769455941204967</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2460361896108334</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03743374720973018</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2480142627228573</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03717068326047016</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2499923358348814</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03690541308324495</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2519704089469054</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03663798219702989</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2539484820589293</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03636843612080028</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2559265551709534</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03609682037353146</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2579046282829773</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03582318047419873</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2598827013950014</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03554756194177745</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2618607745070253</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03527001029524289</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2638388476190493</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.0349905710535704</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2658169207310733</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1196.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1196.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08930696604879308</v>
+        <v>0.06328615717561636</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03930696604879308</v>
+        <v>0.01328615717561636</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02002518264069793</v>
+        <v>0.009982099667469662</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001263547208877072</v>
+        <v>0.003431522397955501</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007069462892999791</v>
+        <v>0.001632383458214674</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001461332811473856</v>
+        <v>0.003404464465697692</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007808629342399052</v>
+        <v>0.001641685588952065</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005148034163340587</v>
+        <v>0.01140306240518901</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007725727685463929</v>
+        <v>0.001638319734106836</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.007652256215042952</v>
+        <v>0.02348046382343755</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007730127105625626</v>
+        <v>0.002308200046785044</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002537774277239578</v>
+        <v>0.006326741512198267</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001413892578599958</v>
+        <v>0.00332736655582322</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003249850938376979</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00156172586847981</v>
+        <v>0.00394440789473684</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.009802908550314654</v>
+        <v>0.01787502818716685</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001545145537092786</v>
+        <v>0.00295624328302325</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.0139245842210981</v>
+        <v>0.0282841043963179</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001546025421125125</v>
+        <v>0.003275590915302386</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003822390482059977</v>
+        <v>0.006380973848446839</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002120838867899938</v>
+        <v>0.004897150374644022</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004501889344191094</v>
+        <v>0.008404444823269838</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002342588802719715</v>
+        <v>0.004925056766856195</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01399999999999998</v>
+        <v>0.02266533145041122</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002337426900584793</v>
+        <v>0.004914959202320508</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01800000000000002</v>
+        <v>0.03470226195490544</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.001951871947911017</v>
+        <v>0.004913386372953579</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.00511710510031075</v>
+        <v>0.01023894462087759</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002827785157199916</v>
+        <v>0.006529533832858696</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.009981668094318767</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003155526315789473</v>
+        <v>0.006566742355808261</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01704193275835925</v>
+        <v>0.02584197348389028</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003090291074185572</v>
+        <v>0.006553278936427345</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02539199702566852</v>
+        <v>0.03956688364652128</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00309205084225025</v>
+        <v>0.006551181830604771</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01330946622329289</v>
+        <v>0.00332736655582322</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02530696604879308</v>
+        <v>0.006326741512198267</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006421627408964382</v>
+        <v>0.00982472592632537</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003534731446499895</v>
+        <v>0.00816191729107337</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.00685151000935872</v>
+        <v>0.01139961070266433</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003904314671199526</v>
+        <v>0.008208427944760326</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02031329817961644</v>
+        <v>0.02800707993135748</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003862863842731965</v>
+        <v>0.008191598670534182</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03100660112154746</v>
+        <v>0.04409976116008507</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003865063552812813</v>
+        <v>0.008188977288255964</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007735666684993356</v>
+        <v>0.01328615717561636</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004241677735799875</v>
+        <v>0.009982099667469662</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008098548427373446</v>
+        <v>0.01245173486070394</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004685177605439431</v>
+        <v>0.009850113533712391</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.0231645064362424</v>
+        <v>0.03012499316770309</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004635436611278357</v>
+        <v>0.009829918404641017</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03549219071142751</v>
+        <v>0.04742268618451656</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004638076263375375</v>
+        <v>0.009826772745907158</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009058932205370143</v>
+        <v>0.01330697404287303</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004948624025099854</v>
+        <v>0.01142668420750272</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008991633998195886</v>
+        <v>0.01395561592609819</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005466040539679336</v>
+        <v>0.01183322368421052</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02603498025762666</v>
+        <v>0.03250005124939426</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.00540800937982475</v>
+        <v>0.01116341857000993</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04025417706052398</v>
+        <v>0.05104448657269034</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005411088973937938</v>
+        <v>0.01105908755533693</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01039113324706722</v>
+        <v>0.01442235819498185</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005655570314399833</v>
+        <v>0.01305906766571739</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009927318226457836</v>
+        <v>0.0146141547437942</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006246903473919241</v>
+        <v>0.01313348471161652</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02886414237315879</v>
+        <v>0.03541057088494429</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006180582148371143</v>
+        <v>0.01310655787285469</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04449797143405282</v>
+        <v>0.05566191428823541</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006184101684500501</v>
+        <v>0.01310236366120954</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01173197908705709</v>
+        <v>0.01649283002663956</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006362516603699813</v>
+        <v>0.01469145112393207</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01080215261679107</v>
+        <v>0.01569883763882504</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007027766408159147</v>
+        <v>0.01477517030056859</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03029141551222825</v>
+        <v>0.03728343899591383</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006953154916917535</v>
+        <v>0.01474487760696153</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04692898509722943</v>
+        <v>0.05945004830258915</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006957114395063062</v>
+        <v>0.01474015911886073</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.0130811790023122</v>
+        <v>0.01651376888588834</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007069462892999791</v>
+        <v>0.01632383458214674</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01171268867382738</v>
+        <v>0.01697444322497017</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007808629342399052</v>
+        <v>0.01641685588952065</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03250005124939426</v>
+        <v>0.04014443104557017</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007751683067420267</v>
+        <v>0.01638319734106836</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05104448657269034</v>
+        <v>0.06326969701524038</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007907325510853552</v>
+        <v>0.01637795457651193</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01443844226980504</v>
+        <v>0.01848055412077041</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007776409182299771</v>
+        <v>0.01795621804036142</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01235547790219853</v>
+        <v>0.01803036947636198</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008589492276638957</v>
+        <v>0.01805854147847272</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03324254758437509</v>
+        <v>0.0421660650632131</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008498300454010321</v>
+        <v>0.0180215170751752</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05201618991993379</v>
+        <v>0.06678521854084163</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008503139816188188</v>
+        <v>0.01801575003416312</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01580347816650809</v>
+        <v>0.01838856507932791</v>
       </c>
       <c r="G77" t="n">
-        <v>0.00848335547159975</v>
+        <v>0.01958860149857609</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01302707180653631</v>
+        <v>0.01885601436713286</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009370355210878862</v>
+        <v>0.01970022706742478</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03460751445476776</v>
+        <v>0.04492085907814222</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009270873222556713</v>
+        <v>0.01965983680928203</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05432526484858285</v>
+        <v>0.07086097099404542</v>
       </c>
       <c r="O77" t="n">
-        <v>0.00927615252675075</v>
+        <v>0.01965354549181432</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01717599596939384</v>
+        <v>0.01923318110960307</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00919030176089973</v>
+        <v>0.02122098495679076</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01395561592609819</v>
+        <v>0.0200407758714152</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01048507459710798</v>
+        <v>0.02134191265637685</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03605109081930802</v>
+        <v>0.04688133111965731</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01004344599110311</v>
+        <v>0.02129815654338887</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05629993894666047</v>
+        <v>0.07426131248950424</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01004916523731331</v>
+        <v>0.02129134094946551</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01855570495543474</v>
+        <v>0.01900978155963806</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009897248050199708</v>
+        <v>0.02285336841500544</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01425556922564954</v>
+        <v>0.02077405196334141</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01093208107935867</v>
+        <v>0.02298359824532891</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03697296025680108</v>
+        <v>0.049419999217058</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0108160187596495</v>
+        <v>0.0229364762774957</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05773972740121069</v>
+        <v>0.07815060114187061</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01082217794787588</v>
+        <v>0.0229291364071167</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0199423144016033</v>
+        <v>0.02171374577747508</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01060419433949969</v>
+        <v>0.02448575187322011</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01467717372425731</v>
+        <v>0.02184524061704383</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01171294401359858</v>
+        <v>0.02462528383428098</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0384728063460523</v>
+        <v>0.05150938139964409</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01158859152819589</v>
+        <v>0.02457479601160254</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05994414539927756</v>
+        <v>0.08089319506579695</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01159519065843844</v>
+        <v>0.02456693186476789</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02133553358487199</v>
+        <v>0.0213404531111563</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01131114062879967</v>
+        <v>0.02611813533143478</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0151953602729225</v>
+        <v>0.02264373980665489</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01249380694783848</v>
+        <v>0.02626696942323304</v>
       </c>
       <c r="L81" t="n">
-        <v>0.039550312665867</v>
+        <v>0.05292199569671513</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01236116429674229</v>
+        <v>0.02621311574570938</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06161270812790492</v>
+        <v>0.08345345237593577</v>
       </c>
       <c r="O81" t="n">
-        <v>0.012368203369001</v>
+        <v>0.02620472732241909</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02273507178221329</v>
+        <v>0.02088528290872392</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01201808691809965</v>
+        <v>0.02775051878964946</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01580966626903209</v>
+        <v>0.02315894750630697</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01327466988207839</v>
+        <v>0.02790865501218511</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04080516279505042</v>
+        <v>0.054830360137571</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01313373706528868</v>
+        <v>0.02785143547981621</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06374493077413679</v>
+        <v>0.08559573118693964</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01314121607956356</v>
+        <v>0.02784252278007028</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02414063827059967</v>
+        <v>0.0223436145182201</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01272503320739963</v>
+        <v>0.02938290224786413</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01611962910997324</v>
+        <v>0.02398026169013245</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01405553281631829</v>
+        <v>0.02955034060113717</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04173704031240791</v>
+        <v>0.05630699275151133</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01390630983383507</v>
+        <v>0.02948975521392305</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0649403285250173</v>
+        <v>0.08838438961346096</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01391422879012612</v>
+        <v>0.02948031823772147</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02530696604879308</v>
+        <v>0.02271082734108018</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01330946622329289</v>
+        <v>0.0310152857060788</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01662478619313301</v>
+        <v>0.02429708033226374</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0148363957505582</v>
+        <v>0.03119202619008923</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04314562879674472</v>
+        <v>0.05722441156783575</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01467888260238146</v>
+        <v>0.03112807494802989</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06699841656759037</v>
+        <v>0.08998378577015226</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01468724150068869</v>
+        <v>0.03111811369537266</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02705485541529247</v>
+        <v>0.02202720121772735</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01413892578599958</v>
+        <v>0.03264766916429348</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01712467491589847</v>
+        <v>0.0248988014068332</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0156172586847981</v>
+        <v>0.03283371177904131</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04413061182686617</v>
+        <v>0.05767278291247757</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01545145537092786</v>
+        <v>0.03276639468213673</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0693187100889</v>
+        <v>0.09059317445667764</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01546025421125125</v>
+        <v>0.03275590915302386</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02865304016983469</v>
+        <v>0.02233452787154501</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01484587207529956</v>
+        <v>0.03428005262250815</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01761883267565673</v>
+        <v>0.02513317546280668</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01639812161903801</v>
+        <v>0.03447539736799337</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04499167298157758</v>
+        <v>0.05894227933349963</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01622402813947425</v>
+        <v>0.03440471441624356</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07060072427599012</v>
+        <v>0.0927994123349955</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01623326692181381</v>
+        <v>0.03439370461067506</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03030614357207274</v>
+        <v>0.02463074629253183</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01555281836459954</v>
+        <v>0.03591243608072283</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01830679686979483</v>
+        <v>0.02555794820643886</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01717898455327791</v>
+        <v>0.03611708295694543</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04622849583968422</v>
+        <v>0.05938769248983536</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01699660090802064</v>
+        <v>0.03604303415035039</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07204397431590481</v>
+        <v>0.09396739362939566</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01700627963237638</v>
+        <v>0.03603150006832625</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.031971721891719</v>
+        <v>0.02391379547068644</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01625976465389952</v>
+        <v>0.0375448195389375</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0187881048956999</v>
+        <v>0.02567093854523085</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01795984748751782</v>
+        <v>0.03775876854589749</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04694076397999142</v>
+        <v>0.05990392562139701</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01776917367656704</v>
+        <v>0.03768135388445723</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07354797539568803</v>
+        <v>0.09458912106571959</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01777929234293894</v>
+        <v>0.03766929552597744</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03360733139848576</v>
+        <v>0.02418161439600744</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0169667109431995</v>
+        <v>0.03917720299715217</v>
       </c>
       <c r="J89" t="n">
-        <v>0.019062294150759</v>
+        <v>0.0261699443990224</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01874071042175772</v>
+        <v>0.03940045413484956</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04832816098130444</v>
+        <v>0.06088588196809661</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01854174644511343</v>
+        <v>0.03931967361856407</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07501224270238377</v>
+        <v>0.09615659736980864</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0185523050535015</v>
+        <v>0.03930709098362863</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03517052836208533</v>
+        <v>0.02343214205849348</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01767365723249948</v>
+        <v>0.04080958645536685</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01972890203235921</v>
+        <v>0.02625276368765314</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01952157335599763</v>
+        <v>0.04104213972380163</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04889037042242858</v>
+        <v>0.06122846476984628</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01931431921365982</v>
+        <v>0.0409579933526709</v>
       </c>
       <c r="N90" t="n">
-        <v>0.07733629142303611</v>
+        <v>0.09656182526750423</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01932531776406406</v>
+        <v>0.04094488644127982</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03661886905223008</v>
+        <v>0.02566331744814318</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01838060352179946</v>
+        <v>0.04244196991358153</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02018746593788762</v>
+        <v>0.02651719433096282</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02030243629023753</v>
+        <v>0.04268382531275369</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04982707588216917</v>
+        <v>0.06182657726655816</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02008689198220621</v>
+        <v>0.04259631308677774</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07861963674468891</v>
+        <v>0.09779680748464797</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02009833047462662</v>
+        <v>0.04258268189893102</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03790990973863231</v>
+        <v>0.0248730795549552</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01908754981109944</v>
+        <v>0.04407435337179619</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0206375232647313</v>
+        <v>0.02676103424879109</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02108329922447744</v>
+        <v>0.04432551090170576</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05073796093933147</v>
+        <v>0.06287512269814441</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02085946475075261</v>
+        <v>0.04423463282088457</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08026179385438625</v>
+        <v>0.09895354674708112</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02087134318518919</v>
+        <v>0.04422047735658221</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03930696604879308</v>
+        <v>0.02405936736892815</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02002518264069793</v>
+        <v>0.04570673683001087</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02097861141027736</v>
+        <v>0.02708208136097767</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02186416215871734</v>
+        <v>0.04596719649065782</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05172270917272082</v>
+        <v>0.0629690043045171</v>
       </c>
       <c r="M93" t="n">
-        <v>0.021632037519299</v>
+        <v>0.04587295255499141</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08096227793917204</v>
+        <v>0.09902404578064522</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02164435589575175</v>
+        <v>0.0458582728142334</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03990439400326941</v>
+        <v>0.02622011988006065</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02050144238969939</v>
+        <v>0.04733912028822555</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02151026777191289</v>
+        <v>0.02717813358736221</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02264502509295725</v>
+        <v>0.04760888207960989</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05298100416114251</v>
+        <v>0.06350312532558844</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0224046102878454</v>
+        <v>0.04751127228909825</v>
       </c>
       <c r="N94" t="n">
-        <v>0.08242060418609048</v>
+        <v>0.1003003073111816</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02241736860631431</v>
+        <v>0.04749606827188459</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.04076814369568788</v>
+        <v>0.02535327607835136</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02120838867899937</v>
+        <v>0.04897150374644022</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02183202974702493</v>
+        <v>0.02744698884778445</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02342588802719715</v>
+        <v>0.04925056766856195</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05351252948340182</v>
+        <v>0.06407238900127049</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02317718305639179</v>
+        <v>0.04914959202320508</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0835362877821853</v>
+        <v>0.1007743340645318</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02319038131687688</v>
+        <v>0.04913386372953579</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.04160388448671165</v>
+        <v>0.02445677495379889</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02191533496829935</v>
+        <v>0.0506038872046549</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0222434347330006</v>
+        <v>0.02758644506208403</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02420675096143706</v>
+        <v>0.05089225325751402</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05421696871830403</v>
+        <v>0.06427169857147541</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02394975582493818</v>
+        <v>0.05078791175731192</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08540884391450065</v>
+        <v>0.1007381287665373</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02396339402743944</v>
+        <v>0.05077165918718698</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.04241110170471299</v>
+        <v>0.02552855549640189</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02262228125759933</v>
+        <v>0.05223627066286957</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02264402012722694</v>
+        <v>0.0275943001501007</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02498761389567697</v>
+        <v>0.05253393884646609</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0551940054446545</v>
+        <v>0.0643959572761153</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02472232859348457</v>
+        <v>0.05242623149141876</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08663778777008052</v>
+        <v>0.1009836941430394</v>
       </c>
       <c r="O97" t="n">
-        <v>0.024736406738002</v>
+        <v>0.05240945464483817</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04318928067806417</v>
+        <v>0.02657231435123272</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02332922754689931</v>
+        <v>0.05386865412108423</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0230333233270911</v>
+        <v>0.02766835203167409</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02576847682991687</v>
+        <v>0.05417562443541814</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05614332324125845</v>
+        <v>0.06500010249878851</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02549490136203096</v>
+        <v>0.05406455122552559</v>
       </c>
       <c r="N98" t="n">
-        <v>0.08712263453596886</v>
+        <v>0.1020889731453806</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02550941944856456</v>
+        <v>0.05404725010248936</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04393790673513748</v>
+        <v>0.02557058103395776</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02403617383619929</v>
+        <v>0.05550103757929891</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02341088172998011</v>
+        <v>0.02791123185219636</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02654933976415677</v>
+        <v>0.05581731002437022</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05676460568692129</v>
+        <v>0.06469893504834859</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02626747413057736</v>
+        <v>0.05570287095963242</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08826289939920967</v>
+        <v>0.1013881478228993</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02628243215912713</v>
+        <v>0.05568504556014055</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04465646520430518</v>
+        <v>0.02455407534440099</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02474312012549927</v>
+        <v>0.05713342103751359</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02367623273328105</v>
+        <v>0.02770883129011234</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02733020269839668</v>
+        <v>0.05745899561332227</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0572575363604482</v>
+        <v>0.06478461524975926</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02704004689912375</v>
+        <v>0.05734119069373926</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0900580975468469</v>
+        <v>0.1015615428031159</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02705544486968969</v>
+        <v>0.05732284101779175</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04534444141393953</v>
+        <v>0.02552099984819922</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02545006641479925</v>
+        <v>0.05876580449572826</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02402891373438105</v>
+        <v>0.02769016371508409</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02811106563263659</v>
+        <v>0.05910068120227435</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05792179884064452</v>
+        <v>0.06492727984865673</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02781261966767014</v>
+        <v>0.0589795104278461</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09040774416592479</v>
+        <v>0.1010681516917967</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02782845758025225</v>
+        <v>0.05896063647544294</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04600132069241285</v>
+        <v>0.02647244075705943</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02615701270409923</v>
+        <v>0.06039818795394294</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02446846213066715</v>
+        <v>0.02785397459284095</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02889192856687649</v>
+        <v>0.06074236679122641</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05875707670631555</v>
+        <v>0.0647302066719784</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02858519243621653</v>
+        <v>0.06061783016195293</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09171135444348705</v>
+        <v>0.1013126084033491</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02860147029081482</v>
+        <v>0.06059843193309413</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04662658836809737</v>
+        <v>0.02640948428268854</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02686395899339921</v>
+        <v>0.06203057141215761</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02469441531952646</v>
+        <v>0.02770142448313184</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02967279150111639</v>
+        <v>0.06238405238017847</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05886305353626664</v>
+        <v>0.0645960818592729</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02935776520476293</v>
+        <v>0.06225614989605977</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09266844356657777</v>
+        <v>0.1007991277318832</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02937448300137738</v>
+        <v>0.06223622739074532</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04721972976936539</v>
+        <v>0.02433321663679351</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02757090528269919</v>
+        <v>0.06366295487037228</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02510631069834605</v>
+        <v>0.02763367394570576</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0304536544353563</v>
+        <v>0.06402573796913054</v>
       </c>
       <c r="L104" t="n">
-        <v>0.059839412909303</v>
+        <v>0.064527591550089</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03013033797330932</v>
+        <v>0.06389446963016661</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09407852672224093</v>
+        <v>0.1003319244715093</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03014749571193994</v>
+        <v>0.06387402284839652</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04778023022458915</v>
+        <v>0.02424472403108131</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02827785157199916</v>
+        <v>0.06529533832858696</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02530368566451301</v>
+        <v>0.02745188354031163</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03123451736959621</v>
+        <v>0.06566742355808261</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06008583840423001</v>
+        <v>0.06382742188397544</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03090291074185572</v>
+        <v>0.06553278936427345</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09484111909752052</v>
+        <v>0.1008152134163374</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0309205084225025</v>
+        <v>0.06551181830604771</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04830757506214096</v>
+        <v>0.0251450926772589</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02898479786129914</v>
+        <v>0.06692772178680163</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02558607761541441</v>
+        <v>0.0275572138266984</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03201538030383611</v>
+        <v>0.06730910914703467</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06050201359985288</v>
+        <v>0.06359825900048088</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03167548351040211</v>
+        <v>0.06717110909838028</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0959557358794606</v>
+        <v>0.1005532093604777</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03169352113306506</v>
+        <v>0.06714961376369892</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0488012496103931</v>
+        <v>0.02503540878703321</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02969174415059912</v>
+        <v>0.06856010524501631</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02595302394843735</v>
+        <v>0.02745082536461504</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03279624323807601</v>
+        <v>0.06895079473598674</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06128762207497698</v>
+        <v>0.06364278903915413</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0324480562789485</v>
+        <v>0.06880942883248711</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09652189225510516</v>
+        <v>0.09925012709804037</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03246653384362762</v>
+        <v>0.06878740922135011</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04926073919771781</v>
+        <v>0.02491675857211122</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0303986904398991</v>
+        <v>0.07019248870323098</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02610406206096892</v>
+        <v>0.02723387871381051</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03357710617231592</v>
+        <v>0.07059248032493881</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06204234740840761</v>
+        <v>0.06316369813954384</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03322062904749489</v>
+        <v>0.07044774856659394</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09733910341149804</v>
+        <v>0.09891018142313557</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03323954655419019</v>
+        <v>0.0704252046790013</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04968552915248739</v>
+        <v>0.02579022824419985</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03110563672919908</v>
+        <v>0.07182487216144566</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02653872935039618</v>
+        <v>0.02710753443403376</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03435796910655583</v>
+        <v>0.07223416591389087</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06196587317895003</v>
+        <v>0.06306367244119879</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03399320181604128</v>
+        <v>0.07208606830070079</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09710688453568345</v>
+        <v>0.09843758712987349</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03401255926475275</v>
+        <v>0.0720630001366525</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.05007510480307413</v>
+        <v>0.02465690401500609</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03181258301849906</v>
+        <v>0.07345725561966032</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02655656321410621</v>
+        <v>0.02707295308503373</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03513883204079573</v>
+        <v>0.07387585150284293</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06245788296540955</v>
+        <v>0.06244539808366761</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03476577458458768</v>
+        <v>0.07372438803480763</v>
       </c>
       <c r="N110" t="n">
-        <v>0.0985247508147053</v>
+        <v>0.09843655901236437</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03478557197531532</v>
+        <v>0.07370079559430369</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.05042895147785026</v>
+        <v>0.02551787209623688</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03251952930779904</v>
+        <v>0.075089639077875</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02685710104948612</v>
+        <v>0.02693129522655938</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03591969497503564</v>
+        <v>0.07551753709179498</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06281806034659146</v>
+        <v>0.06251156120649912</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03553834735313408</v>
+        <v>0.07536270776891446</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09839221743560755</v>
+        <v>0.0973113118647182</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03555858468587788</v>
+        <v>0.07533859105195488</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.05074655450518809</v>
+        <v>0.02537421869959917</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03322647559709902</v>
+        <v>0.07672202253608967</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02713988025392297</v>
+        <v>0.02658372141835966</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03670055790927554</v>
+        <v>0.07715922268074706</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0634460889013011</v>
+        <v>0.06176484794924197</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03631092012168047</v>
+        <v>0.07700102750302129</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09950879958543418</v>
+        <v>0.09746606048104522</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03633159739644044</v>
+        <v>0.07697638650960607</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05102849212974349</v>
+        <v>0.02522703003679992</v>
       </c>
       <c r="G113" t="n">
-        <v>0.033933421886399</v>
+        <v>0.07835440599430435</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02710443822480385</v>
+        <v>0.02663139222018356</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03748142084351545</v>
+        <v>0.07880090826969913</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06354165220834374</v>
+        <v>0.06130794445144488</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03708349289022685</v>
+        <v>0.07863934723712813</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0997740124512293</v>
+        <v>0.09630501965545563</v>
       </c>
       <c r="O113" t="n">
-        <v>0.037104610107003</v>
+        <v>0.07861418196725727</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05129795064542232</v>
+        <v>0.02407739231954609</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03464036817569898</v>
+        <v>0.07998678945251902</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02745031235951587</v>
+        <v>0.02647546819177998</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03826228377775535</v>
+        <v>0.08044259385865118</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06350443384652465</v>
+        <v>0.06094353685265666</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03785606565877325</v>
+        <v>0.08027766697123496</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09968737122003674</v>
+        <v>0.09573240418205947</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03787762281756556</v>
+        <v>0.08025197742490846</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0515643630855272</v>
+        <v>0.02392639175954461</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03534731446499896</v>
+        <v>0.0816191729107337</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02747704005544606</v>
+        <v>0.02631710989289791</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03904314671199526</v>
+        <v>0.08208427944760326</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06423411739464918</v>
+        <v>0.06087431129242593</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03862863842731964</v>
+        <v>0.0819159867053418</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1009483910789007</v>
+        <v>0.09545242885496708</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03865063552812813</v>
+        <v>0.08188977288255965</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05182763693236306</v>
+        <v>0.02477511456850245</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03605426075429894</v>
+        <v>0.08325155636894838</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02758415870998154</v>
+        <v>0.02615747788328629</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03982400964623516</v>
+        <v>0.08372596503655533</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06433038643152256</v>
+        <v>0.06030295391030144</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03940121119586604</v>
+        <v>0.08355430643944865</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1004565872148649</v>
+        <v>0.09506930846828848</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03942364823869069</v>
+        <v>0.08352756834021084</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05208767966823483</v>
+        <v>0.02462464695812658</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03676120704359892</v>
+        <v>0.08488393982716305</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02757120572050939</v>
+        <v>0.02599773272269408</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04060487258047506</v>
+        <v>0.08536765062550739</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06459292453595017</v>
+        <v>0.06033215084583193</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04017378396441243</v>
+        <v>0.08519262617355548</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1015114748149736</v>
+        <v>0.09408725781613386</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04019666094925325</v>
+        <v>0.08516536379786203</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0523443987754475</v>
+        <v>0.02347571847547664</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0374681533328989</v>
+        <v>0.08651632328537773</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02763771848441669</v>
+        <v>0.02563903497087022</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04138573551471497</v>
+        <v>0.08700933621445946</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06482141528673727</v>
+        <v>0.06006458823856611</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04094635673295882</v>
+        <v>0.08683094590766231</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1017125690662709</v>
+        <v>0.09421049169261347</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04096967365981582</v>
+        <v>0.08680315925551323</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05259770173630599</v>
+        <v>0.02331228735181881</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03817509962219887</v>
+        <v>0.08814870674359239</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02768323439909054</v>
+        <v>0.02558092366864186</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04216659844895488</v>
+        <v>0.08865102180341151</v>
       </c>
       <c r="L119" t="n">
-        <v>0.0645155422626891</v>
+        <v>0.05908949830927751</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04171892950150522</v>
+        <v>0.08846926564176914</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1012593851558003</v>
+        <v>0.09361890278144436</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04174268637037838</v>
+        <v>0.08844095471316442</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.05284749603311528</v>
+        <v>0.02412777294716545</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03888204591149885</v>
+        <v>0.08978109020180707</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02791123185219636</v>
+        <v>0.02530407692220078</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04294746138319478</v>
+        <v>0.09029270739236357</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06500010249878851</v>
+        <v>0.05896262417644499</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04249150227005161</v>
+        <v>0.09010758537587599</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1020889731453806</v>
+        <v>0.09264489659341368</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04251569908094094</v>
+        <v>0.09007875017081561</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.05309368914818031</v>
+        <v>0.02192571426909833</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03958899220079883</v>
+        <v>0.09141347366002174</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02791049429123017</v>
+        <v>0.02530550601785629</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04372832431743469</v>
+        <v>0.09193439298131564</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06439943920530847</v>
+        <v>0.05878795486622138</v>
       </c>
       <c r="M121" t="n">
-        <v>0.043264075038598</v>
+        <v>0.09174590510998282</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1015882435977323</v>
+        <v>0.09209650447851842</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0432887117915035</v>
+        <v>0.0917165456284668</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05333618856380605</v>
+        <v>0.02170965032519927</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04029593849009881</v>
+        <v>0.09304585711823642</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02780238661102666</v>
+        <v>0.02488899219799819</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04450918725167459</v>
+        <v>0.09357607857026772</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06489136727755718</v>
+        <v>0.05807424214234463</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04403664780714439</v>
+        <v>0.09338422484408966</v>
       </c>
       <c r="N122" t="n">
-        <v>0.101677686446219</v>
+        <v>0.09088745873978571</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04406172450206607</v>
+        <v>0.093354341086118</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05357490176229741</v>
+        <v>0.02248312012305011</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04100288477939878</v>
+        <v>0.09467824057645109</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02788556907388011</v>
+        <v>0.02475831670501638</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0452900501859145</v>
+        <v>0.09521776415921977</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06495681988139412</v>
+        <v>0.05733023776855278</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04480922057569079</v>
+        <v>0.09502254457819649</v>
       </c>
       <c r="N123" t="n">
-        <v>0.101035273150335</v>
+        <v>0.09033149168024279</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04483473721262863</v>
+        <v>0.09499213654376919</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05380973622595937</v>
+        <v>0.02324966267023264</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04170983106869876</v>
+        <v>0.09631062403466577</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02776033984525621</v>
+        <v>0.0244172607813007</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04607091312015441</v>
+        <v>0.09685944974817184</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06449697380928937</v>
+        <v>0.05666469350858394</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04558179334423718</v>
+        <v>0.09666086431230334</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1018623332672242</v>
+        <v>0.08884233560291699</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04560774992319119</v>
+        <v>0.09662993200142038</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05404059943709692</v>
+        <v>0.02301281697432871</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04241677735799874</v>
+        <v>0.09794300749288044</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02772699709062058</v>
+        <v>0.02436960566924103</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04685177605439431</v>
+        <v>0.0985011353371239</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06461285314792159</v>
+        <v>0.056486361126176</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04635436611278358</v>
+        <v>0.09829918404641017</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1016598913834375</v>
+        <v>0.08853372281083566</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04638076263375376</v>
+        <v>0.09826772745907157</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05426739887801495</v>
+        <v>0.02277612204292012</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04312372364729872</v>
+        <v>0.09957539095109512</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02768583897543891</v>
+        <v>0.02401913261122723</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04763263898863421</v>
+        <v>0.100142820926076</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06420548198396936</v>
+        <v>0.0559039923850671</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04712693888132996</v>
+        <v>0.099937503780517</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1015289720855258</v>
+        <v>0.0878193856070259</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04715377534431632</v>
+        <v>0.09990552291672276</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05449004203101845</v>
+        <v>0.02254311688358868</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0438306699365987</v>
+        <v>0.1012077744093098</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02773716366517685</v>
+        <v>0.02376962284964916</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04841350192287412</v>
+        <v>0.101784506515028</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06427588440411131</v>
+        <v>0.05492633904899519</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04789951164987636</v>
+        <v>0.1015758235146238</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1008705999600402</v>
+        <v>0.08671305629451503</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04792678805487888</v>
+        <v>0.101543318374374</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05470843637841237</v>
+        <v>0.02231734050391621</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04453761622589868</v>
+        <v>0.1028401578675245</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02768126932530005</v>
+        <v>0.02342485762689668</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04919436485711402</v>
+        <v>0.1034261921039801</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06422508449502601</v>
+        <v>0.05476215288169833</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04867208441842275</v>
+        <v>0.1032141432487307</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1012857995935316</v>
+        <v>0.08602846717633045</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04869980076544144</v>
+        <v>0.1031811138320251</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05492248940250165</v>
+        <v>0.02110224646335006</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04524456251519866</v>
+        <v>0.1044725413257391</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02751845412127416</v>
+        <v>0.02328861818535964</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04997522779135393</v>
+        <v>0.1050678776929322</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06365410634339216</v>
+        <v>0.05422018564691455</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04944465718696914</v>
+        <v>0.1048524629828375</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1001755955725509</v>
+        <v>0.08467935055549924</v>
       </c>
       <c r="O129" t="n">
-        <v>0.049472813476004</v>
+        <v>0.1048189092896763</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05513210858559123</v>
+        <v>0.02187967963390622</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04595150880449864</v>
+        <v>0.1061049247839538</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02734901621856484</v>
+        <v>0.02306281093637273</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05075609072559383</v>
+        <v>0.1067095632818842</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06386397403588831</v>
+        <v>0.05349326128999812</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05021722995551554</v>
+        <v>0.1064907827169444</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1009410124836492</v>
+        <v>0.08425058018540982</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05024582618656657</v>
+        <v>0.1064567047473275</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05533720140998609</v>
+        <v>0.02163741670240159</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04665845509379862</v>
+        <v>0.1077373082421685</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02727325378263776</v>
+        <v>0.02292223483920323</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05153695365983374</v>
+        <v>0.1083512488708363</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06385571165919315</v>
+        <v>0.05322041847127904</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05098980272406193</v>
+        <v>0.1081291024510512</v>
       </c>
       <c r="N131" t="n">
-        <v>0.09968307491337736</v>
+        <v>0.08344793713747745</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05101883889712912</v>
+        <v>0.1080945002049787</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05553767535799119</v>
+        <v>0.02138052375922631</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0473654013830986</v>
+        <v>0.1093696917003831</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02739146497895859</v>
+        <v>0.02246203676565006</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05231781659407365</v>
+        <v>0.1099929344597883</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06363034329998526</v>
+        <v>0.05210549010276519</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05176237549260833</v>
+        <v>0.109767422185158</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0998028074482864</v>
+        <v>0.08258007387085237</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05179185160769169</v>
+        <v>0.1097322956626299</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05573343791191145</v>
+        <v>0.02111406689477047</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04807234767239858</v>
+        <v>0.1110020751585978</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02720394797299293</v>
+        <v>0.02238762956530208</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05309867952831354</v>
+        <v>0.1116346200487404</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06298889304494326</v>
+        <v>0.05176100433681136</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05253494826115471</v>
+        <v>0.1114057419192648</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09960123467492721</v>
+        <v>0.08116664818134101</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05256486431825425</v>
+        <v>0.1113700911202811</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05592439655405183</v>
+        <v>0.02084311219942422</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04877929396169856</v>
+        <v>0.1126344586168125</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02701100093020649</v>
+        <v>0.02210442608774803</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05387954246255346</v>
+        <v>0.1132763056376925</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06273238498074579</v>
+        <v>0.05099948932577236</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05330752102970111</v>
+        <v>0.1130440616533717</v>
       </c>
       <c r="N134" t="n">
-        <v>0.09947938117985078</v>
+        <v>0.07952731786474987</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05333787702881682</v>
+        <v>0.1130078865779323</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05611045876671732</v>
+        <v>0.0185727257635777</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04948624025099854</v>
+        <v>0.1142668420750272</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02691292201606492</v>
+        <v>0.02161783918257676</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05466040539679336</v>
+        <v>0.1149179912266445</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06246184319407147</v>
+        <v>0.05043347322200303</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05408009379824751</v>
+        <v>0.1146823813874785</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09843827154960821</v>
+        <v>0.0794817407168853</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05411088973937937</v>
+        <v>0.1146456820355835</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05629153203221282</v>
+        <v>0.02030797367762103</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05019318654029852</v>
+        <v>0.1158992255332418</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02681000939603384</v>
+        <v>0.02133328169937707</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05544126833103327</v>
+        <v>0.1165596768155966</v>
       </c>
       <c r="L136" t="n">
-        <v>0.0625782917715989</v>
+        <v>0.04977548417785826</v>
       </c>
       <c r="M136" t="n">
-        <v>0.0548526665667939</v>
+        <v>0.1163207011215854</v>
       </c>
       <c r="N136" t="n">
-        <v>0.09827893037075019</v>
+        <v>0.07814957453355359</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05488390244994194</v>
+        <v>0.1162834774932347</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05646752383284333</v>
+        <v>0.01905392203194434</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0509001328295985</v>
+        <v>0.1175316089914565</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02680256123557896</v>
+        <v>0.02125616648773776</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05622213126527317</v>
+        <v>0.1182013624045487</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06168275480000671</v>
+        <v>0.04873805034569278</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05562523933534028</v>
+        <v>0.1179590208556922</v>
       </c>
       <c r="N137" t="n">
-        <v>0.09820238222982797</v>
+        <v>0.07695047711056135</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0556569151605045</v>
+        <v>0.1179212729508859</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05663834165091375</v>
+        <v>0.01881563691693773</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05160707911889848</v>
+        <v>0.1191639924496712</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0267908757001659</v>
+        <v>0.02099190639724764</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05700299419951307</v>
+        <v>0.1198430479935007</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06137625636597355</v>
+        <v>0.04873369987786141</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05639781210388668</v>
+        <v>0.119597340589799</v>
       </c>
       <c r="N138" t="n">
-        <v>0.09790965171339228</v>
+        <v>0.07570410624371499</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05642992787106707</v>
+        <v>0.1195590684085371</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05680389296872908</v>
+        <v>0.01959818442299138</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05231402540819846</v>
+        <v>0.1207963759078859</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02667525095526033</v>
+        <v>0.02074591427749553</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05778385713375298</v>
+        <v>0.1214847335824528</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06115982055617797</v>
+        <v>0.04777496092671907</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05717038487243307</v>
+        <v>0.1212356603239059</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09760176340799426</v>
+        <v>0.07563011972882089</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05720294058162963</v>
+        <v>0.1211968638661883</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05696408526859426</v>
+        <v>0.01740663064049538</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05302097169749844</v>
+        <v>0.1224287593661005</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02655598516632789</v>
+        <v>0.02032360297807022</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05856472006799288</v>
+        <v>0.1231264191714049</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06093447145729861</v>
+        <v>0.04737436164462053</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05794295764097947</v>
+        <v>0.1228739800580127</v>
       </c>
       <c r="N140" t="n">
-        <v>0.09677974190018479</v>
+        <v>0.0746481753616855</v>
       </c>
       <c r="O140" t="n">
-        <v>0.0579759532921922</v>
+        <v>0.1228346593238395</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05711882603281423</v>
+        <v>0.01824604165983986</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05372791798679841</v>
+        <v>0.1240611428243152</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02643337649883426</v>
+        <v>0.02013038534856053</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05934558300223278</v>
+        <v>0.1247681047603569</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06080123315601416</v>
+        <v>0.04714443018392059</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05871553040952586</v>
+        <v>0.1245122997921195</v>
       </c>
       <c r="N141" t="n">
-        <v>0.09614461177651479</v>
+        <v>0.07387793093811523</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05874896600275475</v>
+        <v>0.1244724547814906</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05726802274369396</v>
+        <v>0.01812148357141496</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05443486427609839</v>
+        <v>0.1256935262825299</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02610772311824507</v>
+        <v>0.01997167423855525</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06012644593647269</v>
+        <v>0.126409790349309</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06036112973900323</v>
+        <v>0.04669769469697402</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05948810317807224</v>
+        <v>0.1261506195262264</v>
       </c>
       <c r="N142" t="n">
-        <v>0.09659739762353531</v>
+        <v>0.07343904425391656</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05952197871331732</v>
+        <v>0.1261102502391419</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05741158288353838</v>
+        <v>0.01803802246561081</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05514181056539837</v>
+        <v>0.1273259097407446</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02617932319002601</v>
+        <v>0.01985288249764319</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06090730887071261</v>
+        <v>0.1280514759382611</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06011518529294435</v>
+        <v>0.04664668333613581</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06026067594661864</v>
+        <v>0.1277889392603332</v>
       </c>
       <c r="N143" t="n">
-        <v>0.09513912402779734</v>
+        <v>0.07225117310489582</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06029499142387988</v>
+        <v>0.127748045696793</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05754941393465247</v>
+        <v>0.01900072443281753</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05584875685469835</v>
+        <v>0.1289582931989592</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02594847487964271</v>
+        <v>0.0198794229754132</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06168817180495251</v>
+        <v>0.1296931615272131</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05936442390451621</v>
+        <v>0.04610392425376064</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06103324871516504</v>
+        <v>0.12942725899444</v>
       </c>
       <c r="N144" t="n">
-        <v>0.09547081557585169</v>
+        <v>0.07293397528685952</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06106800413444245</v>
+        <v>0.1293858411544442</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05768142337934118</v>
+        <v>0.01800137703572133</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05655570314399833</v>
+        <v>0.1305906766571739</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02571547635256084</v>
+        <v>0.01995655659289144</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06246903473919242</v>
+        <v>0.1313348471161652</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05950986966039742</v>
+        <v>0.04597605977001173</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06180582148371144</v>
+        <v>0.1310655787285469</v>
       </c>
       <c r="N145" t="n">
-        <v>0.09429349685424943</v>
+        <v>0.07289554905487905</v>
       </c>
       <c r="O145" t="n">
-        <v>0.061841016845005</v>
+        <v>0.1310236366120954</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05780751869990944</v>
+        <v>0.01701069153011347</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05726264943329831</v>
+        <v>0.1322230601153886</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02568062577424607</v>
+        <v>0.01996118434081988</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06324989767343232</v>
+        <v>0.1329765327051173</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05905254664726658</v>
+        <v>0.04599124571518526</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06257839425225782</v>
+        <v>0.1327038984626537</v>
       </c>
       <c r="N146" t="n">
-        <v>0.09410819244954149</v>
+        <v>0.07222046833999857</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06261402955556757</v>
+        <v>0.1326614320697466</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05792760737866222</v>
+        <v>0.0180270002005756</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05796959572259829</v>
+        <v>0.1338554435736033</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02564422131016403</v>
+        <v>0.01987350858290057</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06403076060767222</v>
+        <v>0.1346182182940693</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05879347895180237</v>
+        <v>0.04622405878431682</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06335096702080423</v>
+        <v>0.1343422181967606</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09411592694827892</v>
+        <v>0.0726730004576786</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06338704226613012</v>
+        <v>0.1342992275273978</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05804159689790446</v>
+        <v>0.01904993079263129</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05867654201189827</v>
+        <v>0.1354878270318179</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02530656112578036</v>
+        <v>0.01989313158491743</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06481162354191213</v>
+        <v>0.1362599038830214</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05803369066068334</v>
+        <v>0.04617357841333508</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06412353978935061</v>
+        <v>0.1359805379308674</v>
       </c>
       <c r="N148" t="n">
-        <v>0.09281772493701257</v>
+        <v>0.07235170096024418</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06416005497669269</v>
+        <v>0.135937022985049</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05814939473994113</v>
+        <v>0.01807911105180406</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05938348830119825</v>
+        <v>0.1371202104900326</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02526794338656078</v>
+        <v>0.01991965561265441</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06559248647615203</v>
+        <v>0.1379015894719735</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05767420586058816</v>
+        <v>0.0466388840381686</v>
       </c>
       <c r="M149" t="n">
-        <v>0.064896112557897</v>
+        <v>0.1376188576649742</v>
       </c>
       <c r="N149" t="n">
-        <v>0.0922146110022935</v>
+        <v>0.07325512540001999</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06493306768725525</v>
+        <v>0.1375748184427002</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05825090838707718</v>
+        <v>0.01811416872361749</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06009043459049823</v>
+        <v>0.1387525939482473</v>
       </c>
       <c r="J150" t="n">
-        <v>0.0250286662579709</v>
+        <v>0.01995268293189545</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06637334941039193</v>
+        <v>0.1395432750609255</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05731604863819539</v>
+        <v>0.0463190550947459</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06566868532644339</v>
+        <v>0.1392571773990811</v>
       </c>
       <c r="N150" t="n">
-        <v>0.09240760973067252</v>
+        <v>0.07288182932933102</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06570608039781782</v>
+        <v>0.1392126139003514</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05834604532161754</v>
+        <v>0.01915473155359511</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0607973808797982</v>
+        <v>0.140384977406462</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02508902790547639</v>
+        <v>0.02009181580842451</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06715421234463184</v>
+        <v>0.1411849606498776</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05726024308018371</v>
+        <v>0.04641317101899567</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06644125809498978</v>
+        <v>0.1408954971331879</v>
       </c>
       <c r="N151" t="n">
-        <v>0.09149774570870084</v>
+        <v>0.07283036830050199</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06647909310838038</v>
+        <v>0.1408504093580026</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05843471302586718</v>
+        <v>0.01720042728726047</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06150432716909818</v>
+        <v>0.1420173608646766</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02474932649454288</v>
+        <v>0.02013665650802551</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06793507527887176</v>
+        <v>0.1428266462388297</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05710781327323175</v>
+        <v>0.04632031124684635</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06721383086353619</v>
+        <v>0.1425338168672947</v>
       </c>
       <c r="N152" t="n">
-        <v>0.09128604352292913</v>
+        <v>0.07349929786585779</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06725210581894293</v>
+        <v>0.1424882048156538</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05851681898213108</v>
+        <v>0.01925088367013712</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06221127345839816</v>
+        <v>0.1436497443228913</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02460986019063607</v>
+        <v>0.0199868072964824</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06871593821311166</v>
+        <v>0.1444683318277817</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05635978330401806</v>
+        <v>0.04663955521422655</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06798640363208257</v>
+        <v>0.1441721366014016</v>
       </c>
       <c r="N153" t="n">
-        <v>0.09097352775990858</v>
+        <v>0.07318717357772336</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0680251185295055</v>
+        <v>0.144126000273305</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05859227067271414</v>
+        <v>0.01730572844774861</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06291821974769814</v>
+        <v>0.145282127781106</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0246709271592216</v>
+        <v>0.02004187043957914</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06949680114735156</v>
+        <v>0.1461100174167338</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05631717725922136</v>
+        <v>0.04686998235706494</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06875897640062897</v>
+        <v>0.1458104563355084</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08986122300618998</v>
+        <v>0.07399255098842344</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06879813124006808</v>
+        <v>0.1457637957309562</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05866097557992134</v>
+        <v>0.01736458936561849</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06362516603699812</v>
+        <v>0.1469145112393206</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02433282556576512</v>
+        <v>0.02020144820309965</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07027766408159146</v>
+        <v>0.1477517030056859</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05558101922552017</v>
+        <v>0.04691067211128994</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06953154916917537</v>
+        <v>0.1474487760696153</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08965015384832453</v>
+        <v>0.07421398565028292</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06957114395063063</v>
+        <v>0.1474015911886074</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05872284118605763</v>
+        <v>0.0174270941692703</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0643321123262981</v>
+        <v>0.1485468946975353</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02439585357573229</v>
+        <v>0.02036514285282789</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07105852701583137</v>
+        <v>0.1493933885946379</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05555233328959316</v>
+        <v>0.04716070391283025</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07030412193772174</v>
+        <v>0.1490870958037221</v>
       </c>
       <c r="N156" t="n">
-        <v>0.08954134487286292</v>
+        <v>0.07355003311562663</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0703441566611932</v>
+        <v>0.1490393866462585</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05877777497342798</v>
+        <v>0.01950916175753629</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06503905861559808</v>
+        <v>0.15017927815575</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02406030935458878</v>
+        <v>0.02033293116856573</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07183938995007128</v>
+        <v>0.15103507418359</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05483214353811899</v>
+        <v>0.04762757631533165</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07107669470626815</v>
+        <v>0.1507254155378289</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08873582066635632</v>
+        <v>0.07481539109099367</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07111716937175576</v>
+        <v>0.1506771821039098</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05882568442433732</v>
+        <v>0.01965018375393324</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06574600490489806</v>
+        <v>0.1518116616139647</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02412136508657753</v>
+        <v>0.02054373872350937</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07262025288431118</v>
+        <v>0.1526767597725421</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05491680528791987</v>
+        <v>0.0479183640453319</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07184926747481453</v>
+        <v>0.1523637352719358</v>
       </c>
       <c r="N158" t="n">
-        <v>0.08832123602380876</v>
+        <v>0.07497990303483371</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07189018208231832</v>
+        <v>0.1523149775615609</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0588664770210906</v>
+        <v>0.01784169747492329</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06645295119419804</v>
+        <v>0.1534440450721793</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02397099259652968</v>
+        <v>0.02051539973743939</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07340111581855108</v>
+        <v>0.1543184453614941</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05419898545156956</v>
+        <v>0.04784423592213513</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07262184024336094</v>
+        <v>0.1540020550060426</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08777572404524381</v>
+        <v>0.07495496240891736</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07266319479288089</v>
+        <v>0.1539527730192121</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05890006024599279</v>
+        <v>0.0180724654563306</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06715989748349802</v>
+        <v>0.155076428530394</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02360977147797869</v>
+        <v>0.02083590757433885</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07418197875279098</v>
+        <v>0.1559601309504462</v>
       </c>
       <c r="L160" t="n">
-        <v>0.0538784628855154</v>
+        <v>0.04877740233828554</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07339441301190733</v>
+        <v>0.1556403747401494</v>
       </c>
       <c r="N160" t="n">
-        <v>0.08720011566217345</v>
+        <v>0.07609696482423051</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07343620750344344</v>
+        <v>0.1555905684768633</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05892634158134884</v>
+        <v>0.0193312502339793</v>
       </c>
       <c r="G161" t="n">
-        <v>0.067866843772798</v>
+        <v>0.1567088119886087</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02363841602372302</v>
+        <v>0.02109325559819071</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07496284168703089</v>
+        <v>0.1576018165393983</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05365512688102839</v>
+        <v>0.04899007368632741</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07416698578045371</v>
+        <v>0.1572786944742563</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08649564171364599</v>
+        <v>0.07736230589175924</v>
       </c>
       <c r="O161" t="n">
-        <v>0.074209220214006</v>
+        <v>0.1572283639345145</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05894522850946368</v>
+        <v>0.01860681434369353</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06857379006209798</v>
+        <v>0.1583411954468234</v>
       </c>
       <c r="J162" t="n">
-        <v>0.0234576405265612</v>
+        <v>0.02147543717297792</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07574370462127081</v>
+        <v>0.1592435021283503</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05372886672937979</v>
+        <v>0.04975446035880493</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07493955854900011</v>
+        <v>0.1589170142083631</v>
       </c>
       <c r="N162" t="n">
-        <v>0.0855635330387095</v>
+        <v>0.0778073812224897</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07498223292456857</v>
+        <v>0.1588661593921657</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0589566285126423</v>
+        <v>0.01888792032129742</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06928073635139796</v>
+        <v>0.159973578905038</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02326815927929174</v>
+        <v>0.02167044566268353</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07652456755551071</v>
+        <v>0.1608851877173024</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05349957172184061</v>
+        <v>0.05064277274826243</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0757121313175465</v>
+        <v>0.1605553339424699</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08530502047641236</v>
+        <v>0.07918858642740767</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07575524563513113</v>
+        <v>0.1605039548498169</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05896044907318962</v>
+        <v>0.02116333070261513</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06998768264069793</v>
+        <v>0.1616059623632527</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02297068657471314</v>
+        <v>0.0220662744312905</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07730543048975061</v>
+        <v>0.1625268733062545</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05316713114968191</v>
+        <v>0.05102722124724407</v>
       </c>
       <c r="M164" t="n">
-        <v>0.0764847040860929</v>
+        <v>0.1621936536765768</v>
       </c>
       <c r="N164" t="n">
-        <v>0.08432133486580279</v>
+        <v>0.08076231711749948</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0765282583456937</v>
+        <v>0.1621417503074681</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05896044907318962</v>
+        <v>0.01942180802347077</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06998768264069793</v>
+        <v>0.1632383458214674</v>
       </c>
       <c r="J165" t="n">
-        <v>0.0226659367056239</v>
+        <v>0.0222509168427818</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07808629342399051</v>
+        <v>0.1641685588952065</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05263143430417486</v>
+        <v>0.05158001624829411</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07725727685463929</v>
+        <v>0.1638319734106836</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08351370704592903</v>
+        <v>0.08098496890375079</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07730127105625625</v>
+        <v>0.1637795457651193</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05798385593755925</v>
+        <v>0.01965211481968851</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06998741411223391</v>
+        <v>0.1648707292796821</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02255462396482258</v>
+        <v>0.02251236626114045</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07886715635823043</v>
+        <v>0.1658102444841586</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0519923704765905</v>
+        <v>0.05277336814395681</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07802984962318568</v>
+        <v>0.1654702931447904</v>
       </c>
       <c r="N166" t="n">
-        <v>0.08338336785583927</v>
+        <v>0.0823129373971479</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07807428376681881</v>
+        <v>0.1654173412227705</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05701806987057545</v>
+        <v>0.02085241158503812</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06998714558376991</v>
+        <v>0.1665031127378968</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02233746264510761</v>
+        <v>0.02263895343696314</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07964801929247033</v>
+        <v>0.1674519300731107</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05154982895820001</v>
+        <v>0.05268467070096849</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07880242239173207</v>
+        <v>0.1671086128788973</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08183154813458182</v>
+        <v>0.08331240081439129</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07884729647738138</v>
+        <v>0.1670551366804217</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05606357390776931</v>
+        <v>0.02004586113695248</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06998687705530587</v>
+        <v>0.1681354961961114</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02211516703927754</v>
+        <v>0.02284617005674262</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08042888222671023</v>
+        <v>0.1690936156620627</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05120369904027441</v>
+        <v>0.05346381353527419</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07957499516027847</v>
+        <v>0.1687469326130041</v>
       </c>
       <c r="N168" t="n">
-        <v>0.08155947872120495</v>
+        <v>0.08436410924137472</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07962030918794394</v>
+        <v>0.1686929321380729</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05512085108479632</v>
+        <v>0.021234661020895</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06998660852684187</v>
+        <v>0.1697678796543261</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02188845144013089</v>
+        <v>0.02314823971601908</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08120974516095013</v>
+        <v>0.1707353012510148</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05125387001408477</v>
+        <v>0.05363119301884675</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08034756792882486</v>
+        <v>0.170385252347111</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08046839045475679</v>
+        <v>0.08449739651499993</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0803933218985065</v>
+        <v>0.1703307275957241</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05419038443718709</v>
+        <v>0.02041916772305165</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06998633999837785</v>
+        <v>0.1714002631125408</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02175803014046616</v>
+        <v>0.0233455433014243</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08199060809519003</v>
+        <v>0.1723769868399669</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05060023117090229</v>
+        <v>0.05418769072167545</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08112014069737125</v>
+        <v>0.1720235720812178</v>
       </c>
       <c r="N170" t="n">
-        <v>0.08005951417428564</v>
+        <v>0.08571364589772618</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08116633460906908</v>
+        <v>0.1719685230533753</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.05327265700051401</v>
+        <v>0.02159973772960842</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06998607146991383</v>
+        <v>0.1730326465707555</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02152461743308183</v>
+        <v>0.02363846169959015</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08277147102942994</v>
+        <v>0.1740186724289189</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05074267180199796</v>
+        <v>0.05453418821374939</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08189271346591764</v>
+        <v>0.1736618918153246</v>
       </c>
       <c r="N171" t="n">
-        <v>0.07893408071883978</v>
+        <v>0.08621424065201283</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08193934731963164</v>
+        <v>0.1736063185110265</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.05236815181031039</v>
+        <v>0.02077672752675132</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06998580294144981</v>
+        <v>0.1746650300289701</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02118892761077644</v>
+        <v>0.02372737579714847</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08355233396366986</v>
+        <v>0.175660358017871</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04998108119864297</v>
+        <v>0.05517156706505785</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08266528623446404</v>
+        <v>0.1753002115494315</v>
       </c>
       <c r="N172" t="n">
-        <v>0.07779332092746744</v>
+        <v>0.08700056404031931</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08271236003019419</v>
+        <v>0.1752441139686776</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.05147735190222738</v>
+        <v>0.02095049360066635</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06998553441298579</v>
+        <v>0.1762974134871848</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02085167496634847</v>
+        <v>0.0240126664807311</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08433319689790976</v>
+        <v>0.177302043606823</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04941534865210839</v>
+        <v>0.05550070884559</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08343785900301044</v>
+        <v>0.1769385312835383</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07763846563921689</v>
+        <v>0.08697399932510474</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08348537274075676</v>
+        <v>0.1768819094263288</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.05060074031179769</v>
+        <v>0.02212139243753949</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06998526588452178</v>
+        <v>0.1779297969453995</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02081357379259648</v>
+        <v>0.02399471463696982</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08511405983214966</v>
+        <v>0.1789437291957751</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04904536345366525</v>
+        <v>0.05592249512533506</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08421043177155682</v>
+        <v>0.1785768510176451</v>
       </c>
       <c r="N174" t="n">
-        <v>0.07677074569313624</v>
+        <v>0.08853592976882857</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08425838545131932</v>
+        <v>0.17851970488398</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04973880007459372</v>
+        <v>0.02328978052355676</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06998499735605776</v>
+        <v>0.1795621804036141</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02047533838231892</v>
+        <v>0.02427390115249656</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08589492276638956</v>
+        <v>0.1805854147847271</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0488710148945847</v>
+        <v>0.05643780747428226</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08498300454010321</v>
+        <v>0.180215170751752</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07559139192827385</v>
+        <v>0.08878773863394984</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08503139816188188</v>
+        <v>0.1801575003416312</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04889201422615137</v>
+        <v>0.0234560143449041</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06998472882759374</v>
+        <v>0.1811945638618288</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02033768302831433</v>
+        <v>0.02435060691394308</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08667578570062946</v>
+        <v>0.1822271003736792</v>
       </c>
       <c r="L176" t="n">
-        <v>0.04869219226613791</v>
+        <v>0.05674752746242076</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08575557730864962</v>
+        <v>0.1818534904858588</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07430163518367783</v>
+        <v>0.08993080918292817</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08580441087244445</v>
+        <v>0.1817952957992824</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04806086580211671</v>
+        <v>0.02362045038776756</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06998446029912972</v>
+        <v>0.1828269473200435</v>
       </c>
       <c r="J177" t="n">
-        <v>0.01990132202338121</v>
+        <v>0.02452521280794127</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08745664863486938</v>
+        <v>0.1838687859626313</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04800878485959584</v>
+        <v>0.05705253665973978</v>
       </c>
       <c r="M177" t="n">
-        <v>0.086528150077196</v>
+        <v>0.1834918102199656</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07380270629839669</v>
+        <v>0.08976652467822271</v>
       </c>
       <c r="O177" t="n">
-        <v>0.086577423583007</v>
+        <v>0.1834330912569336</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04724583783802497</v>
+        <v>0.02278455774051821</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06998419177066571</v>
+        <v>0.1844593307782582</v>
       </c>
       <c r="J178" t="n">
-        <v>0.01986696966031808</v>
+        <v>0.02469809972112291</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08823751156910928</v>
+        <v>0.1855104715515833</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04802068196622966</v>
+        <v>0.0579538131286593</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0873007228457424</v>
+        <v>0.1851301299540725</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07279583611147838</v>
+        <v>0.09029656054027246</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08735043629356957</v>
+        <v>0.1850708867145848</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04644741336944853</v>
+        <v>0.02195777507717185</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06998392324220169</v>
+        <v>0.1860917142364728</v>
       </c>
       <c r="J179" t="n">
-        <v>0.01963534023192341</v>
+        <v>0.0249756021567606</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08901837450334918</v>
+        <v>0.1871521571405354</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04762777287731043</v>
+        <v>0.05847121245170434</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08807329561428878</v>
+        <v>0.1867684496881793</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0724822554619714</v>
+        <v>0.09135309853400941</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08812344900413213</v>
+        <v>0.186708682172236</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04566607543192616</v>
+        <v>0.02313726760088756</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06998365471373767</v>
+        <v>0.1877240976946875</v>
       </c>
       <c r="J180" t="n">
-        <v>0.01930714803099577</v>
+        <v>0.0252628257259869</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08979923743758909</v>
+        <v>0.1887938427294875</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04712994688410932</v>
+        <v>0.05890873784562892</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08884586838283519</v>
+        <v>0.1884067694222862</v>
       </c>
       <c r="N180" t="n">
-        <v>0.0709631951889238</v>
+        <v>0.09184057969784348</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08889646171469469</v>
+        <v>0.1883464776298872</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04490230706109828</v>
+        <v>0.02331691150773475</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06998338618527365</v>
+        <v>0.1893564811529022</v>
       </c>
       <c r="J181" t="n">
-        <v>0.01908310735033361</v>
+        <v>0.02535332432030925</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09058010037182899</v>
+        <v>0.1904355283184395</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04642709327789735</v>
+        <v>0.05925124549286845</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08961844115138158</v>
+        <v>0.190045089156393</v>
       </c>
       <c r="N181" t="n">
-        <v>0.06973988613138382</v>
+        <v>0.0928352420224231</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08966947442525726</v>
+        <v>0.1899842730875384</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04415659129250289</v>
+        <v>0.02349058299378277</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06998311765680965</v>
+        <v>0.1909888646111169</v>
       </c>
       <c r="J182" t="n">
-        <v>0.01896393248273548</v>
+        <v>0.02564055497917329</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09136096330606891</v>
+        <v>0.1920772139073916</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04641910134994565</v>
+        <v>0.0595835915758583</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09039101391992796</v>
+        <v>0.1916834088904998</v>
       </c>
       <c r="N182" t="n">
-        <v>0.06881355912839987</v>
+        <v>0.09331332349839672</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09044248713581982</v>
+        <v>0.1916220685451896</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04342941116171238</v>
+        <v>0.02265215825510104</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06998284912834563</v>
+        <v>0.1926212480693315</v>
       </c>
       <c r="J183" t="n">
-        <v>0.01875033772099985</v>
+        <v>0.02581797474202456</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09214182624030881</v>
+        <v>0.1937188994963437</v>
       </c>
       <c r="L183" t="n">
-        <v>0.04590586039152528</v>
+        <v>0.05989063227703401</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09116358668847437</v>
+        <v>0.1933217286246067</v>
       </c>
       <c r="N183" t="n">
-        <v>0.06778544501902001</v>
+        <v>0.09355106211641268</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09121549984638237</v>
+        <v>0.1932598640028408</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04272124970426874</v>
+        <v>0.02379551348775898</v>
       </c>
       <c r="G184" t="n">
-        <v>0.06998258059988161</v>
+        <v>0.1942536315275462</v>
       </c>
       <c r="J184" t="n">
-        <v>0.01834303735792527</v>
+        <v>0.02577904064830863</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09292268917454871</v>
+        <v>0.1953605850852957</v>
       </c>
       <c r="L184" t="n">
-        <v>0.04538725969390742</v>
+        <v>0.06035722377883093</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09193615945702076</v>
+        <v>0.1949600483587135</v>
       </c>
       <c r="N184" t="n">
-        <v>0.06695677464229266</v>
+        <v>0.09512469586711925</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09198851255694494</v>
+        <v>0.194897659460492</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04203258995580604</v>
+        <v>0.02391452488782592</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06998231207141759</v>
+        <v>0.1958860149857609</v>
       </c>
       <c r="J185" t="n">
-        <v>0.01814274568631019</v>
+        <v>0.02611720973747116</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09370355210878861</v>
+        <v>0.1970022706742478</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04516318854836307</v>
+        <v>0.06056822226368452</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09270873222556715</v>
+        <v>0.1965983680928203</v>
       </c>
       <c r="N185" t="n">
-        <v>0.06652877883726588</v>
+        <v>0.09471046274116474</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09276152526750751</v>
+        <v>0.1965354549181431</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04136391495186541</v>
+        <v>0.02400306865137128</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06998204354295356</v>
+        <v>0.1975183984439756</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0181501769989532</v>
+        <v>0.02622593904895762</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09448441504302851</v>
+        <v>0.1986439562631999</v>
       </c>
       <c r="L186" t="n">
-        <v>0.04443353624616336</v>
+        <v>0.0609084839140302</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09348130499411354</v>
+        <v>0.1982366878269272</v>
       </c>
       <c r="N186" t="n">
-        <v>0.06510268844298811</v>
+        <v>0.09598460072919773</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09353453797807007</v>
+        <v>0.1981732503757943</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.04071570772801922</v>
+        <v>0.02306907862953649</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06998177501448956</v>
+        <v>0.1991507819021902</v>
       </c>
       <c r="J187" t="n">
-        <v>0.01776604558865273</v>
+        <v>0.02620216512218962</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09526527797726843</v>
+        <v>0.2002856418521519</v>
       </c>
       <c r="L187" t="n">
-        <v>0.04389819207857945</v>
+        <v>0.0609783122650604</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09425387776265992</v>
+        <v>0.199875007561034</v>
       </c>
       <c r="N187" t="n">
-        <v>0.06427973429850742</v>
+        <v>0.09614974886865518</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09430755068863264</v>
+        <v>0.1998110458334455</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.04008845131981306</v>
+        <v>0.02413333765647349</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06998150648602552</v>
+        <v>0.2007831653604049</v>
       </c>
       <c r="J188" t="n">
-        <v>0.01779106574820735</v>
+        <v>0.0262707002173023</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09604614091150833</v>
+        <v>0.201927327441104</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04365704533688236</v>
+        <v>0.06133704221813482</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09502645053120633</v>
+        <v>0.2015133272951408</v>
       </c>
       <c r="N188" t="n">
-        <v>0.06356114724287215</v>
+        <v>0.09639883558498175</v>
       </c>
       <c r="O188" t="n">
-        <v>0.0950805633991952</v>
+        <v>0.2014488412910967</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03948262876287394</v>
+        <v>0.02319616123992058</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06998123795756152</v>
+        <v>0.2024155488186196</v>
       </c>
       <c r="J189" t="n">
-        <v>0.01762595177041552</v>
+        <v>0.02633772067638956</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09682700384574824</v>
+        <v>0.2035690130300561</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04350998531234324</v>
+        <v>0.06149225061077129</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09579902329975272</v>
+        <v>0.2031516470292477</v>
       </c>
       <c r="N189" t="n">
-        <v>0.06304815811513054</v>
+        <v>0.09634239276054068</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09585357610975775</v>
+        <v>0.2030866367487479</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03889675069749234</v>
+        <v>0.02525752684345062</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0699809694290975</v>
+        <v>0.2040479322768343</v>
       </c>
       <c r="J190" t="n">
-        <v>0.01727141794807578</v>
+        <v>0.02650320242047122</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09760786677998814</v>
+        <v>0.2052106986190081</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04245690129623314</v>
+        <v>0.06134388171167182</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09657159606829911</v>
+        <v>0.2047899667633545</v>
       </c>
       <c r="N190" t="n">
-        <v>0.06154199775433067</v>
+        <v>0.09668033294792222</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09662658882032032</v>
+        <v>0.2047244322063991</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03831946578771701</v>
+        <v>0.02531741193063647</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06998070090063349</v>
+        <v>0.2056803157350489</v>
       </c>
       <c r="J191" t="n">
-        <v>0.01722817857398662</v>
+        <v>0.026367121370567</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09838872971422805</v>
+        <v>0.2068523842079602</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04259768257982316</v>
+        <v>0.06129187978953873</v>
       </c>
       <c r="M191" t="n">
-        <v>0.0973441688368455</v>
+        <v>0.2064282864974614</v>
       </c>
       <c r="N191" t="n">
-        <v>0.06054389699952101</v>
+        <v>0.09681256869971644</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09739960153088288</v>
+        <v>0.2063622276640503</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03774928467384192</v>
+        <v>0.02437579396505105</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06998043237216946</v>
+        <v>0.2073126991932636</v>
       </c>
       <c r="J192" t="n">
-        <v>0.01709694794094654</v>
+        <v>0.02652945344769676</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09916959264846796</v>
+        <v>0.2084940697969123</v>
       </c>
       <c r="L192" t="n">
-        <v>0.0415322184543844</v>
+        <v>0.06143618911307402</v>
       </c>
       <c r="M192" t="n">
-        <v>0.0981167416053919</v>
+        <v>0.2080666062315682</v>
       </c>
       <c r="N192" t="n">
-        <v>0.05965508668974967</v>
+        <v>0.09723901256851364</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09817261424144545</v>
+        <v>0.2080000231217015</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03718669039148913</v>
+        <v>0.02443265041026722</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06998016384370545</v>
+        <v>0.2089450826514783</v>
       </c>
       <c r="J193" t="n">
-        <v>0.01697326303341332</v>
+        <v>0.02669017457288023</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09995045558270786</v>
+        <v>0.2101357553858643</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04104250237818677</v>
+        <v>0.06207675395097995</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09888931437393829</v>
+        <v>0.209704925965675</v>
       </c>
       <c r="N193" t="n">
-        <v>0.05865736308608638</v>
+        <v>0.09725957710690397</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09894562695200801</v>
+        <v>0.2096378185793527</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03663216597620601</v>
+        <v>0.02548795872985786</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06997989531524143</v>
+        <v>0.2105774661096929</v>
       </c>
       <c r="J194" t="n">
-        <v>0.01695110981387546</v>
+        <v>0.02664926066713721</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1007313185169478</v>
+        <v>0.2117774409748164</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04100768868648386</v>
+        <v>0.06201351857195853</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09966188714248468</v>
+        <v>0.2113432456997819</v>
       </c>
       <c r="N194" t="n">
-        <v>0.05792868573572502</v>
+        <v>0.09687417486747751</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09971863966257057</v>
+        <v>0.2112756140370039</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03608619446356498</v>
+        <v>0.02554169638739585</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06997962678677742</v>
+        <v>0.2122098495679076</v>
       </c>
       <c r="J195" t="n">
-        <v>0.01663050328946677</v>
+        <v>0.02660668765148752</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1015121814511877</v>
+        <v>0.2134191265637685</v>
       </c>
       <c r="L195" t="n">
-        <v>0.040530895704144</v>
+        <v>0.06194642724471203</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1004344599110311</v>
+        <v>0.2129815654338887</v>
       </c>
       <c r="N195" t="n">
-        <v>0.05717129191834658</v>
+        <v>0.09738271840282459</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1004916523731331</v>
+        <v>0.2129134094946551</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03554925888911524</v>
+        <v>0.02459384084645407</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06997935825831339</v>
+        <v>0.2138422330261223</v>
       </c>
       <c r="J196" t="n">
-        <v>0.01671147285004926</v>
+        <v>0.02666243144695089</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1022930443854276</v>
+        <v>0.2150608121527205</v>
       </c>
       <c r="L196" t="n">
-        <v>0.0398153253944101</v>
+        <v>0.06247542423794253</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1012070326795775</v>
+        <v>0.2146198851679955</v>
       </c>
       <c r="N196" t="n">
-        <v>0.05608748308233591</v>
+        <v>0.09798512026553519</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1012646650836957</v>
+        <v>0.2145512049523063</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03502184228847596</v>
+        <v>0.02364436957060541</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06997908972984938</v>
+        <v>0.2154746164843369</v>
       </c>
       <c r="J197" t="n">
-        <v>0.01659404788548484</v>
+        <v>0.02671646797454715</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1030739073196675</v>
+        <v>0.2167024977416726</v>
       </c>
       <c r="L197" t="n">
-        <v>0.03896417972052491</v>
+        <v>0.06260045382035223</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1019796054481239</v>
+        <v>0.2162582049021024</v>
       </c>
       <c r="N197" t="n">
-        <v>0.05517956067607815</v>
+        <v>0.09828129300819988</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1020376777942582</v>
+        <v>0.2161890004099574</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03450442769719593</v>
+        <v>0.02569326002342275</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06997882120138536</v>
+        <v>0.2171069999425516</v>
       </c>
       <c r="J198" t="n">
-        <v>0.01627825778563551</v>
+        <v>0.02696877315529606</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1038547702539074</v>
+        <v>0.2183441833306246</v>
       </c>
       <c r="L198" t="n">
-        <v>0.03838066064573117</v>
+        <v>0.0628214602606432</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1027521782166703</v>
+        <v>0.2178965246362092</v>
       </c>
       <c r="N198" t="n">
-        <v>0.05414982614795838</v>
+        <v>0.09857114918340831</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1028106905048208</v>
+        <v>0.2178267958676086</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03399749815084756</v>
+        <v>0.02374048966847896</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06997855267292134</v>
+        <v>0.2187393834007663</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01636413194036322</v>
+        <v>0.02691932291021741</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1046356331881473</v>
+        <v>0.2199858689195767</v>
       </c>
       <c r="L199" t="n">
-        <v>0.03766797013327178</v>
+        <v>0.06273838782751764</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1035247509852167</v>
+        <v>0.219534844370316</v>
       </c>
       <c r="N199" t="n">
-        <v>0.05290058094636152</v>
+        <v>0.09885460134375101</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1035837032153834</v>
+        <v>0.2194645913252599</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03350153668498189</v>
+        <v>0.02378603596934692</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06997828414445732</v>
+        <v>0.220371766858981</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01625169973952996</v>
+        <v>0.026968093160331</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1054164961223872</v>
+        <v>0.2216275545085288</v>
       </c>
       <c r="L200" t="n">
-        <v>0.03682931014638946</v>
+        <v>0.06285118078967769</v>
       </c>
       <c r="M200" t="n">
-        <v>0.104297323753763</v>
+        <v>0.2211731641044229</v>
       </c>
       <c r="N200" t="n">
-        <v>0.05253412651967276</v>
+        <v>0.09903156204181818</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1043567159259459</v>
+        <v>0.2211023867829111</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0330170263352145</v>
+        <v>0.02482987638959953</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0699780156159933</v>
+        <v>0.2220041503171956</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01614099057299768</v>
+        <v>0.02701505982665658</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1061973590566271</v>
+        <v>0.2232692400974809</v>
       </c>
       <c r="L201" t="n">
-        <v>0.03636788264832708</v>
+        <v>0.06265978341582548</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1050698965223094</v>
+        <v>0.2228114838385297</v>
       </c>
       <c r="N201" t="n">
-        <v>0.05065276431627702</v>
+        <v>0.09890194383019979</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1051297286365085</v>
+        <v>0.2227401822405622</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03254445013709595</v>
+        <v>0.02587198839280963</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0699777470875293</v>
+        <v>0.2236365337754103</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01603203383062837</v>
+        <v>0.02706019883021399</v>
       </c>
       <c r="K202" t="n">
-        <v>0.106978221990867</v>
+        <v>0.2249109256864329</v>
       </c>
       <c r="L202" t="n">
-        <v>0.03538688960232733</v>
+        <v>0.06286413997466317</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1058424692908558</v>
+        <v>0.2244498035726366</v>
       </c>
       <c r="N202" t="n">
-        <v>0.0501587957845594</v>
+        <v>0.09916565926148624</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1059027413470711</v>
+        <v>0.2243779776982134</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03208429112619861</v>
+        <v>0.02491234944255015</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06997747855906528</v>
+        <v>0.225268917233625</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01592485890228397</v>
+        <v>0.02700348609202295</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1077590849251069</v>
+        <v>0.226552611275385</v>
       </c>
       <c r="L203" t="n">
-        <v>0.03478953297163317</v>
+        <v>0.06336419473489291</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1066150420594022</v>
+        <v>0.2260881233067434</v>
       </c>
       <c r="N203" t="n">
-        <v>0.04925452237290495</v>
+        <v>0.09882262088826754</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1066757540576336</v>
+        <v>0.2260157731558646</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0316370323380757</v>
+        <v>0.02495093700239395</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06997721003060126</v>
+        <v>0.2269013006918397</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01571949517782648</v>
+        <v>0.02704489753310334</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1085399478593468</v>
+        <v>0.228194296864337</v>
       </c>
       <c r="L204" t="n">
-        <v>0.03367901471948725</v>
+        <v>0.06295989196521681</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1073876148279486</v>
+        <v>0.2277264430408502</v>
       </c>
       <c r="N204" t="n">
-        <v>0.04804224552969866</v>
+        <v>0.09897274126313399</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1074487667681962</v>
+        <v>0.2276535686135158</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03120315680833859</v>
+        <v>0.02598772853591388</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06997694150213724</v>
+        <v>0.2285336841500543</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01561597204711784</v>
+        <v>0.02728440907447485</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1093208107935867</v>
+        <v>0.2298359824532891</v>
       </c>
       <c r="L205" t="n">
-        <v>0.03305853680913245</v>
+        <v>0.06345117593433711</v>
       </c>
       <c r="M205" t="n">
-        <v>0.108160187596495</v>
+        <v>0.229364762774957</v>
       </c>
       <c r="N205" t="n">
-        <v>0.04712426670332553</v>
+        <v>0.09981593293867569</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1082217794787587</v>
+        <v>0.229291364071167</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03078314757253986</v>
+        <v>0.02402270150668288</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06997667297367323</v>
+        <v>0.230166067608269</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01541431890002004</v>
+        <v>0.02732199663715731</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1101016737278266</v>
+        <v>0.2314776680422412</v>
       </c>
       <c r="L206" t="n">
-        <v>0.03233130120381156</v>
+        <v>0.06303799091095583</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1089327603650414</v>
+        <v>0.2310030825090639</v>
       </c>
       <c r="N206" t="n">
-        <v>0.04510288734217083</v>
+        <v>0.09995210846748287</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1089947921893213</v>
+        <v>0.2309291595288182</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03037748766625194</v>
+        <v>0.02505583337827379</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06997640444520921</v>
+        <v>0.2317984510664837</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01541456512639505</v>
+        <v>0.0271576361421705</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1108825366620665</v>
+        <v>0.2331193536311933</v>
       </c>
       <c r="L207" t="n">
-        <v>0.03090050986676737</v>
+        <v>0.06372028116377518</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1097053331335878</v>
+        <v>0.2326414022431707</v>
       </c>
       <c r="N207" t="n">
-        <v>0.04468040889461938</v>
+        <v>0.0995811804021457</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1097678048998839</v>
+        <v>0.2325669549864694</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02998666012503053</v>
+        <v>0.02408710161425949</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06997613591674519</v>
+        <v>0.2334308345246984</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01531674011610482</v>
+        <v>0.02739130351053422</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1116633995963064</v>
+        <v>0.2347610392201453</v>
       </c>
       <c r="L208" t="n">
-        <v>0.03016936476124268</v>
+        <v>0.06339799096149731</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1104779059021342</v>
+        <v>0.2342797219772775</v>
       </c>
       <c r="N208" t="n">
-        <v>0.04365913280905626</v>
+        <v>0.09950306129525432</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1105408176104464</v>
+        <v>0.2342047504441206</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02961114798448204</v>
+        <v>0.02511648367821287</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06997586738828117</v>
+        <v>0.235063217982913</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01532087325901133</v>
+        <v>0.02722297466326822</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1124442625305463</v>
+        <v>0.2364027248090974</v>
       </c>
       <c r="L209" t="n">
-        <v>0.02974106785048033</v>
+        <v>0.06327106457282439</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1112504786706806</v>
+        <v>0.2359180417113844</v>
       </c>
       <c r="N209" t="n">
-        <v>0.04164136053386658</v>
+        <v>0.1001176636993991</v>
       </c>
       <c r="O209" t="n">
-        <v>0.111313830321009</v>
+        <v>0.2358425459017718</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02925143428016154</v>
+        <v>0.02414395703370679</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06997559885981715</v>
+        <v>0.2366956014411278</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01522699394497654</v>
+        <v>0.02725262552139232</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1132251254647862</v>
+        <v>0.2380444103980494</v>
       </c>
       <c r="L210" t="n">
-        <v>0.028518821097723</v>
+        <v>0.06353944626645849</v>
       </c>
       <c r="M210" t="n">
-        <v>0.112023051439227</v>
+        <v>0.2375563614454912</v>
       </c>
       <c r="N210" t="n">
-        <v>0.04112939351743528</v>
+        <v>0.09982490016716988</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1120868430315716</v>
+        <v>0.237480341359423</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02890800204764141</v>
+        <v>0.02516949914431418</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06997533033135314</v>
+        <v>0.2383279848993424</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01513513156386243</v>
+        <v>0.02738023200592629</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1140059883990261</v>
+        <v>0.2396860959870015</v>
       </c>
       <c r="L211" t="n">
-        <v>0.02800582646621361</v>
+        <v>0.06340308031110184</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1127956242077734</v>
+        <v>0.2391946811795981</v>
       </c>
       <c r="N211" t="n">
-        <v>0.03962553320814755</v>
+        <v>0.09992468325115705</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1128598557421341</v>
+        <v>0.2391181368170742</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.0285813343224802</v>
+        <v>0.02619308747360789</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06997506180288911</v>
+        <v>0.2399603683575571</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01504531550553098</v>
+        <v>0.02730577003788992</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1147868513332661</v>
+        <v>0.2413277815759536</v>
       </c>
       <c r="L212" t="n">
-        <v>0.02730528591919493</v>
+        <v>0.06366191097545651</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1135681969763198</v>
+        <v>0.2408330009137049</v>
       </c>
       <c r="N212" t="n">
-        <v>0.03833208105438829</v>
+        <v>0.1003169255039508</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1136328684526967</v>
+        <v>0.2407559322747254</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02827191414027871</v>
+        <v>0.02421469948516079</v>
       </c>
       <c r="G213" t="n">
-        <v>0.0699747932744251</v>
+        <v>0.2415927518157718</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01485757515984412</v>
+        <v>0.02732921553830299</v>
       </c>
       <c r="K213" t="n">
-        <v>0.115567714267506</v>
+        <v>0.2429694671649056</v>
       </c>
       <c r="L213" t="n">
-        <v>0.02622040141990969</v>
+        <v>0.0636158825282247</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1143407697448661</v>
+        <v>0.2424713206478117</v>
       </c>
       <c r="N213" t="n">
-        <v>0.03805133850454262</v>
+        <v>0.1002015394781414</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1144058811632593</v>
+        <v>0.2423937277323765</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02798022453659481</v>
+        <v>0.02523431264254579</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06997452474596108</v>
+        <v>0.2432251352739864</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01487193991666386</v>
+        <v>0.02735054442818531</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1163485772017459</v>
+        <v>0.2446111527538577</v>
       </c>
       <c r="L214" t="n">
-        <v>0.02585437493160084</v>
+        <v>0.06376493923810853</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1151133425134125</v>
+        <v>0.2441096403819186</v>
       </c>
       <c r="N214" t="n">
-        <v>0.03658560700699554</v>
+        <v>0.1006784377263188</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1151788938738218</v>
+        <v>0.2440315231900278</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02798022453659481</v>
+        <v>0.02425190440933571</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06997452474596108</v>
+        <v>0.2448575187322011</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01458843916585213</v>
+        <v>0.02756973262855664</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1171294401359858</v>
+        <v>0.2462528383428098</v>
       </c>
       <c r="L215" t="n">
-        <v>0.02471040841751102</v>
+        <v>0.06360902537381016</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1158859152819589</v>
+        <v>0.2457479601160254</v>
       </c>
       <c r="N215" t="n">
-        <v>0.0361371880101321</v>
+        <v>0.1007475328010733</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1159519065843844</v>
+        <v>0.2456693186476789</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02727546782314344</v>
+        <v>0.02626745224910351</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06987695190646312</v>
+        <v>0.2464899021904158</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01450710229727095</v>
+        <v>0.02758675606043677</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1179103030702257</v>
+        <v>0.2478945239317618</v>
       </c>
       <c r="L216" t="n">
-        <v>0.02399170384088309</v>
+        <v>0.06424808520403175</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1166584880505053</v>
+        <v>0.2473862798501323</v>
       </c>
       <c r="N216" t="n">
-        <v>0.0343083829623374</v>
+        <v>0.1008087372549952</v>
       </c>
       <c r="O216" t="n">
-        <v>0.116724919294947</v>
+        <v>0.2473071141053301</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02657829535339244</v>
+        <v>0.02628093362542203</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06977937906696514</v>
+        <v>0.2481222856486304</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01462795870078225</v>
+        <v>0.02750159064484547</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1186911660044656</v>
+        <v>0.2495362095207139</v>
       </c>
       <c r="L217" t="n">
-        <v>0.02360146316495995</v>
+        <v>0.06428206299747535</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1174310608190517</v>
+        <v>0.2490245995842391</v>
       </c>
       <c r="N217" t="n">
-        <v>0.03310149331199647</v>
+        <v>0.1007619636406745</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1174979320055095</v>
+        <v>0.2489449095629813</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02588901267366353</v>
+        <v>0.02529232600186414</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0696818062274672</v>
+        <v>0.2497546691068451</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01435103776624798</v>
+        <v>0.02761421230280256</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1194720289387055</v>
+        <v>0.251177895109666</v>
       </c>
       <c r="L218" t="n">
-        <v>0.02254288835298424</v>
+        <v>0.06431090302284323</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1182036335875981</v>
+        <v>0.2506629193183459</v>
       </c>
       <c r="N218" t="n">
-        <v>0.03251882050749422</v>
+        <v>0.1003071245107014</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1182709447160721</v>
+        <v>0.2505827050206325</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0252079253302783</v>
+        <v>0.02530160684200274</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06958423338796922</v>
+        <v>0.2513870525650598</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01427636888353016</v>
+        <v>0.02742459695532781</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1202528918729454</v>
+        <v>0.252819580698618</v>
       </c>
       <c r="L219" t="n">
-        <v>0.02211918136819885</v>
+        <v>0.06423454954883753</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1189762063561445</v>
+        <v>0.2523012390524528</v>
       </c>
       <c r="N219" t="n">
-        <v>0.03176266599721578</v>
+        <v>0.1008441324176661</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1190439574266346</v>
+        <v>0.2522205004782837</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02453533886955851</v>
+        <v>0.02530875360941069</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06948666054847126</v>
+        <v>0.2530194360232745</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01430398144249073</v>
+        <v>0.02763272052344101</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1210337548071853</v>
+        <v>0.2544612662875701</v>
       </c>
       <c r="L220" t="n">
-        <v>0.02133354417384653</v>
+        <v>0.06405294684416032</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1197487791246909</v>
+        <v>0.2539395587865596</v>
       </c>
       <c r="N220" t="n">
-        <v>0.03103533122954633</v>
+        <v>0.1008728999141588</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1198169701371972</v>
+        <v>0.2538582959359349</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02387155883782588</v>
+        <v>0.02631374376766091</v>
       </c>
       <c r="G221" t="n">
-        <v>0.0693890877089733</v>
+        <v>0.2546518194814891</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01433390483299167</v>
+        <v>0.02753855892816194</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1218146177414252</v>
+        <v>0.2561029518765222</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0212891787331701</v>
+        <v>0.06416603917751376</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1205213518932373</v>
+        <v>0.2555778785206664</v>
       </c>
       <c r="N221" t="n">
-        <v>0.03033911765287073</v>
+        <v>0.1001933395527698</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1205899828477598</v>
+        <v>0.2554960913935861</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02321689078140222</v>
+        <v>0.02431655478032622</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06929151486947534</v>
+        <v>0.2562842029397038</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01416616844489493</v>
+        <v>0.02754208809051037</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1225954806756651</v>
+        <v>0.2577446374654742</v>
       </c>
       <c r="L222" t="n">
-        <v>0.02068928700941242</v>
+        <v>0.06377377081760005</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1212939246617837</v>
+        <v>0.2572161982547733</v>
       </c>
       <c r="N222" t="n">
-        <v>0.029376326715574</v>
+        <v>0.1010053638860891</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1213629955583223</v>
+        <v>0.2571338868512373</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02257164024660904</v>
+        <v>0.02531546193363583</v>
       </c>
       <c r="G223" t="n">
-        <v>0.06919394202997738</v>
+        <v>0.2579165863979185</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0141008016680625</v>
+        <v>0.02744328393150612</v>
       </c>
       <c r="K223" t="n">
-        <v>0.123376343609905</v>
+        <v>0.2593863230544263</v>
       </c>
       <c r="L223" t="n">
-        <v>0.01993707096581618</v>
+        <v>0.0639756129599916</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1220664974303301</v>
+        <v>0.2588545179888801</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0278492598660412</v>
+        <v>0.1002078612067476</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1221360082688849</v>
+        <v>0.2587716823088885</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02193611277976816</v>
+        <v>0.02526671337855869</v>
       </c>
       <c r="G224" t="n">
-        <v>0.0690963691904794</v>
+        <v>0.2595489698561332</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01393783389235634</v>
+        <v>0.0274078651077533</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1241572065441449</v>
+        <v>0.2610280086433783</v>
       </c>
       <c r="L224" t="n">
-        <v>0.01943573256562431</v>
+        <v>0.06407967616923599</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1228390701988765</v>
+        <v>0.260492837722987</v>
       </c>
       <c r="N224" t="n">
-        <v>0.02766021855265766</v>
+        <v>0.1007539152864509</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1229090209794474</v>
+        <v>0.2604094777665397</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02131061392720128</v>
+        <v>0.02415634386043801</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06899879635098144</v>
+        <v>0.2611813533143478</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01407729450763844</v>
+        <v>0.02750528218316463</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1249380694783848</v>
+        <v>0.2626696942323304</v>
       </c>
       <c r="L225" t="n">
-        <v>0.01958847377207948</v>
+        <v>0.06382938831221543</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1236116429674229</v>
+        <v>0.2621311574570938</v>
       </c>
       <c r="N225" t="n">
-        <v>0.02661150422380798</v>
+        <v>0.1001580502216752</v>
       </c>
       <c r="O225" t="n">
-        <v>0.12368203369001</v>
+        <v>0.2620472732241909</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02069544923523017</v>
+        <v>0.02399137896129366</v>
       </c>
       <c r="G226" t="n">
-        <v>0.06890122351148348</v>
+        <v>0.2628137367725625</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01401921290377071</v>
+        <v>0.02724303871101917</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1257189324126247</v>
+        <v>0.2643113798212825</v>
       </c>
       <c r="L226" t="n">
-        <v>0.01929849654842455</v>
+        <v>0.06314212325223448</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1243842157359693</v>
+        <v>0.2637694771912006</v>
       </c>
       <c r="N226" t="n">
-        <v>0.02620541832787754</v>
+        <v>0.09894752716374888</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1244550464005726</v>
+        <v>0.263685068681842</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02009092425017641</v>
+        <v>0.02577884426314553</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06880365067198552</v>
+        <v>0.2644461202307772</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01376361847061518</v>
+        <v>0.0270286411540562</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1264997953468646</v>
+        <v>0.2659530654102346</v>
       </c>
       <c r="L227" t="n">
-        <v>0.01886900285790236</v>
+        <v>0.06283525485259758</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1251567885045156</v>
+        <v>0.2654077969253075</v>
       </c>
       <c r="N227" t="n">
-        <v>0.02514426231325123</v>
+        <v>0.09814960726400007</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1252280591111351</v>
+        <v>0.2653228641394932</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01949734451836176</v>
+        <v>0.02352576534801347</v>
       </c>
       <c r="G228" t="n">
-        <v>0.06870607783248754</v>
+        <v>0.2660785036889919</v>
       </c>
       <c r="J228" t="n">
-        <v>0.0138105405980338</v>
+        <v>0.02686959597501505</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1272806582811045</v>
+        <v>0.2675947509991866</v>
       </c>
       <c r="L228" t="n">
-        <v>0.01830319466375568</v>
+        <v>0.06242615697660928</v>
       </c>
       <c r="M228" t="n">
-        <v>0.125929361273062</v>
+        <v>0.2670461166594143</v>
       </c>
       <c r="N228" t="n">
-        <v>0.02503033762831403</v>
+        <v>0.0980915516737571</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1260010718216977</v>
+        <v>0.2669606595971444</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01891501558610795</v>
+        <v>0.02523916779791739</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06860850499298958</v>
+        <v>0.2677108871472065</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01386000867588853</v>
+        <v>0.02657340963663499</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1280615212153444</v>
+        <v>0.2692364365881387</v>
       </c>
       <c r="L229" t="n">
-        <v>0.01860427392922723</v>
+        <v>0.06163220348757401</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1267019340416085</v>
+        <v>0.2686844363935211</v>
       </c>
       <c r="N229" t="n">
-        <v>0.0235659457214511</v>
+        <v>0.09650062154434824</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1267740845322602</v>
+        <v>0.2685984550547957</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01834424299973675</v>
+        <v>0.02492607719487715</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06851093215349162</v>
+        <v>0.2693432706054212</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01381203786607606</v>
+        <v>0.02604758860165533</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1288423841495843</v>
+        <v>0.2708781221770907</v>
       </c>
       <c r="L230" t="n">
-        <v>0.01877508051344873</v>
+        <v>0.06077076824879638</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1274745068101548</v>
+        <v>0.270322756127628</v>
       </c>
       <c r="N230" t="n">
-        <v>0.02405313381417379</v>
+        <v>0.09490407802710188</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1275470972428228</v>
+        <v>0.2702362505124468</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01778533230556973</v>
+        <v>0.02459351912091266</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06841335931399366</v>
+        <v>0.2709756540636359</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01376520082230805</v>
+        <v>0.02569963933281538</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1296232470838243</v>
+        <v>0.2725198077660428</v>
       </c>
       <c r="L231" t="n">
-        <v>0.01837515038392126</v>
+        <v>0.05975922512358084</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1282470795787012</v>
+        <v>0.2719610758617348</v>
       </c>
       <c r="N231" t="n">
-        <v>0.02266273832078647</v>
+        <v>0.09362918227334621</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1283201099533854</v>
+        <v>0.271874045970098</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01723858904992866</v>
+        <v>0.02324851915804375</v>
       </c>
       <c r="G232" t="n">
-        <v>0.0683157864744957</v>
+        <v>0.2726080375218506</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01361857862837304</v>
+        <v>0.02533706829285444</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1304041100180642</v>
+        <v>0.2741614933549949</v>
       </c>
       <c r="L232" t="n">
-        <v>0.01837556725704309</v>
+        <v>0.05901494797523191</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1290196523472476</v>
+        <v>0.2735993955958416</v>
       </c>
       <c r="N232" t="n">
-        <v>0.02257416205923191</v>
+        <v>0.09290319543440956</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1290931226639479</v>
+        <v>0.2735118414277492</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01670431877913527</v>
+        <v>0.02189810288829035</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06821821363499772</v>
+        <v>0.2742404209800652</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01347223452499741</v>
+        <v>0.02496738194451183</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1311849729523041</v>
+        <v>0.275803178943947</v>
       </c>
       <c r="L233" t="n">
-        <v>0.01827664671718249</v>
+        <v>0.05845531066705414</v>
       </c>
       <c r="M233" t="n">
-        <v>0.129792225115794</v>
+        <v>0.2752377153299485</v>
       </c>
       <c r="N233" t="n">
-        <v>0.02198812837771597</v>
+        <v>0.09195337866162023</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1298661353745105</v>
+        <v>0.2751496368854005</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.0161828270395113</v>
+        <v>0.0225492958936723</v>
       </c>
       <c r="G234" t="n">
-        <v>0.06812064079549977</v>
+        <v>0.2758728044382799</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01342623175290755</v>
+        <v>0.02459808675052683</v>
       </c>
       <c r="K234" t="n">
-        <v>0.131965835886544</v>
+        <v>0.277444864532899</v>
       </c>
       <c r="L234" t="n">
-        <v>0.01837870434870775</v>
+        <v>0.05719768706235195</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1305647978843404</v>
+        <v>0.2768760350640553</v>
       </c>
       <c r="N234" t="n">
-        <v>0.02170536062444456</v>
+        <v>0.09040699310630662</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1306391480850731</v>
+        <v>0.2767874323430516</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01567441937737835</v>
+        <v>0.0222091237562095</v>
       </c>
       <c r="G235" t="n">
-        <v>0.0680230679560018</v>
+        <v>0.2775051878964946</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01348063355282988</v>
+        <v>0.02433668917363875</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1327466988207839</v>
+        <v>0.2790865501218511</v>
       </c>
       <c r="L235" t="n">
-        <v>0.01878205573598729</v>
+        <v>0.05625945102442992</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1313373706528868</v>
+        <v>0.2785143547981621</v>
       </c>
       <c r="N235" t="n">
-        <v>0.02132658214762362</v>
+        <v>0.08919129991979685</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1314121607956356</v>
+        <v>0.2784252278007028</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01517940133905819</v>
+        <v>0.02288461205792182</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06792549511650384</v>
+        <v>0.2791375713547093</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01353550316549079</v>
+        <v>0.02389069567658689</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1335275617550238</v>
+        <v>0.2807282357108031</v>
       </c>
       <c r="L236" t="n">
-        <v>0.01818701646338935</v>
+        <v>0.05585797641659249</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1321099434214332</v>
+        <v>0.2801526745322689</v>
       </c>
       <c r="N236" t="n">
-        <v>0.02015251629545889</v>
+        <v>0.08763356025341923</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1321851735061982</v>
+        <v>0.280063023258354</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01469807847087254</v>
+        <v>0.02158278638082915</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06782792227700586</v>
+        <v>0.2807699548129239</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01349090383161665</v>
+        <v>0.02366761272211056</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1343084246892637</v>
+        <v>0.2823699212997552</v>
       </c>
       <c r="L237" t="n">
-        <v>0.01839390211528225</v>
+        <v>0.05521063710214422</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1328825161899796</v>
+        <v>0.2817909942663758</v>
       </c>
       <c r="N237" t="n">
-        <v>0.02008388641615622</v>
+        <v>0.08646103525850218</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1329581862167608</v>
+        <v>0.2817008187160052</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01423075631914315</v>
+        <v>0.02130498192450497</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06773034943750791</v>
+        <v>0.2824023382711386</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01324689879193389</v>
+        <v>0.02347170770444318</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1350892876235036</v>
+        <v>0.2840116068887073</v>
       </c>
       <c r="L238" t="n">
-        <v>0.01830302827603436</v>
+        <v>0.05432518715864762</v>
       </c>
       <c r="M238" t="n">
-        <v>0.133655088958526</v>
+        <v>0.2834293140004826</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01982141585792152</v>
+        <v>0.08518533248705995</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1337311989273233</v>
+        <v>0.2833386141736564</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01377774043019162</v>
+        <v>0.02002918124805032</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06763277659800994</v>
+        <v>0.2840347217293533</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01330355128716885</v>
+        <v>0.02298051862795054</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1358701505577435</v>
+        <v>0.2856532924776594</v>
       </c>
       <c r="L239" t="n">
-        <v>0.01831471053001399</v>
+        <v>0.0534483179747304</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1344276617270724</v>
+        <v>0.2850676337345895</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01956582796896078</v>
+        <v>0.08412255112692235</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1345042116378859</v>
+        <v>0.2849764096313075</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.0133380887028594</v>
+        <v>0.02175233257592477</v>
       </c>
       <c r="G240" t="n">
-        <v>0.06753520375851198</v>
+        <v>0.2856671051875679</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01336092455804799</v>
+        <v>0.02288821868719904</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1366510134919834</v>
+        <v>0.2872949780666114</v>
       </c>
       <c r="L240" t="n">
-        <v>0.01822926446158943</v>
+        <v>0.05276887027625649</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1352002344956188</v>
+        <v>0.2867059534686963</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01861784609747968</v>
+        <v>0.08355572203396461</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1352772243484484</v>
+        <v>0.2866142050889587</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01290462079858635</v>
+        <v>0.02047441926426401</v>
       </c>
       <c r="G241" t="n">
-        <v>0.067437630919014</v>
+        <v>0.2872994886457826</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01311908184529766</v>
+        <v>0.02249479009910005</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1374318764262233</v>
+        <v>0.2889366636555635</v>
       </c>
       <c r="L241" t="n">
-        <v>0.01824700565512904</v>
+        <v>0.05238680290389935</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1359728072641651</v>
+        <v>0.2883442732028031</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01807819359168406</v>
+        <v>0.08208478062550817</v>
       </c>
       <c r="O241" t="n">
-        <v>0.136050237059011</v>
+        <v>0.28825200054661</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01247639461621391</v>
+        <v>0.0211954246692037</v>
       </c>
       <c r="G242" t="n">
-        <v>0.06734005807951605</v>
+        <v>0.2889318721039973</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01327808638964427</v>
+        <v>0.02220021508056501</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1382127393604632</v>
+        <v>0.2905783492445155</v>
       </c>
       <c r="L242" t="n">
-        <v>0.01856824969500112</v>
+        <v>0.05130207469833253</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1367453800327115</v>
+        <v>0.28998259293691</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0183475937997799</v>
+        <v>0.08070966231887489</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1368232497695736</v>
+        <v>0.2898897960042611</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0120537157020637</v>
+        <v>0.0189153321468795</v>
       </c>
       <c r="G243" t="n">
-        <v>0.06724248524001808</v>
+        <v>0.2905642555622119</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01313800143181422</v>
+        <v>0.0218044758485053</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1389936022947031</v>
+        <v>0.2922200348334676</v>
       </c>
       <c r="L243" t="n">
-        <v>0.01889331216557397</v>
+        <v>0.05061464450022959</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1375179528012579</v>
+        <v>0.2916209126710168</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01762677006997299</v>
+        <v>0.07973030253138608</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1375962624801362</v>
+        <v>0.2915275914619123</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01163688960245746</v>
+        <v>0.01863412505342704</v>
       </c>
       <c r="G244" t="n">
-        <v>0.06714491240052012</v>
+        <v>0.2921966390204266</v>
       </c>
       <c r="J244" t="n">
-        <v>0.0131988902125339</v>
+        <v>0.02150755461983235</v>
       </c>
       <c r="K244" t="n">
-        <v>0.139774465228943</v>
+        <v>0.2938617204224196</v>
       </c>
       <c r="L244" t="n">
-        <v>0.01872250865121597</v>
+        <v>0.05052447115026407</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1382905255698043</v>
+        <v>0.2932592324051237</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01661644575046933</v>
+        <v>0.0787466366803633</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1383692751906987</v>
+        <v>0.2931653869195636</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01122622186371692</v>
+        <v>0.02035178674498206</v>
       </c>
       <c r="G245" t="n">
-        <v>0.06704733956102216</v>
+        <v>0.2938290224786413</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01306081597252969</v>
+        <v>0.02130943361145758</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1405553281631829</v>
+        <v>0.2955034060113717</v>
       </c>
       <c r="L245" t="n">
-        <v>0.01835615473629543</v>
+        <v>0.04973151348910954</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1390630983383507</v>
+        <v>0.2948975521392305</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01661734418947469</v>
+        <v>0.07775860018312819</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1391422879012613</v>
+        <v>0.2948031823772148</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01082201803216382</v>
+        <v>0.01906830057768014</v>
       </c>
       <c r="G246" t="n">
-        <v>0.0669497667215242</v>
+        <v>0.295461405936856</v>
       </c>
       <c r="J246" t="n">
-        <v>0.013123841952528</v>
+        <v>0.02101009504029235</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1413361910974228</v>
+        <v>0.2971450916003238</v>
       </c>
       <c r="L246" t="n">
-        <v>0.01889456600518064</v>
+        <v>0.04873573035743953</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1398356711068971</v>
+        <v>0.2965358718733374</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01683018873519482</v>
+        <v>0.07716612845700244</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1399153006118238</v>
+        <v>0.2964409778348659</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01042458365411978</v>
+        <v>0.01978364990765699</v>
       </c>
       <c r="G247" t="n">
-        <v>0.06685219388202623</v>
+        <v>0.2970937893950706</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01288803139325521</v>
+        <v>0.02060952112324807</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1421170540316627</v>
+        <v>0.2987867771892758</v>
       </c>
       <c r="L247" t="n">
-        <v>0.0188380580422399</v>
+        <v>0.04783708059592759</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1406082438754435</v>
+        <v>0.2981741916074442</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01575570273583565</v>
+        <v>0.07526915691930741</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1406883133223864</v>
+        <v>0.2980787732925171</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01003422427590655</v>
+        <v>0.01849781809104824</v>
       </c>
       <c r="G248" t="n">
-        <v>0.06675462104252826</v>
+        <v>0.2987261728532853</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01295344753543777</v>
+        <v>0.02040769407723618</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1428979169659026</v>
+        <v>0.3004284627782279</v>
       </c>
       <c r="L248" t="n">
-        <v>0.01858694643184161</v>
+        <v>0.04773552304524728</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1413808166439899</v>
+        <v>0.299812511341551</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01559460953960318</v>
+        <v>0.07496762098736476</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1414613260329489</v>
+        <v>0.2997165687501683</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.009651245443845845</v>
+        <v>0.01921078848398959</v>
       </c>
       <c r="G249" t="n">
-        <v>0.0666570482030303</v>
+        <v>0.3003585563115</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01292015361980199</v>
+        <v>0.02010459611916805</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1436787799001426</v>
+        <v>0.3020701483671799</v>
       </c>
       <c r="L249" t="n">
-        <v>0.01884154675835403</v>
+        <v>0.04653101654607208</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1421533894125363</v>
+        <v>0.3014508310756578</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01524763249470312</v>
+        <v>0.07296145607849597</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1422343387435115</v>
+        <v>0.3013543642078195</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.009275952704259412</v>
+        <v>0.01692254444261666</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06655947536353234</v>
+        <v>0.3019909397697147</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01288821288707433</v>
+        <v>0.01970020946595509</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1444596428343825</v>
+        <v>0.303711833956132</v>
       </c>
       <c r="L250" t="n">
-        <v>0.0188021746061455</v>
+        <v>0.04622351993907567</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1429259621810827</v>
+        <v>0.3030891508097647</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01531549494934142</v>
+        <v>0.07265059761002274</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1430073514540741</v>
+        <v>0.3029921596654707</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008908651603468883</v>
+        <v>0.01863306932306515</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06646190252403437</v>
+        <v>0.3036233232279293</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01295768857798116</v>
+        <v>0.01959451633450875</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1452405057686224</v>
+        <v>0.3053535195450841</v>
       </c>
       <c r="L251" t="n">
-        <v>0.01886914555958435</v>
+        <v>0.04541299206493146</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1436985349496291</v>
+        <v>0.3047274705438715</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01489892025172385</v>
+        <v>0.07093498099926671</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1437803641646366</v>
+        <v>0.3046299551231219</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.008549647687795994</v>
+        <v>0.0183423464814707</v>
       </c>
       <c r="G252" t="n">
-        <v>0.0663643296845364</v>
+        <v>0.305255706686144</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01292864393324886</v>
+        <v>0.01928749894174037</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1460213687028623</v>
+        <v>0.3069952051340362</v>
       </c>
       <c r="L252" t="n">
-        <v>0.01904277520303893</v>
+        <v>0.0445993917643131</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1444711077181755</v>
+        <v>0.3063657902779783</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01419863175005631</v>
+        <v>0.07021454166354901</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1445533768751992</v>
+        <v>0.3062677505807731</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.008199246503562463</v>
+        <v>0.01805035927396899</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06626675684503844</v>
+        <v>0.3068880901443587</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01280114219360384</v>
+        <v>0.01887913950456137</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1468022316371022</v>
+        <v>0.3086368907229882</v>
       </c>
       <c r="L253" t="n">
-        <v>0.01942337912087749</v>
+        <v>0.04388267787789407</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1452436804867219</v>
+        <v>0.3080041100120852</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01371535279254471</v>
+        <v>0.06838921502019174</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1453263895857618</v>
+        <v>0.3079055460384243</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007857753597090046</v>
+        <v>0.01675709105669566</v>
       </c>
       <c r="G254" t="n">
-        <v>0.06616918400554048</v>
+        <v>0.3085204736025734</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01277524659977251</v>
+        <v>0.01856942023988319</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1475830945713421</v>
+        <v>0.3102785763119403</v>
       </c>
       <c r="L254" t="n">
-        <v>0.01941127289746841</v>
+        <v>0.04316280924634797</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1460162532552683</v>
+        <v>0.309642429746192</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01344980672739482</v>
+        <v>0.06795893648651607</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1460994022963243</v>
+        <v>0.3095433414960754</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007525474514700363</v>
+        <v>0.01746252518578637</v>
       </c>
       <c r="G255" t="n">
-        <v>0.06607161116604252</v>
+        <v>0.310152857060788</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01275102039248123</v>
+        <v>0.01835832336461721</v>
       </c>
       <c r="K255" t="n">
-        <v>0.148363957505582</v>
+        <v>0.3119202619008923</v>
       </c>
       <c r="L255" t="n">
-        <v>0.01920677211717997</v>
+        <v>0.04213974471034829</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1467888260238147</v>
+        <v>0.3112807494802989</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01370271690281255</v>
+        <v>0.06692364147984381</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1468724150068869</v>
+        <v>0.3111811369537266</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.00720271480271515</v>
+        <v>0.0171666450173768</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06597403832654454</v>
+        <v>0.3117852405190027</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01262852681245642</v>
+        <v>0.01794583109567481</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1491448204398219</v>
+        <v>0.3135619474898445</v>
       </c>
       <c r="L256" t="n">
-        <v>0.01941019236438055</v>
+        <v>0.04201344311056868</v>
       </c>
       <c r="M256" t="n">
-        <v>0.147561398792361</v>
+        <v>0.3129190692144057</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01347480666700379</v>
+        <v>0.06528326541749641</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1476454277174495</v>
+        <v>0.3128189324113779</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006889780007456145</v>
+        <v>0.0158694339076026</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06587646548704658</v>
+        <v>0.3134176239772174</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01280782910042448</v>
+        <v>0.01763192564996745</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1499256833740618</v>
+        <v>0.3152036330787965</v>
       </c>
       <c r="L257" t="n">
-        <v>0.01982184922343841</v>
+        <v>0.0412838632876826</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1483339715609074</v>
+        <v>0.3145573889485125</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01286679936817453</v>
+        <v>0.06403774371679538</v>
       </c>
       <c r="O257" t="n">
-        <v>0.148418440428012</v>
+        <v>0.3144567278690291</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.00658697567524507</v>
+        <v>0.01557087521259944</v>
       </c>
       <c r="G258" t="n">
-        <v>0.06577889264754862</v>
+        <v>0.3150500074354321</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0127889904971118</v>
+        <v>0.01721658924440649</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1507065463083017</v>
+        <v>0.3168453186677486</v>
       </c>
       <c r="L258" t="n">
-        <v>0.01964205827872192</v>
+        <v>0.04055096408236361</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1491065443294538</v>
+        <v>0.3161957086826194</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01337941835453033</v>
+        <v>0.06318701179506253</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1491914531385746</v>
+        <v>0.3160945233266802</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006294607352403565</v>
+        <v>0.01627095228850298</v>
       </c>
       <c r="G259" t="n">
-        <v>0.06568131980805066</v>
+        <v>0.3166823908936467</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01267207424324475</v>
+        <v>0.01699980409590336</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1514874092425416</v>
+        <v>0.3184870042567006</v>
       </c>
       <c r="L259" t="n">
-        <v>0.02007113511459938</v>
+        <v>0.03951470433528528</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1498791170980002</v>
+        <v>0.3178340284167262</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01321338697427721</v>
+        <v>0.06193100506961918</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1499644658491371</v>
+        <v>0.3177323187843314</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.006012980585253375</v>
+        <v>0.01496964849144886</v>
       </c>
       <c r="G260" t="n">
-        <v>0.06558374696855269</v>
+        <v>0.3183147743518615</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01265714357954974</v>
+        <v>0.01668155242136947</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1522682721767815</v>
+        <v>0.3201286898456527</v>
       </c>
       <c r="L260" t="n">
-        <v>0.0198093953154391</v>
+        <v>0.03867504288712112</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1506516898665466</v>
+        <v>0.319472348150833</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01256942857562099</v>
+        <v>0.06046965895778689</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1507374785596997</v>
+        <v>0.3193701142419826</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005742400920116214</v>
+        <v>0.01566694717757279</v>
       </c>
       <c r="G261" t="n">
-        <v>0.06548617412905472</v>
+        <v>0.3199471578100761</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01274426174675318</v>
+        <v>0.0163618164377162</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1530491351110214</v>
+        <v>0.3217703754346047</v>
       </c>
       <c r="L261" t="n">
-        <v>0.01985715446560943</v>
+        <v>0.03833193857854472</v>
       </c>
       <c r="M261" t="n">
-        <v>0.151424262635093</v>
+        <v>0.3211106678849399</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01214826650676765</v>
+        <v>0.05960290887688741</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1515104912702623</v>
+        <v>0.3210079096996338</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.00548317390331382</v>
+        <v>0.01336283170301038</v>
       </c>
       <c r="G262" t="n">
-        <v>0.06538860128955677</v>
+        <v>0.3215795412682908</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01253349198558144</v>
+        <v>0.01604057836185493</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1538299980452613</v>
+        <v>0.3234120610235569</v>
       </c>
       <c r="L262" t="n">
-        <v>0.0204147281494787</v>
+        <v>0.03748535025022964</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1521968354036394</v>
+        <v>0.3227489876190467</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01225062411592298</v>
+        <v>0.05853069024424223</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1522835039808248</v>
+        <v>0.322645705157285</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005235605081167834</v>
+        <v>0.01405728542389734</v>
       </c>
       <c r="G263" t="n">
-        <v>0.0652910284500588</v>
+        <v>0.3232119247265055</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01262489753676095</v>
+        <v>0.01561782041069715</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1546108609795012</v>
+        <v>0.3250537466125089</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02058243195141518</v>
+        <v>0.03683523674284939</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1529694081721858</v>
+        <v>0.3243873073531535</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0125772247512928</v>
+        <v>0.05755293847717274</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1530565166913874</v>
+        <v>0.3242835006149362</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01375029169636929</v>
       </c>
       <c r="G264" t="n">
-        <v>0.06519345561056084</v>
+        <v>0.3248443081847202</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01261854164101807</v>
+        <v>0.01549352480115421</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1553917239137411</v>
+        <v>0.326695432201461</v>
       </c>
       <c r="L264" t="n">
-        <v>0.02086058145578723</v>
+        <v>0.03568155689707753</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1537419809407322</v>
+        <v>0.3260256270872604</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01252879176108301</v>
+        <v>0.05626958899300077</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1538295294019499</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.06518029771582398</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005732639199837748</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.065180566244288</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006461398779904766</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.06518083477275201</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007186237363567376</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.06518110330121604</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007907113574097367</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.06518137182968005</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008623986034861246</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.06518164035814407</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.009336813369193869</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.06518190888660809</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.01004555420046088</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.06518217741507211</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01075016715193544</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.06518244594353613</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01145061084698339</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.06518271447200014</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01214684390893957</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.06518298300046416</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01283882496116889</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.06518325152892818</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01352651262694598</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.0651835200573922</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01420986552963592</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.0651837885858562</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01488884229257361</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.06518405711432022</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01556340153912315</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.06518432564278424</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01623350189256071</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.06518459417124826</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01689910197625061</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.06518486269971228</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01756016041352774</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.06518513122817629</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01821663582775542</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.06518539975664032</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01886848684221139</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.06518566828510433</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01951567208025921</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.06518593681356835</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.02015815016523373</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.06518620534203236</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.02079587972049746</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.06518647387049639</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.0214288193693298</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.0651867423989604</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.0220570966898094</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.06518701092742442</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.0226816840335668</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.06518727945588842</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02330270897867973</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.06518754798435246</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02392013014842896</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.06518781651281647</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02453390616617655</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06518808504128049</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02514399565525732</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.06518835356974451</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02575035723903249</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.06518862209820853</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.0263529495407841</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.06518889062667255</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02695173118387353</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.06518915915513655</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02754666079163563</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.06518942768360057</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02813769698743093</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06518969621206459</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02872479839454287</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.06518996474052861</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02930792363633207</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.06519023326899262</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02988703133613346</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.06519050179745664</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.03046208011730683</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.06519077032592066</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.03103302860313702</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06519103885438468</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.03159983541698397</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.06519130738284869</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03216245918218258</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.06519157591131271</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03272085852209194</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.06519184443977673</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03327499205999832</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.06519211296824075</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03382481841926097</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.06519238149670477</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03437029622321475</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06519265002516877</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03491138409521802</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.06519291855363281</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03544804065855854</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.06519318708209682</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03598022453659482</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.06519345561056084</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03598022453659482</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.06518029771582398</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03655064993474261</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.06527840761224998</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03711604406800187</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.06537651750867597</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03767628467852435</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.06547462740510199</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03823124950846174</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.06557273730152798</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03878081629996581</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.06567084719795398</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03932486279518838</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.06576895709437998</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03986326673628121</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06586706699080598</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.04039590586539596</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06596517688723198</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.04092265792468446</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06606328678365797</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.04144340065629844</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.06616139668008397</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.04195801180238974</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.06625950657650997</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.04246636910510998</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.06635761647293598</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.04296835030661102</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.06645572636936196</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.04346383314904455</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06655383626578797</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.04395269537456244</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.06665194616221397</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04443481472531631</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.06675005605863997</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04491006894345799</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.06684816595506597</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04537833577113921</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.06694627585149196</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.0458394929505118</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.06704438574791798</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04629341822372744</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06714249564434396</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04673998933293788</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.06724060554076997</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04717908402029493</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.06733871543719595</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04761058002795036</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.06743682533362197</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04803435509805587</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.06753493523004796</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04845078619231021</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.06763304512647396</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04886274637014709</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.06773115502289995</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04927061259326533</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06782926491932596</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04967426260381655</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06792737481575195</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.0500735741439526</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06802548471217795</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.05046842495582518</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.06812359460860395</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.05085869278158615</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06822170450502996</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.05124425536338714</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06831981440145596</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.05162499044337997</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.06841792429788195</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.05200077576371639</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06851603419430795</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.05237148906654823</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06861414409073395</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.05273700809402711</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06871225398715995</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.05309721058830487</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.06881036388358594</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.05345197429153326</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.06890847378001194</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.05380117694586406</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06900658367643794</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.05414469629344898</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06910469357286395</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.05448241007643978</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.06920280346928993</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.05481419603698824</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.06930091336571594</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.05513993191724617</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06939902326214194</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.05545949545936521</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06949713315856794</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.05577276440549718</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06959524305499394</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05607961649779386</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06969335295141993</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.05637992947840699</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06979146284784593</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05667358108948832</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06988957274427193</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05696044907318962</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06998768264069793</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.05330696604879308</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06998768264069793</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.05717575582166588</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.07196575575272192</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05737502769684531</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.07394382886474593</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05755888519743797</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.07592190197676991</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05772794882215392</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.07789997508879391</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05788283906970319</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.0798780482008179</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05802417643879589</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.08185612131284188</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05815258142814204</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.08383419442486589</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05826867453645168</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.08581226753688988</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05837307626243489</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.08779034064891388</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05846640710480172</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.08976841376093787</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.05854928756226221</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.09174648687296187</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.05862233813352645</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.09372455998498586</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05868617931730445</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.09570263309700984</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05874143161230633</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.09768070620903384</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05878871551724207</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.09965877932105784</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05882865153082178</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.1016368524330818</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.0588618601517555</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.1036149255451058</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.0588889618787533</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.1055929986571298</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.0589105772105252</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.1075710717691538</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05892732664578126</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.1095491448811778</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05893983068323158</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.1115272179932018</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05894870982158618</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1135052911052258</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.0589545845595551</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1154833642172498</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05895807539584844</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1174614373292738</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05895980282917622</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1194395104412978</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05896038735824852</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1214175835533218</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05895902500450186</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1233956566653458</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.05888595774162135</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1253737297773697</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05870847438346652</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1273518028893937</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.05843521191769156</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1293298760014178</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.05807480733195072</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1313079491134417</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.0576358976138982</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1332860222254657</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.05712711975118819</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1352640953374897</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.05655711073147489</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1372421684495137</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.0559345075424125</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1392202415615377</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.05526794717165526</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1411983146735617</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.05456606660685735</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1431763877855857</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.053837502835673</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1451544608976097</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.05309089284575637</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1471325340096337</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.05233487362476172</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.05157808216034322</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1510886802336817</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.05082915544015511</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1530667533457057</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.05009673045185155</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1550448264577297</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04938944418308677</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1570228995697537</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04871593362151498</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1590009726817777</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.0480848357547904</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1609790457938017</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04750478757056721</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1629571189058256</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04698442605649961</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1649351920178496</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.04653238820024183</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1669132651298736</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.04615731098944809</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1688913382418976</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.04585532751231763</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1708694113539216</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04557574705663436</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1728474844659456</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04531120439208063</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1748255575779696</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.04506060488396654</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1768036306899936</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.04482285389760231</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1787817038020176</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.04459685679829804</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1807597769140416</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.0443815189513639</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1827378500260656</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.04417574572211004</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1847159231380895</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.04397844247584659</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1866939962501136</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.04378851457788371</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1886720693621376</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.04360486739353156</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1906501424741615</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.04342640628810027</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1926282155861856</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.04325203662689998</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1946062886982095</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.04308066377524086</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1965843618102335</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.04291119309843308</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1985624349222575</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.04274252996178673</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.2005405080342815</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.04257357973061199</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.2025185811463055</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.042403247770219</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.2044966542583295</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.04223043944591794</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.2064747273703535</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.04205406012301892</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.2084528004823775</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.0418730151668321</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.2104308735944015</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.04168620994266761</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.2124089467064255</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.04149254981583565</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.2143870198184495</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.04129094015164633</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.2163650929304735</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.0410802863154098</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.2183431660424975</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.04085949793684573</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.2203212391545215</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.0406321006715071</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.2222993122665455</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.04040185991254878</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.2242773853785694</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.04016882117894609</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2262554584905934</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03993302998967437</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2282335316026174</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.0396945318637089</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2302116047146414</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03945337232002502</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2321896778266654</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03920959687759809</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2341677509386894</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03896325105540337</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2361458240507134</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03871438037241623</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2381238971627374</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03846303034761195</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2401019702747614</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.0382092464999659</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2420800433867854</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03795307434845338</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2440581164988094</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03769455941204967</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2460361896108334</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03743374720973018</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2480142627228573</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03717068326047016</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2499923358348814</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03690541308324495</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2519704089469054</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03663798219702989</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2539484820589293</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03636843612080028</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2559265551709534</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03609682037353146</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2579046282829773</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03582318047419873</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2598827013950014</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03554756194177745</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2618607745070253</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03527001029524289</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2638388476190493</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.0349905710535704</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2658169207310733</v>
-      </c>
-    </row>
+        <v>0.3259212960725874</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1196.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1196.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.003431522397955501</v>
+        <v>0.001312580932975475</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001632383458214674</v>
+        <v>0.0006055010067421178</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003404464465697692</v>
+        <v>0.001655783523032361</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001641685588952065</v>
+        <v>0.0008398853277368362</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01140306240518901</v>
+        <v>0.004929964751643229</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001638319734106836</v>
+        <v>0.0008302500267769774</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.02348046382343755</v>
+        <v>0.008744572906234593</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.002308200046785044</v>
+        <v>0.0008232182349205229</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006326741512198267</v>
+        <v>0.002584506117975935</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.00332736655582322</v>
+        <v>0.001211002013484236</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.003517348958221263</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00394440789473684</v>
+        <v>0.001679770655473672</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01787502818716685</v>
+        <v>0.009706768491182127</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00295624328302325</v>
+        <v>0.001660500053553955</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.0282841043963179</v>
+        <v>0.01714055603641612</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003275590915302386</v>
+        <v>0.001646436469841046</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.006380973848446839</v>
+        <v>0.003789087261902857</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004897150374644022</v>
+        <v>0.001816503020226353</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.008404444823269838</v>
+        <v>0.005233723940088642</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004925056766856195</v>
+        <v>0.002519655983210509</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02266533145041122</v>
+        <v>0.01368868129363796</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004914959202320508</v>
+        <v>0.002490750080330932</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03470226195490544</v>
+        <v>0.02143868436052992</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004913386372953579</v>
+        <v>0.002107486999238517</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01023894462087759</v>
+        <v>0.004899636071657699</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006529533832858696</v>
+        <v>0.002422004026968471</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.009981668094318767</v>
+        <v>0.006453936103156414</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006566742355808261</v>
+        <v>0.003359541310947345</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02584197348389028</v>
+        <v>0.01625002562469713</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006553278936427345</v>
+        <v>0.002998677397133629</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03956688364652128</v>
+        <v>0.03001629780098797</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006551181830604771</v>
+        <v>0.003292872939682092</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006326741512198267</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.00982472592632537</v>
+        <v>0.006326741512198267</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00816191729107337</v>
+        <v>0.00332736655582322</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01139961070266433</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008208427944760326</v>
+        <v>0.00394440789473684</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02800707993135748</v>
+        <v>0.0199784160818641</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008191598670534182</v>
+        <v>0.004151250133884887</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04409976116008507</v>
+        <v>0.03496257839700107</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008188977288255964</v>
+        <v>0.004116091174602615</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01328615717561636</v>
+        <v>0.006753425627296271</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009982099667469662</v>
+        <v>0.003633006040452706</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01245173486070394</v>
+        <v>0.008669540640553024</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009850113533712391</v>
+        <v>0.005039311966421017</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03012499316770309</v>
+        <v>0.02270209061311895</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009829918404641017</v>
+        <v>0.004981500160661865</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04742268618451656</v>
+        <v>0.04049737198541919</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009826772745907158</v>
+        <v>0.004939309409523138</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01330697404287303</v>
+        <v>0.007597143869671967</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01142668420750272</v>
+        <v>0.004238507047194823</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01395561592609819</v>
+        <v>0.009609540382572931</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01183322368421052</v>
+        <v>0.005879197294157854</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03250005124939426</v>
+        <v>0.02548377233991375</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01116341857000993</v>
+        <v>0.005811750187438842</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05104448657269034</v>
+        <v>0.04438928646041107</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01105908755533693</v>
+        <v>0.005762527644443661</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01442235819498185</v>
+        <v>0.008428631565609371</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01305906766571739</v>
+        <v>0.004844008053936942</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.0146141547437942</v>
+        <v>0.01047020315269651</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01313348471161652</v>
+        <v>0.00671908262189469</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03541057088494429</v>
+        <v>0.02764812240718284</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01310655787285469</v>
+        <v>0.006642000214215819</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05566191428823541</v>
+        <v>0.04810692971614516</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01310236366120954</v>
+        <v>0.006585745879364184</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01649283002663956</v>
+        <v>0.009235761148935803</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01469145112393207</v>
+        <v>0.00544950906067906</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01569883763882504</v>
+        <v>0.0112666454306253</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01477517030056859</v>
+        <v>0.007558967949631527</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03728343899591383</v>
+        <v>0.02951980195986059</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01474487760696153</v>
+        <v>0.007472250240992797</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05945004830258915</v>
+        <v>0.05104448657269034</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01474015911886073</v>
+        <v>0.00716832312666163</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01651376888588834</v>
+        <v>0.0100064050534786</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01632383458214674</v>
+        <v>0.006055010067421177</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01697444322497017</v>
+        <v>0.01221398369606084</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01641685588952065</v>
+        <v>0.008398853277368362</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04014443104557017</v>
+        <v>0.03250005124939426</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01638319734106836</v>
+        <v>0.008567649706096084</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.06326969701524038</v>
+        <v>0.05431490092290037</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01637795457651193</v>
+        <v>0.00823218234920523</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01848055412077041</v>
+        <v>0.01072843571306505</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01795621804036142</v>
+        <v>0.006660511074163294</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01803036947636198</v>
+        <v>0.0129273344287047</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01805854147847272</v>
+        <v>0.009238738605105198</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0421660650632131</v>
+        <v>0.03351861573101075</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.0180215170751752</v>
+        <v>0.009132750294546752</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.06678521854084163</v>
+        <v>0.05705995730880808</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01801575003416312</v>
+        <v>0.009055400584125753</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01838856507932791</v>
+        <v>0.01138972556152249</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01958860149857609</v>
+        <v>0.007266012080905412</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01885601436713286</v>
+        <v>0.01395561592609819</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01970022706742478</v>
+        <v>0.01048507459710798</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04492085907814222</v>
+        <v>0.03532269143155958</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01965983680928203</v>
+        <v>0.009963000321323729</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07086097099404542</v>
+        <v>0.0601720522575756</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01965354549181432</v>
+        <v>0.009878618819046276</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01923318110960307</v>
+        <v>0.01197814703267822</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02122098495679076</v>
+        <v>0.00787151308764753</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0200407758714152</v>
+        <v>0.01421471884682793</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02134191265637685</v>
+        <v>0.01091850926057887</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04688133111965731</v>
+        <v>0.03683661171426952</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02129815654338887</v>
+        <v>0.01079325034810071</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07426131248950424</v>
+        <v>0.06404282700062969</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02129134094946551</v>
+        <v>0.0107018370539668</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01900978155963806</v>
+        <v>0.01248157256035957</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02285336841500544</v>
+        <v>0.008477014094389647</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02077405196334141</v>
+        <v>0.0150260939804525</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02298359824532891</v>
+        <v>0.01175839458831571</v>
       </c>
       <c r="L79" t="n">
-        <v>0.049419999217058</v>
+        <v>0.03895307962719416</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0229364762774957</v>
+        <v>0.01162350037487768</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07815060114187061</v>
+        <v>0.06666392276939725</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0229291364071167</v>
+        <v>0.01152505528888732</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02171374577747508</v>
+        <v>0.01288787457839386</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02448575187322011</v>
+        <v>0.009082515101131765</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02184524061704383</v>
+        <v>0.01565455177236688</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02462528383428098</v>
+        <v>0.01259827991605254</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05150938139964409</v>
+        <v>0.04086479821838718</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02457479601160254</v>
+        <v>0.01245375040165466</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08089319506579695</v>
+        <v>0.06902698079530512</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02456693186476789</v>
+        <v>0.01234827352380784</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0213404531111563</v>
+        <v>0.01328615717561636</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02611813533143478</v>
+        <v>0.009982099667469662</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02264373980665489</v>
+        <v>0.01649603958142744</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02626696942323304</v>
+        <v>0.01343816524378938</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05292199569671513</v>
+        <v>0.04216447053590222</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02621311574570938</v>
+        <v>0.01328400042843164</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08345345237593577</v>
+        <v>0.07222364230978001</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02620472732241909</v>
+        <v>0.01317149175872837</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02088528290872392</v>
+        <v>0.01337733864719075</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02775051878964946</v>
+        <v>0.010293517114616</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02315894750630697</v>
+        <v>0.01714650476649049</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02790865501218511</v>
+        <v>0.01427805057152622</v>
       </c>
       <c r="L82" t="n">
-        <v>0.054830360137571</v>
+        <v>0.0444447996277928</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02785143547981621</v>
+        <v>0.01411425045520862</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08559573118693964</v>
+        <v>0.07514554854424899</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02784252278007028</v>
+        <v>0.01399470999364889</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0223436145182201</v>
+        <v>0.01355253308992433</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02938290224786413</v>
+        <v>0.01089901812135812</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02398026169013245</v>
+        <v>0.01800189468641242</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02955034060113717</v>
+        <v>0.01511793589926305</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05630699275151133</v>
+        <v>0.04629848854211263</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02948975521392305</v>
+        <v>0.01494450048198559</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08838438961346096</v>
+        <v>0.07758434073013865</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02948031823772147</v>
+        <v>0.01481792822856941</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02271082734108018</v>
+        <v>0.01372497549113128</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0310152857060788</v>
+        <v>0.01150451912810024</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02429708033226374</v>
+        <v>0.01875815670004957</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03119202619008923</v>
+        <v>0.01595782122699989</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05722441156783575</v>
+        <v>0.04781824032691528</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03112807494802989</v>
+        <v>0.01577475050876257</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08998378577015226</v>
+        <v>0.07953166009887597</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03111811369537266</v>
+        <v>0.01564114646348994</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02202720121772735</v>
+        <v>0.01389468081787034</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03264766916429348</v>
+        <v>0.01211002013484235</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0248988014068332</v>
+        <v>0.01951123816625831</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03283371177904131</v>
+        <v>0.01679770655473672</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05767278291247757</v>
+        <v>0.0496967580302545</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03276639468213673</v>
+        <v>0.01660500053553955</v>
       </c>
       <c r="N85" t="n">
-        <v>0.09059317445667764</v>
+        <v>0.08287914788188777</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03275590915302386</v>
+        <v>0.01646436469841046</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02233452787154501</v>
+        <v>0.01406166403720024</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03428005262250815</v>
+        <v>0.01271552114158447</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02513317546280668</v>
+        <v>0.02015708644389498</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03447539736799337</v>
+        <v>0.01763759188247356</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05894227933349963</v>
+        <v>0.05122674470018382</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03440471441624356</v>
+        <v>0.01743525056231653</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0927994123349955</v>
+        <v>0.08481844531060084</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03439370461067506</v>
+        <v>0.01728758293333098</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02463074629253183</v>
+        <v>0.01422594011617975</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03591243608072283</v>
+        <v>0.01332102214832659</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02555794820643886</v>
+        <v>0.02099164889181594</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03611708295694543</v>
+        <v>0.0184774772102104</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05938769248983536</v>
+        <v>0.05230090338475685</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03604303415035039</v>
+        <v>0.0182655005890935</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09396739362939566</v>
+        <v>0.08694119361644209</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03603150006832625</v>
+        <v>0.01811080116825151</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02391379547068644</v>
+        <v>0.0143875240218676</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0375448195389375</v>
+        <v>0.01392652315506871</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02567093854523085</v>
+        <v>0.02161087286887754</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03775876854589749</v>
+        <v>0.01931736253794723</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05990392562139701</v>
+        <v>0.05381193713202728</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03768135388445723</v>
+        <v>0.01909575061587048</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09458912106571959</v>
+        <v>0.08923903403083833</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03766929552597744</v>
+        <v>0.01893401940317203</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02418161439600744</v>
+        <v>0.01454643072132251</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03917720299715217</v>
+        <v>0.01453202416181082</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0261699443990224</v>
+        <v>0.02231070573393613</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03940045413484956</v>
+        <v>0.02015724786568407</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06088588196809661</v>
+        <v>0.05535254899004871</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03931967361856407</v>
+        <v>0.01992600064264746</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09615659736980864</v>
+        <v>0.09060360778521637</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03930709098362863</v>
+        <v>0.01975723763809255</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02343214205849348</v>
+        <v>0.01470267518160324</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04080958645536685</v>
+        <v>0.01513752516855294</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02625276368765314</v>
+        <v>0.02308709484584809</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04104213972380163</v>
+        <v>0.02099713319342091</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06122846476984628</v>
+        <v>0.05691544200687482</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0409579933526709</v>
+        <v>0.02075625066942444</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09656182526750423</v>
+        <v>0.09242655611100309</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04094488644127982</v>
+        <v>0.02058045587301307</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02566331744814318</v>
+        <v>0.01485627236976852</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04244196991358153</v>
+        <v>0.01574302617529506</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02651719433096282</v>
+        <v>0.02373598756346976</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04268382531275369</v>
+        <v>0.02183701852115774</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06182657726655816</v>
+        <v>0.05809331923055913</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04259631308677774</v>
+        <v>0.02158650069620141</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09779680748464797</v>
+        <v>0.09449952023962527</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04258268189893102</v>
+        <v>0.0214036741079336</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.0248730795549552</v>
+        <v>0.0150072372528771</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04407435337179619</v>
+        <v>0.01634852718203718</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02676103424879109</v>
+        <v>0.02415333124565747</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04432551090170576</v>
+        <v>0.02267690384889458</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06287512269814441</v>
+        <v>0.05957888370915537</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04423463282088457</v>
+        <v>0.02241675072297839</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09895354674708112</v>
+        <v>0.0960141414025098</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04422047735658221</v>
+        <v>0.02222689234285412</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02405936736892815</v>
+        <v>0.01515558479798771</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04570673683001087</v>
+        <v>0.01695402818877929</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02708208136097767</v>
+        <v>0.02493507325126761</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04596719649065782</v>
+        <v>0.02351678917663141</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0629690043045171</v>
+        <v>0.06026483849071709</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04587295255499141</v>
+        <v>0.02324700074975537</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09902404578064522</v>
+        <v>0.09696206083108355</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0458582728142334</v>
+        <v>0.02305011057777464</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02622011988006065</v>
+        <v>0.01530132997215909</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04733912028822555</v>
+        <v>0.01755952919552141</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02717813358736221</v>
+        <v>0.02547716093915653</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04760888207960989</v>
+        <v>0.02435667450436825</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06350312532558844</v>
+        <v>0.06114388662329798</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04751127228909825</v>
+        <v>0.02407725077653234</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1003003073111816</v>
+        <v>0.09853491975677325</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04749606827188459</v>
+        <v>0.02387332881269516</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02535327607835136</v>
+        <v>0.01544448774244999</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04897150374644022</v>
+        <v>0.01816503020226353</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02744698884778445</v>
+        <v>0.02577554166818054</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04925056766856195</v>
+        <v>0.02519655983210509</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06407238900127049</v>
+        <v>0.06250873115495165</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04914959202320508</v>
+        <v>0.02490750080330932</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1007743340645318</v>
+        <v>0.09932435941100581</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04913386372953579</v>
+        <v>0.02469654704761569</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02445677495379889</v>
+        <v>0.01558507307591914</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0506038872046549</v>
+        <v>0.01877053120900565</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02758644506208403</v>
+        <v>0.02642616279719605</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05089225325751402</v>
+        <v>0.02603644515984192</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06427169857147541</v>
+        <v>0.06325207513373168</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05078791175731192</v>
+        <v>0.0257377508300863</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1007381287665373</v>
+        <v>0.1006220210252081</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05077165918718698</v>
+        <v>0.02551976528253621</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02552855549640189</v>
+        <v>0.01572310093962528</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05223627066286957</v>
+        <v>0.01937603221574777</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0275943001501007</v>
+        <v>0.02672497168505938</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05253393884646609</v>
+        <v>0.02687633048757876</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0643959572761153</v>
+        <v>0.0638666216076918</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05242623149141876</v>
+        <v>0.02656800085686328</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1009836941430394</v>
+        <v>0.101119545830807</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05240945464483817</v>
+        <v>0.02634298351745673</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02657231435123272</v>
+        <v>0.01585858630062716</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05386865412108423</v>
+        <v>0.01998153322248988</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02766835203167409</v>
+        <v>0.02696791569062691</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05417562443541814</v>
+        <v>0.02771621581531559</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06500010249878851</v>
+        <v>0.06414507362488553</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05406455122552559</v>
+        <v>0.02739825088364025</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1020889731453806</v>
+        <v>0.1014085750592291</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05404725010248936</v>
+        <v>0.02716620175237726</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02557058103395776</v>
+        <v>0.0159915441259835</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05550103757929891</v>
+        <v>0.020587034229232</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02791123185219636</v>
+        <v>0.02735094217275501</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05581731002437022</v>
+        <v>0.02855610114305243</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06469893504834859</v>
+        <v>0.06428013423336656</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05570287095963242</v>
+        <v>0.02822850091041723</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1013881478228993</v>
+        <v>0.1020889731453806</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05568504556014055</v>
+        <v>0.02798941998729778</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02455407534440099</v>
+        <v>0.01612198938275306</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05713342103751359</v>
+        <v>0.02119253523597412</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02770883129011234</v>
+        <v>0.02756999849029998</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05745899561332227</v>
+        <v>0.02939598647078927</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06478461524975926</v>
+        <v>0.06500010249878851</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05734119069373926</v>
+        <v>0.02905875093719421</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1015615428031159</v>
+        <v>0.1016889731453806</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05732284101779175</v>
+        <v>0.0288126382222183</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02552099984819922</v>
+        <v>0.01624993703799458</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05876580449572826</v>
+        <v>0.02179803624271624</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02769016371508409</v>
+        <v>0.02772103200211819</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05910068120227435</v>
+        <v>0.03023587179852611</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06492727984865673</v>
+        <v>0.06490010249878853</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0589795104278461</v>
+        <v>0.02988900096397119</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1010681516917967</v>
+        <v>0.1013889731453806</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05896063647544294</v>
+        <v>0.02963585645713883</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02647244075705943</v>
+        <v>0.01637540205876679</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06039818795394294</v>
+        <v>0.02240353724945835</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02785397459284095</v>
+        <v>0.02791123185219636</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06074236679122641</v>
+        <v>0.03107575712626294</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0647302066719784</v>
+        <v>0.06440010249878853</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06061783016195293</v>
+        <v>0.03071925099074817</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1013126084033491</v>
+        <v>0.1019889731453806</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06059843193309413</v>
+        <v>0.03045907469205935</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02640948428268854</v>
+        <v>0.01649839941212842</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06203057141215761</v>
+        <v>0.02300903825620047</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02770142448313184</v>
+        <v>0.02771123185219636</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06238405238017847</v>
+        <v>0.03191564245399978</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0645960818592729</v>
+        <v>0.06440010249878853</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06225614989605977</v>
+        <v>0.03154950101752514</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1007991277318832</v>
+        <v>0.1019889731453806</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06223622739074532</v>
+        <v>0.03128229292697987</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02433321663679351</v>
+        <v>0.01661894406513823</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06366295487037228</v>
+        <v>0.02361453926294259</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02763367394570576</v>
+        <v>0.02781123185219636</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06402573796913054</v>
+        <v>0.03275552778173661</v>
       </c>
       <c r="L104" t="n">
-        <v>0.064527591550089</v>
+        <v>0.06470010249878852</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06389446963016661</v>
+        <v>0.03237975104430212</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1003319244715093</v>
+        <v>0.1014889731453806</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06387402284839652</v>
+        <v>0.03210551116190039</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02424472403108131</v>
+        <v>0.01673705098485496</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06529533832858696</v>
+        <v>0.02422004026968471</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02745188354031163</v>
+        <v>0.02781123185219636</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06566742355808261</v>
+        <v>0.03359541310947345</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06382742188397544</v>
+        <v>0.06500010249878851</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06553278936427345</v>
+        <v>0.0332100010710791</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1008152134163374</v>
+        <v>0.1018889731453806</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06551181830604771</v>
+        <v>0.03292872939682092</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0251450926772589</v>
+        <v>0.01685273513833733</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06692772178680163</v>
+        <v>0.02482554127642683</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0275572138266984</v>
+        <v>0.02781123185219636</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06730910914703467</v>
+        <v>0.03443529843721028</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06359825900048088</v>
+        <v>0.06470010249878852</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06717110909838028</v>
+        <v>0.03404025109785608</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1005532093604777</v>
+        <v>0.1011889731453806</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06714961376369892</v>
+        <v>0.03375194763174144</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02503540878703321</v>
+        <v>0.01696601149264409</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06856010524501631</v>
+        <v>0.02543104228316894</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02745082536461504</v>
+        <v>0.02781123185219636</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06895079473598674</v>
+        <v>0.03527518376494712</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06364278903915413</v>
+        <v>0.0646001024987885</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06880942883248711</v>
+        <v>0.03487050112463305</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09925012709804037</v>
+        <v>0.1011889731453806</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06878740922135011</v>
+        <v>0.03457516586666196</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02491675857211122</v>
+        <v>0.01707689501483399</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07019248870323098</v>
+        <v>0.02603654328991106</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02723387871381051</v>
+        <v>0.02791123185219636</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07059248032493881</v>
+        <v>0.03611506909268396</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06316369813954384</v>
+        <v>0.06500010249878851</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07044774856659394</v>
+        <v>0.03570075115141003</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09891018142313557</v>
+        <v>0.1010889731453806</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0704252046790013</v>
+        <v>0.03539838410158249</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02579022824419985</v>
+        <v>0.01718540067196576</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07182487216144566</v>
+        <v>0.02664204429665318</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02710753443403376</v>
+        <v>0.02791123185219636</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07223416591389087</v>
+        <v>0.03695495442042079</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06306367244119879</v>
+        <v>0.06440010249878853</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07208606830070079</v>
+        <v>0.03653100117818701</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09843758712987349</v>
+        <v>0.1015889731453806</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0720630001366525</v>
+        <v>0.03622160233650301</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02465690401500609</v>
+        <v>0.01729154343109814</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07345725561966032</v>
+        <v>0.0272475453033953</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02707295308503373</v>
+        <v>0.02791123185219636</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07387585150284293</v>
+        <v>0.03779483974815763</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06244539808366761</v>
+        <v>0.06500010249878851</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07372438803480763</v>
+        <v>0.03736125120496398</v>
       </c>
       <c r="N110" t="n">
-        <v>0.09843655901236437</v>
+        <v>0.1015889731453806</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07370079559430369</v>
+        <v>0.03704482057142353</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02551787209623688</v>
+        <v>0.01739533825928987</v>
       </c>
       <c r="G111" t="n">
-        <v>0.075089639077875</v>
+        <v>0.02785304631013742</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02693129522655938</v>
+        <v>0.02771123185219636</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07551753709179498</v>
+        <v>0.03863472507589447</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06251156120649912</v>
+        <v>0.06480010249878851</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07536270776891446</v>
+        <v>0.03819150123174096</v>
       </c>
       <c r="N111" t="n">
-        <v>0.0973113118647182</v>
+        <v>0.1020889731453806</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07533859105195488</v>
+        <v>0.03786803880634406</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02537421869959917</v>
+        <v>0.0174968001235997</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07672202253608967</v>
+        <v>0.02845854731687953</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02658372141835966</v>
+        <v>0.02771123185219636</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07715922268074706</v>
+        <v>0.0394746104036313</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06176484794924197</v>
+        <v>0.06480010249878851</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07700102750302129</v>
+        <v>0.03902175125851794</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09746606048104522</v>
+        <v>0.1010889731453806</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07697638650960607</v>
+        <v>0.03869125704126458</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02522703003679992</v>
+        <v>0.01759594399108635</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07835440599430435</v>
+        <v>0.02906404832362165</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02663139222018356</v>
+        <v>0.02771123185219636</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07880090826969913</v>
+        <v>0.04031449573136814</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06130794445144488</v>
+        <v>0.0646001024987885</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07863934723712813</v>
+        <v>0.03985200128529492</v>
       </c>
       <c r="N113" t="n">
-        <v>0.09630501965545563</v>
+        <v>0.1016889731453806</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07861418196725727</v>
+        <v>0.0395144752761851</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02407739231954609</v>
+        <v>0.01769278482880858</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07998678945251902</v>
+        <v>0.02966954933036377</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02647546819177998</v>
+        <v>0.02781123185219636</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08044259385865118</v>
+        <v>0.04115438105910497</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06094353685265666</v>
+        <v>0.0646001024987885</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08027766697123496</v>
+        <v>0.04068225131207189</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09573240418205947</v>
+        <v>0.1014889731453806</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08025197742490846</v>
+        <v>0.04033769351110562</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02392639175954461</v>
+        <v>0.01778733760382512</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0816191729107337</v>
+        <v>0.03027505033710589</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02631710989289791</v>
+        <v>0.02781123185219636</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08208427944760326</v>
+        <v>0.04199426638684181</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06087431129242593</v>
+        <v>0.06450010249878851</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0819159867053418</v>
+        <v>0.04151250133884887</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09545242885496708</v>
+        <v>0.1017889731453806</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08188977288255965</v>
+        <v>0.04116091174602615</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02477511456850245</v>
+        <v>0.0178796172831947</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08325155636894838</v>
+        <v>0.030880551343848</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02615747788328629</v>
+        <v>0.02771123185219636</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08372596503655533</v>
+        <v>0.04283415171457865</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06030295391030144</v>
+        <v>0.06490010249878853</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08355430643944865</v>
+        <v>0.04234275136562585</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09506930846828848</v>
+        <v>0.1012889731453806</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08352756834021084</v>
+        <v>0.04198412998094667</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02462464695812658</v>
+        <v>0.01796963883397609</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08488393982716305</v>
+        <v>0.03148605235059012</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02599773272269408</v>
+        <v>0.02771123185219636</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08536765062550739</v>
+        <v>0.04367403704231548</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06033215084583193</v>
+        <v>0.06440010249878853</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08519262617355548</v>
+        <v>0.04317300139240282</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09408725781613386</v>
+        <v>0.1012889731453806</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08516536379786203</v>
+        <v>0.04280734821586719</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02347571847547664</v>
+        <v>0.01805741722322799</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08651632328537773</v>
+        <v>0.03209155335733224</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02563903497087022</v>
+        <v>0.02771123185219636</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08700933621445946</v>
+        <v>0.04451392237005232</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06006458823856611</v>
+        <v>0.0646001024987885</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08683094590766231</v>
+        <v>0.0440032514191798</v>
       </c>
       <c r="N118" t="n">
-        <v>0.09421049169261347</v>
+        <v>0.1012889731453806</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08680315925551323</v>
+        <v>0.04363056645078772</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02331228735181881</v>
+        <v>0.01814296741800917</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08814870674359239</v>
+        <v>0.03269705436407436</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02558092366864186</v>
+        <v>0.02791123185219636</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08865102180341151</v>
+        <v>0.04535380769778916</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05908949830927751</v>
+        <v>0.06500010249878851</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08846926564176914</v>
+        <v>0.04483350144595678</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09361890278144436</v>
+        <v>0.1020889731453806</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08844095471316442</v>
+        <v>0.04445378468570824</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02412777294716545</v>
+        <v>0.01822630438537836</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08978109020180707</v>
+        <v>0.03330255537081648</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02530407692220078</v>
+        <v>0.02781123185219636</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09029270739236357</v>
+        <v>0.04619369302552599</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05896262417644499</v>
+        <v>0.06450010249878851</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09010758537587599</v>
+        <v>0.04566375147273376</v>
       </c>
       <c r="N120" t="n">
-        <v>0.09264489659341368</v>
+        <v>0.1016889731453806</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09007875017081561</v>
+        <v>0.04527700292062876</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02192571426909833</v>
+        <v>0.01830744309239431</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09141347366002174</v>
+        <v>0.03390805637755859</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02530550601785629</v>
+        <v>0.02771123185219636</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09193439298131564</v>
+        <v>0.04703357835326283</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05878795486622138</v>
+        <v>0.0646001024987885</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09174590510998282</v>
+        <v>0.04649400149951074</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09209650447851842</v>
+        <v>0.1018889731453806</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0917165456284668</v>
+        <v>0.04610022115554929</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02170965032519927</v>
+        <v>0.01838639850611573</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09304585711823642</v>
+        <v>0.03451355738430071</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02488899219799819</v>
+        <v>0.02771123185219636</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09357607857026772</v>
+        <v>0.04787346368099966</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05807424214234463</v>
+        <v>0.06440010249878853</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09338422484408966</v>
+        <v>0.04732425152628771</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09088745873978571</v>
+        <v>0.1010889731453806</v>
       </c>
       <c r="O122" t="n">
-        <v>0.093354341086118</v>
+        <v>0.04692343939046981</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02248312012305011</v>
+        <v>0.0184631855936014</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09467824057645109</v>
+        <v>0.03511905839104282</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02475831670501638</v>
+        <v>0.02781123185219636</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09521776415921977</v>
+        <v>0.0487133490087365</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05733023776855278</v>
+        <v>0.06500010249878851</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09502254457819649</v>
+        <v>0.04815450155306469</v>
       </c>
       <c r="N123" t="n">
-        <v>0.09033149168024279</v>
+        <v>0.1019889731453806</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09499213654376919</v>
+        <v>0.04774665762539033</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02324966267023264</v>
+        <v>0.01853781932191002</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09631062403466577</v>
+        <v>0.03572455939778494</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0244172607813007</v>
+        <v>0.02771123185219636</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09685944974817184</v>
+        <v>0.04955323433647334</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05666469350858394</v>
+        <v>0.0646001024987885</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09666086431230334</v>
+        <v>0.04898475157984167</v>
       </c>
       <c r="N124" t="n">
-        <v>0.08884233560291699</v>
+        <v>0.1014889731453806</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09662993200142038</v>
+        <v>0.04856987586031086</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02301281697432871</v>
+        <v>0.01861031465810037</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09794300749288044</v>
+        <v>0.03633006040452706</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02436960566924103</v>
+        <v>0.02791123185219636</v>
       </c>
       <c r="K125" t="n">
-        <v>0.0985011353371239</v>
+        <v>0.05039311966421017</v>
       </c>
       <c r="L125" t="n">
-        <v>0.056486361126176</v>
+        <v>0.06470010249878852</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09829918404641017</v>
+        <v>0.04981500160661865</v>
       </c>
       <c r="N125" t="n">
-        <v>0.08853372281083566</v>
+        <v>0.1018889731453806</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09826772745907157</v>
+        <v>0.04939309409523138</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02277612204292012</v>
+        <v>0.01868068656923116</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09957539095109512</v>
+        <v>0.03693556141126918</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02401913261122723</v>
+        <v>0.02771123185219636</v>
       </c>
       <c r="K126" t="n">
-        <v>0.100142820926076</v>
+        <v>0.05123300499194701</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0559039923850671</v>
+        <v>0.06450010249878851</v>
       </c>
       <c r="M126" t="n">
-        <v>0.099937503780517</v>
+        <v>0.05064525163339562</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0878193856070259</v>
+        <v>0.1010889731453806</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09990552291672276</v>
+        <v>0.0502163123301519</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02254311688358868</v>
+        <v>0.01874895002236114</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1012077744093098</v>
+        <v>0.0375410624180113</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02376962284964916</v>
+        <v>0.02771123185219636</v>
       </c>
       <c r="K127" t="n">
-        <v>0.101784506515028</v>
+        <v>0.05207289031968385</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05492633904899519</v>
+        <v>0.06470010249878852</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1015758235146238</v>
+        <v>0.0514755016601726</v>
       </c>
       <c r="N127" t="n">
-        <v>0.08671305629451503</v>
+        <v>0.1010889731453806</v>
       </c>
       <c r="O127" t="n">
-        <v>0.101543318374374</v>
+        <v>0.05103953056507243</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02231734050391621</v>
+        <v>0.01881511998454905</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1028401578675245</v>
+        <v>0.03814656342475341</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02342485762689668</v>
+        <v>0.02791123185219636</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1034261921039801</v>
+        <v>0.05291277564742067</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05476215288169833</v>
+        <v>0.0646001024987885</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1032141432487307</v>
+        <v>0.05230575168694958</v>
       </c>
       <c r="N128" t="n">
-        <v>0.08602846717633045</v>
+        <v>0.1010889731453806</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1031811138320251</v>
+        <v>0.05186274879999295</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02110224646335006</v>
+        <v>0.01887921142285363</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1044725413257391</v>
+        <v>0.03875206443149554</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02328861818535964</v>
+        <v>0.02781123185219636</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1050678776929322</v>
+        <v>0.05375266097515752</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05422018564691455</v>
+        <v>0.06480010249878851</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1048524629828375</v>
+        <v>0.05313600171372655</v>
       </c>
       <c r="N129" t="n">
-        <v>0.08467935055549924</v>
+        <v>0.1019889731453806</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1048189092896763</v>
+        <v>0.05268596703491347</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02187967963390622</v>
+        <v>0.01894123930433363</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1061049247839538</v>
+        <v>0.03935756543823765</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02306281093637273</v>
+        <v>0.02771123185219636</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1067095632818842</v>
+        <v>0.05459254630289436</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05349326128999812</v>
+        <v>0.06500010249878851</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1064907827169444</v>
+        <v>0.05396625174050353</v>
       </c>
       <c r="N130" t="n">
-        <v>0.08425058018540982</v>
+        <v>0.1010889731453806</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1064567047473275</v>
+        <v>0.053509185269834</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02163741670240159</v>
+        <v>0.01900121859604775</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1077373082421685</v>
+        <v>0.03996306644497977</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02292223483920323</v>
+        <v>0.02791123185219636</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1083512488708363</v>
+        <v>0.05543243163063118</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05322041847127904</v>
+        <v>0.06500010249878851</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1081291024510512</v>
+        <v>0.05479650176728051</v>
       </c>
       <c r="N131" t="n">
-        <v>0.08344793713747745</v>
+        <v>0.1018889731453806</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1080945002049787</v>
+        <v>0.05433240350475451</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02138052375922631</v>
+        <v>0.01905916426505477</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1093696917003831</v>
+        <v>0.04056856745172189</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02246203676565006</v>
+        <v>0.02791123185219636</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1099929344597883</v>
+        <v>0.05627231695836803</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05210549010276519</v>
+        <v>0.06440010249878853</v>
       </c>
       <c r="M132" t="n">
-        <v>0.109767422185158</v>
+        <v>0.05562675179405749</v>
       </c>
       <c r="N132" t="n">
-        <v>0.08258007387085237</v>
+        <v>0.1011889731453806</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1097322956626299</v>
+        <v>0.05515562173967504</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02111406689477047</v>
+        <v>0.01911509127841343</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1110020751585978</v>
+        <v>0.041174068458464</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02238762956530208</v>
+        <v>0.02791123185219636</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1116346200487404</v>
+        <v>0.05711220228610486</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05176100433681136</v>
+        <v>0.06500010249878851</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1114057419192648</v>
+        <v>0.05645700182083447</v>
       </c>
       <c r="N133" t="n">
-        <v>0.08116664818134101</v>
+        <v>0.1012889731453806</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1113700911202811</v>
+        <v>0.05597883997459555</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02084311219942422</v>
+        <v>0.01916901460318246</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1126344586168125</v>
+        <v>0.04177956946520613</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02210442608774803</v>
+        <v>0.02791123185219636</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1132763056376925</v>
+        <v>0.05795208761384169</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05099948932577236</v>
+        <v>0.06500010249878851</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1130440616533717</v>
+        <v>0.05728725184761144</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07952731786474987</v>
+        <v>0.1012889731453806</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1130078865779323</v>
+        <v>0.05680205820951608</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0185727257635777</v>
+        <v>0.01922094920642059</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1142668420750272</v>
+        <v>0.04238507047194824</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02161783918257676</v>
+        <v>0.02781123185219636</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1149179912266445</v>
+        <v>0.05879197294157854</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05043347322200303</v>
+        <v>0.0646001024987885</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1146823813874785</v>
+        <v>0.05811750187438842</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0794817407168853</v>
+        <v>0.1020889731453806</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1146456820355835</v>
+        <v>0.05762527644443661</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02030797367762103</v>
+        <v>0.01927091005518657</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1158992255332418</v>
+        <v>0.04299057147869036</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02133328169937707</v>
+        <v>0.02791123185219636</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1165596768155966</v>
+        <v>0.05963185826931537</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04977548417785826</v>
+        <v>0.06500010249878851</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1163207011215854</v>
+        <v>0.0589477519011654</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07814957453355359</v>
+        <v>0.1016889731453806</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1162834774932347</v>
+        <v>0.05844849467935712</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01905392203194434</v>
+        <v>0.01931891211653915</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1175316089914565</v>
+        <v>0.04359607248543248</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02125616648773776</v>
+        <v>0.02791123185219636</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1182013624045487</v>
+        <v>0.06047174359705221</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04873805034569278</v>
+        <v>0.0646001024987885</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1179590208556922</v>
+        <v>0.05977800192794237</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07695047711056135</v>
+        <v>0.1012889731453806</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1179212729508859</v>
+        <v>0.05927171291427765</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01881563691693773</v>
+        <v>0.01936497035753703</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1191639924496712</v>
+        <v>0.04420157349217459</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02099190639724764</v>
+        <v>0.02781123185219636</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1198430479935007</v>
+        <v>0.06131162892478904</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04873369987786141</v>
+        <v>0.06440010249878853</v>
       </c>
       <c r="M138" t="n">
-        <v>0.119597340589799</v>
+        <v>0.06060825195471935</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07570410624371499</v>
+        <v>0.1013889731453806</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1195590684085371</v>
+        <v>0.06009493114919818</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01959818442299138</v>
+        <v>0.019409099745239</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1207963759078859</v>
+        <v>0.04480707449891671</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02074591427749553</v>
+        <v>0.02771123185219636</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1214847335824528</v>
+        <v>0.06215151425252588</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04777496092671907</v>
+        <v>0.06470010249878852</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1212356603239059</v>
+        <v>0.06143850198149634</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07563011972882089</v>
+        <v>0.1015889731453806</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1211968638661883</v>
+        <v>0.06091814938411869</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01740663064049538</v>
+        <v>0.01945131524670379</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1224287593661005</v>
+        <v>0.04541257550565882</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02032360297807022</v>
+        <v>0.02781123185219636</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1231264191714049</v>
+        <v>0.06299139958026272</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04737436164462053</v>
+        <v>0.06470010249878852</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1228739800580127</v>
+        <v>0.0622687520082733</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0746481753616855</v>
+        <v>0.1016889731453806</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1228346593238395</v>
+        <v>0.06174136761903922</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01824604165983986</v>
+        <v>0.0194916318289901</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1240611428243152</v>
+        <v>0.04601807651240095</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02013038534856053</v>
+        <v>0.02791123185219636</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1247681047603569</v>
+        <v>0.06383128490799955</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04714443018392059</v>
+        <v>0.06440010249878853</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1245122997921195</v>
+        <v>0.06309900203505028</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07387793093811523</v>
+        <v>0.1013889731453806</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1244724547814906</v>
+        <v>0.06256458585395974</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01812148357141496</v>
+        <v>0.01953006445915672</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1256935262825299</v>
+        <v>0.04662357751914306</v>
       </c>
       <c r="J142" t="n">
-        <v>0.01997167423855525</v>
+        <v>0.02771123185219636</v>
       </c>
       <c r="K142" t="n">
-        <v>0.126409790349309</v>
+        <v>0.06467117023573639</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04669769469697402</v>
+        <v>0.0646001024987885</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1261506195262264</v>
+        <v>0.06392925206182727</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07343904425391656</v>
+        <v>0.1020889731453806</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1261102502391419</v>
+        <v>0.06338780408888027</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01803802246561081</v>
+        <v>0.01956662810426236</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1273259097407446</v>
+        <v>0.04722907852588518</v>
       </c>
       <c r="J143" t="n">
-        <v>0.01985288249764319</v>
+        <v>0.02791123185219636</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1280514759382611</v>
+        <v>0.06551105556347323</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04664668333613581</v>
+        <v>0.06500010249878851</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1277889392603332</v>
+        <v>0.06475950208860423</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07225117310489582</v>
+        <v>0.1013889731453806</v>
       </c>
       <c r="O143" t="n">
-        <v>0.127748045696793</v>
+        <v>0.06421102232380078</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01900072443281753</v>
+        <v>0.01960133773136577</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1289582931989592</v>
+        <v>0.0478345795326273</v>
       </c>
       <c r="J144" t="n">
-        <v>0.0198794229754132</v>
+        <v>0.02771123185219636</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1296931615272131</v>
+        <v>0.06635094089121006</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04610392425376064</v>
+        <v>0.06480010249878851</v>
       </c>
       <c r="M144" t="n">
-        <v>0.12942725899444</v>
+        <v>0.06558975211538122</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07293397528685952</v>
+        <v>0.1017889731453806</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1293858411544442</v>
+        <v>0.06503424055872131</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01800137703572133</v>
+        <v>0.01963420830752568</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1305906766571739</v>
+        <v>0.04844008053936941</v>
       </c>
       <c r="J145" t="n">
-        <v>0.01995655659289144</v>
+        <v>0.02771123185219636</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1313348471161652</v>
+        <v>0.0671908262189469</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04597605977001173</v>
+        <v>0.06500010249878851</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1310655787285469</v>
+        <v>0.06642000214215819</v>
       </c>
       <c r="N145" t="n">
-        <v>0.07289554905487905</v>
+        <v>0.1016886429214635</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1310236366120954</v>
+        <v>0.06585745879364184</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01701069153011347</v>
+        <v>0.01966525479980084</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1322230601153886</v>
+        <v>0.04904558154611154</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01996118434081988</v>
+        <v>0.02781123185219636</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1329765327051173</v>
+        <v>0.06803071154668373</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04599124571518526</v>
+        <v>0.06469990242369517</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1327038984626537</v>
+        <v>0.06725025216893517</v>
       </c>
       <c r="N146" t="n">
-        <v>0.07222046833999857</v>
+        <v>0.1019835064087805</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1326614320697466</v>
+        <v>0.06668067702856235</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.0180270002005756</v>
+        <v>0.01969449217524998</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1338554435736033</v>
+        <v>0.04965108255285365</v>
       </c>
       <c r="J147" t="n">
-        <v>0.01987350858290057</v>
+        <v>0.02781123185219636</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1346182182940693</v>
+        <v>0.06887059687442057</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04622405878431682</v>
+        <v>0.06479661866381958</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1343422181967606</v>
+        <v>0.06808050219571216</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0726730004576786</v>
+        <v>0.1010723299568605</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1342992275273978</v>
+        <v>0.06750389526348288</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01904993079263129</v>
+        <v>0.01972193540093185</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1354878270318179</v>
+        <v>0.05025658355959577</v>
       </c>
       <c r="J148" t="n">
-        <v>0.01989313158491743</v>
+        <v>0.02781041745814326</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1362599038830214</v>
+        <v>0.06971048220215741</v>
       </c>
       <c r="L148" t="n">
-        <v>0.04617357841333508</v>
+        <v>0.06458942338431456</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1359805379308674</v>
+        <v>0.06891075222248912</v>
       </c>
       <c r="N148" t="n">
-        <v>0.07235170096024418</v>
+        <v>0.1018553453566396</v>
       </c>
       <c r="O148" t="n">
-        <v>0.135937022985049</v>
+        <v>0.06832711349840341</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01807911105180406</v>
+        <v>0.01974759944390521</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1371202104900326</v>
+        <v>0.05086208456633789</v>
       </c>
       <c r="J149" t="n">
-        <v>0.01991965561265441</v>
+        <v>0.02770786300650217</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1379015894719735</v>
+        <v>0.07055036752989424</v>
       </c>
       <c r="L149" t="n">
-        <v>0.0466388840381686</v>
+        <v>0.06467846798083265</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1376188576649742</v>
+        <v>0.0697410022492661</v>
       </c>
       <c r="N149" t="n">
-        <v>0.07325512540001999</v>
+        <v>0.1018327843990535</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1375748184427002</v>
+        <v>0.06915033173332392</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01811416872361749</v>
+        <v>0.01977149927122876</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1387525939482473</v>
+        <v>0.05146758557308001</v>
       </c>
       <c r="J150" t="n">
-        <v>0.01995268293189545</v>
+        <v>0.02770363399257149</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1395432750609255</v>
+        <v>0.07139025285763108</v>
       </c>
       <c r="L150" t="n">
-        <v>0.0463190550947459</v>
+        <v>0.06436390384902646</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1392571773990811</v>
+        <v>0.07057125227604308</v>
       </c>
       <c r="N150" t="n">
-        <v>0.07288182932933102</v>
+        <v>0.1010048788750382</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1392126139003514</v>
+        <v>0.06997354996824445</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01915473155359511</v>
+        <v>0.01979364984996125</v>
       </c>
       <c r="G151" t="n">
-        <v>0.140384977406462</v>
+        <v>0.05207308657982213</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02009181580842451</v>
+        <v>0.027897797715823</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1411849606498776</v>
+        <v>0.07223013818536791</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04641317101899567</v>
+        <v>0.06494588238454849</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1408954971331879</v>
+        <v>0.07140150230282005</v>
       </c>
       <c r="N151" t="n">
-        <v>0.07283036830050199</v>
+        <v>0.1017718605755294</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1408504093580026</v>
+        <v>0.07079676820316498</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01720042728726047</v>
+        <v>0.01981406614716144</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1420173608646766</v>
+        <v>0.05267858758656424</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02013665650802551</v>
+        <v>0.02779042147572852</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1428266462388297</v>
+        <v>0.07307002351310475</v>
       </c>
       <c r="L152" t="n">
-        <v>0.04632031124684635</v>
+        <v>0.06452455498305132</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1425338168672947</v>
+        <v>0.07223175232959704</v>
       </c>
       <c r="N152" t="n">
-        <v>0.07349929786585779</v>
+        <v>0.101333961291463</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1424882048156538</v>
+        <v>0.0716199864380855</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01925088367013712</v>
+        <v>0.01983276312988805</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1436497443228913</v>
+        <v>0.05328408859330636</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0199868072964824</v>
+        <v>0.02768157257175988</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1444683318277817</v>
+        <v>0.07390990884084159</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04663955521422655</v>
+        <v>0.06450007304018754</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1441721366014016</v>
+        <v>0.07306200235637401</v>
       </c>
       <c r="N153" t="n">
-        <v>0.07318717357772336</v>
+        <v>0.1014914128137749</v>
       </c>
       <c r="O153" t="n">
-        <v>0.144126000273305</v>
+        <v>0.07244320467300602</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01730572844774861</v>
+        <v>0.01984975576519983</v>
       </c>
       <c r="G154" t="n">
-        <v>0.145282127781106</v>
+        <v>0.05388958960004847</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02004187043957914</v>
+        <v>0.02777131830338887</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1461100174167338</v>
+        <v>0.07474979416857842</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04686998235706494</v>
+        <v>0.06427258795160973</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1458104563355084</v>
+        <v>0.07389225238315099</v>
       </c>
       <c r="N154" t="n">
-        <v>0.07399255098842344</v>
+        <v>0.1012444469334009</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1457637957309562</v>
+        <v>0.07326642290792655</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01736458936561849</v>
+        <v>0.01986505902015552</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1469145112393206</v>
+        <v>0.05449509060679059</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02020144820309965</v>
+        <v>0.0277597259700873</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1477517030056859</v>
+        <v>0.07558967949631526</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04691067211128994</v>
+        <v>0.06474225111297041</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1474487760696153</v>
+        <v>0.07472250240992796</v>
       </c>
       <c r="N155" t="n">
-        <v>0.07421398565028292</v>
+        <v>0.1007932954412768</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1474015911886074</v>
+        <v>0.07408964114284707</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0174270941692703</v>
+        <v>0.01987868786181383</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1485468946975353</v>
+        <v>0.05510059161353271</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02036514285282789</v>
+        <v>0.02764686287132699</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1493933885946379</v>
+        <v>0.0764295648240521</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04716070391283025</v>
+        <v>0.0643092139199222</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1490870958037221</v>
+        <v>0.07555275243670495</v>
       </c>
       <c r="N156" t="n">
-        <v>0.07355003311562663</v>
+        <v>0.1015381901283385</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1490393866462585</v>
+        <v>0.07491285937776759</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01950916175753629</v>
+        <v>0.01989065725723355</v>
       </c>
       <c r="G157" t="n">
-        <v>0.15017927815575</v>
+        <v>0.05570609262027483</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02033293116856573</v>
+        <v>0.02773279630657971</v>
       </c>
       <c r="K157" t="n">
-        <v>0.15103507418359</v>
+        <v>0.07726945015178893</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04762757631533165</v>
+        <v>0.06427362776811762</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1507254155378289</v>
+        <v>0.07638300246348191</v>
       </c>
       <c r="N157" t="n">
-        <v>0.07481539109099367</v>
+        <v>0.1015793627855219</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1506771821039098</v>
+        <v>0.07573607761268812</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01965018375393324</v>
+        <v>0.01990098217347341</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1518116616139647</v>
+        <v>0.05631159362701695</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02054373872350937</v>
+        <v>0.02771759357531732</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1526767597725421</v>
+        <v>0.07810933547952577</v>
       </c>
       <c r="L158" t="n">
-        <v>0.0479183640453319</v>
+        <v>0.06443564405320928</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1523637352719358</v>
+        <v>0.0772132524902589</v>
       </c>
       <c r="N158" t="n">
-        <v>0.07497990303483371</v>
+        <v>0.1010170452037626</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1523149775615609</v>
+        <v>0.07655929584760864</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01784169747492329</v>
+        <v>0.01990967757759211</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1534440450721793</v>
+        <v>0.05691709463375907</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02051539973743939</v>
+        <v>0.02760132197701161</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1543184453614941</v>
+        <v>0.0789492208072626</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04784423592213513</v>
+        <v>0.06409541417084968</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1540020550060426</v>
+        <v>0.07804350251703589</v>
       </c>
       <c r="N159" t="n">
-        <v>0.07495496240891736</v>
+        <v>0.1010514691739968</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1539527730192121</v>
+        <v>0.07738251408252916</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.0180724654563306</v>
+        <v>0.01991675843664843</v>
       </c>
       <c r="G160" t="n">
-        <v>0.155076428530394</v>
+        <v>0.05752259564050118</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02083590757433885</v>
+        <v>0.02758404881113437</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1559601309504462</v>
+        <v>0.07978910613499944</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04877740233828554</v>
+        <v>0.06405308951669147</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1556403747401494</v>
+        <v>0.07887375254381285</v>
       </c>
       <c r="N160" t="n">
-        <v>0.07609696482423051</v>
+        <v>0.1007828664871601</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1555905684768633</v>
+        <v>0.07820573231744968</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0193312502339793</v>
+        <v>0.01992223971770109</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1567088119886087</v>
+        <v>0.0581280966472433</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02109325559819071</v>
+        <v>0.02776584137715743</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1576018165393983</v>
+        <v>0.08062899146273628</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04899007368632741</v>
+        <v>0.06430882148638714</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1572786944742563</v>
+        <v>0.07970400257058984</v>
       </c>
       <c r="N161" t="n">
-        <v>0.07736230589175924</v>
+        <v>0.1012114689341885</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1572283639345145</v>
+        <v>0.07902895055237021</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01860681434369353</v>
+        <v>0.01992613638780884</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1583411954468234</v>
+        <v>0.05873359765398542</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02147543717297792</v>
+        <v>0.02764676697455258</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1592435021283503</v>
+        <v>0.08146887679047311</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04975446035880493</v>
+        <v>0.06406276147558931</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1589170142083631</v>
+        <v>0.08053425259736681</v>
       </c>
       <c r="N162" t="n">
-        <v>0.0778073812224897</v>
+        <v>0.1005375083060177</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1588661593921657</v>
+        <v>0.07985216878729073</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01888792032129742</v>
+        <v>0.01992846341403041</v>
       </c>
       <c r="G163" t="n">
-        <v>0.159973578905038</v>
+        <v>0.05933909866072754</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02167044566268353</v>
+        <v>0.02752689290279166</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1608851877173024</v>
+        <v>0.08230876211820995</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05064277274826243</v>
+        <v>0.06401506087995057</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1605553339424699</v>
+        <v>0.08136450262414378</v>
       </c>
       <c r="N163" t="n">
-        <v>0.07918858642740767</v>
+        <v>0.1012612163935836</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1605039548498169</v>
+        <v>0.08067538702221125</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02116333070261513</v>
+        <v>0.01992923576342455</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1616059623632527</v>
+        <v>0.05994459966746966</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0220662744312905</v>
+        <v>0.02770628646134644</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1625268733062545</v>
+        <v>0.08314864744594679</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05102722124724407</v>
+        <v>0.06446587109512342</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1621936536765768</v>
+        <v>0.08219475265092076</v>
       </c>
       <c r="N164" t="n">
-        <v>0.08076231711749948</v>
+        <v>0.100382824987822</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1621417503074681</v>
+        <v>0.08149860525713178</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01942180802347077</v>
+        <v>0.01992923576342455</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1632383458214674</v>
+        <v>0.05994459966746966</v>
       </c>
       <c r="J165" t="n">
-        <v>0.0222509168427818</v>
+        <v>0.02748501494968875</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1641685588952065</v>
+        <v>0.08398853277368362</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05158001624829411</v>
+        <v>0.06391534351676043</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1638319734106836</v>
+        <v>0.08302500267769775</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08098496890375079</v>
+        <v>0.1003025658796689</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1637795457651193</v>
+        <v>0.08232182349205229</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01965211481968851</v>
+        <v>0.01946764216420528</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1648707292796821</v>
+        <v>0.05994433113900564</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02251236626114045</v>
+        <v>0.0276631456672904</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1658102444841586</v>
+        <v>0.08482841810142046</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05277336814395681</v>
+        <v>0.06376362954051421</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1654702931447904</v>
+        <v>0.08385525270447472</v>
       </c>
       <c r="N166" t="n">
-        <v>0.0823129373971479</v>
+        <v>0.1010206708600601</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1654173412227705</v>
+        <v>0.08314504172697282</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02085241158503812</v>
+        <v>0.01901138770310237</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1665031127378968</v>
+        <v>0.05994406261054162</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02263895343696314</v>
+        <v>0.02764074591362319</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1674519300731107</v>
+        <v>0.08566830342915729</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05268467070096849</v>
+        <v>0.06391088056203728</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1671086128788973</v>
+        <v>0.08468550273125169</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08331240081439129</v>
+        <v>0.1006373717199313</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1670551366804217</v>
+        <v>0.08396825996189335</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02004586113695248</v>
+        <v>0.01856103788928207</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1681354961961114</v>
+        <v>0.0599437940820776</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02284617005674262</v>
+        <v>0.02751788298815892</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1690936156620627</v>
+        <v>0.08650818875689413</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05346381353527419</v>
+        <v>0.06425724797698226</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1687469326130041</v>
+        <v>0.08551575275802868</v>
       </c>
       <c r="N168" t="n">
-        <v>0.08436410924137472</v>
+        <v>0.1002529002502185</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1686929321380729</v>
+        <v>0.08479147819681386</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.021234661020895</v>
+        <v>0.01811715823196931</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1697678796543261</v>
+        <v>0.05994352555361358</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02314823971601908</v>
+        <v>0.02759462419036943</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1707353012510148</v>
+        <v>0.08734807408463097</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05363119301884675</v>
+        <v>0.06400288318100172</v>
       </c>
       <c r="M169" t="n">
-        <v>0.170385252347111</v>
+        <v>0.08634600278480564</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08449739651499993</v>
+        <v>0.1005674882418575</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1703307275957241</v>
+        <v>0.08561469643173439</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02041916772305165</v>
+        <v>0.01768031424033008</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1714002631125408</v>
+        <v>0.05994325702514957</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0233455433014243</v>
+        <v>0.02737103681972648</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1723769868399669</v>
+        <v>0.0881879594123678</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05418769072167545</v>
+        <v>0.06404793756974819</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1720235720812178</v>
+        <v>0.08717625281158263</v>
       </c>
       <c r="N170" t="n">
-        <v>0.08571364589772618</v>
+        <v>0.1004813674857841</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1719685230533753</v>
+        <v>0.08643791466665492</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02159973772960842</v>
+        <v>0.01725107142355013</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1730326465707555</v>
+        <v>0.05994298849668556</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02363846169959015</v>
+        <v>0.02744718817570194</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1740186724289189</v>
+        <v>0.08902784474010464</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05453418821374939</v>
+        <v>0.06409256253887419</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1736618918153246</v>
+        <v>0.0880065028383596</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08621424065201283</v>
+        <v>0.1003947697729342</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1736063185110265</v>
+        <v>0.08726113290157543</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02077672752675132</v>
+        <v>0.01682999529079698</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1746650300289701</v>
+        <v>0.05994271996822153</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02372737579714847</v>
+        <v>0.02732314555776756</v>
       </c>
       <c r="K172" t="n">
-        <v>0.175660358017871</v>
+        <v>0.08986773006784148</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05517156706505785</v>
+        <v>0.06373690948403241</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1753002115494315</v>
+        <v>0.08883675286513658</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08700056404031931</v>
+        <v>0.1002041582255867</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1752441139686776</v>
+        <v>0.08808435113649596</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02095049360066635</v>
+        <v>0.01641765135129309</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1762974134871848</v>
+        <v>0.05994245143975752</v>
       </c>
       <c r="J173" t="n">
-        <v>0.0240126664807311</v>
+        <v>0.02729897626539518</v>
       </c>
       <c r="K173" t="n">
-        <v>0.177302043606823</v>
+        <v>0.09070761539557831</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05550070884559</v>
+        <v>0.06337653185128497</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1769385312835383</v>
+        <v>0.08966700289191357</v>
       </c>
       <c r="N173" t="n">
-        <v>0.08697399932510474</v>
+        <v>0.1001935194581066</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1768819094263288</v>
+        <v>0.08890756937141649</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02212139243753949</v>
+        <v>0.01601460511420562</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1779297969453995</v>
+        <v>0.0599421829112935</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02399471463696982</v>
+        <v>0.02737298725387786</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1789437291957751</v>
+        <v>0.09154750072331515</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05592249512533506</v>
+        <v>0.06360246763568311</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1785768510176451</v>
+        <v>0.09049725291869054</v>
       </c>
       <c r="N174" t="n">
-        <v>0.08853592976882857</v>
+        <v>0.09946309221614125</v>
       </c>
       <c r="O174" t="n">
-        <v>0.17851970488398</v>
+        <v>0.089730787606337</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02328978052355676</v>
+        <v>0.01562142208872032</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1795621804036141</v>
+        <v>0.05994191438282949</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02427390115249656</v>
+        <v>0.02734103841241686</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1805854147847271</v>
+        <v>0.09238738605105198</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05643780747428226</v>
+        <v>0.0635159489875822</v>
       </c>
       <c r="M175" t="n">
-        <v>0.180215170751752</v>
+        <v>0.09132750294546751</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08878773863394984</v>
+        <v>0.09921528753980979</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1801575003416312</v>
+        <v>0.09055400584125753</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0234560143449041</v>
+        <v>0.01523866778400647</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1811945638618288</v>
+        <v>0.05994164585436546</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02435060691394308</v>
+        <v>0.02740359400441952</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1822271003736792</v>
+        <v>0.09322727137878882</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05674752746242076</v>
+        <v>0.06311855069242767</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1818534904858588</v>
+        <v>0.09215775297224449</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08993080918292817</v>
+        <v>0.09955251646923102</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1817952957992824</v>
+        <v>0.09137722407617804</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02362045038776756</v>
+        <v>0.01486690770928314</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1828269473200435</v>
+        <v>0.05994137732590145</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02452521280794127</v>
+        <v>0.02716135406470783</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1838687859626313</v>
+        <v>0.09406715670652566</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05705253665973978</v>
+        <v>0.06331184753566499</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1834918102199656</v>
+        <v>0.09298800299902148</v>
       </c>
       <c r="N177" t="n">
-        <v>0.08976652467822271</v>
+        <v>0.09917719004452402</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1834330912569336</v>
+        <v>0.09220044231109857</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02278455774051821</v>
+        <v>0.01450670737371915</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1844593307782582</v>
+        <v>0.05994110879743744</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02469809972112291</v>
+        <v>0.0273150186281038</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1855104715515833</v>
+        <v>0.09490704203426249</v>
       </c>
       <c r="L178" t="n">
-        <v>0.0579538131286593</v>
+        <v>0.06289741430273976</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1851301299540725</v>
+        <v>0.09381825302579845</v>
       </c>
       <c r="N178" t="n">
-        <v>0.09029656054027246</v>
+        <v>0.09949171930580764</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1850708867145848</v>
+        <v>0.0930236605460191</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02195777507717185</v>
+        <v>0.01415863228650023</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1860917142364728</v>
+        <v>0.05994084026897342</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0249756021567606</v>
+        <v>0.0272652877294294</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1871521571405354</v>
+        <v>0.09574692736199933</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05847121245170434</v>
+        <v>0.06287682577909742</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1867684496881793</v>
+        <v>0.09464850305257543</v>
       </c>
       <c r="N179" t="n">
-        <v>0.09135309853400941</v>
+        <v>0.09889851529320082</v>
       </c>
       <c r="O179" t="n">
-        <v>0.186708682172236</v>
+        <v>0.09384687878093961</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02313726760088756</v>
+        <v>0.01382324795679778</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1877240976946875</v>
+        <v>0.05994057174050939</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0252628257259869</v>
+        <v>0.02711286140350663</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1887938427294875</v>
+        <v>0.09658681268973617</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05890873784562892</v>
+        <v>0.06295165675018355</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1884067694222862</v>
+        <v>0.0954787530793524</v>
       </c>
       <c r="N180" t="n">
-        <v>0.09184057969784348</v>
+        <v>0.0985999890468226</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1883464776298872</v>
+        <v>0.09467009701586014</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02331691150773475</v>
+        <v>0.01350111989382673</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1893564811529022</v>
+        <v>0.05994030321204537</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02535332432030925</v>
+        <v>0.02705843968515749</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1904355283184395</v>
+        <v>0.097426698017473</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05925124549286845</v>
+        <v>0.06272348200144359</v>
       </c>
       <c r="M181" t="n">
-        <v>0.190045089156393</v>
+        <v>0.09630900310612937</v>
       </c>
       <c r="N181" t="n">
-        <v>0.0928352420224231</v>
+        <v>0.09839855160679173</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1899842730875384</v>
+        <v>0.09549331525078066</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02349058299378277</v>
+        <v>0.01319281360675795</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1909888646111169</v>
+        <v>0.05994003468358136</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02564055497917329</v>
+        <v>0.02690272260920394</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1920772139073916</v>
+        <v>0.09826658334520984</v>
       </c>
       <c r="L182" t="n">
-        <v>0.0595835915758583</v>
+        <v>0.06259387631832317</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1916834088904998</v>
+        <v>0.09713925313290636</v>
       </c>
       <c r="N182" t="n">
-        <v>0.09331332349839672</v>
+        <v>0.09829661401322737</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1916220685451896</v>
+        <v>0.09631653348570118</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02265215825510104</v>
+        <v>0.01289889460477713</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1926212480693315</v>
+        <v>0.05993976615511735</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02581797474202456</v>
+        <v>0.02704641021046798</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1937188994963437</v>
+        <v>0.09910646867294667</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05989063227703401</v>
+        <v>0.06226441448626771</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1933217286246067</v>
+        <v>0.09796950315968334</v>
       </c>
       <c r="N183" t="n">
-        <v>0.09355106211641268</v>
+        <v>0.09799658730624844</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1932598640028408</v>
+        <v>0.09713975172062171</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02379551348775898</v>
+        <v>0.01261992839705819</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1942536315275462</v>
+        <v>0.05993949762665332</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02577904064830863</v>
+        <v>0.02699020252377161</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1953605850852957</v>
+        <v>0.09994635400068351</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06035722377883093</v>
+        <v>0.06273667129072269</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1949600483587135</v>
+        <v>0.09879975318646031</v>
       </c>
       <c r="N184" t="n">
-        <v>0.09512469586711925</v>
+        <v>0.09800088252597366</v>
       </c>
       <c r="O184" t="n">
-        <v>0.194897659460492</v>
+        <v>0.09796296995554223</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02391452488782592</v>
+        <v>0.01235648049281115</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1958860149857609</v>
+        <v>0.05993922909818931</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02611720973747116</v>
+        <v>0.02673479958393683</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1970022706742478</v>
+        <v>0.1007862393284203</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06056822226368452</v>
+        <v>0.06241222151713371</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1965983680928203</v>
+        <v>0.0996300032132373</v>
       </c>
       <c r="N185" t="n">
-        <v>0.09471046274116474</v>
+        <v>0.09821191071252233</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1965354549181431</v>
+        <v>0.09878618819046275</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02400306865137128</v>
+        <v>0.01210911640120928</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1975183984439756</v>
+        <v>0.05993896056972529</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02622593904895762</v>
+        <v>0.02688090142578563</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1986439562631999</v>
+        <v>0.1016261246561572</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0609084839140302</v>
+        <v>0.06229263995094625</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1982366878269272</v>
+        <v>0.1004602532400143</v>
       </c>
       <c r="N186" t="n">
-        <v>0.09598460072919773</v>
+        <v>0.09753208290601306</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1981732503757943</v>
+        <v>0.09960940642538328</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02306907862953649</v>
+        <v>0.01187840163143827</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1991507819021902</v>
+        <v>0.05993869204126128</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02620216512218962</v>
+        <v>0.02662920808413996</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2002856418521519</v>
+        <v>0.102466009983894</v>
       </c>
       <c r="L187" t="n">
-        <v>0.0609783122650604</v>
+        <v>0.06207950137760579</v>
       </c>
       <c r="M187" t="n">
-        <v>0.199875007561034</v>
+        <v>0.1012905032667912</v>
       </c>
       <c r="N187" t="n">
-        <v>0.09614974886865518</v>
+        <v>0.09706381014656501</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1998110458334455</v>
+        <v>0.1004326246603038</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02413333765647349</v>
+        <v>0.01166490169267495</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2007831653604049</v>
+        <v>0.05993842351279725</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0262707002173023</v>
+        <v>0.02678041959382185</v>
       </c>
       <c r="K188" t="n">
-        <v>0.201927327441104</v>
+        <v>0.1033058953116309</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06133704221813482</v>
+        <v>0.06227438058255791</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2015133272951408</v>
+        <v>0.1021207532935682</v>
       </c>
       <c r="N188" t="n">
-        <v>0.09639883558498175</v>
+        <v>0.09670950347429713</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2014488412910967</v>
+        <v>0.1012558428952243</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02319616123992058</v>
+        <v>0.01146918209412365</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2024155488186196</v>
+        <v>0.05993815498433324</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02633772067638956</v>
+        <v>0.02653523598965324</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2035690130300561</v>
+        <v>0.1041457806393677</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06149225061077129</v>
+        <v>0.06217885235124809</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2031516470292477</v>
+        <v>0.1029510033203452</v>
       </c>
       <c r="N189" t="n">
-        <v>0.09634239276054068</v>
+        <v>0.09727157392932817</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2030866367487479</v>
+        <v>0.1020790611301449</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02525752684345062</v>
+        <v>0.01128949918245222</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2040479322768343</v>
+        <v>0.05993788645586923</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02650320242047122</v>
+        <v>0.02659435730645619</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2052106986190081</v>
+        <v>0.1049856659671045</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06134388171167182</v>
+        <v>0.06179449146912186</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2047899667633545</v>
+        <v>0.1037812533471222</v>
       </c>
       <c r="N190" t="n">
-        <v>0.09668033294792222</v>
+        <v>0.09695243255177721</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2047244322063991</v>
+        <v>0.1029022793650654</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02531741193063647</v>
+        <v>0.01111256349179607</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2056803157350489</v>
+        <v>0.05993761792740521</v>
       </c>
       <c r="J191" t="n">
-        <v>0.026367121370567</v>
+        <v>0.02655848357905266</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2068523842079602</v>
+        <v>0.1058255512948413</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06129187978953873</v>
+        <v>0.06172287272162466</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2064282864974614</v>
+        <v>0.1046115033738992</v>
       </c>
       <c r="N191" t="n">
-        <v>0.09681256869971644</v>
+        <v>0.09665449038176327</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2063622276640503</v>
+        <v>0.1037254975999859</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02437579396505105</v>
+        <v>0.01093663136882472</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2073126991932636</v>
+        <v>0.05993734939894119</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02652945344769676</v>
+        <v>0.02662831484226463</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2084940697969123</v>
+        <v>0.1066654366225782</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06143618911307402</v>
+        <v>0.06136518967572477</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2080666062315682</v>
+        <v>0.1054417534006761</v>
       </c>
       <c r="N192" t="n">
-        <v>0.09723901256851364</v>
+        <v>0.09667217422466007</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2080000231217015</v>
+        <v>0.1045487158349064</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02443265041026722</v>
+        <v>0.01076226832273919</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2089450826514783</v>
+        <v>0.05993708087047717</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02669017457288023</v>
+        <v>0.02660404455022281</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2101357553858643</v>
+        <v>0.107505321950315</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06207675395097995</v>
+        <v>0.06191312533637758</v>
       </c>
       <c r="M193" t="n">
-        <v>0.209704925965675</v>
+        <v>0.1062720034274531</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09725957710690397</v>
+        <v>0.09619264022877155</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2096378185793527</v>
+        <v>0.1053719340698269</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02548795872985786</v>
+        <v>0.01059003986271757</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2105774661096929</v>
+        <v>0.05993681234201315</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02664926066713721</v>
+        <v>0.02648155877905708</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2117774409748164</v>
+        <v>0.1083452072780519</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06201351857195853</v>
+        <v>0.06126268986010383</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2113432456997819</v>
+        <v>0.1071022534542301</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09687417486747751</v>
+        <v>0.09711557451392444</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2112756140370039</v>
+        <v>0.1061951523047475</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02554169638739585</v>
+        <v>0.01042051149794555</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2122098495679076</v>
+        <v>0.05993654381354914</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02660668765148752</v>
+        <v>0.02655978461441429</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2134191265637685</v>
+        <v>0.1091850926057887</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06194642724471203</v>
+        <v>0.06171383278464782</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2129815654338887</v>
+        <v>0.1079325034810071</v>
       </c>
       <c r="N195" t="n">
-        <v>0.09738271840282459</v>
+        <v>0.09634089982100819</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2129134094946551</v>
+        <v>0.107018370539668</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02459384084645407</v>
+        <v>0.01025424873760171</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2138422330261223</v>
+        <v>0.05993627528508511</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02666243144695089</v>
+        <v>0.02653869962445382</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2150608121527205</v>
+        <v>0.1100249779335256</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06247542423794253</v>
+        <v>0.06126650364775418</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2146198851679955</v>
+        <v>0.108762753507784</v>
       </c>
       <c r="N196" t="n">
-        <v>0.09798512026553519</v>
+        <v>0.09676853889091241</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2145512049523063</v>
+        <v>0.1078415887745885</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02364436957060541</v>
+        <v>0.01009181709088625</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2154746164843369</v>
+        <v>0.0599360067566211</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02671646797454715</v>
+        <v>0.0265182813773351</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2167024977416726</v>
+        <v>0.1108648632612624</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06260045382035223</v>
+        <v>0.0615206519871673</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2162582049021024</v>
+        <v>0.109593003534561</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09828129300819988</v>
+        <v>0.09679841446452669</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2161890004099574</v>
+        <v>0.108664807009509</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02569326002342275</v>
+        <v>0.009933782066977592</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2171069999425516</v>
+        <v>0.05993573822815709</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02696877315529606</v>
+        <v>0.02649850744121757</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2183441833306246</v>
+        <v>0.1117047485889992</v>
       </c>
       <c r="L198" t="n">
-        <v>0.0628214602606432</v>
+        <v>0.06127622734063168</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2178965246362092</v>
+        <v>0.110423253561338</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09857114918340831</v>
+        <v>0.0963304492827407</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2178267958676086</v>
+        <v>0.1094880252444296</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02374048966847896</v>
+        <v>0.009780709175061457</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2187393834007663</v>
+        <v>0.05993546969969307</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02691932291021741</v>
+        <v>0.02637935538426062</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2199858689195767</v>
+        <v>0.1125446339167361</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06273838782751764</v>
+        <v>0.06153317924589177</v>
       </c>
       <c r="M199" t="n">
-        <v>0.219534844370316</v>
+        <v>0.111253503588115</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09885460134375101</v>
+        <v>0.09646456608644405</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2194645913252599</v>
+        <v>0.1103112434793501</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02378603596934692</v>
+        <v>0.009633163924317269</v>
       </c>
       <c r="G200" t="n">
-        <v>0.220371766858981</v>
+        <v>0.05993520117122905</v>
       </c>
       <c r="J200" t="n">
-        <v>0.026968093160331</v>
+        <v>0.02626080277462364</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2216275545085288</v>
+        <v>0.1133845192444729</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06285118078967769</v>
+        <v>0.06119145724069203</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2211731641044229</v>
+        <v>0.112083753614892</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09903156204181818</v>
+        <v>0.09590068761652631</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2211023867829111</v>
+        <v>0.1111344617142706</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02482987638959953</v>
+        <v>0.009491711823943615</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2220041503171956</v>
+        <v>0.05993493264276503</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02701505982665658</v>
+        <v>0.02644282718046612</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2232692400974809</v>
+        <v>0.1142244045722097</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06265978341582548</v>
+        <v>0.06145101086277699</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2228114838385297</v>
+        <v>0.1129140036416689</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09890194383019979</v>
+        <v>0.09623873661387716</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2227401822405622</v>
+        <v>0.1119576799491911</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02587198839280963</v>
+        <v>0.009356918383119674</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2236365337754103</v>
+        <v>0.05993466411430102</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02706019883021399</v>
+        <v>0.0263254061699474</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2249109256864329</v>
+        <v>0.1150642898999466</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06286413997466317</v>
+        <v>0.06101178964989101</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2244498035726366</v>
+        <v>0.1137442536684459</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09916565926148624</v>
+        <v>0.09637863581938616</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2243779776982134</v>
+        <v>0.1127808981841116</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02491234944255015</v>
+        <v>0.009229349111031161</v>
       </c>
       <c r="G203" t="n">
-        <v>0.225268917233625</v>
+        <v>0.059934395585837</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02700348609202295</v>
+        <v>0.02630851731122694</v>
       </c>
       <c r="K203" t="n">
-        <v>0.226552611275385</v>
+        <v>0.1159041752276834</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06336419473489291</v>
+        <v>0.06097374313977863</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2260881233067434</v>
+        <v>0.1145745036952229</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09882262088826754</v>
+        <v>0.0959203079739428</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2260157731558646</v>
+        <v>0.1136041164190322</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02495093700239395</v>
+        <v>0.00910956951685879</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2269013006918397</v>
+        <v>0.05993412705737298</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02704489753310334</v>
+        <v>0.02639213817246415</v>
       </c>
       <c r="K204" t="n">
-        <v>0.228194296864337</v>
+        <v>0.1167440605554202</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06295989196521681</v>
+        <v>0.06123682087018431</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2277264430408502</v>
+        <v>0.1154047537219999</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09897274126313399</v>
+        <v>0.09546367581843684</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2276535686135158</v>
+        <v>0.1144273346539527</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02598772853591388</v>
+        <v>0.00899814510979869</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2285336841500543</v>
+        <v>0.05993385852890896</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02728440907447485</v>
+        <v>0.02617624632181842</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2298359824532891</v>
+        <v>0.1175839458831571</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06345117593433711</v>
+        <v>0.06100097237885249</v>
       </c>
       <c r="M205" t="n">
-        <v>0.229364762774957</v>
+        <v>0.1162350037487768</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09981593293867569</v>
+        <v>0.09570866209375789</v>
       </c>
       <c r="O205" t="n">
-        <v>0.229291364071167</v>
+        <v>0.1152505528888732</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02402270150668288</v>
+        <v>0.008895641399031214</v>
       </c>
       <c r="G206" t="n">
-        <v>0.230166067608269</v>
+        <v>0.05993359000044494</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02732199663715731</v>
+        <v>0.02636081932744919</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2314776680422412</v>
+        <v>0.1184238312108939</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06303799091095583</v>
+        <v>0.06096614720352772</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2310030825090639</v>
+        <v>0.1170652537755538</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09995210846748287</v>
+        <v>0.09585518954079542</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2309291595288182</v>
+        <v>0.1160737711237937</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02505583337827379</v>
+        <v>0.008802623893742097</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2317984510664837</v>
+        <v>0.05993332147198093</v>
       </c>
       <c r="J207" t="n">
-        <v>0.0271576361421705</v>
+        <v>0.02614583475751585</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2331193536311933</v>
+        <v>0.1192637165386307</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06372028116377518</v>
+        <v>0.06093229488195434</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2326414022431707</v>
+        <v>0.1178955038023308</v>
       </c>
       <c r="N207" t="n">
-        <v>0.0995811804021457</v>
+        <v>0.09530318090043921</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2325669549864694</v>
+        <v>0.1168969893587142</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02408710161425949</v>
+        <v>0.008719658103113655</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2334308345246984</v>
+        <v>0.0599330529435169</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02739130351053422</v>
+        <v>0.02613127018017786</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2347610392201453</v>
+        <v>0.1201036018663676</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06339799096149731</v>
+        <v>0.06079936495187693</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2342797219772775</v>
+        <v>0.1187257538291078</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09950306129525432</v>
+        <v>0.09615255891357871</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2342047504441206</v>
+        <v>0.1177202075936348</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02511648367821287</v>
+        <v>0.008647309536338861</v>
       </c>
       <c r="G209" t="n">
-        <v>0.235063217982913</v>
+        <v>0.05993278441505289</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02722297466326822</v>
+        <v>0.0261171031635946</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2364027248090974</v>
+        <v>0.1209434871941044</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06327106457282439</v>
+        <v>0.06116730695103989</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2359180417113844</v>
+        <v>0.1195560038558847</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1001176636993991</v>
+        <v>0.09600324632110363</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2358425459017718</v>
+        <v>0.1185434258285553</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02414395703370679</v>
+        <v>0.008586143702599622</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2366956014411278</v>
+        <v>0.05993251588658888</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02725262552139232</v>
+        <v>0.02610331127592549</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2380444103980494</v>
+        <v>0.1217833725218412</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06353944626645849</v>
+        <v>0.06113607041718774</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2375563614454912</v>
+        <v>0.1203862538826617</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09982490016716988</v>
+        <v>0.09605516586390356</v>
       </c>
       <c r="O210" t="n">
-        <v>0.237480341359423</v>
+        <v>0.1193666440634758</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02516949914431418</v>
+        <v>0.008536726111081624</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2383279848993424</v>
+        <v>0.05993224735812486</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02738023200592629</v>
+        <v>0.02618987208532998</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2396860959870015</v>
+        <v>0.1226232578495781</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06340308031110184</v>
+        <v>0.06080560488806486</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2391946811795981</v>
+        <v>0.1212165039094387</v>
       </c>
       <c r="N211" t="n">
-        <v>0.09992468325115705</v>
+        <v>0.09550824028286808</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2391181368170742</v>
+        <v>0.1201898622983964</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02619308747360789</v>
+        <v>0.008499622270969273</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2399603683575571</v>
+        <v>0.05993197882966084</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02730577003788992</v>
+        <v>0.02607676315996743</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2413277815759536</v>
+        <v>0.1234631431773149</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06366191097545651</v>
+        <v>0.06117585990141586</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2408330009137049</v>
+        <v>0.1220467539362157</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1003169255039508</v>
+        <v>0.09566239231888679</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2407559322747254</v>
+        <v>0.1210130805333169</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02421469948516079</v>
+        <v>0.008475397691451551</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2415927518157718</v>
+        <v>0.05993171030119682</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02732921553830299</v>
+        <v>0.02626396206799729</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2429694671649056</v>
+        <v>0.1243030285050518</v>
       </c>
       <c r="L213" t="n">
-        <v>0.0636158825282247</v>
+        <v>0.06094678499498504</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2424713206478117</v>
+        <v>0.1228770039629927</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1002015394781414</v>
+        <v>0.09501754471284934</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2423937277323765</v>
+        <v>0.1218362987682374</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02523431264254579</v>
+        <v>0.008464617881712266</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2432251352739864</v>
+        <v>0.05993144177273281</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02735054442818531</v>
+        <v>0.02615144637757896</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2446111527538577</v>
+        <v>0.1251429138327886</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06376493923810853</v>
+        <v>0.060918329706517</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2441096403819186</v>
+        <v>0.1237072539897696</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1006784377263188</v>
+        <v>0.0955736202056453</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2440315231900278</v>
+        <v>0.1226595170031579</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02425190440933571</v>
+        <v>0.008464617881712259</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2448575187322011</v>
+        <v>0.05993144177273281</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02756973262855664</v>
+        <v>0.02623919365687187</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2462528383428098</v>
+        <v>0.1259827991605254</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06360902537381016</v>
+        <v>0.06099044357375619</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2457479601160254</v>
+        <v>0.1245375040165466</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1007475328010733</v>
+        <v>0.09583054153816428</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2456693186476789</v>
+        <v>0.1234827352380784</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02626745224910351</v>
+        <v>0.008195582351253825</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2464899021904158</v>
+        <v>0.05989920951000315</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02758675606043677</v>
+        <v>0.02612718147403544</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2478945239317618</v>
+        <v>0.1268226844882623</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06424808520403175</v>
+        <v>0.06086307613444703</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2473862798501323</v>
+        <v>0.1253677540433236</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1008087372549952</v>
+        <v>0.09548823145129598</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2473071141053301</v>
+        <v>0.124305953472999</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02628093362542203</v>
+        <v>0.007929630002155602</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2481222856486304</v>
+        <v>0.0598669772472735</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02750159064484547</v>
+        <v>0.02621538739722905</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2495362095207139</v>
+        <v>0.1276625698159991</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06428206299747535</v>
+        <v>0.060836176926334</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2490245995842391</v>
+        <v>0.1261980040701006</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1007619636406745</v>
+        <v>0.09574661268592993</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2489449095629813</v>
+        <v>0.1251291717079195</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02529232600186414</v>
+        <v>0.007667467604803739</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2497546691068451</v>
+        <v>0.05983474498454384</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02761421230280256</v>
+        <v>0.02610378899461216</v>
       </c>
       <c r="K218" t="n">
-        <v>0.251177895109666</v>
+        <v>0.1285024551437359</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06431090302284323</v>
+        <v>0.0609096954871616</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2506629193183459</v>
+        <v>0.1270282540968775</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1003071245107014</v>
+        <v>0.09510560798295564</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2505827050206325</v>
+        <v>0.12595238994284</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02530160684200274</v>
+        <v>0.007409801929584396</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2513870525650598</v>
+        <v>0.05980251272181419</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02742459695532781</v>
+        <v>0.02609236383434414</v>
       </c>
       <c r="K219" t="n">
-        <v>0.252819580698618</v>
+        <v>0.1293423404714728</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06423454954883753</v>
+        <v>0.06038358135467428</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2523012390524528</v>
+        <v>0.1278585041236545</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1008441324176661</v>
+        <v>0.09516514008326282</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2522205004782837</v>
+        <v>0.1267756081777605</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02530875360941069</v>
+        <v>0.007157339746883734</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2530194360232745</v>
+        <v>0.05977028045908454</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02763272052344101</v>
+        <v>0.02618108948458445</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2544612662875701</v>
+        <v>0.1301822257992096</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06405294684416032</v>
+        <v>0.06095778406661645</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2539395587865596</v>
+        <v>0.1286887541504315</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1008728999141588</v>
+        <v>0.09542513172774109</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2538582959359349</v>
+        <v>0.1275988264126811</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02631374376766091</v>
+        <v>0.0069107878270879</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2546518194814891</v>
+        <v>0.05973804819635489</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02753855892816194</v>
+        <v>0.02606994351349248</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2561029518765222</v>
+        <v>0.1310221111269465</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06416603917751376</v>
+        <v>0.06063225316073267</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2555778785206664</v>
+        <v>0.1295190041772085</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1001933395527698</v>
+        <v>0.09528550565728006</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2554960913935861</v>
+        <v>0.1284220446476016</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02431655478032622</v>
+        <v>0.006670852940583068</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2562842029397038</v>
+        <v>0.05970581593362523</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02754208809051037</v>
+        <v>0.02605890348922765</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2577446374654742</v>
+        <v>0.1318619964546833</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06377377081760005</v>
+        <v>0.06080693817476734</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2572161982547733</v>
+        <v>0.1303492542039855</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1010053638860891</v>
+        <v>0.09564618461276925</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2571338868512373</v>
+        <v>0.1292452628825221</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02531546193363583</v>
+        <v>0.006438241857755392</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2579165863979185</v>
+        <v>0.05967358367089557</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02744328393150612</v>
+        <v>0.02604794697994939</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2593863230544263</v>
+        <v>0.1327018817824201</v>
       </c>
       <c r="L223" t="n">
-        <v>0.0639756129599916</v>
+        <v>0.06048178864646497</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2588545179888801</v>
+        <v>0.1311795042307624</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1002078612067476</v>
+        <v>0.09560709133509843</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2587716823088885</v>
+        <v>0.1300684811174426</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02526671337855869</v>
+        <v>0.006213661348991019</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2595489698561332</v>
+        <v>0.05964135140816592</v>
       </c>
       <c r="J224" t="n">
-        <v>0.0274078651077533</v>
+        <v>0.02603705155381709</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2610280086433783</v>
+        <v>0.1335417671101569</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06407967616923599</v>
+        <v>0.06075675411357004</v>
       </c>
       <c r="M224" t="n">
-        <v>0.260492837722987</v>
+        <v>0.1320097542575394</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1007539152864509</v>
+        <v>0.09456814856515705</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2604094777665397</v>
+        <v>0.1308916993523631</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02415634386043801</v>
+        <v>0.005997818184676124</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2611813533143478</v>
+        <v>0.05960911914543626</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02750528218316463</v>
+        <v>0.02592619477899018</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2626696942323304</v>
+        <v>0.1343816524378938</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06382938831221543</v>
+        <v>0.06053178411382698</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2621311574570938</v>
+        <v>0.1328400042843164</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1001580502216752</v>
+        <v>0.0949292790438348</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2620472732241909</v>
+        <v>0.1317149175872837</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02399137896129366</v>
+        <v>0.005791419135196853</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2628137367725625</v>
+        <v>0.05957688688270661</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02724303871101917</v>
+        <v>0.02611535422362807</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2643113798212825</v>
+        <v>0.1352215377656306</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06314212325223448</v>
+        <v>0.06060682818498025</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2637694771912006</v>
+        <v>0.1336702543110934</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09894752716374888</v>
+        <v>0.09519040551202118</v>
       </c>
       <c r="O226" t="n">
-        <v>0.263685068681842</v>
+        <v>0.1325381358222042</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02577884426314553</v>
+        <v>0.005595170970939367</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2644461202307772</v>
+        <v>0.05954465461997695</v>
       </c>
       <c r="J227" t="n">
-        <v>0.0270286411540562</v>
+        <v>0.02600450745589018</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2659530654102346</v>
+        <v>0.1360614230933675</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06283525485259758</v>
+        <v>0.06018183586477438</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2654077969253075</v>
+        <v>0.1345005043378703</v>
       </c>
       <c r="N227" t="n">
-        <v>0.09814960726400007</v>
+        <v>0.09535145071060597</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2653228641394932</v>
+        <v>0.1333613540571247</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02352576534801347</v>
+        <v>0.00540978046228982</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2660785036889919</v>
+        <v>0.0595124223572473</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02686959597501505</v>
+        <v>0.02609363204393594</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2675947509991866</v>
+        <v>0.1369013084211043</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06242615697660928</v>
+        <v>0.06035675669095378</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2670461166594143</v>
+        <v>0.1353307543646473</v>
       </c>
       <c r="N228" t="n">
-        <v>0.0980915516737571</v>
+        <v>0.09481233738047867</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2669606595971444</v>
+        <v>0.1341845722920453</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02523916779791739</v>
+        <v>0.00523595437963438</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2677108871472065</v>
+        <v>0.05948019009451765</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02657340963663499</v>
+        <v>0.02608270555592475</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2692364365881387</v>
+        <v>0.1377411937488411</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06163220348757401</v>
+        <v>0.06053154020126292</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2686844363935211</v>
+        <v>0.1361610043914243</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09650062154434824</v>
+        <v>0.09497298826252887</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2685984550547957</v>
+        <v>0.1350077905269658</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02492607719487715</v>
+        <v>0.005074399493359187</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2693432706054212</v>
+        <v>0.059447957831788</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02604758860165533</v>
+        <v>0.02597170556001602</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2708781221770907</v>
+        <v>0.138581079076578</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06077076824879638</v>
+        <v>0.06010613593344633</v>
       </c>
       <c r="M230" t="n">
-        <v>0.270322756127628</v>
+        <v>0.1369912544182013</v>
       </c>
       <c r="N230" t="n">
-        <v>0.09490407802710188</v>
+        <v>0.09493332609764621</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2702362505124468</v>
+        <v>0.1358310087618863</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02459351912091266</v>
+        <v>0.004925822573850429</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2709756540636359</v>
+        <v>0.05941572556905834</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02569963933281538</v>
+        <v>0.02606060962436915</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2725198077660428</v>
+        <v>0.1394209644043148</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05975922512358084</v>
+        <v>0.06028049342524838</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2719610758617348</v>
+        <v>0.1378215044449782</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09362918227334621</v>
+        <v>0.09519327362672036</v>
       </c>
       <c r="O231" t="n">
-        <v>0.271874045970098</v>
+        <v>0.1366542269968068</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02324851915804375</v>
+        <v>0.004790930391494232</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2726080375218506</v>
+        <v>0.05938349330632869</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02533706829285444</v>
+        <v>0.02584939534013254</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2741614933549949</v>
+        <v>0.1402608497320517</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05901494797523191</v>
+        <v>0.06065460265924172</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2735993955958416</v>
+        <v>0.1386517544717552</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09290319543440956</v>
+        <v>0.0944529395125227</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2735118414277492</v>
+        <v>0.1374774452317273</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02189810288829035</v>
+        <v>0.004670429716676763</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2742404209800652</v>
+        <v>0.05935126104359903</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02496738194451183</v>
+        <v>0.025838165813191</v>
       </c>
       <c r="K233" t="n">
-        <v>0.275803178943947</v>
+        <v>0.1411007350597885</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05845531066705414</v>
+        <v>0.06032883184656593</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2752377153299485</v>
+        <v>0.1394820044985322</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09195337866162023</v>
+        <v>0.09511289900942582</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2751496368854005</v>
+        <v>0.1383006634666478</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.0225492958936723</v>
+        <v>0.004565027319784198</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2758728044382799</v>
+        <v>0.05931902878086938</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02459808675052683</v>
+        <v>0.02602703387794662</v>
       </c>
       <c r="K234" t="n">
-        <v>0.277444864532899</v>
+        <v>0.1419406203875253</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05719768706235195</v>
+        <v>0.06010328469767615</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2768760350640553</v>
+        <v>0.1403122545253092</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09040699310630662</v>
+        <v>0.09447320564216705</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2767874323430516</v>
+        <v>0.1391238817015684</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.0222091237562095</v>
+        <v>0.00447542997120267</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2775051878964946</v>
+        <v>0.05928679651813972</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02433668917363875</v>
+        <v>0.02591600148105751</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2790865501218511</v>
+        <v>0.1427805057152622</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05625945102442992</v>
+        <v>0.0604779655917384</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2785143547981621</v>
+        <v>0.1411425045520862</v>
       </c>
       <c r="N235" t="n">
-        <v>0.08919129991979685</v>
+        <v>0.09463386611537089</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2784252278007028</v>
+        <v>0.1399470999364889</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02288461205792182</v>
+        <v>0.004402344441318359</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2791375713547093</v>
+        <v>0.05925456425541007</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02389069567658689</v>
+        <v>0.02590507056918166</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2807282357108031</v>
+        <v>0.143620391042999</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05585797641659249</v>
+        <v>0.06025287890791878</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2801526745322689</v>
+        <v>0.1419727545788632</v>
       </c>
       <c r="N236" t="n">
-        <v>0.08763356025341923</v>
+        <v>0.0948948871336619</v>
       </c>
       <c r="O236" t="n">
-        <v>0.280063023258354</v>
+        <v>0.1407703181714094</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02158278638082915</v>
+        <v>0.004346477500517407</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2807699548129239</v>
+        <v>0.05922233199268041</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02366761272211056</v>
+        <v>0.02579424308897708</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2823699212997552</v>
+        <v>0.1444602763707358</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05521063710214422</v>
+        <v>0.06022802902538332</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2817909942663758</v>
+        <v>0.1428030046056401</v>
       </c>
       <c r="N237" t="n">
-        <v>0.08646103525850218</v>
+        <v>0.09475627540166454</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2817008187160052</v>
+        <v>0.14159353640633</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02130498192450497</v>
+        <v>0.004308535919185973</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2824023382711386</v>
+        <v>0.05919009972995076</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02347170770444318</v>
+        <v>0.02588352098710188</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2840116068887073</v>
+        <v>0.1453001616984727</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05432518715864762</v>
+        <v>0.0599034203232981</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2834293140004826</v>
+        <v>0.1436332546324171</v>
       </c>
       <c r="N238" t="n">
-        <v>0.08518533248705995</v>
+        <v>0.09481803762400332</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2833386141736564</v>
+        <v>0.1424167546412505</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02002918124805032</v>
+        <v>0.004289226467710218</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2840347217293533</v>
+        <v>0.0591578674672211</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02298051862795054</v>
+        <v>0.025972906210214</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2856532924776594</v>
+        <v>0.1461400470262095</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0534483179747304</v>
+        <v>0.05987905718082914</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2850676337345895</v>
+        <v>0.1444635046591941</v>
       </c>
       <c r="N239" t="n">
-        <v>0.08412255112692235</v>
+        <v>0.09498018050530266</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2849764096313075</v>
+        <v>0.143239972876171</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02175233257592477</v>
+        <v>0.004286785718686792</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2856671051875679</v>
+        <v>0.05912563520449144</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02288821868719904</v>
+        <v>0.02596240070497154</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2872949780666114</v>
+        <v>0.1469799323539464</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05276887027625649</v>
+        <v>0.06035494397714256</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2867059534686963</v>
+        <v>0.1452937546859711</v>
       </c>
       <c r="N240" t="n">
-        <v>0.08355572203396461</v>
+        <v>0.09414271075018704</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2866142050889587</v>
+        <v>0.1440631911110915</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02047441926426401</v>
+        <v>0.004286943337782005</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2872994886457826</v>
+        <v>0.05909340294176178</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02249479009910005</v>
+        <v>0.02585200641803248</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2889366636555635</v>
+        <v>0.1478198176816832</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05238680290389935</v>
+        <v>0.05983108509140439</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2883442732028031</v>
+        <v>0.146124004712748</v>
       </c>
       <c r="N241" t="n">
-        <v>0.08208478062550817</v>
+        <v>0.09420563506328111</v>
       </c>
       <c r="O241" t="n">
-        <v>0.28825200054661</v>
+        <v>0.144886409346012</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.0211954246692037</v>
+        <v>0.004287537440525527</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2889318721039973</v>
+        <v>0.05906117067903213</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02220021508056501</v>
+        <v>0.02594172529605492</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2905783492445155</v>
+        <v>0.14865970300942</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05130207469833253</v>
+        <v>0.06040748490278064</v>
       </c>
       <c r="M242" t="n">
-        <v>0.28998259293691</v>
+        <v>0.146954254739525</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08070966231887489</v>
+        <v>0.09436896014920915</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2898897960042611</v>
+        <v>0.1457096275809326</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0189153321468795</v>
+        <v>0.004288859016016194</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2905642555622119</v>
+        <v>0.05902893841630247</v>
       </c>
       <c r="J243" t="n">
-        <v>0.0218044758485053</v>
+        <v>0.02593155928569679</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2922200348334676</v>
+        <v>0.1494995883371568</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05061464450022959</v>
+        <v>0.06028414779043753</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2916209126710168</v>
+        <v>0.147784504766302</v>
       </c>
       <c r="N243" t="n">
-        <v>0.07973030253138608</v>
+        <v>0.09413269271259583</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2915275914619123</v>
+        <v>0.1465328458158531</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01863412505342704</v>
+        <v>0.00429119905335288</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2921966390204266</v>
+        <v>0.05899670615357282</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02150755461983235</v>
+        <v>0.02592151033361621</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2938617204224196</v>
+        <v>0.1503394736648937</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05052447115026407</v>
+        <v>0.06026107813354098</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2932592324051237</v>
+        <v>0.148614754793079</v>
       </c>
       <c r="N244" t="n">
-        <v>0.0787466366803633</v>
+        <v>0.09389683945806548</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2931653869195636</v>
+        <v>0.1473560640507736</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02035178674498206</v>
+        <v>0.004294848541634456</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2938290224786413</v>
+        <v>0.05896447389084317</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02130943361145758</v>
+        <v>0.02591158038647116</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2955034060113717</v>
+        <v>0.1511793589926305</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04973151348910954</v>
+        <v>0.06033828031125704</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2948975521392305</v>
+        <v>0.1494450048198559</v>
       </c>
       <c r="N245" t="n">
-        <v>0.07775860018312819</v>
+        <v>0.09416140709024273</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2948031823772148</v>
+        <v>0.1481792822856941</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01906830057768014</v>
+        <v>0.004300098469959775</v>
       </c>
       <c r="G246" t="n">
-        <v>0.295461405936856</v>
+        <v>0.05893224162811352</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02101009504029235</v>
+        <v>0.0257017713909197</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2971450916003238</v>
+        <v>0.1520192443203674</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04873573035743953</v>
+        <v>0.06031575870275191</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2965358718733374</v>
+        <v>0.1502752548466329</v>
       </c>
       <c r="N246" t="n">
-        <v>0.07716612845700244</v>
+        <v>0.09392640231375199</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2964409778348659</v>
+        <v>0.1490025005206147</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01978364990765699</v>
+        <v>0.004307239827427707</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2970937893950706</v>
+        <v>0.05890000936538386</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02060952112324807</v>
+        <v>0.02579208529361986</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2987867771892758</v>
+        <v>0.1528591296481042</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04783708059592759</v>
+        <v>0.05999351768719152</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2981741916074442</v>
+        <v>0.1511055048734099</v>
       </c>
       <c r="N247" t="n">
-        <v>0.07526915691930741</v>
+        <v>0.09469183183321778</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2980787732925171</v>
+        <v>0.1498257187555352</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01849781809104824</v>
+        <v>0.004316563603137105</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2987261728532853</v>
+        <v>0.05886777710265421</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02040769407723618</v>
+        <v>0.02568252404122966</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3004284627782279</v>
+        <v>0.153699014975841</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04773552304524728</v>
+        <v>0.05967156164374202</v>
       </c>
       <c r="M248" t="n">
-        <v>0.299812511341551</v>
+        <v>0.1519357549001869</v>
       </c>
       <c r="N248" t="n">
-        <v>0.07496762098736476</v>
+        <v>0.09415770235326454</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2997165687501683</v>
+        <v>0.1506489369904557</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01921078848398959</v>
+        <v>0.004328360786186841</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3003585563115</v>
+        <v>0.05883554483992455</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02010459611916805</v>
+        <v>0.02577308958040711</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3020701483671799</v>
+        <v>0.1545389003035779</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04653101654607208</v>
+        <v>0.0600498949515694</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3014508310756578</v>
+        <v>0.1527660049269638</v>
       </c>
       <c r="N249" t="n">
-        <v>0.07296145607849597</v>
+        <v>0.09362402057851688</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3013543642078195</v>
+        <v>0.1514721552253762</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01692254444261666</v>
+        <v>0.004342922365675773</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3019909397697147</v>
+        <v>0.0588033125771949</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01970020946595509</v>
+        <v>0.0258637838578103</v>
       </c>
       <c r="K250" t="n">
-        <v>0.303711833956132</v>
+        <v>0.1553787856313147</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04622351993907567</v>
+        <v>0.05982852198983973</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3030891508097647</v>
+        <v>0.1535962549537408</v>
       </c>
       <c r="N250" t="n">
-        <v>0.07265059761002274</v>
+        <v>0.09369079321359913</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3029921596654707</v>
+        <v>0.1522953734602968</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01863306932306515</v>
+        <v>0.004360539330702781</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3036233232279293</v>
+        <v>0.05877108031446524</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01959451633450875</v>
+        <v>0.02565460882009719</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3053535195450841</v>
+        <v>0.1562186709590515</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04541299206493146</v>
+        <v>0.0599074471377192</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3047274705438715</v>
+        <v>0.1544265049805178</v>
       </c>
       <c r="N251" t="n">
-        <v>0.07093498099926671</v>
+        <v>0.09415802696313585</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3046299551231219</v>
+        <v>0.1531185916952173</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.0183423464814707</v>
+        <v>0.004381502670366702</v>
       </c>
       <c r="G252" t="n">
-        <v>0.305255706686144</v>
+        <v>0.05873884805173559</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01928749894174037</v>
+        <v>0.02574556641392586</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3069952051340362</v>
+        <v>0.1570585562867884</v>
       </c>
       <c r="L252" t="n">
-        <v>0.0445993917643131</v>
+        <v>0.05978667477437369</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3063657902779783</v>
+        <v>0.1552567550072948</v>
       </c>
       <c r="N252" t="n">
-        <v>0.07021454166354901</v>
+        <v>0.09442572853175163</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3062677505807731</v>
+        <v>0.1539418099301378</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01805035927396899</v>
+        <v>0.004406103373766415</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3068880901443587</v>
+        <v>0.05870661578900593</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01887913950456137</v>
+        <v>0.02563665858595433</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3086368907229882</v>
+        <v>0.1578984416145252</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04388267787789407</v>
+        <v>0.06006620927896938</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3080041100120852</v>
+        <v>0.1560870050340718</v>
       </c>
       <c r="N253" t="n">
-        <v>0.06838921502019174</v>
+        <v>0.09359390462407075</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3079055460384243</v>
+        <v>0.1547650281650583</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01675709105669566</v>
+        <v>0.004434632430000765</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3085204736025734</v>
+        <v>0.05867438352627628</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01856942023988319</v>
+        <v>0.02582788728284066</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3102785763119403</v>
+        <v>0.158738326942262</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04316280924634797</v>
+        <v>0.06014605503067225</v>
       </c>
       <c r="M254" t="n">
-        <v>0.309642429746192</v>
+        <v>0.1569172550608487</v>
       </c>
       <c r="N254" t="n">
-        <v>0.06795893648651607</v>
+        <v>0.09386256194471787</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3095433414960754</v>
+        <v>0.1555882463999788</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01746252518578637</v>
+        <v>0.004467380828168638</v>
       </c>
       <c r="G255" t="n">
-        <v>0.310152857060788</v>
+        <v>0.05864215126354663</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01835832336461721</v>
+        <v>0.02581925445124281</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3119202619008923</v>
+        <v>0.1595782122699989</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04213974471034829</v>
+        <v>0.05972621640864845</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3112807494802989</v>
+        <v>0.1577475050876257</v>
       </c>
       <c r="N255" t="n">
-        <v>0.06692364147984381</v>
+        <v>0.09413170719831737</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3111811369537266</v>
+        <v>0.1564114646348994</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0171666450173768</v>
+        <v>0.004504639557368892</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3117852405190027</v>
+        <v>0.05860991900081697</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01794583109567481</v>
+        <v>0.02561076203781887</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3135619474898445</v>
+        <v>0.1604180975977357</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04201344311056868</v>
+        <v>0.059706697792064</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3129190692144057</v>
+        <v>0.1585777551144027</v>
       </c>
       <c r="N256" t="n">
-        <v>0.06528326541749641</v>
+        <v>0.09360134708949386</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3128189324113779</v>
+        <v>0.1572346828698199</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.0158694339076026</v>
+        <v>0.004546699606700379</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3134176239772174</v>
+        <v>0.05857768673808732</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01763192564996745</v>
+        <v>0.02560241198922683</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3152036330787965</v>
+        <v>0.1612579829254726</v>
       </c>
       <c r="L257" t="n">
-        <v>0.0412838632876826</v>
+        <v>0.06008750356008494</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3145573889485125</v>
+        <v>0.1594080051411797</v>
       </c>
       <c r="N257" t="n">
-        <v>0.06403774371679538</v>
+        <v>0.0937714883228718</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3144567278690291</v>
+        <v>0.1580579011047404</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01557087521259944</v>
+        <v>0.004593851965261971</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3150500074354321</v>
+        <v>0.05854545447535766</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01721658924440649</v>
+        <v>0.02569420625212476</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3168453186677486</v>
+        <v>0.1620978682532094</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04055096408236361</v>
+        <v>0.05986863809187737</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3161957086826194</v>
+        <v>0.1602382551679566</v>
       </c>
       <c r="N258" t="n">
-        <v>0.06318701179506253</v>
+        <v>0.09384213760307553</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3160945233266802</v>
+        <v>0.1588811193396609</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01627095228850298</v>
+        <v>0.004646387622152526</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3166823908936467</v>
+        <v>0.05851322221262801</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01699980409590336</v>
+        <v>0.02558614677317068</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3184870042567006</v>
+        <v>0.1629377535809462</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03951470433528528</v>
+        <v>0.06005010576660735</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3178340284167262</v>
+        <v>0.1610685051947336</v>
       </c>
       <c r="N259" t="n">
-        <v>0.06193100506961918</v>
+        <v>0.09401330163472971</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3177323187843314</v>
+        <v>0.1597043375745815</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01496964849144886</v>
+        <v>0.004704597566470917</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3183147743518615</v>
+        <v>0.05848098994989835</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01668155242136947</v>
+        <v>0.02557823549902262</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3201286898456527</v>
+        <v>0.1637776389086831</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03867504288712112</v>
+        <v>0.05943191096344091</v>
       </c>
       <c r="M260" t="n">
-        <v>0.319472348150833</v>
+        <v>0.1618987552215106</v>
       </c>
       <c r="N260" t="n">
-        <v>0.06046965895778689</v>
+        <v>0.09428498712245881</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3193701142419826</v>
+        <v>0.160527555809502</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01566694717757279</v>
+        <v>0.004768772787315995</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3199471578100761</v>
+        <v>0.0584487576871687</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0163618164377162</v>
+        <v>0.0257704743763386</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3217703754346047</v>
+        <v>0.1646175242364199</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03833193857854472</v>
+        <v>0.05991405806154415</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3211106678849399</v>
+        <v>0.1627290052482876</v>
       </c>
       <c r="N261" t="n">
-        <v>0.05960290887688741</v>
+        <v>0.09325720077088723</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3210079096996338</v>
+        <v>0.1613507740444225</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01336283170301038</v>
+        <v>0.004839204273786625</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3215795412682908</v>
+        <v>0.05841652542443904</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01604057836185493</v>
+        <v>0.02576286535177667</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3234120610235569</v>
+        <v>0.1654574095641567</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03748535025022964</v>
+        <v>0.05939655144008307</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3227489876190467</v>
+        <v>0.1635592552750645</v>
       </c>
       <c r="N262" t="n">
-        <v>0.05853069024424223</v>
+        <v>0.09402994928463959</v>
       </c>
       <c r="O262" t="n">
-        <v>0.322645705157285</v>
+        <v>0.162173992279343</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01405728542389734</v>
+        <v>0.004916183014981673</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3232119247265055</v>
+        <v>0.05838429316170939</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01561782041069715</v>
+        <v>0.02565541037199484</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3250537466125089</v>
+        <v>0.1662972948918936</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03683523674284939</v>
+        <v>0.05947939547822384</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3243873073531535</v>
+        <v>0.1643895053018415</v>
       </c>
       <c r="N263" t="n">
-        <v>0.05755293847717274</v>
+        <v>0.0936032393683402</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3242835006149362</v>
+        <v>0.1629972105142636</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01375029169636929</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3248443081847202</v>
+        <v>0.05835206089897974</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01549352480115421</v>
+        <v>0.02554811138365114</v>
       </c>
       <c r="K264" t="n">
-        <v>0.326695432201461</v>
+        <v>0.1671371802196304</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03568155689707753</v>
+        <v>0.05936259455513243</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3260256270872604</v>
+        <v>0.1652197553286185</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05626958899300077</v>
+        <v>0.09377707772661364</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3259212960725874</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1638204287491841</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05833890300424289</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005318905637246969</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.0583391715327069</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005634856568011451</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05833944006117092</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005947773090432068</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05833970858963494</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006257575502606652</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05833997711809896</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.00656418410267396</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05834024564656298</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006867519188759073</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05834051417502699</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007167501059000027</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05834078270349102</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007464050011495797</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05834105123195503</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007757086344384573</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05834131976041904</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.008046530355791441</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05834158828888306</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008332302343853827</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05834185681734708</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008614322606671922</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.0583421253458111</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008892511442383316</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05834239387427511</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.009166789149113078</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05834266240273913</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009437076024997972</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05834293093120315</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009703292368139528</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05834319945966717</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009965358476674673</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05834346798813118</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01022319464872848</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.0583437365165952</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01047672118243696</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05834400504505922</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01072585837590311</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05834427357352324</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01097052652726314</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05834454210198725</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01121064593464213</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05834481063045126</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01144613689617528</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05834507915891529</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01167691970996718</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05834534768737931</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01190324012347583</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05834561621584332</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01212697113076205</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05834588474430733</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01234835847928316</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05834615327277136</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01256732246714494</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05834642180123537</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01278378339248216</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05834669032969939</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01299766155341989</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05834695885816341</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01320887724809233</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05834722738662743</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01341735077460617</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05834749591509145</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01362300243109574</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05834776444355546</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01382575251568611</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05834803297201947</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01402552132651098</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.0583483015004835</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01422222916167802</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05834857002894751</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01441579631932107</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05834883855741153</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01460614309756521</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05834910708587554</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01479318979454358</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05834937561433957</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01497685670836495</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05834964414280358</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01515706413716261</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.0583499126712676</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01533373237906166</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05835018119973161</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.0155067817321946</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05835044972819564</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01567613249467144</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05835071825665965</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01584170496462486</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05835098678512367</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01600341944017995</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05835125531358768</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01616119621946853</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05835152384205171</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01631495560060196</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05835179237051572</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01646461788171227</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05835206089897974</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01646461788171227</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05833890300424289</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01661253616486586</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05837167232390059</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01675986698095087</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05840444164355827</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01690613555545644</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05843721096321596</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01705086711387144</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05846998028287365</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01719358688168499</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05850274960253134</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.017333820084386</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05853551892218902</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01747109194746357</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05856828824184672</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.0176049276964066</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.0586010575615044</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01773485255670419</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05863382688116209</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01786039175384525</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05866659620081978</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01798107051331889</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05869936552047748</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01809641406061402</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05873213484013515</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01820594762121971</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05876490415979285</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01830919642062492</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05879767347945054</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.0184056856843187</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05883044279910823</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01849494063778999</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05886321211876591</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01857648650652786</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05889598143842361</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01864984851602126</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05892875075808129</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01871455189175925</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05896152007773899</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01877012185923078</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05899428939739667</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.0188160836439249</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05902705871705436</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01885196247133059</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05905982803671204</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01887728356693685</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05909259735636974</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.0188915721562327</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05912536667602743</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01889581775384647</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05915813599568512</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01889850921014581</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.0591909053153428</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01890109064764601</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.0592236746350005</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01890356166528329</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05925644395465818</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01890592186199392</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05928921327431588</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01890817083671414</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05932198259397356</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01891030818838017</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05935475191363125</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01891233351592828</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05938752123328894</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01891424641829471</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05942029055294663</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01891604649441571</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05945305987260432</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01891773334322751</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05948582919226201</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01891930656366636</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05951859851191969</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01892076575466851</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05955136783157738</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.0189221105151702</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05958413715123507</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01892334044410767</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05961690647089277</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01892445514041718</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05964967579055045</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01892545420303497</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05968244511020814</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01892633723089727</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05971521442986583</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01892710382294034</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05974798374952352</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01892775357810043</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.0597807530691812</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01892828609531376</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.0598135223888389</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01892870097351659</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05984629170849658</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01892899781164518</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05987906102815427</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01892917620863574</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05991183034781196</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01892923576342454</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05994459966746966</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01892923576342454</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05994459966746966</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01930369094252962</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06152694416870726</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01967066092220248</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06310928866994486</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.02002998783108826</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06469163317118246</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.02038151379783207</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06627397767242005</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.02072508095107904</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06785632217365765</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.02106053141947432</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06943866667489526</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.02138770733166299</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07102101117613287</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.0217064508162902</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07260335567737046</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.0220166040020011</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07418570017860805</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.0223180090174408</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07576804467984566</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.0226105079912544</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07735038918108325</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02289394305208708</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07893273368232086</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02316815632858391</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08051507818355845</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02343298994939005</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08209742268479606</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02368828604315065</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08367976718603366</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02393388673851077</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08526211168727126</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02416963416411559</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08684445618850886</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.0243953704486102</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08842680068974645</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.0246109377206398</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.09000914519098406</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02481617810884941</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09159148969222167</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02501093374188422</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09317383419345926</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02519504674838936</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09475617869469685</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02536835925700993</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09633852319593446</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.0255307133963911</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09792086769717206</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02568195129517795</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09950321219840967</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.0258219150820156</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1010855566996472</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02595044688554923</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1026679012008849</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02606738883442393</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1042502457021225</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02617258305728484</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1058325902033601</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02626587168277708</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1074149347045977</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02634709683954577</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1089972792058353</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02641610065623605</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1105796237070728</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02647272526149304</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1121619682083105</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02651681278396187</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1137443127095481</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02654820535228763</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1153266572107857</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02657231435123272</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1169090017120233</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02657229573719576</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1184913462132609</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02656885642642741</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1200736907144985</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02655977572808144</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.121656035215736</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02654548209711909</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1232383797169737</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02652640398850152</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1248207242182113</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02650296985718997</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1264030687194488</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02647560815814563</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1279854132206865</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02644474734632972</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1295677577219241</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02641081587670342</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1311501022231616</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02637424220422795</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1327324467243993</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02633545478386452</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1343147912256369</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02629488207057432</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1358971357268745</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02625295251931857</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1374794802281121</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02621009458505846</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1390618247293497</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.0261664477687699</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1406441692305873</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02610917247365775</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1422265137318248</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02603439577757161</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1438088582330625</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02594657437808186</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1453912027343001</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02585016497275892</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1469735472355377</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02574962425917318</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1485558917367753</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02564940893489501</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02555397569749485</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1517205807392505</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02546778124454306</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1533029252404881</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02539528227361004</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1548852697417257</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02534093548226621</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1564676142429633</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02530030480907657</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1580499587442009</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.0252621570802171</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1596323032454385</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02522624906209694</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1612146477466761</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02519243794477823</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1627969922479137</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02516058091832307</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1643793367491513</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02513053517279362</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1659616812503889</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02510215789825201</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1675440257516265</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02507530628476035</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1691263702528641</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02504983752238081</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1707087147541017</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02502560880117552</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1722910592553393</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02500247731120657</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1738734037565769</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02498030024253614</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1754557482578145</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02495893478522636</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1770380927590521</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02493823812933935</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1786204372602897</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02491806746493724</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1802027817615273</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02489827998208219</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1817851262627649</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02487873287083631</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1833674707640024</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02485928332126175</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1849498152652401</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02483978852342063</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1865321597664777</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02482010566737507</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1881145042677153</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02480009194318725</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1896968487689529</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02478002282873441</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1912791932701905</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02476028910366437</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1928615377714281</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02474090318337559</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1944438822726657</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02472187746106028</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1960262267739033</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02470322432991065</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1976085712751409</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02468495618311896</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1991909157763785</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02466708541387744</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2007732602776161</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02464962441537831</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2023556047788537</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.0246325855808138</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2039379492800913</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02461598130337614</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2055202937813289</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.0245998239762576</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2071026382825665</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02458412599265038</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2086849827838041</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02456889974574669</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2102673272850417</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.0245541576287388</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2118496717862793</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02453991203481894</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2134320162875168</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.0245261753571793</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2150143607887545</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02451295998901219</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2165967052899921</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
